--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="548">
   <si>
     <t>Fecha</t>
   </si>
@@ -1637,6 +1637,24 @@
   </si>
   <si>
     <t>11/6/2020 4:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 5:10:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1997,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L531"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2073,7 +2091,7 @@
         <v>14.33</v>
       </c>
       <c r="L2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2111,7 +2129,7 @@
         <v>12.48</v>
       </c>
       <c r="L3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2149,7 +2167,7 @@
         <v>10.81</v>
       </c>
       <c r="L4" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2187,7 +2205,7 @@
         <v>11.94</v>
       </c>
       <c r="L5" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2225,7 +2243,7 @@
         <v>12.65</v>
       </c>
       <c r="L6" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2263,7 +2281,7 @@
         <v>10.69</v>
       </c>
       <c r="L7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2301,7 +2319,7 @@
         <v>12.83</v>
       </c>
       <c r="L8" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2339,7 +2357,7 @@
         <v>14.07</v>
       </c>
       <c r="L9" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2377,7 +2395,7 @@
         <v>9.9</v>
       </c>
       <c r="L10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2415,7 +2433,7 @@
         <v>10.07</v>
       </c>
       <c r="L11" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2453,7 +2471,7 @@
         <v>11.19</v>
       </c>
       <c r="L12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2491,7 +2509,7 @@
         <v>10.72</v>
       </c>
       <c r="L13" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2529,7 +2547,7 @@
         <v>12.27</v>
       </c>
       <c r="L14" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2567,7 +2585,7 @@
         <v>13.61</v>
       </c>
       <c r="L15" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2605,7 +2623,7 @@
         <v>14.02</v>
       </c>
       <c r="L16" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2643,7 +2661,7 @@
         <v>13.52</v>
       </c>
       <c r="L17" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2681,7 +2699,7 @@
         <v>11.7</v>
       </c>
       <c r="L18" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2719,7 +2737,7 @@
         <v>11.66</v>
       </c>
       <c r="L19" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2757,7 +2775,7 @@
         <v>11.14</v>
       </c>
       <c r="L20" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2795,7 +2813,7 @@
         <v>13.26</v>
       </c>
       <c r="L21" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2833,7 +2851,7 @@
         <v>9.74</v>
       </c>
       <c r="L22" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2871,7 +2889,7 @@
         <v>9.56</v>
       </c>
       <c r="L23" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2909,7 +2927,7 @@
         <v>12.82</v>
       </c>
       <c r="L24" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2947,7 +2965,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L25" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2985,7 +3003,7 @@
         <v>11.51</v>
       </c>
       <c r="L26" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3023,7 +3041,7 @@
         <v>11.15</v>
       </c>
       <c r="L27" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3061,7 +3079,7 @@
         <v>13.06</v>
       </c>
       <c r="L28" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3099,7 +3117,7 @@
         <v>11.09</v>
       </c>
       <c r="L29" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3137,7 +3155,7 @@
         <v>14.7</v>
       </c>
       <c r="L30" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3175,7 +3193,7 @@
         <v>13.04</v>
       </c>
       <c r="L31" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3213,7 +3231,7 @@
         <v>10.34</v>
       </c>
       <c r="L32" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3251,7 +3269,7 @@
         <v>11.3</v>
       </c>
       <c r="L33" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3289,7 +3307,7 @@
         <v>10.88</v>
       </c>
       <c r="L34" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3327,7 +3345,7 @@
         <v>11.66</v>
       </c>
       <c r="L35" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3365,7 +3383,7 @@
         <v>11.34</v>
       </c>
       <c r="L36" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3403,7 +3421,7 @@
         <v>10.31</v>
       </c>
       <c r="L37" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3441,7 +3459,7 @@
         <v>9.48</v>
       </c>
       <c r="L38" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3479,7 +3497,7 @@
         <v>10.04</v>
       </c>
       <c r="L39" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3517,7 +3535,7 @@
         <v>7.71</v>
       </c>
       <c r="L40" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3555,7 +3573,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L41" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3593,7 +3611,7 @@
         <v>10.12</v>
       </c>
       <c r="L42" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3631,7 +3649,7 @@
         <v>11.76</v>
       </c>
       <c r="L43" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3669,7 +3687,7 @@
         <v>13.97</v>
       </c>
       <c r="L44" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3707,7 +3725,7 @@
         <v>10.47</v>
       </c>
       <c r="L45" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3745,7 +3763,7 @@
         <v>12.26</v>
       </c>
       <c r="L46" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3783,7 +3801,7 @@
         <v>11.72</v>
       </c>
       <c r="L47" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3821,7 +3839,7 @@
         <v>10.91</v>
       </c>
       <c r="L48" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3859,7 +3877,7 @@
         <v>10.82</v>
       </c>
       <c r="L49" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3897,7 +3915,7 @@
         <v>10.23</v>
       </c>
       <c r="L50" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3935,7 +3953,7 @@
         <v>11.51</v>
       </c>
       <c r="L51" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3973,7 +3991,7 @@
         <v>14.66</v>
       </c>
       <c r="L52" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4011,7 +4029,7 @@
         <v>17.86</v>
       </c>
       <c r="L53" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4049,7 +4067,7 @@
         <v>13.01</v>
       </c>
       <c r="L54" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4087,7 +4105,7 @@
         <v>12.6</v>
       </c>
       <c r="L55" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4125,7 +4143,7 @@
         <v>14.18</v>
       </c>
       <c r="L56" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4163,7 +4181,7 @@
         <v>13.19</v>
       </c>
       <c r="L57" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4201,7 +4219,7 @@
         <v>15.9</v>
       </c>
       <c r="L58" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4239,7 +4257,7 @@
         <v>14.24</v>
       </c>
       <c r="L59" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4277,7 +4295,7 @@
         <v>14.89</v>
       </c>
       <c r="L60" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4315,7 +4333,7 @@
         <v>15.7</v>
       </c>
       <c r="L61" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4353,7 +4371,7 @@
         <v>17.16</v>
       </c>
       <c r="L62" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4391,7 +4409,7 @@
         <v>16.97</v>
       </c>
       <c r="L63" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4429,7 +4447,7 @@
         <v>16.92</v>
       </c>
       <c r="L64" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4467,7 +4485,7 @@
         <v>14.74</v>
       </c>
       <c r="L65" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4505,7 +4523,7 @@
         <v>14.07</v>
       </c>
       <c r="L66" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4543,7 +4561,7 @@
         <v>10.85</v>
       </c>
       <c r="L67" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4581,7 +4599,7 @@
         <v>10.44</v>
       </c>
       <c r="L68" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4619,7 +4637,7 @@
         <v>11.68</v>
       </c>
       <c r="L69" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4657,7 +4675,7 @@
         <v>20.93</v>
       </c>
       <c r="L70" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4695,7 +4713,7 @@
         <v>25.52</v>
       </c>
       <c r="L71" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4733,7 +4751,7 @@
         <v>24.75</v>
       </c>
       <c r="L72" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4771,7 +4789,7 @@
         <v>24.89</v>
       </c>
       <c r="L73" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4809,7 +4827,7 @@
         <v>27.59</v>
       </c>
       <c r="L74" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4847,7 +4865,7 @@
         <v>18.52</v>
       </c>
       <c r="L75" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4885,7 +4903,7 @@
         <v>16.9</v>
       </c>
       <c r="L76" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4923,7 +4941,7 @@
         <v>20.66</v>
       </c>
       <c r="L77" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4961,7 +4979,7 @@
         <v>22.54</v>
       </c>
       <c r="L78" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4999,7 +5017,7 @@
         <v>20.25</v>
       </c>
       <c r="L79" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5037,7 +5055,7 @@
         <v>18.01</v>
       </c>
       <c r="L80" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5075,7 +5093,7 @@
         <v>18.11</v>
       </c>
       <c r="L81" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5113,7 +5131,7 @@
         <v>15.71</v>
       </c>
       <c r="L82" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5151,7 +5169,7 @@
         <v>16.26</v>
       </c>
       <c r="L83" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5189,7 +5207,7 @@
         <v>19.82</v>
       </c>
       <c r="L84" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5227,7 +5245,7 @@
         <v>20.87</v>
       </c>
       <c r="L85" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5265,7 +5283,7 @@
         <v>18.91</v>
       </c>
       <c r="L86" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5303,7 +5321,7 @@
         <v>14.46</v>
       </c>
       <c r="L87" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5341,7 +5359,7 @@
         <v>15.77</v>
       </c>
       <c r="L88" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5379,7 +5397,7 @@
         <v>15.36</v>
       </c>
       <c r="L89" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5417,7 +5435,7 @@
         <v>14.11</v>
       </c>
       <c r="L90" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5455,7 +5473,7 @@
         <v>16.26</v>
       </c>
       <c r="L91" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5493,7 +5511,7 @@
         <v>17.65</v>
       </c>
       <c r="L92" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5531,7 +5549,7 @@
         <v>16.38</v>
       </c>
       <c r="L93" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5569,7 +5587,7 @@
         <v>16.44</v>
       </c>
       <c r="L94" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5607,7 +5625,7 @@
         <v>18.13</v>
       </c>
       <c r="L95" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5645,7 +5663,7 @@
         <v>14.03</v>
       </c>
       <c r="L96" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5683,7 +5701,7 @@
         <v>13.86</v>
       </c>
       <c r="L97" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5721,7 +5739,7 @@
         <v>15.45</v>
       </c>
       <c r="L98" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5759,7 +5777,7 @@
         <v>13.68</v>
       </c>
       <c r="L99" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5797,7 +5815,7 @@
         <v>15.11</v>
       </c>
       <c r="L100" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5835,7 +5853,7 @@
         <v>12.16</v>
       </c>
       <c r="L101" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5873,7 +5891,7 @@
         <v>12.31</v>
       </c>
       <c r="L102" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5911,7 +5929,7 @@
         <v>12.88</v>
       </c>
       <c r="L103" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5949,7 +5967,7 @@
         <v>16.74</v>
       </c>
       <c r="L104" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5987,7 +6005,7 @@
         <v>15.77</v>
       </c>
       <c r="L105" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6025,7 +6043,7 @@
         <v>11.78</v>
       </c>
       <c r="L106" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6063,7 +6081,7 @@
         <v>15.97</v>
       </c>
       <c r="L107" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6101,7 +6119,7 @@
         <v>14.21</v>
       </c>
       <c r="L108" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6139,7 +6157,7 @@
         <v>14.27</v>
       </c>
       <c r="L109" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6177,7 +6195,7 @@
         <v>12.66</v>
       </c>
       <c r="L110" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6215,7 +6233,7 @@
         <v>12.36</v>
       </c>
       <c r="L111" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6253,7 +6271,7 @@
         <v>12.12</v>
       </c>
       <c r="L112" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6291,7 +6309,7 @@
         <v>13.05</v>
       </c>
       <c r="L113" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6329,7 +6347,7 @@
         <v>11.47</v>
       </c>
       <c r="L114" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6367,7 +6385,7 @@
         <v>12.78</v>
       </c>
       <c r="L115" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6405,7 +6423,7 @@
         <v>14.33</v>
       </c>
       <c r="L116" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6443,7 +6461,7 @@
         <v>11.5</v>
       </c>
       <c r="L117" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6481,7 +6499,7 @@
         <v>10.92</v>
       </c>
       <c r="L118" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6519,7 +6537,7 @@
         <v>12.99</v>
       </c>
       <c r="L119" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6557,7 +6575,7 @@
         <v>12.32</v>
       </c>
       <c r="L120" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6595,7 +6613,7 @@
         <v>10.27</v>
       </c>
       <c r="L121" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6633,7 +6651,7 @@
         <v>14.46</v>
       </c>
       <c r="L122" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6671,7 +6689,7 @@
         <v>11.53</v>
       </c>
       <c r="L123" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6709,7 +6727,7 @@
         <v>11.5</v>
       </c>
       <c r="L124" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6747,7 +6765,7 @@
         <v>10.43</v>
       </c>
       <c r="L125" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6785,7 +6803,7 @@
         <v>10.23</v>
       </c>
       <c r="L126" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6823,7 +6841,7 @@
         <v>10.91</v>
       </c>
       <c r="L127" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6861,7 +6879,7 @@
         <v>11.71</v>
       </c>
       <c r="L128" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6899,7 +6917,7 @@
         <v>13.32</v>
       </c>
       <c r="L129" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6937,7 +6955,7 @@
         <v>11.6</v>
       </c>
       <c r="L130" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6975,7 +6993,7 @@
         <v>13.4</v>
       </c>
       <c r="L131" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7013,7 +7031,7 @@
         <v>12.01</v>
       </c>
       <c r="L132" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7051,7 +7069,7 @@
         <v>11.23</v>
       </c>
       <c r="L133" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7089,7 +7107,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L134" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7127,7 +7145,7 @@
         <v>8.24</v>
       </c>
       <c r="L135" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7165,7 +7183,7 @@
         <v>9.15</v>
       </c>
       <c r="L136" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7203,7 +7221,7 @@
         <v>10.09</v>
       </c>
       <c r="L137" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7241,7 +7259,7 @@
         <v>11.34</v>
       </c>
       <c r="L138" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7279,7 +7297,7 @@
         <v>9.82</v>
       </c>
       <c r="L139" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7317,7 +7335,7 @@
         <v>10.77</v>
       </c>
       <c r="L140" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7355,7 +7373,7 @@
         <v>10.12</v>
       </c>
       <c r="L141" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7393,7 +7411,7 @@
         <v>13.98</v>
       </c>
       <c r="L142" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7431,7 +7449,7 @@
         <v>16.5</v>
       </c>
       <c r="L143" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7469,7 +7487,7 @@
         <v>12.58</v>
       </c>
       <c r="L144" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7507,7 +7525,7 @@
         <v>13.74</v>
       </c>
       <c r="L145" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7545,7 +7563,7 @@
         <v>14.1</v>
       </c>
       <c r="L146" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7583,7 +7601,7 @@
         <v>19.38</v>
       </c>
       <c r="L147" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7621,7 +7639,7 @@
         <v>15.21</v>
       </c>
       <c r="L148" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7659,7 +7677,7 @@
         <v>15.42</v>
       </c>
       <c r="L149" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7697,7 +7715,7 @@
         <v>14</v>
       </c>
       <c r="L150" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7735,7 +7753,7 @@
         <v>16.99</v>
       </c>
       <c r="L151" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7773,7 +7791,7 @@
         <v>12.64</v>
       </c>
       <c r="L152" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7811,7 +7829,7 @@
         <v>14.34</v>
       </c>
       <c r="L153" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7849,7 +7867,7 @@
         <v>14.54</v>
       </c>
       <c r="L154" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7887,7 +7905,7 @@
         <v>12.54</v>
       </c>
       <c r="L155" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7925,7 +7943,7 @@
         <v>12.8</v>
       </c>
       <c r="L156" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7963,7 +7981,7 @@
         <v>13.92</v>
       </c>
       <c r="L157" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8001,7 +8019,7 @@
         <v>15</v>
       </c>
       <c r="L158" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8039,7 +8057,7 @@
         <v>12.71</v>
       </c>
       <c r="L159" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8077,7 +8095,7 @@
         <v>15.27</v>
       </c>
       <c r="L160" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8115,7 +8133,7 @@
         <v>12.11</v>
       </c>
       <c r="L161" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8153,7 +8171,7 @@
         <v>12.77</v>
       </c>
       <c r="L162" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8191,7 +8209,7 @@
         <v>12.05</v>
       </c>
       <c r="L163" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8229,7 +8247,7 @@
         <v>17.63</v>
       </c>
       <c r="L164" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8267,7 +8285,7 @@
         <v>15.76</v>
       </c>
       <c r="L165" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8305,7 +8323,7 @@
         <v>15.25</v>
       </c>
       <c r="L166" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8343,7 +8361,7 @@
         <v>16.95</v>
       </c>
       <c r="L167" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8381,7 +8399,7 @@
         <v>17.22</v>
       </c>
       <c r="L168" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8419,7 +8437,7 @@
         <v>15.26</v>
       </c>
       <c r="L169" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8457,7 +8475,7 @@
         <v>19.44</v>
       </c>
       <c r="L170" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8495,7 +8513,7 @@
         <v>21.69</v>
       </c>
       <c r="L171" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8533,7 +8551,7 @@
         <v>20.61</v>
       </c>
       <c r="L172" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8571,7 +8589,7 @@
         <v>17.78</v>
       </c>
       <c r="L173" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8609,7 +8627,7 @@
         <v>16.01</v>
       </c>
       <c r="L174" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8647,7 +8665,7 @@
         <v>17.46</v>
       </c>
       <c r="L175" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8685,7 +8703,7 @@
         <v>16.52</v>
       </c>
       <c r="L176" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8723,7 +8741,7 @@
         <v>17.34</v>
       </c>
       <c r="L177" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8761,7 +8779,7 @@
         <v>16.23</v>
       </c>
       <c r="L178" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8799,7 +8817,7 @@
         <v>17.03</v>
       </c>
       <c r="L179" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8837,7 +8855,7 @@
         <v>13.22</v>
       </c>
       <c r="L180" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8875,7 +8893,7 @@
         <v>14.35</v>
       </c>
       <c r="L181" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8913,7 +8931,7 @@
         <v>19.37</v>
       </c>
       <c r="L182" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8951,7 +8969,7 @@
         <v>15.08</v>
       </c>
       <c r="L183" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8989,7 +9007,7 @@
         <v>14.57</v>
       </c>
       <c r="L184" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9027,7 +9045,7 @@
         <v>14.43</v>
       </c>
       <c r="L185" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9065,7 +9083,7 @@
         <v>15.99</v>
       </c>
       <c r="L186" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9103,7 +9121,7 @@
         <v>16.56</v>
       </c>
       <c r="L187" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9141,7 +9159,7 @@
         <v>18.56</v>
       </c>
       <c r="L188" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9179,7 +9197,7 @@
         <v>15.1</v>
       </c>
       <c r="L189" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9217,7 +9235,7 @@
         <v>16.85</v>
       </c>
       <c r="L190" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9255,7 +9273,7 @@
         <v>19.24</v>
       </c>
       <c r="L191" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9293,7 +9311,7 @@
         <v>17.45</v>
       </c>
       <c r="L192" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9331,7 +9349,7 @@
         <v>16.86</v>
       </c>
       <c r="L193" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9369,7 +9387,7 @@
         <v>17.04</v>
       </c>
       <c r="L194" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9407,7 +9425,7 @@
         <v>15.15</v>
       </c>
       <c r="L195" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9445,7 +9463,7 @@
         <v>17.56</v>
       </c>
       <c r="L196" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9483,7 +9501,7 @@
         <v>18.33</v>
       </c>
       <c r="L197" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9521,7 +9539,7 @@
         <v>19.38</v>
       </c>
       <c r="L198" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9559,7 +9577,7 @@
         <v>18.37</v>
       </c>
       <c r="L199" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9597,7 +9615,7 @@
         <v>17.91</v>
       </c>
       <c r="L200" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9635,7 +9653,7 @@
         <v>17.65</v>
       </c>
       <c r="L201" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9673,7 +9691,7 @@
         <v>17.66</v>
       </c>
       <c r="L202" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9711,7 +9729,7 @@
         <v>18.3</v>
       </c>
       <c r="L203" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9749,7 +9767,7 @@
         <v>23.27</v>
       </c>
       <c r="L204" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9787,7 +9805,7 @@
         <v>24.66</v>
       </c>
       <c r="L205" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9825,7 +9843,7 @@
         <v>23.94</v>
       </c>
       <c r="L206" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9863,7 +9881,7 @@
         <v>23.45</v>
       </c>
       <c r="L207" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9901,7 +9919,7 @@
         <v>22.94</v>
       </c>
       <c r="L208" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9939,7 +9957,7 @@
         <v>30.05</v>
       </c>
       <c r="L209" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9977,7 +9995,7 @@
         <v>27.83</v>
       </c>
       <c r="L210" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10015,7 +10033,7 @@
         <v>28.52</v>
       </c>
       <c r="L211" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10053,7 +10071,7 @@
         <v>23.18</v>
       </c>
       <c r="L212" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10091,7 +10109,7 @@
         <v>23.97</v>
       </c>
       <c r="L213" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10129,7 +10147,7 @@
         <v>27.07</v>
       </c>
       <c r="L214" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10167,7 +10185,7 @@
         <v>29.99</v>
       </c>
       <c r="L215" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10205,7 +10223,7 @@
         <v>24.13</v>
       </c>
       <c r="L216" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10243,7 +10261,7 @@
         <v>21.06</v>
       </c>
       <c r="L217" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10281,7 +10299,7 @@
         <v>20.43</v>
       </c>
       <c r="L218" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10319,7 +10337,7 @@
         <v>22.43</v>
       </c>
       <c r="L219" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10357,7 +10375,7 @@
         <v>22.22</v>
       </c>
       <c r="L220" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10395,7 +10413,7 @@
         <v>21.75</v>
       </c>
       <c r="L221" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10433,7 +10451,7 @@
         <v>20.53</v>
       </c>
       <c r="L222" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10471,7 +10489,7 @@
         <v>20.16</v>
       </c>
       <c r="L223" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10509,7 +10527,7 @@
         <v>22.7</v>
       </c>
       <c r="L224" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10547,7 +10565,7 @@
         <v>19.75</v>
       </c>
       <c r="L225" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10585,7 +10603,7 @@
         <v>19.28</v>
       </c>
       <c r="L226" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10623,7 +10641,7 @@
         <v>23.37</v>
       </c>
       <c r="L227" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10661,7 +10679,7 @@
         <v>16.79</v>
       </c>
       <c r="L228" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10699,7 +10717,7 @@
         <v>18.25</v>
       </c>
       <c r="L229" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10737,7 +10755,7 @@
         <v>13.44</v>
       </c>
       <c r="L230" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10775,7 +10793,7 @@
         <v>13.09</v>
       </c>
       <c r="L231" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10813,7 +10831,7 @@
         <v>11.04</v>
       </c>
       <c r="L232" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10851,7 +10869,7 @@
         <v>13.48</v>
       </c>
       <c r="L233" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10889,7 +10907,7 @@
         <v>10.63</v>
       </c>
       <c r="L234" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10927,7 +10945,7 @@
         <v>11.58</v>
       </c>
       <c r="L235" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10965,7 +10983,7 @@
         <v>8.77</v>
       </c>
       <c r="L236" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11003,7 +11021,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L237" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11041,7 +11059,7 @@
         <v>10.17</v>
       </c>
       <c r="L238" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11079,7 +11097,7 @@
         <v>8.85</v>
       </c>
       <c r="L239" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11117,7 +11135,7 @@
         <v>8.58</v>
       </c>
       <c r="L240" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11155,7 +11173,7 @@
         <v>7.62</v>
       </c>
       <c r="L241" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11193,7 +11211,7 @@
         <v>7.55</v>
       </c>
       <c r="L242" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11231,7 +11249,7 @@
         <v>7.22</v>
       </c>
       <c r="L243" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11269,7 +11287,7 @@
         <v>6.94</v>
       </c>
       <c r="L244" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11307,7 +11325,7 @@
         <v>7.42</v>
       </c>
       <c r="L245" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11345,7 +11363,7 @@
         <v>7.06</v>
       </c>
       <c r="L246" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11383,7 +11401,7 @@
         <v>9.73</v>
       </c>
       <c r="L247" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11421,7 +11439,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11459,7 +11477,7 @@
         <v>10.56</v>
       </c>
       <c r="L249" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11497,7 +11515,7 @@
         <v>13.43</v>
       </c>
       <c r="L250" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11535,7 +11553,7 @@
         <v>10.67</v>
       </c>
       <c r="L251" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11573,7 +11591,7 @@
         <v>10.06</v>
       </c>
       <c r="L252" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11611,7 +11629,7 @@
         <v>12.15</v>
       </c>
       <c r="L253" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11649,7 +11667,7 @@
         <v>10.6</v>
       </c>
       <c r="L254" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11687,7 +11705,7 @@
         <v>10.87</v>
       </c>
       <c r="L255" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11725,7 +11743,7 @@
         <v>10.32</v>
       </c>
       <c r="L256" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11763,7 +11781,7 @@
         <v>11.89</v>
       </c>
       <c r="L257" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11801,7 +11819,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L258" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11839,7 +11857,7 @@
         <v>7.98</v>
       </c>
       <c r="L259" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11877,7 +11895,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="L260" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11915,7 +11933,7 @@
         <v>7.01</v>
       </c>
       <c r="L261" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11953,7 +11971,7 @@
         <v>6.32</v>
       </c>
       <c r="L262" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11991,7 +12009,7 @@
         <v>7.29</v>
       </c>
       <c r="L263" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12029,7 +12047,7 @@
         <v>5.76</v>
       </c>
       <c r="L264" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12067,7 +12085,7 @@
         <v>8.23</v>
       </c>
       <c r="L265" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12105,7 +12123,7 @@
         <v>9.16</v>
       </c>
       <c r="L266" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12143,7 +12161,7 @@
         <v>6.6</v>
       </c>
       <c r="L267" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12181,7 +12199,7 @@
         <v>10.45</v>
       </c>
       <c r="L268" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12219,7 +12237,7 @@
         <v>7.28</v>
       </c>
       <c r="L269" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12257,7 +12275,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L270" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12295,7 +12313,7 @@
         <v>9.6</v>
       </c>
       <c r="L271" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12333,7 +12351,7 @@
         <v>13.06</v>
       </c>
       <c r="L272" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12371,7 +12389,7 @@
         <v>13.1</v>
       </c>
       <c r="L273" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12409,7 +12427,7 @@
         <v>11.44</v>
       </c>
       <c r="L274" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12447,7 +12465,7 @@
         <v>7.09</v>
       </c>
       <c r="L275" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12485,7 +12503,7 @@
         <v>5.7</v>
       </c>
       <c r="L276" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12523,7 +12541,7 @@
         <v>8.35</v>
       </c>
       <c r="L277" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12561,7 +12579,7 @@
         <v>7.07</v>
       </c>
       <c r="L278" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12599,7 +12617,7 @@
         <v>7.19</v>
       </c>
       <c r="L279" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12637,7 +12655,7 @@
         <v>5.66</v>
       </c>
       <c r="L280" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12675,7 +12693,7 @@
         <v>5.85</v>
       </c>
       <c r="L281" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12713,7 +12731,7 @@
         <v>4.76</v>
       </c>
       <c r="L282" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12751,7 +12769,7 @@
         <v>7.67</v>
       </c>
       <c r="L283" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12789,7 +12807,7 @@
         <v>7.76</v>
       </c>
       <c r="L284" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12827,7 +12845,7 @@
         <v>6.68</v>
       </c>
       <c r="L285" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12865,7 +12883,7 @@
         <v>3.96</v>
       </c>
       <c r="L286" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12903,7 +12921,7 @@
         <v>9.58</v>
       </c>
       <c r="L287" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12941,7 +12959,7 @@
         <v>10.56</v>
       </c>
       <c r="L288" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12979,7 +12997,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L289" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13017,7 +13035,7 @@
         <v>7.45</v>
       </c>
       <c r="L290" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13055,7 +13073,7 @@
         <v>6.4</v>
       </c>
       <c r="L291" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13093,7 +13111,7 @@
         <v>5.71</v>
       </c>
       <c r="L292" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13131,7 +13149,7 @@
         <v>4.79</v>
       </c>
       <c r="L293" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13169,7 +13187,7 @@
         <v>3.65</v>
       </c>
       <c r="L294" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13207,7 +13225,7 @@
         <v>4.87</v>
       </c>
       <c r="L295" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13245,7 +13263,7 @@
         <v>4.82</v>
       </c>
       <c r="L296" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13283,7 +13301,7 @@
         <v>4.2</v>
       </c>
       <c r="L297" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13321,7 +13339,7 @@
         <v>6.07</v>
       </c>
       <c r="L298" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13359,7 +13377,7 @@
         <v>5.72</v>
       </c>
       <c r="L299" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13397,7 +13415,7 @@
         <v>4.83</v>
       </c>
       <c r="L300" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13435,7 +13453,7 @@
         <v>4.79</v>
       </c>
       <c r="L301" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13473,7 +13491,7 @@
         <v>6.32</v>
       </c>
       <c r="L302" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13511,7 +13529,7 @@
         <v>4.51</v>
       </c>
       <c r="L303" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13549,7 +13567,7 @@
         <v>3.93</v>
       </c>
       <c r="L304" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13587,7 +13605,7 @@
         <v>4.41</v>
       </c>
       <c r="L305" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13625,7 +13643,7 @@
         <v>6.5</v>
       </c>
       <c r="L306" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13663,7 +13681,7 @@
         <v>7.95</v>
       </c>
       <c r="L307" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13701,7 +13719,7 @@
         <v>6.1</v>
       </c>
       <c r="L308" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13739,7 +13757,7 @@
         <v>5.2</v>
       </c>
       <c r="L309" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13777,7 +13795,7 @@
         <v>5.13</v>
       </c>
       <c r="L310" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13815,7 +13833,7 @@
         <v>5.86</v>
       </c>
       <c r="L311" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13853,7 +13871,7 @@
         <v>4.44</v>
       </c>
       <c r="L312" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13891,7 +13909,7 @@
         <v>3.29</v>
       </c>
       <c r="L313" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13929,7 +13947,7 @@
         <v>6.22</v>
       </c>
       <c r="L314" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13967,7 +13985,7 @@
         <v>6.31</v>
       </c>
       <c r="L315" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14005,7 +14023,7 @@
         <v>8.41</v>
       </c>
       <c r="L316" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14043,7 +14061,7 @@
         <v>8.68</v>
       </c>
       <c r="L317" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14081,7 +14099,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L318" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14119,7 +14137,7 @@
         <v>9.42</v>
       </c>
       <c r="L319" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14157,7 +14175,7 @@
         <v>8.27</v>
       </c>
       <c r="L320" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14195,7 +14213,7 @@
         <v>7.86</v>
       </c>
       <c r="L321" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14233,7 +14251,7 @@
         <v>11.62</v>
       </c>
       <c r="L322" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14271,7 +14289,7 @@
         <v>9.34</v>
       </c>
       <c r="L323" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14309,7 +14327,7 @@
         <v>10.02</v>
       </c>
       <c r="L324" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14347,7 +14365,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="L325" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14385,7 +14403,7 @@
         <v>8.09</v>
       </c>
       <c r="L326" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14423,7 +14441,7 @@
         <v>9.08</v>
       </c>
       <c r="L327" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14461,7 +14479,7 @@
         <v>10.25</v>
       </c>
       <c r="L328" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14499,7 +14517,7 @@
         <v>8.94</v>
       </c>
       <c r="L329" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14537,7 +14555,7 @@
         <v>11.33</v>
       </c>
       <c r="L330" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14575,7 +14593,7 @@
         <v>12.61</v>
       </c>
       <c r="L331" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14613,7 +14631,7 @@
         <v>11.07</v>
       </c>
       <c r="L332" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14651,7 +14669,7 @@
         <v>12.23</v>
       </c>
       <c r="L333" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14689,7 +14707,7 @@
         <v>8.77</v>
       </c>
       <c r="L334" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14727,7 +14745,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L335" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14765,7 +14783,7 @@
         <v>7.54</v>
       </c>
       <c r="L336" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14803,7 +14821,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="L337" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14841,7 +14859,7 @@
         <v>8.52</v>
       </c>
       <c r="L338" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14879,7 +14897,7 @@
         <v>7.05</v>
       </c>
       <c r="L339" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14917,7 +14935,7 @@
         <v>7.64</v>
       </c>
       <c r="L340" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14955,7 +14973,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L341" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14993,7 +15011,7 @@
         <v>7.27</v>
       </c>
       <c r="L342" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15031,7 +15049,7 @@
         <v>7.05</v>
       </c>
       <c r="L343" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15069,7 +15087,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L344" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15107,7 +15125,7 @@
         <v>7.88</v>
       </c>
       <c r="L345" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15145,7 +15163,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L346" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15183,7 +15201,7 @@
         <v>7.97</v>
       </c>
       <c r="L347" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15221,7 +15239,7 @@
         <v>8.93</v>
       </c>
       <c r="L348" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15259,7 +15277,7 @@
         <v>7.53</v>
       </c>
       <c r="L349" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15297,7 +15315,7 @@
         <v>6.76</v>
       </c>
       <c r="L350" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15335,7 +15353,7 @@
         <v>6.52</v>
       </c>
       <c r="L351" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15373,7 +15391,7 @@
         <v>6.52</v>
       </c>
       <c r="L352" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15411,7 +15429,7 @@
         <v>7.26</v>
       </c>
       <c r="L353" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15449,7 +15467,7 @@
         <v>7.7</v>
       </c>
       <c r="L354" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15487,7 +15505,7 @@
         <v>7.38</v>
       </c>
       <c r="L355" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15525,7 +15543,7 @@
         <v>5.94</v>
       </c>
       <c r="L356" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15563,7 +15581,7 @@
         <v>7.08</v>
       </c>
       <c r="L357" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15601,7 +15619,7 @@
         <v>6.09</v>
       </c>
       <c r="L358" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15639,7 +15657,7 @@
         <v>6.25</v>
       </c>
       <c r="L359" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15677,7 +15695,7 @@
         <v>6.08</v>
       </c>
       <c r="L360" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15715,7 +15733,7 @@
         <v>6.08</v>
       </c>
       <c r="L361" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15753,7 +15771,7 @@
         <v>5.69</v>
       </c>
       <c r="L362" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15791,7 +15809,7 @@
         <v>5.84</v>
       </c>
       <c r="L363" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15829,7 +15847,7 @@
         <v>6.16</v>
       </c>
       <c r="L364" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15867,7 +15885,7 @@
         <v>6.7</v>
       </c>
       <c r="L365" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15905,7 +15923,7 @@
         <v>6.9</v>
       </c>
       <c r="L366" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15943,7 +15961,7 @@
         <v>5.62</v>
       </c>
       <c r="L367" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15981,7 +15999,7 @@
         <v>8.35</v>
       </c>
       <c r="L368" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16019,7 +16037,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L369" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16057,7 +16075,7 @@
         <v>10.36</v>
       </c>
       <c r="L370" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16095,7 +16113,7 @@
         <v>5.92</v>
       </c>
       <c r="L371" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16133,7 +16151,7 @@
         <v>3.42</v>
       </c>
       <c r="L372" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16171,7 +16189,7 @@
         <v>5.76</v>
       </c>
       <c r="L373" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16209,7 +16227,7 @@
         <v>6.75</v>
       </c>
       <c r="L374" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16247,7 +16265,7 @@
         <v>7.9</v>
       </c>
       <c r="L375" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16285,7 +16303,7 @@
         <v>7.21</v>
       </c>
       <c r="L376" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16323,7 +16341,7 @@
         <v>8.67</v>
       </c>
       <c r="L377" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16361,7 +16379,7 @@
         <v>5.95</v>
       </c>
       <c r="L378" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16399,7 +16417,7 @@
         <v>8.17</v>
       </c>
       <c r="L379" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16437,7 +16455,7 @@
         <v>9.23</v>
       </c>
       <c r="L380" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16475,7 +16493,7 @@
         <v>7.53</v>
       </c>
       <c r="L381" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16513,7 +16531,7 @@
         <v>6.94</v>
       </c>
       <c r="L382" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16551,7 +16569,7 @@
         <v>5.27</v>
       </c>
       <c r="L383" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16589,7 +16607,7 @@
         <v>5.16</v>
       </c>
       <c r="L384" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16627,7 +16645,7 @@
         <v>5.34</v>
       </c>
       <c r="L385" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16665,7 +16683,7 @@
         <v>5.48</v>
       </c>
       <c r="L386" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16703,7 +16721,7 @@
         <v>4.54</v>
       </c>
       <c r="L387" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16741,7 +16759,7 @@
         <v>4.39</v>
       </c>
       <c r="L388" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16779,7 +16797,7 @@
         <v>4.95</v>
       </c>
       <c r="L389" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16817,7 +16835,7 @@
         <v>3.22</v>
       </c>
       <c r="L390" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16855,7 +16873,7 @@
         <v>2.11</v>
       </c>
       <c r="L391" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16893,7 +16911,7 @@
         <v>1.83</v>
       </c>
       <c r="L392" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16931,7 +16949,7 @@
         <v>1.39</v>
       </c>
       <c r="L393" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16969,7 +16987,7 @@
         <v>2.74</v>
       </c>
       <c r="L394" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17007,7 +17025,7 @@
         <v>3.06</v>
       </c>
       <c r="L395" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17045,7 +17063,7 @@
         <v>4.19</v>
       </c>
       <c r="L396" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17083,7 +17101,7 @@
         <v>3.49</v>
       </c>
       <c r="L397" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17121,7 +17139,7 @@
         <v>2.06</v>
       </c>
       <c r="L398" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17159,7 +17177,7 @@
         <v>2.03</v>
       </c>
       <c r="L399" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17197,7 +17215,7 @@
         <v>1.98</v>
       </c>
       <c r="L400" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17235,7 +17253,7 @@
         <v>2.28</v>
       </c>
       <c r="L401" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17273,7 +17291,7 @@
         <v>3.27</v>
       </c>
       <c r="L402" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17311,7 +17329,7 @@
         <v>2.77</v>
       </c>
       <c r="L403" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17349,7 +17367,7 @@
         <v>2.71</v>
       </c>
       <c r="L404" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17387,7 +17405,7 @@
         <v>1.92</v>
       </c>
       <c r="L405" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17425,7 +17443,7 @@
         <v>0.95</v>
       </c>
       <c r="L406" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17463,7 +17481,7 @@
         <v>1.66</v>
       </c>
       <c r="L407" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17501,7 +17519,7 @@
         <v>1.01</v>
       </c>
       <c r="L408" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17539,7 +17557,7 @@
         <v>1.4</v>
       </c>
       <c r="L409" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17577,7 +17595,7 @@
         <v>2.35</v>
       </c>
       <c r="L410" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17615,7 +17633,7 @@
         <v>2.23</v>
       </c>
       <c r="L411" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17653,7 +17671,7 @@
         <v>2.09</v>
       </c>
       <c r="L412" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17691,7 +17709,7 @@
         <v>1.34</v>
       </c>
       <c r="L413" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17729,7 +17747,7 @@
         <v>0.78</v>
       </c>
       <c r="L414" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17767,7 +17785,7 @@
         <v>1.49</v>
       </c>
       <c r="L415" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17805,7 +17823,7 @@
         <v>1.65</v>
       </c>
       <c r="L416" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17843,7 +17861,7 @@
         <v>1.38</v>
       </c>
       <c r="L417" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17881,7 +17899,7 @@
         <v>1.49</v>
       </c>
       <c r="L418" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17919,7 +17937,7 @@
         <v>1.34</v>
       </c>
       <c r="L419" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17957,7 +17975,7 @@
         <v>1.87</v>
       </c>
       <c r="L420" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17995,7 +18013,7 @@
         <v>1.21</v>
       </c>
       <c r="L421" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18033,7 +18051,7 @@
         <v>1.26</v>
       </c>
       <c r="L422" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18071,7 +18089,7 @@
         <v>1.54</v>
       </c>
       <c r="L423" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18109,7 +18127,7 @@
         <v>3.28</v>
       </c>
       <c r="L424" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18147,7 +18165,7 @@
         <v>3.01</v>
       </c>
       <c r="L425" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18185,7 +18203,7 @@
         <v>2.25</v>
       </c>
       <c r="L426" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18223,7 +18241,7 @@
         <v>1.01</v>
       </c>
       <c r="L427" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18261,7 +18279,7 @@
         <v>1.41</v>
       </c>
       <c r="L428" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18299,7 +18317,7 @@
         <v>1.15</v>
       </c>
       <c r="L429" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18337,7 +18355,7 @@
         <v>0.84</v>
       </c>
       <c r="L430" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18375,7 +18393,7 @@
         <v>1.74</v>
       </c>
       <c r="L431" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18413,7 +18431,7 @@
         <v>1.46</v>
       </c>
       <c r="L432" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18451,7 +18469,7 @@
         <v>1.8</v>
       </c>
       <c r="L433" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18489,7 +18507,7 @@
         <v>0.92</v>
       </c>
       <c r="L434" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18527,7 +18545,7 @@
         <v>1.91</v>
       </c>
       <c r="L435" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18565,7 +18583,7 @@
         <v>1.68</v>
       </c>
       <c r="L436" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18603,7 +18621,7 @@
         <v>1.12</v>
       </c>
       <c r="L437" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18641,7 +18659,7 @@
         <v>2.15</v>
       </c>
       <c r="L438" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18679,7 +18697,7 @@
         <v>1.95</v>
       </c>
       <c r="L439" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18717,7 +18735,7 @@
         <v>1.14</v>
       </c>
       <c r="L440" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18755,7 +18773,7 @@
         <v>1.23</v>
       </c>
       <c r="L441" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18793,7 +18811,7 @@
         <v>2.05</v>
       </c>
       <c r="L442" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18831,7 +18849,7 @@
         <v>2.76</v>
       </c>
       <c r="L443" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18869,7 +18887,7 @@
         <v>1.61</v>
       </c>
       <c r="L444" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18907,7 +18925,7 @@
         <v>1.26</v>
       </c>
       <c r="L445" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18945,7 +18963,7 @@
         <v>0.75</v>
       </c>
       <c r="L446" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18983,7 +19001,7 @@
         <v>1.36</v>
       </c>
       <c r="L447" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19021,7 +19039,7 @@
         <v>1.65</v>
       </c>
       <c r="L448" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19059,7 +19077,7 @@
         <v>1.28</v>
       </c>
       <c r="L449" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19097,7 +19115,7 @@
         <v>1.15</v>
       </c>
       <c r="L450" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19135,7 +19153,7 @@
         <v>1.69</v>
       </c>
       <c r="L451" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19173,7 +19191,7 @@
         <v>2.07</v>
       </c>
       <c r="L452" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19211,7 +19229,7 @@
         <v>1.36</v>
       </c>
       <c r="L453" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19249,7 +19267,7 @@
         <v>1.04</v>
       </c>
       <c r="L454" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19287,7 +19305,7 @@
         <v>1.32</v>
       </c>
       <c r="L455" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19325,7 +19343,7 @@
         <v>1.76</v>
       </c>
       <c r="L456" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19363,7 +19381,7 @@
         <v>1.51</v>
       </c>
       <c r="L457" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19401,7 +19419,7 @@
         <v>1.3</v>
       </c>
       <c r="L458" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19439,7 +19457,7 @@
         <v>1.54</v>
       </c>
       <c r="L459" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19477,7 +19495,7 @@
         <v>1.48</v>
       </c>
       <c r="L460" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19515,7 +19533,7 @@
         <v>0.58</v>
       </c>
       <c r="L461" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19553,7 +19571,7 @@
         <v>1.81</v>
       </c>
       <c r="L462" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19591,7 +19609,7 @@
         <v>1.42</v>
       </c>
       <c r="L463" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19629,7 +19647,7 @@
         <v>0.39</v>
       </c>
       <c r="L464" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19667,7 +19685,7 @@
         <v>1.1</v>
       </c>
       <c r="L465" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19705,7 +19723,7 @@
         <v>2.12</v>
       </c>
       <c r="L466" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19743,7 +19761,7 @@
         <v>0.88</v>
       </c>
       <c r="L467" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19781,7 +19799,7 @@
         <v>1.93</v>
       </c>
       <c r="L468" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19819,7 +19837,7 @@
         <v>1.21</v>
       </c>
       <c r="L469" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19857,7 +19875,7 @@
         <v>0.73</v>
       </c>
       <c r="L470" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19895,7 +19913,7 @@
         <v>2.91</v>
       </c>
       <c r="L471" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19933,7 +19951,7 @@
         <v>1.2</v>
       </c>
       <c r="L472" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19971,7 +19989,7 @@
         <v>1.63</v>
       </c>
       <c r="L473" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20009,7 +20027,7 @@
         <v>2.05</v>
       </c>
       <c r="L474" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20047,7 +20065,7 @@
         <v>1.44</v>
       </c>
       <c r="L475" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20085,7 +20103,7 @@
         <v>2.29</v>
       </c>
       <c r="L476" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20123,7 +20141,7 @@
         <v>1.4</v>
       </c>
       <c r="L477" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20161,7 +20179,7 @@
         <v>1.37</v>
       </c>
       <c r="L478" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20199,7 +20217,7 @@
         <v>2.43</v>
       </c>
       <c r="L479" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20237,7 +20255,7 @@
         <v>1.62</v>
       </c>
       <c r="L480" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20275,7 +20293,7 @@
         <v>2.39</v>
       </c>
       <c r="L481" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20313,7 +20331,7 @@
         <v>1.81</v>
       </c>
       <c r="L482" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20351,7 +20369,7 @@
         <v>2.49</v>
       </c>
       <c r="L483" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20389,7 +20407,7 @@
         <v>2.89</v>
       </c>
       <c r="L484" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20427,7 +20445,7 @@
         <v>2.79</v>
       </c>
       <c r="L485" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20465,7 +20483,7 @@
         <v>3.54</v>
       </c>
       <c r="L486" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20503,7 +20521,7 @@
         <v>2.99</v>
       </c>
       <c r="L487" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20541,7 +20559,7 @@
         <v>4.57</v>
       </c>
       <c r="L488" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20579,7 +20597,7 @@
         <v>3.54</v>
       </c>
       <c r="L489" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20617,7 +20635,7 @@
         <v>3.07</v>
       </c>
       <c r="L490" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20655,7 +20673,7 @@
         <v>3.03</v>
       </c>
       <c r="L491" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20693,7 +20711,7 @@
         <v>2.94</v>
       </c>
       <c r="L492" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20731,7 +20749,7 @@
         <v>4.6</v>
       </c>
       <c r="L493" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20769,7 +20787,7 @@
         <v>6.58</v>
       </c>
       <c r="L494" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20807,7 +20825,7 @@
         <v>5.58</v>
       </c>
       <c r="L495" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20845,7 +20863,7 @@
         <v>3.01</v>
       </c>
       <c r="L496" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20883,7 +20901,7 @@
         <v>2.51</v>
       </c>
       <c r="L497" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20921,7 +20939,7 @@
         <v>4.13</v>
       </c>
       <c r="L498" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20959,7 +20977,7 @@
         <v>6.11</v>
       </c>
       <c r="L499" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -20997,7 +21015,7 @@
         <v>7.64</v>
       </c>
       <c r="L500" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21035,7 +21053,7 @@
         <v>6.72</v>
       </c>
       <c r="L501" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21073,7 +21091,7 @@
         <v>7.64</v>
       </c>
       <c r="L502" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21111,7 +21129,7 @@
         <v>6.55</v>
       </c>
       <c r="L503" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21149,7 +21167,7 @@
         <v>6.91</v>
       </c>
       <c r="L504" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21187,7 +21205,7 @@
         <v>7.42</v>
       </c>
       <c r="L505" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21225,7 +21243,7 @@
         <v>7.45</v>
       </c>
       <c r="L506" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21263,7 +21281,7 @@
         <v>8.51</v>
       </c>
       <c r="L507" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21301,7 +21319,7 @@
         <v>7</v>
       </c>
       <c r="L508" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21339,7 +21357,7 @@
         <v>7.92</v>
       </c>
       <c r="L509" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21377,7 +21395,7 @@
         <v>10.73</v>
       </c>
       <c r="L510" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21415,7 +21433,7 @@
         <v>13.47</v>
       </c>
       <c r="L511" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21453,7 +21471,7 @@
         <v>11.31</v>
       </c>
       <c r="L512" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21491,7 +21509,7 @@
         <v>9.83</v>
       </c>
       <c r="L513" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21529,7 +21547,7 @@
         <v>9.82</v>
       </c>
       <c r="L514" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21567,7 +21585,7 @@
         <v>11.69</v>
       </c>
       <c r="L515" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21605,7 +21623,7 @@
         <v>11.42</v>
       </c>
       <c r="L516" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21643,7 +21661,7 @@
         <v>11.05</v>
       </c>
       <c r="L517" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21681,7 +21699,7 @@
         <v>11.59</v>
       </c>
       <c r="L518" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21719,7 +21737,7 @@
         <v>12.05</v>
       </c>
       <c r="L519" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21757,7 +21775,7 @@
         <v>12.22</v>
       </c>
       <c r="L520" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21795,7 +21813,7 @@
         <v>12.06</v>
       </c>
       <c r="L521" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21833,7 +21851,7 @@
         <v>10.25</v>
       </c>
       <c r="L522" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21871,7 +21889,7 @@
         <v>11.98</v>
       </c>
       <c r="L523" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21909,7 +21927,7 @@
         <v>11.96</v>
       </c>
       <c r="L524" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21947,7 +21965,7 @@
         <v>13.3</v>
       </c>
       <c r="L525" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -21985,7 +22003,7 @@
         <v>12.88</v>
       </c>
       <c r="L526" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22023,7 +22041,7 @@
         <v>14.57</v>
       </c>
       <c r="L527" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22061,7 +22079,7 @@
         <v>14.62</v>
       </c>
       <c r="L528" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22099,7 +22117,7 @@
         <v>12.7</v>
       </c>
       <c r="L529" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22137,7 +22155,7 @@
         <v>12.77</v>
       </c>
       <c r="L530" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22175,7 +22193,235 @@
         <v>11.53</v>
       </c>
       <c r="L531" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
         <v>541</v>
+      </c>
+      <c r="C532">
+        <v>13.6</v>
+      </c>
+      <c r="D532">
+        <v>97.25</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>-5.42</v>
+      </c>
+      <c r="G532">
+        <v>201.73</v>
+      </c>
+      <c r="H532">
+        <v>-5.81</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>0.21</v>
+      </c>
+      <c r="K532">
+        <v>11.24</v>
+      </c>
+      <c r="L532" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>542</v>
+      </c>
+      <c r="C533">
+        <v>13.6</v>
+      </c>
+      <c r="D533">
+        <v>67.34</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>-7.02</v>
+      </c>
+      <c r="G533">
+        <v>194.65</v>
+      </c>
+      <c r="H533">
+        <v>-12.27</v>
+      </c>
+      <c r="I533">
+        <v>-0.01</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>9.32</v>
+      </c>
+      <c r="L533" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>543</v>
+      </c>
+      <c r="C534">
+        <v>13.41</v>
+      </c>
+      <c r="D534">
+        <v>30.63</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>-7.09</v>
+      </c>
+      <c r="G534">
+        <v>197.49</v>
+      </c>
+      <c r="H534">
+        <v>-23.47</v>
+      </c>
+      <c r="I534">
+        <v>-0.01</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="L534" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>544</v>
+      </c>
+      <c r="C535">
+        <v>13.53</v>
+      </c>
+      <c r="D535">
+        <v>0.92</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>-6.74</v>
+      </c>
+      <c r="G535">
+        <v>190.22</v>
+      </c>
+      <c r="H535">
+        <v>-56.54</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>8.75</v>
+      </c>
+      <c r="L535" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>545</v>
+      </c>
+      <c r="C536">
+        <v>13.41</v>
+      </c>
+      <c r="D536">
+        <v>0.47</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>-6.23</v>
+      </c>
+      <c r="G536">
+        <v>187.4</v>
+      </c>
+      <c r="H536">
+        <v>-58.19</v>
+      </c>
+      <c r="I536">
+        <v>-0.01</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="L536" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>546</v>
+      </c>
+      <c r="C537">
+        <v>13.18</v>
+      </c>
+      <c r="D537">
+        <v>0.47</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>-6.19</v>
+      </c>
+      <c r="G537">
+        <v>196.7</v>
+      </c>
+      <c r="H537">
+        <v>-58.16</v>
+      </c>
+      <c r="I537">
+        <v>-0.01</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>8.99</v>
+      </c>
+      <c r="L537" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="566">
   <si>
     <t>Fecha</t>
   </si>
@@ -1643,6 +1643,72 @@
   </si>
   <si>
     <t>11/8/2020 4:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:10:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -2003,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L533"/>
+  <dimension ref="A1:L555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2079,7 +2145,7 @@
         <v>7.45</v>
       </c>
       <c r="L2" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2117,7 +2183,7 @@
         <v>6.4</v>
       </c>
       <c r="L3" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2155,7 +2221,7 @@
         <v>5.71</v>
       </c>
       <c r="L4" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2193,7 +2259,7 @@
         <v>4.79</v>
       </c>
       <c r="L5" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2231,7 +2297,7 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2269,7 +2335,7 @@
         <v>4.87</v>
       </c>
       <c r="L7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2307,7 +2373,7 @@
         <v>4.82</v>
       </c>
       <c r="L8" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2345,7 +2411,7 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2383,7 +2449,7 @@
         <v>6.07</v>
       </c>
       <c r="L10" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2421,7 +2487,7 @@
         <v>5.72</v>
       </c>
       <c r="L11" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2459,7 +2525,7 @@
         <v>4.83</v>
       </c>
       <c r="L12" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2497,7 +2563,7 @@
         <v>4.79</v>
       </c>
       <c r="L13" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2535,7 +2601,7 @@
         <v>6.32</v>
       </c>
       <c r="L14" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2573,7 +2639,7 @@
         <v>4.51</v>
       </c>
       <c r="L15" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2611,7 +2677,7 @@
         <v>3.93</v>
       </c>
       <c r="L16" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2649,7 +2715,7 @@
         <v>4.41</v>
       </c>
       <c r="L17" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2687,7 +2753,7 @@
         <v>6.5</v>
       </c>
       <c r="L18" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2725,7 +2791,7 @@
         <v>7.95</v>
       </c>
       <c r="L19" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2763,7 +2829,7 @@
         <v>6.1</v>
       </c>
       <c r="L20" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2801,7 +2867,7 @@
         <v>5.2</v>
       </c>
       <c r="L21" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2839,7 +2905,7 @@
         <v>5.13</v>
       </c>
       <c r="L22" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2877,7 +2943,7 @@
         <v>5.86</v>
       </c>
       <c r="L23" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2915,7 +2981,7 @@
         <v>4.44</v>
       </c>
       <c r="L24" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2953,7 +3019,7 @@
         <v>3.29</v>
       </c>
       <c r="L25" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2991,7 +3057,7 @@
         <v>6.22</v>
       </c>
       <c r="L26" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3029,7 +3095,7 @@
         <v>6.31</v>
       </c>
       <c r="L27" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3067,7 +3133,7 @@
         <v>8.41</v>
       </c>
       <c r="L28" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3105,7 +3171,7 @@
         <v>8.68</v>
       </c>
       <c r="L29" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3143,7 +3209,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L30" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3181,7 +3247,7 @@
         <v>9.42</v>
       </c>
       <c r="L31" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3219,7 +3285,7 @@
         <v>8.27</v>
       </c>
       <c r="L32" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3257,7 +3323,7 @@
         <v>7.86</v>
       </c>
       <c r="L33" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3295,7 +3361,7 @@
         <v>11.62</v>
       </c>
       <c r="L34" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3333,7 +3399,7 @@
         <v>9.34</v>
       </c>
       <c r="L35" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3371,7 +3437,7 @@
         <v>10.02</v>
       </c>
       <c r="L36" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3409,7 +3475,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="L37" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3447,7 +3513,7 @@
         <v>8.09</v>
       </c>
       <c r="L38" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3485,7 +3551,7 @@
         <v>9.08</v>
       </c>
       <c r="L39" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3523,7 +3589,7 @@
         <v>10.25</v>
       </c>
       <c r="L40" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3561,7 +3627,7 @@
         <v>8.94</v>
       </c>
       <c r="L41" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3599,7 +3665,7 @@
         <v>11.33</v>
       </c>
       <c r="L42" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3637,7 +3703,7 @@
         <v>12.61</v>
       </c>
       <c r="L43" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3675,7 +3741,7 @@
         <v>11.07</v>
       </c>
       <c r="L44" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3713,7 +3779,7 @@
         <v>12.23</v>
       </c>
       <c r="L45" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3751,7 +3817,7 @@
         <v>8.77</v>
       </c>
       <c r="L46" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3789,7 +3855,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L47" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3827,7 +3893,7 @@
         <v>7.54</v>
       </c>
       <c r="L48" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3865,7 +3931,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="L49" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3903,7 +3969,7 @@
         <v>8.52</v>
       </c>
       <c r="L50" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3941,7 +4007,7 @@
         <v>7.05</v>
       </c>
       <c r="L51" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3979,7 +4045,7 @@
         <v>7.64</v>
       </c>
       <c r="L52" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4017,7 +4083,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L53" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4055,7 +4121,7 @@
         <v>7.27</v>
       </c>
       <c r="L54" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4093,7 +4159,7 @@
         <v>7.05</v>
       </c>
       <c r="L55" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4131,7 +4197,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L56" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4169,7 +4235,7 @@
         <v>7.88</v>
       </c>
       <c r="L57" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4207,7 +4273,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L58" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4245,7 +4311,7 @@
         <v>7.97</v>
       </c>
       <c r="L59" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4283,7 +4349,7 @@
         <v>8.93</v>
       </c>
       <c r="L60" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4321,7 +4387,7 @@
         <v>7.53</v>
       </c>
       <c r="L61" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4359,7 +4425,7 @@
         <v>6.76</v>
       </c>
       <c r="L62" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4397,7 +4463,7 @@
         <v>6.52</v>
       </c>
       <c r="L63" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4435,7 +4501,7 @@
         <v>6.52</v>
       </c>
       <c r="L64" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4473,7 +4539,7 @@
         <v>7.26</v>
       </c>
       <c r="L65" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4511,7 +4577,7 @@
         <v>7.7</v>
       </c>
       <c r="L66" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4549,7 +4615,7 @@
         <v>7.38</v>
       </c>
       <c r="L67" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4587,7 +4653,7 @@
         <v>5.94</v>
       </c>
       <c r="L68" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4625,7 +4691,7 @@
         <v>7.08</v>
       </c>
       <c r="L69" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4663,7 +4729,7 @@
         <v>6.09</v>
       </c>
       <c r="L70" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4701,7 +4767,7 @@
         <v>6.25</v>
       </c>
       <c r="L71" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4739,7 +4805,7 @@
         <v>6.08</v>
       </c>
       <c r="L72" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4777,7 +4843,7 @@
         <v>6.08</v>
       </c>
       <c r="L73" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4815,7 +4881,7 @@
         <v>5.69</v>
       </c>
       <c r="L74" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4853,7 +4919,7 @@
         <v>5.84</v>
       </c>
       <c r="L75" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4891,7 +4957,7 @@
         <v>6.16</v>
       </c>
       <c r="L76" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4929,7 +4995,7 @@
         <v>6.7</v>
       </c>
       <c r="L77" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4967,7 +5033,7 @@
         <v>6.9</v>
       </c>
       <c r="L78" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5005,7 +5071,7 @@
         <v>5.62</v>
       </c>
       <c r="L79" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5043,7 +5109,7 @@
         <v>8.35</v>
       </c>
       <c r="L80" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5081,7 +5147,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L81" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5119,7 +5185,7 @@
         <v>10.36</v>
       </c>
       <c r="L82" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5157,7 +5223,7 @@
         <v>5.92</v>
       </c>
       <c r="L83" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5195,7 +5261,7 @@
         <v>3.42</v>
       </c>
       <c r="L84" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5233,7 +5299,7 @@
         <v>5.76</v>
       </c>
       <c r="L85" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5271,7 +5337,7 @@
         <v>6.75</v>
       </c>
       <c r="L86" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5309,7 +5375,7 @@
         <v>7.9</v>
       </c>
       <c r="L87" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5347,7 +5413,7 @@
         <v>7.21</v>
       </c>
       <c r="L88" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5385,7 +5451,7 @@
         <v>8.67</v>
       </c>
       <c r="L89" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5423,7 +5489,7 @@
         <v>5.95</v>
       </c>
       <c r="L90" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5461,7 +5527,7 @@
         <v>8.17</v>
       </c>
       <c r="L91" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5499,7 +5565,7 @@
         <v>9.23</v>
       </c>
       <c r="L92" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5537,7 +5603,7 @@
         <v>7.53</v>
       </c>
       <c r="L93" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5575,7 +5641,7 @@
         <v>6.94</v>
       </c>
       <c r="L94" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5613,7 +5679,7 @@
         <v>5.27</v>
       </c>
       <c r="L95" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5651,7 +5717,7 @@
         <v>5.16</v>
       </c>
       <c r="L96" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5689,7 +5755,7 @@
         <v>5.34</v>
       </c>
       <c r="L97" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5727,7 +5793,7 @@
         <v>5.48</v>
       </c>
       <c r="L98" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5765,7 +5831,7 @@
         <v>4.54</v>
       </c>
       <c r="L99" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5803,7 +5869,7 @@
         <v>4.39</v>
       </c>
       <c r="L100" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5841,7 +5907,7 @@
         <v>4.95</v>
       </c>
       <c r="L101" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5879,7 +5945,7 @@
         <v>3.22</v>
       </c>
       <c r="L102" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5917,7 +5983,7 @@
         <v>2.11</v>
       </c>
       <c r="L103" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5955,7 +6021,7 @@
         <v>1.83</v>
       </c>
       <c r="L104" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5993,7 +6059,7 @@
         <v>1.39</v>
       </c>
       <c r="L105" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6031,7 +6097,7 @@
         <v>2.74</v>
       </c>
       <c r="L106" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6069,7 +6135,7 @@
         <v>3.06</v>
       </c>
       <c r="L107" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6107,7 +6173,7 @@
         <v>4.19</v>
       </c>
       <c r="L108" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6145,7 +6211,7 @@
         <v>3.49</v>
       </c>
       <c r="L109" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6183,7 +6249,7 @@
         <v>2.06</v>
       </c>
       <c r="L110" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6221,7 +6287,7 @@
         <v>2.03</v>
       </c>
       <c r="L111" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6259,7 +6325,7 @@
         <v>1.98</v>
       </c>
       <c r="L112" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6297,7 +6363,7 @@
         <v>2.28</v>
       </c>
       <c r="L113" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6335,7 +6401,7 @@
         <v>3.27</v>
       </c>
       <c r="L114" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6373,7 +6439,7 @@
         <v>2.77</v>
       </c>
       <c r="L115" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6411,7 +6477,7 @@
         <v>2.71</v>
       </c>
       <c r="L116" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6449,7 +6515,7 @@
         <v>1.92</v>
       </c>
       <c r="L117" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6487,7 +6553,7 @@
         <v>0.95</v>
       </c>
       <c r="L118" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6525,7 +6591,7 @@
         <v>1.66</v>
       </c>
       <c r="L119" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6563,7 +6629,7 @@
         <v>1.01</v>
       </c>
       <c r="L120" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6601,7 +6667,7 @@
         <v>1.4</v>
       </c>
       <c r="L121" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6639,7 +6705,7 @@
         <v>2.35</v>
       </c>
       <c r="L122" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6677,7 +6743,7 @@
         <v>2.23</v>
       </c>
       <c r="L123" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6715,7 +6781,7 @@
         <v>2.09</v>
       </c>
       <c r="L124" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6753,7 +6819,7 @@
         <v>1.34</v>
       </c>
       <c r="L125" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6791,7 +6857,7 @@
         <v>0.78</v>
       </c>
       <c r="L126" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6829,7 +6895,7 @@
         <v>1.49</v>
       </c>
       <c r="L127" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6867,7 +6933,7 @@
         <v>1.65</v>
       </c>
       <c r="L128" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6905,7 +6971,7 @@
         <v>1.38</v>
       </c>
       <c r="L129" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6943,7 +7009,7 @@
         <v>1.49</v>
       </c>
       <c r="L130" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6981,7 +7047,7 @@
         <v>1.34</v>
       </c>
       <c r="L131" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7019,7 +7085,7 @@
         <v>1.87</v>
       </c>
       <c r="L132" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7057,7 +7123,7 @@
         <v>1.21</v>
       </c>
       <c r="L133" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7095,7 +7161,7 @@
         <v>1.26</v>
       </c>
       <c r="L134" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7133,7 +7199,7 @@
         <v>1.54</v>
       </c>
       <c r="L135" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7171,7 +7237,7 @@
         <v>3.28</v>
       </c>
       <c r="L136" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7209,7 +7275,7 @@
         <v>3.01</v>
       </c>
       <c r="L137" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7247,7 +7313,7 @@
         <v>2.25</v>
       </c>
       <c r="L138" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7285,7 +7351,7 @@
         <v>1.01</v>
       </c>
       <c r="L139" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7323,7 +7389,7 @@
         <v>1.41</v>
       </c>
       <c r="L140" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7361,7 +7427,7 @@
         <v>1.15</v>
       </c>
       <c r="L141" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7399,7 +7465,7 @@
         <v>0.84</v>
       </c>
       <c r="L142" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7437,7 +7503,7 @@
         <v>1.74</v>
       </c>
       <c r="L143" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7475,7 +7541,7 @@
         <v>1.46</v>
       </c>
       <c r="L144" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7513,7 +7579,7 @@
         <v>1.8</v>
       </c>
       <c r="L145" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7551,7 +7617,7 @@
         <v>0.92</v>
       </c>
       <c r="L146" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7589,7 +7655,7 @@
         <v>1.91</v>
       </c>
       <c r="L147" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7627,7 +7693,7 @@
         <v>1.68</v>
       </c>
       <c r="L148" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7665,7 +7731,7 @@
         <v>1.12</v>
       </c>
       <c r="L149" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7703,7 +7769,7 @@
         <v>2.15</v>
       </c>
       <c r="L150" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7741,7 +7807,7 @@
         <v>1.95</v>
       </c>
       <c r="L151" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7779,7 +7845,7 @@
         <v>1.14</v>
       </c>
       <c r="L152" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7817,7 +7883,7 @@
         <v>1.23</v>
       </c>
       <c r="L153" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7855,7 +7921,7 @@
         <v>2.05</v>
       </c>
       <c r="L154" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7893,7 +7959,7 @@
         <v>2.76</v>
       </c>
       <c r="L155" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7931,7 +7997,7 @@
         <v>1.61</v>
       </c>
       <c r="L156" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7969,7 +8035,7 @@
         <v>1.26</v>
       </c>
       <c r="L157" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8007,7 +8073,7 @@
         <v>0.75</v>
       </c>
       <c r="L158" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8045,7 +8111,7 @@
         <v>1.36</v>
       </c>
       <c r="L159" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8083,7 +8149,7 @@
         <v>1.65</v>
       </c>
       <c r="L160" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8121,7 +8187,7 @@
         <v>1.28</v>
       </c>
       <c r="L161" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8159,7 +8225,7 @@
         <v>1.15</v>
       </c>
       <c r="L162" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8197,7 +8263,7 @@
         <v>1.69</v>
       </c>
       <c r="L163" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8235,7 +8301,7 @@
         <v>2.07</v>
       </c>
       <c r="L164" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8273,7 +8339,7 @@
         <v>1.36</v>
       </c>
       <c r="L165" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8311,7 +8377,7 @@
         <v>1.04</v>
       </c>
       <c r="L166" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8349,7 +8415,7 @@
         <v>1.32</v>
       </c>
       <c r="L167" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8387,7 +8453,7 @@
         <v>1.76</v>
       </c>
       <c r="L168" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8425,7 +8491,7 @@
         <v>1.51</v>
       </c>
       <c r="L169" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8463,7 +8529,7 @@
         <v>1.3</v>
       </c>
       <c r="L170" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8501,7 +8567,7 @@
         <v>1.54</v>
       </c>
       <c r="L171" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8539,7 +8605,7 @@
         <v>1.48</v>
       </c>
       <c r="L172" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8577,7 +8643,7 @@
         <v>0.58</v>
       </c>
       <c r="L173" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8615,7 +8681,7 @@
         <v>1.81</v>
       </c>
       <c r="L174" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8653,7 +8719,7 @@
         <v>1.42</v>
       </c>
       <c r="L175" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8691,7 +8757,7 @@
         <v>0.39</v>
       </c>
       <c r="L176" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8729,7 +8795,7 @@
         <v>1.1</v>
       </c>
       <c r="L177" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8767,7 +8833,7 @@
         <v>2.12</v>
       </c>
       <c r="L178" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8805,7 +8871,7 @@
         <v>0.88</v>
       </c>
       <c r="L179" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8843,7 +8909,7 @@
         <v>1.93</v>
       </c>
       <c r="L180" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8881,7 +8947,7 @@
         <v>1.21</v>
       </c>
       <c r="L181" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8919,7 +8985,7 @@
         <v>0.73</v>
       </c>
       <c r="L182" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8957,7 +9023,7 @@
         <v>2.91</v>
       </c>
       <c r="L183" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8995,7 +9061,7 @@
         <v>1.2</v>
       </c>
       <c r="L184" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9033,7 +9099,7 @@
         <v>1.63</v>
       </c>
       <c r="L185" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9071,7 +9137,7 @@
         <v>2.05</v>
       </c>
       <c r="L186" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9109,7 +9175,7 @@
         <v>1.44</v>
       </c>
       <c r="L187" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9147,7 +9213,7 @@
         <v>2.29</v>
       </c>
       <c r="L188" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9185,7 +9251,7 @@
         <v>1.4</v>
       </c>
       <c r="L189" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9223,7 +9289,7 @@
         <v>1.37</v>
       </c>
       <c r="L190" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9261,7 +9327,7 @@
         <v>2.43</v>
       </c>
       <c r="L191" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9299,7 +9365,7 @@
         <v>1.62</v>
       </c>
       <c r="L192" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9337,7 +9403,7 @@
         <v>2.39</v>
       </c>
       <c r="L193" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9375,7 +9441,7 @@
         <v>1.81</v>
       </c>
       <c r="L194" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9413,7 +9479,7 @@
         <v>2.49</v>
       </c>
       <c r="L195" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9451,7 +9517,7 @@
         <v>2.89</v>
       </c>
       <c r="L196" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9489,7 +9555,7 @@
         <v>2.79</v>
       </c>
       <c r="L197" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9527,7 +9593,7 @@
         <v>3.54</v>
       </c>
       <c r="L198" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9565,7 +9631,7 @@
         <v>2.99</v>
       </c>
       <c r="L199" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9603,7 +9669,7 @@
         <v>4.57</v>
       </c>
       <c r="L200" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9641,7 +9707,7 @@
         <v>3.54</v>
       </c>
       <c r="L201" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9679,7 +9745,7 @@
         <v>3.07</v>
       </c>
       <c r="L202" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9717,7 +9783,7 @@
         <v>3.03</v>
       </c>
       <c r="L203" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9755,7 +9821,7 @@
         <v>2.94</v>
       </c>
       <c r="L204" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9793,7 +9859,7 @@
         <v>4.6</v>
       </c>
       <c r="L205" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9831,7 +9897,7 @@
         <v>6.58</v>
       </c>
       <c r="L206" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9869,7 +9935,7 @@
         <v>5.58</v>
       </c>
       <c r="L207" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9907,7 +9973,7 @@
         <v>3.01</v>
       </c>
       <c r="L208" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9945,7 +10011,7 @@
         <v>2.51</v>
       </c>
       <c r="L209" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9983,7 +10049,7 @@
         <v>4.13</v>
       </c>
       <c r="L210" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10021,7 +10087,7 @@
         <v>6.11</v>
       </c>
       <c r="L211" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10059,7 +10125,7 @@
         <v>7.64</v>
       </c>
       <c r="L212" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10097,7 +10163,7 @@
         <v>6.72</v>
       </c>
       <c r="L213" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10135,7 +10201,7 @@
         <v>7.64</v>
       </c>
       <c r="L214" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10173,7 +10239,7 @@
         <v>6.55</v>
       </c>
       <c r="L215" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10211,7 +10277,7 @@
         <v>6.91</v>
       </c>
       <c r="L216" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10249,7 +10315,7 @@
         <v>7.42</v>
       </c>
       <c r="L217" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10287,7 +10353,7 @@
         <v>7.45</v>
       </c>
       <c r="L218" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10325,7 +10391,7 @@
         <v>8.51</v>
       </c>
       <c r="L219" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10363,7 +10429,7 @@
         <v>7</v>
       </c>
       <c r="L220" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10401,7 +10467,7 @@
         <v>7.92</v>
       </c>
       <c r="L221" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10439,7 +10505,7 @@
         <v>10.73</v>
       </c>
       <c r="L222" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10477,7 +10543,7 @@
         <v>13.47</v>
       </c>
       <c r="L223" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10515,7 +10581,7 @@
         <v>11.31</v>
       </c>
       <c r="L224" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10553,7 +10619,7 @@
         <v>9.83</v>
       </c>
       <c r="L225" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10591,7 +10657,7 @@
         <v>9.82</v>
       </c>
       <c r="L226" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10629,7 +10695,7 @@
         <v>11.69</v>
       </c>
       <c r="L227" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10667,7 +10733,7 @@
         <v>11.42</v>
       </c>
       <c r="L228" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10705,7 +10771,7 @@
         <v>11.05</v>
       </c>
       <c r="L229" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10743,7 +10809,7 @@
         <v>11.59</v>
       </c>
       <c r="L230" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10781,7 +10847,7 @@
         <v>12.05</v>
       </c>
       <c r="L231" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10819,7 +10885,7 @@
         <v>12.22</v>
       </c>
       <c r="L232" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10857,7 +10923,7 @@
         <v>12.06</v>
       </c>
       <c r="L233" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10895,7 +10961,7 @@
         <v>10.25</v>
       </c>
       <c r="L234" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10933,7 +10999,7 @@
         <v>11.98</v>
       </c>
       <c r="L235" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10971,7 +11037,7 @@
         <v>11.96</v>
       </c>
       <c r="L236" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11009,7 +11075,7 @@
         <v>13.3</v>
       </c>
       <c r="L237" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11047,7 +11113,7 @@
         <v>12.88</v>
       </c>
       <c r="L238" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11085,7 +11151,7 @@
         <v>14.57</v>
       </c>
       <c r="L239" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11123,7 +11189,7 @@
         <v>14.62</v>
       </c>
       <c r="L240" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11161,7 +11227,7 @@
         <v>12.7</v>
       </c>
       <c r="L241" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11199,7 +11265,7 @@
         <v>12.77</v>
       </c>
       <c r="L242" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11237,7 +11303,7 @@
         <v>11.53</v>
       </c>
       <c r="L243" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11275,7 +11341,7 @@
         <v>11.24</v>
       </c>
       <c r="L244" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11313,7 +11379,7 @@
         <v>9.32</v>
       </c>
       <c r="L245" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11351,7 +11417,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L246" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11389,7 +11455,7 @@
         <v>8.75</v>
       </c>
       <c r="L247" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11427,7 +11493,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11465,7 +11531,7 @@
         <v>8.99</v>
       </c>
       <c r="L249" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11503,7 +11569,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L250" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11541,7 +11607,7 @@
         <v>7.9</v>
       </c>
       <c r="L251" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11579,7 +11645,7 @@
         <v>6.84</v>
       </c>
       <c r="L252" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11617,7 +11683,7 @@
         <v>7.8</v>
       </c>
       <c r="L253" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11655,7 +11721,7 @@
         <v>7.48</v>
       </c>
       <c r="L254" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11693,7 +11759,7 @@
         <v>6.14</v>
       </c>
       <c r="L255" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11731,7 +11797,7 @@
         <v>5.55</v>
       </c>
       <c r="L256" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11769,7 +11835,7 @@
         <v>5.93</v>
       </c>
       <c r="L257" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11807,7 +11873,7 @@
         <v>6.03</v>
       </c>
       <c r="L258" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11845,7 +11911,7 @@
         <v>5.59</v>
       </c>
       <c r="L259" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11883,7 +11949,7 @@
         <v>7.07</v>
       </c>
       <c r="L260" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11921,7 +11987,7 @@
         <v>6.74</v>
       </c>
       <c r="L261" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11959,7 +12025,7 @@
         <v>6.9</v>
       </c>
       <c r="L262" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11997,7 +12063,7 @@
         <v>6.69</v>
       </c>
       <c r="L263" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12035,7 +12101,7 @@
         <v>5.72</v>
       </c>
       <c r="L264" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12073,7 +12139,7 @@
         <v>5.25</v>
       </c>
       <c r="L265" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12111,7 +12177,7 @@
         <v>3.95</v>
       </c>
       <c r="L266" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12149,7 +12215,7 @@
         <v>5.36</v>
       </c>
       <c r="L267" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12187,7 +12253,7 @@
         <v>3.67</v>
       </c>
       <c r="L268" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12225,7 +12291,7 @@
         <v>3.89</v>
       </c>
       <c r="L269" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12263,7 +12329,7 @@
         <v>3.25</v>
       </c>
       <c r="L270" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12301,7 +12367,7 @@
         <v>3.77</v>
       </c>
       <c r="L271" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12339,7 +12405,7 @@
         <v>4.07</v>
       </c>
       <c r="L272" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12377,7 +12443,7 @@
         <v>3.35</v>
       </c>
       <c r="L273" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12415,7 +12481,7 @@
         <v>3.86</v>
       </c>
       <c r="L274" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12453,7 +12519,7 @@
         <v>3.06</v>
       </c>
       <c r="L275" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12491,7 +12557,7 @@
         <v>4.31</v>
       </c>
       <c r="L276" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12529,7 +12595,7 @@
         <v>2.97</v>
       </c>
       <c r="L277" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12567,7 +12633,7 @@
         <v>1.98</v>
       </c>
       <c r="L278" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12605,7 +12671,7 @@
         <v>1.51</v>
       </c>
       <c r="L279" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12643,7 +12709,7 @@
         <v>1.01</v>
       </c>
       <c r="L280" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12681,7 +12747,7 @@
         <v>1.04</v>
       </c>
       <c r="L281" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12719,7 +12785,7 @@
         <v>1.36</v>
       </c>
       <c r="L282" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12757,7 +12823,7 @@
         <v>1.95</v>
       </c>
       <c r="L283" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12795,7 +12861,7 @@
         <v>2.48</v>
       </c>
       <c r="L284" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12833,7 +12899,7 @@
         <v>1.14</v>
       </c>
       <c r="L285" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12871,7 +12937,7 @@
         <v>1.89</v>
       </c>
       <c r="L286" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12909,7 +12975,7 @@
         <v>3.84</v>
       </c>
       <c r="L287" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12947,7 +13013,7 @@
         <v>5.48</v>
       </c>
       <c r="L288" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12985,7 +13051,7 @@
         <v>5.18</v>
       </c>
       <c r="L289" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13023,7 +13089,7 @@
         <v>6.03</v>
       </c>
       <c r="L290" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13061,7 +13127,7 @@
         <v>7.22</v>
       </c>
       <c r="L291" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13099,7 +13165,7 @@
         <v>5.57</v>
       </c>
       <c r="L292" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13137,7 +13203,7 @@
         <v>4.98</v>
       </c>
       <c r="L293" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13175,7 +13241,7 @@
         <v>3.61</v>
       </c>
       <c r="L294" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13213,7 +13279,7 @@
         <v>3.55</v>
       </c>
       <c r="L295" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13251,7 +13317,7 @@
         <v>1.81</v>
       </c>
       <c r="L296" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13289,7 +13355,7 @@
         <v>1.42</v>
       </c>
       <c r="L297" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13327,7 +13393,7 @@
         <v>1.41</v>
       </c>
       <c r="L298" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13365,7 +13431,7 @@
         <v>3.59</v>
       </c>
       <c r="L299" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13403,7 +13469,7 @@
         <v>1.55</v>
       </c>
       <c r="L300" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13441,7 +13507,7 @@
         <v>1.53</v>
       </c>
       <c r="L301" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13479,7 +13545,7 @@
         <v>1.96</v>
       </c>
       <c r="L302" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13517,7 +13583,7 @@
         <v>1.15</v>
       </c>
       <c r="L303" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13555,7 +13621,7 @@
         <v>0.89</v>
       </c>
       <c r="L304" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13593,7 +13659,7 @@
         <v>1.53</v>
       </c>
       <c r="L305" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13631,7 +13697,7 @@
         <v>2.09</v>
       </c>
       <c r="L306" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13669,7 +13735,7 @@
         <v>2.62</v>
       </c>
       <c r="L307" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13707,7 +13773,7 @@
         <v>1.77</v>
       </c>
       <c r="L308" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13745,7 +13811,7 @@
         <v>0.66</v>
       </c>
       <c r="L309" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13783,7 +13849,7 @@
         <v>1.16</v>
       </c>
       <c r="L310" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13821,7 +13887,7 @@
         <v>1.28</v>
       </c>
       <c r="L311" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13859,7 +13925,7 @@
         <v>1.79</v>
       </c>
       <c r="L312" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13897,7 +13963,7 @@
         <v>1.17</v>
       </c>
       <c r="L313" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13935,7 +14001,7 @@
         <v>2.74</v>
       </c>
       <c r="L314" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13973,7 +14039,7 @@
         <v>5.49</v>
       </c>
       <c r="L315" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14011,7 +14077,7 @@
         <v>3.07</v>
       </c>
       <c r="L316" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14049,7 +14115,7 @@
         <v>1.87</v>
       </c>
       <c r="L317" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14087,7 +14153,7 @@
         <v>1.09</v>
       </c>
       <c r="L318" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14125,7 +14191,7 @@
         <v>2.32</v>
       </c>
       <c r="L319" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14163,7 +14229,7 @@
         <v>2.2</v>
       </c>
       <c r="L320" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14201,7 +14267,7 @@
         <v>0.74</v>
       </c>
       <c r="L321" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14239,7 +14305,7 @@
         <v>2.15</v>
       </c>
       <c r="L322" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14277,7 +14343,7 @@
         <v>2.29</v>
       </c>
       <c r="L323" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14315,7 +14381,7 @@
         <v>1.56</v>
       </c>
       <c r="L324" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14353,7 +14419,7 @@
         <v>1.12</v>
       </c>
       <c r="L325" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14391,7 +14457,7 @@
         <v>1.49</v>
       </c>
       <c r="L326" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14429,7 +14495,7 @@
         <v>1.98</v>
       </c>
       <c r="L327" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14467,7 +14533,7 @@
         <v>1.1</v>
       </c>
       <c r="L328" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14505,7 +14571,7 @@
         <v>2.3</v>
       </c>
       <c r="L329" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14543,7 +14609,7 @@
         <v>3.5</v>
       </c>
       <c r="L330" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14581,7 +14647,7 @@
         <v>5.35</v>
       </c>
       <c r="L331" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14619,7 +14685,7 @@
         <v>2.33</v>
       </c>
       <c r="L332" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14657,7 +14723,7 @@
         <v>1.21</v>
       </c>
       <c r="L333" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14695,7 +14761,7 @@
         <v>1.2</v>
       </c>
       <c r="L334" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14733,7 +14799,7 @@
         <v>1.94</v>
       </c>
       <c r="L335" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14771,7 +14837,7 @@
         <v>2.78</v>
       </c>
       <c r="L336" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14809,7 +14875,7 @@
         <v>3.68</v>
       </c>
       <c r="L337" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14847,7 +14913,7 @@
         <v>4.84</v>
       </c>
       <c r="L338" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14885,7 +14951,7 @@
         <v>5.32</v>
       </c>
       <c r="L339" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14923,7 +14989,7 @@
         <v>3.73</v>
       </c>
       <c r="L340" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14961,7 +15027,7 @@
         <v>5.13</v>
       </c>
       <c r="L341" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14999,7 +15065,7 @@
         <v>7.22</v>
       </c>
       <c r="L342" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15037,7 +15103,7 @@
         <v>10.11</v>
       </c>
       <c r="L343" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15075,7 +15141,7 @@
         <v>8.24</v>
       </c>
       <c r="L344" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15113,7 +15179,7 @@
         <v>7.53</v>
       </c>
       <c r="L345" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15151,7 +15217,7 @@
         <v>7.3</v>
       </c>
       <c r="L346" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15189,7 +15255,7 @@
         <v>8.01</v>
       </c>
       <c r="L347" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15227,7 +15293,7 @@
         <v>11.42</v>
       </c>
       <c r="L348" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15265,7 +15331,7 @@
         <v>10.97</v>
       </c>
       <c r="L349" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15303,7 +15369,7 @@
         <v>10.4</v>
       </c>
       <c r="L350" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15341,7 +15407,7 @@
         <v>11.86</v>
       </c>
       <c r="L351" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15379,7 +15445,7 @@
         <v>12.95</v>
       </c>
       <c r="L352" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15417,7 +15483,7 @@
         <v>12.13</v>
       </c>
       <c r="L353" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15455,7 +15521,7 @@
         <v>12</v>
       </c>
       <c r="L354" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15493,7 +15559,7 @@
         <v>12.16</v>
       </c>
       <c r="L355" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15531,7 +15597,7 @@
         <v>11.01</v>
       </c>
       <c r="L356" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15569,7 +15635,7 @@
         <v>13.12</v>
       </c>
       <c r="L357" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15607,7 +15673,7 @@
         <v>13.87</v>
       </c>
       <c r="L358" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15645,7 +15711,7 @@
         <v>13.65</v>
       </c>
       <c r="L359" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15683,7 +15749,7 @@
         <v>13.81</v>
       </c>
       <c r="L360" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15721,7 +15787,7 @@
         <v>9.49</v>
       </c>
       <c r="L361" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15759,7 +15825,7 @@
         <v>10.26</v>
       </c>
       <c r="L362" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15797,7 +15863,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L363" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15835,7 +15901,7 @@
         <v>13.27</v>
       </c>
       <c r="L364" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15873,7 +15939,7 @@
         <v>12.58</v>
       </c>
       <c r="L365" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15911,7 +15977,7 @@
         <v>9.43</v>
       </c>
       <c r="L366" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15949,7 +16015,7 @@
         <v>4.87</v>
       </c>
       <c r="L367" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15987,7 +16053,7 @@
         <v>4.54</v>
       </c>
       <c r="L368" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16025,7 +16091,7 @@
         <v>7.34</v>
       </c>
       <c r="L369" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16063,7 +16129,7 @@
         <v>10.66</v>
       </c>
       <c r="L370" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16101,7 +16167,7 @@
         <v>11.4</v>
       </c>
       <c r="L371" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16139,7 +16205,7 @@
         <v>12.31</v>
       </c>
       <c r="L372" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16177,7 +16243,7 @@
         <v>13.32</v>
       </c>
       <c r="L373" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16215,7 +16281,7 @@
         <v>11.98</v>
       </c>
       <c r="L374" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16253,7 +16319,7 @@
         <v>11.69</v>
       </c>
       <c r="L375" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16291,7 +16357,7 @@
         <v>13.37</v>
       </c>
       <c r="L376" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16329,7 +16395,7 @@
         <v>12.91</v>
       </c>
       <c r="L377" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16367,7 +16433,7 @@
         <v>11.71</v>
       </c>
       <c r="L378" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16405,7 +16471,7 @@
         <v>12.56</v>
       </c>
       <c r="L379" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16443,7 +16509,7 @@
         <v>12.07</v>
       </c>
       <c r="L380" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16481,7 +16547,7 @@
         <v>10.48</v>
       </c>
       <c r="L381" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16519,7 +16585,7 @@
         <v>11.36</v>
       </c>
       <c r="L382" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16557,7 +16623,7 @@
         <v>9.43</v>
       </c>
       <c r="L383" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16595,7 +16661,7 @@
         <v>11.63</v>
       </c>
       <c r="L384" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16633,7 +16699,7 @@
         <v>10.38</v>
       </c>
       <c r="L385" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16671,7 +16737,7 @@
         <v>10.01</v>
       </c>
       <c r="L386" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16709,7 +16775,7 @@
         <v>10.42</v>
       </c>
       <c r="L387" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16747,7 +16813,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L388" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16785,7 +16851,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16823,7 +16889,7 @@
         <v>8.07</v>
       </c>
       <c r="L390" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16861,7 +16927,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L391" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16899,7 +16965,7 @@
         <v>7.17</v>
       </c>
       <c r="L392" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16937,7 +17003,7 @@
         <v>6.25</v>
       </c>
       <c r="L393" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16975,7 +17041,7 @@
         <v>5.09</v>
       </c>
       <c r="L394" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17013,7 +17079,7 @@
         <v>5.04</v>
       </c>
       <c r="L395" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17051,7 +17117,7 @@
         <v>4.48</v>
       </c>
       <c r="L396" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17089,7 +17155,7 @@
         <v>6.18</v>
       </c>
       <c r="L397" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17127,7 +17193,7 @@
         <v>5.49</v>
       </c>
       <c r="L398" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17165,7 +17231,7 @@
         <v>4.32</v>
       </c>
       <c r="L399" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17203,7 +17269,7 @@
         <v>2.75</v>
       </c>
       <c r="L400" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17241,7 +17307,7 @@
         <v>2.43</v>
       </c>
       <c r="L401" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17279,7 +17345,7 @@
         <v>1.84</v>
       </c>
       <c r="L402" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17317,7 +17383,7 @@
         <v>2.01</v>
       </c>
       <c r="L403" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17355,7 +17421,7 @@
         <v>1.87</v>
       </c>
       <c r="L404" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17393,7 +17459,7 @@
         <v>1.14</v>
       </c>
       <c r="L405" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17431,7 +17497,7 @@
         <v>1.9</v>
       </c>
       <c r="L406" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17469,7 +17535,7 @@
         <v>1.8</v>
       </c>
       <c r="L407" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17507,7 +17573,7 @@
         <v>1.68</v>
       </c>
       <c r="L408" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17545,7 +17611,7 @@
         <v>2.11</v>
       </c>
       <c r="L409" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17583,7 +17649,7 @@
         <v>2.99</v>
       </c>
       <c r="L410" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17621,7 +17687,7 @@
         <v>6.18</v>
       </c>
       <c r="L411" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17659,7 +17725,7 @@
         <v>6.87</v>
       </c>
       <c r="L412" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17697,7 +17763,7 @@
         <v>6.02</v>
       </c>
       <c r="L413" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17735,7 +17801,7 @@
         <v>5.12</v>
       </c>
       <c r="L414" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17773,7 +17839,7 @@
         <v>7.52</v>
       </c>
       <c r="L415" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17811,7 +17877,7 @@
         <v>6</v>
       </c>
       <c r="L416" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17849,7 +17915,7 @@
         <v>8.5</v>
       </c>
       <c r="L417" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17887,7 +17953,7 @@
         <v>3.74</v>
       </c>
       <c r="L418" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17925,7 +17991,7 @@
         <v>6.42</v>
       </c>
       <c r="L419" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17963,7 +18029,7 @@
         <v>5.31</v>
       </c>
       <c r="L420" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18001,7 +18067,7 @@
         <v>5.4</v>
       </c>
       <c r="L421" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18039,7 +18105,7 @@
         <v>4.99</v>
       </c>
       <c r="L422" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18077,7 +18143,7 @@
         <v>4.52</v>
       </c>
       <c r="L423" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18115,7 +18181,7 @@
         <v>5.17</v>
       </c>
       <c r="L424" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18153,7 +18219,7 @@
         <v>7.43</v>
       </c>
       <c r="L425" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18191,7 +18257,7 @@
         <v>7.6</v>
       </c>
       <c r="L426" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18229,7 +18295,7 @@
         <v>6.74</v>
       </c>
       <c r="L427" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18267,7 +18333,7 @@
         <v>7.64</v>
       </c>
       <c r="L428" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18305,7 +18371,7 @@
         <v>7.4</v>
       </c>
       <c r="L429" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18343,7 +18409,7 @@
         <v>6.83</v>
       </c>
       <c r="L430" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18381,7 +18447,7 @@
         <v>4.66</v>
       </c>
       <c r="L431" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18419,7 +18485,7 @@
         <v>4.31</v>
       </c>
       <c r="L432" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18457,7 +18523,7 @@
         <v>3.83</v>
       </c>
       <c r="L433" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18495,7 +18561,7 @@
         <v>7.85</v>
       </c>
       <c r="L434" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18533,7 +18599,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L435" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18571,7 +18637,7 @@
         <v>6.45</v>
       </c>
       <c r="L436" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18609,7 +18675,7 @@
         <v>3.97</v>
       </c>
       <c r="L437" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18647,7 +18713,7 @@
         <v>3.99</v>
       </c>
       <c r="L438" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18685,7 +18751,7 @@
         <v>3.31</v>
       </c>
       <c r="L439" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18723,7 +18789,7 @@
         <v>1.95</v>
       </c>
       <c r="L440" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18761,7 +18827,7 @@
         <v>3.91</v>
       </c>
       <c r="L441" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18799,7 +18865,7 @@
         <v>4.22</v>
       </c>
       <c r="L442" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18837,7 +18903,7 @@
         <v>3.49</v>
       </c>
       <c r="L443" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18875,7 +18941,7 @@
         <v>1.36</v>
       </c>
       <c r="L444" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18913,7 +18979,7 @@
         <v>0.93</v>
       </c>
       <c r="L445" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18951,7 +19017,7 @@
         <v>1.35</v>
       </c>
       <c r="L446" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18989,7 +19055,7 @@
         <v>0.73</v>
       </c>
       <c r="L447" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19027,7 +19093,7 @@
         <v>2.47</v>
       </c>
       <c r="L448" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19065,7 +19131,7 @@
         <v>2.43</v>
       </c>
       <c r="L449" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19103,7 +19169,7 @@
         <v>1.83</v>
       </c>
       <c r="L450" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19141,7 +19207,7 @@
         <v>1.62</v>
       </c>
       <c r="L451" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19179,7 +19245,7 @@
         <v>2</v>
       </c>
       <c r="L452" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19217,7 +19283,7 @@
         <v>3.06</v>
       </c>
       <c r="L453" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19255,7 +19321,7 @@
         <v>2.07</v>
       </c>
       <c r="L454" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19293,7 +19359,7 @@
         <v>2.54</v>
       </c>
       <c r="L455" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19331,7 +19397,7 @@
         <v>2.45</v>
       </c>
       <c r="L456" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19369,7 +19435,7 @@
         <v>2.66</v>
       </c>
       <c r="L457" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19407,7 +19473,7 @@
         <v>2.38</v>
       </c>
       <c r="L458" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19445,7 +19511,7 @@
         <v>3.59</v>
       </c>
       <c r="L459" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19483,7 +19549,7 @@
         <v>1.91</v>
       </c>
       <c r="L460" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19521,7 +19587,7 @@
         <v>1.89</v>
       </c>
       <c r="L461" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19559,7 +19625,7 @@
         <v>2.11</v>
       </c>
       <c r="L462" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19597,7 +19663,7 @@
         <v>1.48</v>
       </c>
       <c r="L463" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19635,7 +19701,7 @@
         <v>1.32</v>
       </c>
       <c r="L464" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19673,7 +19739,7 @@
         <v>1.02</v>
       </c>
       <c r="L465" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19711,7 +19777,7 @@
         <v>2.31</v>
       </c>
       <c r="L466" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19749,7 +19815,7 @@
         <v>2.24</v>
       </c>
       <c r="L467" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19787,7 +19853,7 @@
         <v>0.91</v>
       </c>
       <c r="L468" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19825,7 +19891,7 @@
         <v>1.66</v>
       </c>
       <c r="L469" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19863,7 +19929,7 @@
         <v>2.22</v>
       </c>
       <c r="L470" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19901,7 +19967,7 @@
         <v>1.91</v>
       </c>
       <c r="L471" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19939,7 +20005,7 @@
         <v>1.43</v>
       </c>
       <c r="L472" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19977,7 +20043,7 @@
         <v>1.17</v>
       </c>
       <c r="L473" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20015,7 +20081,7 @@
         <v>2.53</v>
       </c>
       <c r="L474" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20053,7 +20119,7 @@
         <v>3</v>
       </c>
       <c r="L475" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20091,7 +20157,7 @@
         <v>2.5</v>
       </c>
       <c r="L476" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20129,7 +20195,7 @@
         <v>2.76</v>
       </c>
       <c r="L477" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20167,7 +20233,7 @@
         <v>0.99</v>
       </c>
       <c r="L478" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20205,7 +20271,7 @@
         <v>0.89</v>
       </c>
       <c r="L479" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20243,7 +20309,7 @@
         <v>1.91</v>
       </c>
       <c r="L480" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20281,7 +20347,7 @@
         <v>2.38</v>
       </c>
       <c r="L481" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20319,7 +20385,7 @@
         <v>2.3</v>
       </c>
       <c r="L482" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20357,7 +20423,7 @@
         <v>2.81</v>
       </c>
       <c r="L483" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20395,7 +20461,7 @@
         <v>2.14</v>
       </c>
       <c r="L484" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20433,7 +20499,7 @@
         <v>2.69</v>
       </c>
       <c r="L485" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20471,7 +20537,7 @@
         <v>4.45</v>
       </c>
       <c r="L486" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20509,7 +20575,7 @@
         <v>5.82</v>
       </c>
       <c r="L487" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20547,7 +20613,7 @@
         <v>6.63</v>
       </c>
       <c r="L488" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20585,7 +20651,7 @@
         <v>5.32</v>
       </c>
       <c r="L489" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20623,7 +20689,7 @@
         <v>5.62</v>
       </c>
       <c r="L490" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20661,7 +20727,7 @@
         <v>6.86</v>
       </c>
       <c r="L491" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20699,7 +20765,7 @@
         <v>8.66</v>
       </c>
       <c r="L492" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20737,7 +20803,7 @@
         <v>13.22</v>
       </c>
       <c r="L493" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20775,7 +20841,7 @@
         <v>12.47</v>
       </c>
       <c r="L494" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20813,7 +20879,7 @@
         <v>13.35</v>
       </c>
       <c r="L495" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20851,7 +20917,7 @@
         <v>13.87</v>
       </c>
       <c r="L496" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20889,7 +20955,7 @@
         <v>13.39</v>
       </c>
       <c r="L497" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20927,7 +20993,7 @@
         <v>13.29</v>
       </c>
       <c r="L498" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20965,7 +21031,7 @@
         <v>16.31</v>
       </c>
       <c r="L499" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21003,7 +21069,7 @@
         <v>16.01</v>
       </c>
       <c r="L500" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21041,7 +21107,7 @@
         <v>16.01</v>
       </c>
       <c r="L501" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21079,7 +21145,7 @@
         <v>16.05</v>
       </c>
       <c r="L502" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21117,7 +21183,7 @@
         <v>16.67</v>
       </c>
       <c r="L503" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21155,7 +21221,7 @@
         <v>15.83</v>
       </c>
       <c r="L504" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21193,7 +21259,7 @@
         <v>16.72</v>
       </c>
       <c r="L505" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21231,7 +21297,7 @@
         <v>15.64</v>
       </c>
       <c r="L506" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21269,7 +21335,7 @@
         <v>16.4</v>
       </c>
       <c r="L507" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21307,7 +21373,7 @@
         <v>15.47</v>
       </c>
       <c r="L508" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21345,7 +21411,7 @@
         <v>14.45</v>
       </c>
       <c r="L509" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21383,7 +21449,7 @@
         <v>15.15</v>
       </c>
       <c r="L510" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21421,7 +21487,7 @@
         <v>15.42</v>
       </c>
       <c r="L511" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21459,7 +21525,7 @@
         <v>14.56</v>
       </c>
       <c r="L512" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21497,7 +21563,7 @@
         <v>14.65</v>
       </c>
       <c r="L513" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21535,7 +21601,7 @@
         <v>13.45</v>
       </c>
       <c r="L514" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21573,7 +21639,7 @@
         <v>14.46</v>
       </c>
       <c r="L515" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21611,7 +21677,7 @@
         <v>13.41</v>
       </c>
       <c r="L516" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21649,7 +21715,7 @@
         <v>14.59</v>
       </c>
       <c r="L517" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21687,7 +21753,7 @@
         <v>14.85</v>
       </c>
       <c r="L518" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21725,7 +21791,7 @@
         <v>13.81</v>
       </c>
       <c r="L519" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21763,7 +21829,7 @@
         <v>13.15</v>
       </c>
       <c r="L520" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21801,7 +21867,7 @@
         <v>14.86</v>
       </c>
       <c r="L521" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21839,7 +21905,7 @@
         <v>13.01</v>
       </c>
       <c r="L522" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21877,7 +21943,7 @@
         <v>12.54</v>
       </c>
       <c r="L523" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21915,7 +21981,7 @@
         <v>12</v>
       </c>
       <c r="L524" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21953,7 +22019,7 @@
         <v>10.2</v>
       </c>
       <c r="L525" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -21991,7 +22057,7 @@
         <v>10.25</v>
       </c>
       <c r="L526" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22029,7 +22095,7 @@
         <v>11.85</v>
       </c>
       <c r="L527" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22067,7 +22133,7 @@
         <v>11.18</v>
       </c>
       <c r="L528" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22105,7 +22171,7 @@
         <v>12.35</v>
       </c>
       <c r="L529" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22143,7 +22209,7 @@
         <v>11.59</v>
       </c>
       <c r="L530" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22181,7 +22247,7 @@
         <v>11.48</v>
       </c>
       <c r="L531" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22219,7 +22285,7 @@
         <v>12.59</v>
       </c>
       <c r="L532" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22257,7 +22323,840 @@
         <v>10.76</v>
       </c>
       <c r="L533" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
         <v>543</v>
+      </c>
+      <c r="C534">
+        <v>13.61</v>
+      </c>
+      <c r="D534">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>-7.85</v>
+      </c>
+      <c r="G534">
+        <v>189.92</v>
+      </c>
+      <c r="H534">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="I534">
+        <v>0.01</v>
+      </c>
+      <c r="J534">
+        <v>39.84</v>
+      </c>
+      <c r="K534">
+        <v>14.14</v>
+      </c>
+      <c r="L534" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>544</v>
+      </c>
+      <c r="C535">
+        <v>13.58</v>
+      </c>
+      <c r="D535">
+        <v>90.44</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>-15.09</v>
+      </c>
+      <c r="G535">
+        <v>201.21</v>
+      </c>
+      <c r="H535">
+        <v>-16.32</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>29.15</v>
+      </c>
+      <c r="K535">
+        <v>10.21</v>
+      </c>
+      <c r="L535" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>545</v>
+      </c>
+      <c r="C536">
+        <v>13.17</v>
+      </c>
+      <c r="D536">
+        <v>92.3</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>-10.97</v>
+      </c>
+      <c r="G536">
+        <v>198.82</v>
+      </c>
+      <c r="H536">
+        <v>-11.99</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>29.84</v>
+      </c>
+      <c r="K536">
+        <v>11.13</v>
+      </c>
+      <c r="L536" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>546</v>
+      </c>
+      <c r="C537">
+        <v>13.07</v>
+      </c>
+      <c r="D537">
+        <v>94.48</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="G537">
+        <v>187.38</v>
+      </c>
+      <c r="H537">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="I537">
+        <v>0.01</v>
+      </c>
+      <c r="J537">
+        <v>39.96</v>
+      </c>
+      <c r="K537">
+        <v>11.37</v>
+      </c>
+      <c r="L537" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>547</v>
+      </c>
+      <c r="C538">
+        <v>13.05</v>
+      </c>
+      <c r="D538">
+        <v>97.67</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>-7.16</v>
+      </c>
+      <c r="G538">
+        <v>192.07</v>
+      </c>
+      <c r="H538">
+        <v>-7.47</v>
+      </c>
+      <c r="I538">
+        <v>0.01</v>
+      </c>
+      <c r="J538">
+        <v>27.16</v>
+      </c>
+      <c r="K538">
+        <v>11.84</v>
+      </c>
+      <c r="L538" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>548</v>
+      </c>
+      <c r="C539">
+        <v>13.06</v>
+      </c>
+      <c r="D539">
+        <v>99.97</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>-7.66</v>
+      </c>
+      <c r="G539">
+        <v>194.67</v>
+      </c>
+      <c r="H539">
+        <v>-7.66</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>24.24</v>
+      </c>
+      <c r="K539">
+        <v>10.48</v>
+      </c>
+      <c r="L539" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>549</v>
+      </c>
+      <c r="C540">
+        <v>13.05</v>
+      </c>
+      <c r="D540">
+        <v>100</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>-6.71</v>
+      </c>
+      <c r="G540">
+        <v>188.39</v>
+      </c>
+      <c r="H540">
+        <v>-6.71</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>24.88</v>
+      </c>
+      <c r="K540">
+        <v>9.59</v>
+      </c>
+      <c r="L540" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>550</v>
+      </c>
+      <c r="C541">
+        <v>13.04</v>
+      </c>
+      <c r="D541">
+        <v>100</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>-6.27</v>
+      </c>
+      <c r="G541">
+        <v>196.68</v>
+      </c>
+      <c r="H541">
+        <v>-6.27</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>29.44</v>
+      </c>
+      <c r="K541">
+        <v>10.49</v>
+      </c>
+      <c r="L541" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>551</v>
+      </c>
+      <c r="C542">
+        <v>13.04</v>
+      </c>
+      <c r="D542">
+        <v>100</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>-6.06</v>
+      </c>
+      <c r="G542">
+        <v>200.5</v>
+      </c>
+      <c r="H542">
+        <v>-6.06</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>26.85</v>
+      </c>
+      <c r="K542">
+        <v>8.1</v>
+      </c>
+      <c r="L542" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>552</v>
+      </c>
+      <c r="C543">
+        <v>13.02</v>
+      </c>
+      <c r="D543">
+        <v>100</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>-6.9</v>
+      </c>
+      <c r="G543">
+        <v>200.88</v>
+      </c>
+      <c r="H543">
+        <v>-6.9</v>
+      </c>
+      <c r="I543">
+        <v>-0.01</v>
+      </c>
+      <c r="J543">
+        <v>19.95</v>
+      </c>
+      <c r="K543">
+        <v>9.43</v>
+      </c>
+      <c r="L543" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>553</v>
+      </c>
+      <c r="C544">
+        <v>13.03</v>
+      </c>
+      <c r="D544">
+        <v>100</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>-7.22</v>
+      </c>
+      <c r="G544">
+        <v>204.4</v>
+      </c>
+      <c r="H544">
+        <v>-7.22</v>
+      </c>
+      <c r="I544">
+        <v>0.01</v>
+      </c>
+      <c r="J544">
+        <v>15.67</v>
+      </c>
+      <c r="K544">
+        <v>9.24</v>
+      </c>
+      <c r="L544" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>554</v>
+      </c>
+      <c r="C545">
+        <v>13.03</v>
+      </c>
+      <c r="D545">
+        <v>100</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>-8.33</v>
+      </c>
+      <c r="G545">
+        <v>208</v>
+      </c>
+      <c r="H545">
+        <v>-8.33</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="J545">
+        <v>23.59</v>
+      </c>
+      <c r="K545">
+        <v>9.31</v>
+      </c>
+      <c r="L545" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>555</v>
+      </c>
+      <c r="C546">
+        <v>13.01</v>
+      </c>
+      <c r="D546">
+        <v>100</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+      <c r="F546">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="G546">
+        <v>211.77</v>
+      </c>
+      <c r="H546">
+        <v>-9.550000000000001</v>
+      </c>
+      <c r="I546">
+        <v>-0.01</v>
+      </c>
+      <c r="J546">
+        <v>18.63</v>
+      </c>
+      <c r="K546">
+        <v>5.95</v>
+      </c>
+      <c r="L546" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>556</v>
+      </c>
+      <c r="C547">
+        <v>13.02</v>
+      </c>
+      <c r="D547">
+        <v>100</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="G547">
+        <v>193.54</v>
+      </c>
+      <c r="H547">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>10.76</v>
+      </c>
+      <c r="K547">
+        <v>6.08</v>
+      </c>
+      <c r="L547" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>557</v>
+      </c>
+      <c r="C548">
+        <v>13.02</v>
+      </c>
+      <c r="D548">
+        <v>100</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>-8.48</v>
+      </c>
+      <c r="G548">
+        <v>187.38</v>
+      </c>
+      <c r="H548">
+        <v>-8.48</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>26.63</v>
+      </c>
+      <c r="K548">
+        <v>5.96</v>
+      </c>
+      <c r="L548" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>558</v>
+      </c>
+      <c r="C549">
+        <v>13</v>
+      </c>
+      <c r="D549">
+        <v>100</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>-8.01</v>
+      </c>
+      <c r="G549">
+        <v>214.31</v>
+      </c>
+      <c r="H549">
+        <v>-8.01</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>14.64</v>
+      </c>
+      <c r="K549">
+        <v>7.27</v>
+      </c>
+      <c r="L549" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>559</v>
+      </c>
+      <c r="C550">
+        <v>13.01</v>
+      </c>
+      <c r="D550">
+        <v>100</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>-7.64</v>
+      </c>
+      <c r="G550">
+        <v>214.21</v>
+      </c>
+      <c r="H550">
+        <v>-7.64</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>16.74</v>
+      </c>
+      <c r="K550">
+        <v>4.78</v>
+      </c>
+      <c r="L550" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>560</v>
+      </c>
+      <c r="C551">
+        <v>13.01</v>
+      </c>
+      <c r="D551">
+        <v>100</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>-7.69</v>
+      </c>
+      <c r="G551">
+        <v>217.91</v>
+      </c>
+      <c r="H551">
+        <v>-7.69</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>19.73</v>
+      </c>
+      <c r="K551">
+        <v>4.99</v>
+      </c>
+      <c r="L551" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>561</v>
+      </c>
+      <c r="C552">
+        <v>13.01</v>
+      </c>
+      <c r="D552">
+        <v>100</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>-7.63</v>
+      </c>
+      <c r="G552">
+        <v>219.57</v>
+      </c>
+      <c r="H552">
+        <v>-7.63</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>29.64</v>
+      </c>
+      <c r="K552">
+        <v>6.07</v>
+      </c>
+      <c r="L552" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>562</v>
+      </c>
+      <c r="C553">
+        <v>13</v>
+      </c>
+      <c r="D553">
+        <v>100</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>-7.8</v>
+      </c>
+      <c r="G553">
+        <v>224.89</v>
+      </c>
+      <c r="H553">
+        <v>-7.8</v>
+      </c>
+      <c r="I553">
+        <v>-0.01</v>
+      </c>
+      <c r="J553">
+        <v>16.75</v>
+      </c>
+      <c r="K553">
+        <v>6.56</v>
+      </c>
+      <c r="L553" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>563</v>
+      </c>
+      <c r="C554">
+        <v>13</v>
+      </c>
+      <c r="D554">
+        <v>100</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>-8.06</v>
+      </c>
+      <c r="G554">
+        <v>225.22</v>
+      </c>
+      <c r="H554">
+        <v>-8.06</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>13.46</v>
+      </c>
+      <c r="K554">
+        <v>6.25</v>
+      </c>
+      <c r="L554" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>564</v>
+      </c>
+      <c r="D555">
+        <v>100</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>-7.78</v>
+      </c>
+      <c r="G555">
+        <v>211.43</v>
+      </c>
+      <c r="H555">
+        <v>-7.78</v>
+      </c>
+      <c r="I555">
+        <v>0</v>
+      </c>
+      <c r="J555">
+        <v>18.59</v>
+      </c>
+      <c r="K555">
+        <v>4.49</v>
+      </c>
+      <c r="L555" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="569">
   <si>
     <t>Fecha</t>
   </si>
@@ -1709,6 +1709,15 @@
   </si>
   <si>
     <t>11/8/2020 8:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:40:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -2069,7 +2078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L555"/>
+  <dimension ref="A1:L558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2145,7 +2154,7 @@
         <v>7.45</v>
       </c>
       <c r="L2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2183,7 +2192,7 @@
         <v>6.4</v>
       </c>
       <c r="L3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2221,7 +2230,7 @@
         <v>5.71</v>
       </c>
       <c r="L4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2259,7 +2268,7 @@
         <v>4.79</v>
       </c>
       <c r="L5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2297,7 +2306,7 @@
         <v>3.65</v>
       </c>
       <c r="L6" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2335,7 +2344,7 @@
         <v>4.87</v>
       </c>
       <c r="L7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2373,7 +2382,7 @@
         <v>4.82</v>
       </c>
       <c r="L8" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2411,7 +2420,7 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2449,7 +2458,7 @@
         <v>6.07</v>
       </c>
       <c r="L10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2487,7 +2496,7 @@
         <v>5.72</v>
       </c>
       <c r="L11" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2525,7 +2534,7 @@
         <v>4.83</v>
       </c>
       <c r="L12" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2563,7 +2572,7 @@
         <v>4.79</v>
       </c>
       <c r="L13" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2601,7 +2610,7 @@
         <v>6.32</v>
       </c>
       <c r="L14" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2639,7 +2648,7 @@
         <v>4.51</v>
       </c>
       <c r="L15" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2677,7 +2686,7 @@
         <v>3.93</v>
       </c>
       <c r="L16" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2715,7 +2724,7 @@
         <v>4.41</v>
       </c>
       <c r="L17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2753,7 +2762,7 @@
         <v>6.5</v>
       </c>
       <c r="L18" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2791,7 +2800,7 @@
         <v>7.95</v>
       </c>
       <c r="L19" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2829,7 +2838,7 @@
         <v>6.1</v>
       </c>
       <c r="L20" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2867,7 +2876,7 @@
         <v>5.2</v>
       </c>
       <c r="L21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2905,7 +2914,7 @@
         <v>5.13</v>
       </c>
       <c r="L22" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2943,7 +2952,7 @@
         <v>5.86</v>
       </c>
       <c r="L23" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2981,7 +2990,7 @@
         <v>4.44</v>
       </c>
       <c r="L24" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3019,7 +3028,7 @@
         <v>3.29</v>
       </c>
       <c r="L25" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3057,7 +3066,7 @@
         <v>6.22</v>
       </c>
       <c r="L26" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3095,7 +3104,7 @@
         <v>6.31</v>
       </c>
       <c r="L27" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3133,7 +3142,7 @@
         <v>8.41</v>
       </c>
       <c r="L28" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3171,7 +3180,7 @@
         <v>8.68</v>
       </c>
       <c r="L29" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3209,7 +3218,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L30" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3247,7 +3256,7 @@
         <v>9.42</v>
       </c>
       <c r="L31" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3285,7 +3294,7 @@
         <v>8.27</v>
       </c>
       <c r="L32" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3323,7 +3332,7 @@
         <v>7.86</v>
       </c>
       <c r="L33" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3361,7 +3370,7 @@
         <v>11.62</v>
       </c>
       <c r="L34" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3399,7 +3408,7 @@
         <v>9.34</v>
       </c>
       <c r="L35" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3437,7 +3446,7 @@
         <v>10.02</v>
       </c>
       <c r="L36" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3475,7 +3484,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="L37" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3513,7 +3522,7 @@
         <v>8.09</v>
       </c>
       <c r="L38" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3551,7 +3560,7 @@
         <v>9.08</v>
       </c>
       <c r="L39" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3589,7 +3598,7 @@
         <v>10.25</v>
       </c>
       <c r="L40" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3627,7 +3636,7 @@
         <v>8.94</v>
       </c>
       <c r="L41" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3665,7 +3674,7 @@
         <v>11.33</v>
       </c>
       <c r="L42" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3703,7 +3712,7 @@
         <v>12.61</v>
       </c>
       <c r="L43" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3741,7 +3750,7 @@
         <v>11.07</v>
       </c>
       <c r="L44" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3779,7 +3788,7 @@
         <v>12.23</v>
       </c>
       <c r="L45" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3817,7 +3826,7 @@
         <v>8.77</v>
       </c>
       <c r="L46" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3855,7 +3864,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="L47" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3893,7 +3902,7 @@
         <v>7.54</v>
       </c>
       <c r="L48" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3931,7 +3940,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="L49" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3969,7 +3978,7 @@
         <v>8.52</v>
       </c>
       <c r="L50" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4007,7 +4016,7 @@
         <v>7.05</v>
       </c>
       <c r="L51" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4045,7 +4054,7 @@
         <v>7.64</v>
       </c>
       <c r="L52" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4083,7 +4092,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L53" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4121,7 +4130,7 @@
         <v>7.27</v>
       </c>
       <c r="L54" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4159,7 +4168,7 @@
         <v>7.05</v>
       </c>
       <c r="L55" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4197,7 +4206,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L56" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4235,7 +4244,7 @@
         <v>7.88</v>
       </c>
       <c r="L57" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4273,7 +4282,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L58" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4311,7 +4320,7 @@
         <v>7.97</v>
       </c>
       <c r="L59" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4349,7 +4358,7 @@
         <v>8.93</v>
       </c>
       <c r="L60" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4387,7 +4396,7 @@
         <v>7.53</v>
       </c>
       <c r="L61" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4425,7 +4434,7 @@
         <v>6.76</v>
       </c>
       <c r="L62" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4463,7 +4472,7 @@
         <v>6.52</v>
       </c>
       <c r="L63" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4501,7 +4510,7 @@
         <v>6.52</v>
       </c>
       <c r="L64" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4539,7 +4548,7 @@
         <v>7.26</v>
       </c>
       <c r="L65" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4577,7 +4586,7 @@
         <v>7.7</v>
       </c>
       <c r="L66" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4615,7 +4624,7 @@
         <v>7.38</v>
       </c>
       <c r="L67" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4653,7 +4662,7 @@
         <v>5.94</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4691,7 +4700,7 @@
         <v>7.08</v>
       </c>
       <c r="L69" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4729,7 +4738,7 @@
         <v>6.09</v>
       </c>
       <c r="L70" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4767,7 +4776,7 @@
         <v>6.25</v>
       </c>
       <c r="L71" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4805,7 +4814,7 @@
         <v>6.08</v>
       </c>
       <c r="L72" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4843,7 +4852,7 @@
         <v>6.08</v>
       </c>
       <c r="L73" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4881,7 +4890,7 @@
         <v>5.69</v>
       </c>
       <c r="L74" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4919,7 +4928,7 @@
         <v>5.84</v>
       </c>
       <c r="L75" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4957,7 +4966,7 @@
         <v>6.16</v>
       </c>
       <c r="L76" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4995,7 +5004,7 @@
         <v>6.7</v>
       </c>
       <c r="L77" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5033,7 +5042,7 @@
         <v>6.9</v>
       </c>
       <c r="L78" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5071,7 +5080,7 @@
         <v>5.62</v>
       </c>
       <c r="L79" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5109,7 +5118,7 @@
         <v>8.35</v>
       </c>
       <c r="L80" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5147,7 +5156,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="L81" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5185,7 +5194,7 @@
         <v>10.36</v>
       </c>
       <c r="L82" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5223,7 +5232,7 @@
         <v>5.92</v>
       </c>
       <c r="L83" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5261,7 +5270,7 @@
         <v>3.42</v>
       </c>
       <c r="L84" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5299,7 +5308,7 @@
         <v>5.76</v>
       </c>
       <c r="L85" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5337,7 +5346,7 @@
         <v>6.75</v>
       </c>
       <c r="L86" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5375,7 +5384,7 @@
         <v>7.9</v>
       </c>
       <c r="L87" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5413,7 +5422,7 @@
         <v>7.21</v>
       </c>
       <c r="L88" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5451,7 +5460,7 @@
         <v>8.67</v>
       </c>
       <c r="L89" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5489,7 +5498,7 @@
         <v>5.95</v>
       </c>
       <c r="L90" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5527,7 +5536,7 @@
         <v>8.17</v>
       </c>
       <c r="L91" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5565,7 +5574,7 @@
         <v>9.23</v>
       </c>
       <c r="L92" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5603,7 +5612,7 @@
         <v>7.53</v>
       </c>
       <c r="L93" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5641,7 +5650,7 @@
         <v>6.94</v>
       </c>
       <c r="L94" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5679,7 +5688,7 @@
         <v>5.27</v>
       </c>
       <c r="L95" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5717,7 +5726,7 @@
         <v>5.16</v>
       </c>
       <c r="L96" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5755,7 +5764,7 @@
         <v>5.34</v>
       </c>
       <c r="L97" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5793,7 +5802,7 @@
         <v>5.48</v>
       </c>
       <c r="L98" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5831,7 +5840,7 @@
         <v>4.54</v>
       </c>
       <c r="L99" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5869,7 +5878,7 @@
         <v>4.39</v>
       </c>
       <c r="L100" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5907,7 +5916,7 @@
         <v>4.95</v>
       </c>
       <c r="L101" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5945,7 +5954,7 @@
         <v>3.22</v>
       </c>
       <c r="L102" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5983,7 +5992,7 @@
         <v>2.11</v>
       </c>
       <c r="L103" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6021,7 +6030,7 @@
         <v>1.83</v>
       </c>
       <c r="L104" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6059,7 +6068,7 @@
         <v>1.39</v>
       </c>
       <c r="L105" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6097,7 +6106,7 @@
         <v>2.74</v>
       </c>
       <c r="L106" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6135,7 +6144,7 @@
         <v>3.06</v>
       </c>
       <c r="L107" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6173,7 +6182,7 @@
         <v>4.19</v>
       </c>
       <c r="L108" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6211,7 +6220,7 @@
         <v>3.49</v>
       </c>
       <c r="L109" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6249,7 +6258,7 @@
         <v>2.06</v>
       </c>
       <c r="L110" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6287,7 +6296,7 @@
         <v>2.03</v>
       </c>
       <c r="L111" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6325,7 +6334,7 @@
         <v>1.98</v>
       </c>
       <c r="L112" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6363,7 +6372,7 @@
         <v>2.28</v>
       </c>
       <c r="L113" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6401,7 +6410,7 @@
         <v>3.27</v>
       </c>
       <c r="L114" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6439,7 +6448,7 @@
         <v>2.77</v>
       </c>
       <c r="L115" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6477,7 +6486,7 @@
         <v>2.71</v>
       </c>
       <c r="L116" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6515,7 +6524,7 @@
         <v>1.92</v>
       </c>
       <c r="L117" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6553,7 +6562,7 @@
         <v>0.95</v>
       </c>
       <c r="L118" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6591,7 +6600,7 @@
         <v>1.66</v>
       </c>
       <c r="L119" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6629,7 +6638,7 @@
         <v>1.01</v>
       </c>
       <c r="L120" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6667,7 +6676,7 @@
         <v>1.4</v>
       </c>
       <c r="L121" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6705,7 +6714,7 @@
         <v>2.35</v>
       </c>
       <c r="L122" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6743,7 +6752,7 @@
         <v>2.23</v>
       </c>
       <c r="L123" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6781,7 +6790,7 @@
         <v>2.09</v>
       </c>
       <c r="L124" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6819,7 +6828,7 @@
         <v>1.34</v>
       </c>
       <c r="L125" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6857,7 +6866,7 @@
         <v>0.78</v>
       </c>
       <c r="L126" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6895,7 +6904,7 @@
         <v>1.49</v>
       </c>
       <c r="L127" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6933,7 +6942,7 @@
         <v>1.65</v>
       </c>
       <c r="L128" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6971,7 +6980,7 @@
         <v>1.38</v>
       </c>
       <c r="L129" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -7009,7 +7018,7 @@
         <v>1.49</v>
       </c>
       <c r="L130" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -7047,7 +7056,7 @@
         <v>1.34</v>
       </c>
       <c r="L131" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7085,7 +7094,7 @@
         <v>1.87</v>
       </c>
       <c r="L132" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7123,7 +7132,7 @@
         <v>1.21</v>
       </c>
       <c r="L133" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7161,7 +7170,7 @@
         <v>1.26</v>
       </c>
       <c r="L134" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7199,7 +7208,7 @@
         <v>1.54</v>
       </c>
       <c r="L135" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7237,7 +7246,7 @@
         <v>3.28</v>
       </c>
       <c r="L136" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7275,7 +7284,7 @@
         <v>3.01</v>
       </c>
       <c r="L137" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7313,7 +7322,7 @@
         <v>2.25</v>
       </c>
       <c r="L138" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7351,7 +7360,7 @@
         <v>1.01</v>
       </c>
       <c r="L139" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7389,7 +7398,7 @@
         <v>1.41</v>
       </c>
       <c r="L140" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7427,7 +7436,7 @@
         <v>1.15</v>
       </c>
       <c r="L141" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7465,7 +7474,7 @@
         <v>0.84</v>
       </c>
       <c r="L142" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7503,7 +7512,7 @@
         <v>1.74</v>
       </c>
       <c r="L143" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7541,7 +7550,7 @@
         <v>1.46</v>
       </c>
       <c r="L144" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7579,7 +7588,7 @@
         <v>1.8</v>
       </c>
       <c r="L145" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7617,7 +7626,7 @@
         <v>0.92</v>
       </c>
       <c r="L146" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7655,7 +7664,7 @@
         <v>1.91</v>
       </c>
       <c r="L147" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7693,7 +7702,7 @@
         <v>1.68</v>
       </c>
       <c r="L148" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7731,7 +7740,7 @@
         <v>1.12</v>
       </c>
       <c r="L149" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7769,7 +7778,7 @@
         <v>2.15</v>
       </c>
       <c r="L150" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7807,7 +7816,7 @@
         <v>1.95</v>
       </c>
       <c r="L151" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7845,7 +7854,7 @@
         <v>1.14</v>
       </c>
       <c r="L152" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7883,7 +7892,7 @@
         <v>1.23</v>
       </c>
       <c r="L153" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7921,7 +7930,7 @@
         <v>2.05</v>
       </c>
       <c r="L154" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7959,7 +7968,7 @@
         <v>2.76</v>
       </c>
       <c r="L155" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7997,7 +8006,7 @@
         <v>1.61</v>
       </c>
       <c r="L156" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -8035,7 +8044,7 @@
         <v>1.26</v>
       </c>
       <c r="L157" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8073,7 +8082,7 @@
         <v>0.75</v>
       </c>
       <c r="L158" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8111,7 +8120,7 @@
         <v>1.36</v>
       </c>
       <c r="L159" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8149,7 +8158,7 @@
         <v>1.65</v>
       </c>
       <c r="L160" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8187,7 +8196,7 @@
         <v>1.28</v>
       </c>
       <c r="L161" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8225,7 +8234,7 @@
         <v>1.15</v>
       </c>
       <c r="L162" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8263,7 +8272,7 @@
         <v>1.69</v>
       </c>
       <c r="L163" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8301,7 +8310,7 @@
         <v>2.07</v>
       </c>
       <c r="L164" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8339,7 +8348,7 @@
         <v>1.36</v>
       </c>
       <c r="L165" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8377,7 +8386,7 @@
         <v>1.04</v>
       </c>
       <c r="L166" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8415,7 +8424,7 @@
         <v>1.32</v>
       </c>
       <c r="L167" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8453,7 +8462,7 @@
         <v>1.76</v>
       </c>
       <c r="L168" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8491,7 +8500,7 @@
         <v>1.51</v>
       </c>
       <c r="L169" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8529,7 +8538,7 @@
         <v>1.3</v>
       </c>
       <c r="L170" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8567,7 +8576,7 @@
         <v>1.54</v>
       </c>
       <c r="L171" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8605,7 +8614,7 @@
         <v>1.48</v>
       </c>
       <c r="L172" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8643,7 +8652,7 @@
         <v>0.58</v>
       </c>
       <c r="L173" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8681,7 +8690,7 @@
         <v>1.81</v>
       </c>
       <c r="L174" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8719,7 +8728,7 @@
         <v>1.42</v>
       </c>
       <c r="L175" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8757,7 +8766,7 @@
         <v>0.39</v>
       </c>
       <c r="L176" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8795,7 +8804,7 @@
         <v>1.1</v>
       </c>
       <c r="L177" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8833,7 +8842,7 @@
         <v>2.12</v>
       </c>
       <c r="L178" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8871,7 +8880,7 @@
         <v>0.88</v>
       </c>
       <c r="L179" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8909,7 +8918,7 @@
         <v>1.93</v>
       </c>
       <c r="L180" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8947,7 +8956,7 @@
         <v>1.21</v>
       </c>
       <c r="L181" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8985,7 +8994,7 @@
         <v>0.73</v>
       </c>
       <c r="L182" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -9023,7 +9032,7 @@
         <v>2.91</v>
       </c>
       <c r="L183" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9061,7 +9070,7 @@
         <v>1.2</v>
       </c>
       <c r="L184" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9099,7 +9108,7 @@
         <v>1.63</v>
       </c>
       <c r="L185" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9137,7 +9146,7 @@
         <v>2.05</v>
       </c>
       <c r="L186" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9175,7 +9184,7 @@
         <v>1.44</v>
       </c>
       <c r="L187" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9213,7 +9222,7 @@
         <v>2.29</v>
       </c>
       <c r="L188" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9251,7 +9260,7 @@
         <v>1.4</v>
       </c>
       <c r="L189" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9289,7 +9298,7 @@
         <v>1.37</v>
       </c>
       <c r="L190" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9327,7 +9336,7 @@
         <v>2.43</v>
       </c>
       <c r="L191" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9365,7 +9374,7 @@
         <v>1.62</v>
       </c>
       <c r="L192" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9403,7 +9412,7 @@
         <v>2.39</v>
       </c>
       <c r="L193" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9441,7 +9450,7 @@
         <v>1.81</v>
       </c>
       <c r="L194" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9479,7 +9488,7 @@
         <v>2.49</v>
       </c>
       <c r="L195" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9517,7 +9526,7 @@
         <v>2.89</v>
       </c>
       <c r="L196" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9555,7 +9564,7 @@
         <v>2.79</v>
       </c>
       <c r="L197" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9593,7 +9602,7 @@
         <v>3.54</v>
       </c>
       <c r="L198" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9631,7 +9640,7 @@
         <v>2.99</v>
       </c>
       <c r="L199" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9669,7 +9678,7 @@
         <v>4.57</v>
       </c>
       <c r="L200" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9707,7 +9716,7 @@
         <v>3.54</v>
       </c>
       <c r="L201" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9745,7 +9754,7 @@
         <v>3.07</v>
       </c>
       <c r="L202" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9783,7 +9792,7 @@
         <v>3.03</v>
       </c>
       <c r="L203" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9821,7 +9830,7 @@
         <v>2.94</v>
       </c>
       <c r="L204" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9859,7 +9868,7 @@
         <v>4.6</v>
       </c>
       <c r="L205" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9897,7 +9906,7 @@
         <v>6.58</v>
       </c>
       <c r="L206" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9935,7 +9944,7 @@
         <v>5.58</v>
       </c>
       <c r="L207" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9973,7 +9982,7 @@
         <v>3.01</v>
       </c>
       <c r="L208" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -10011,7 +10020,7 @@
         <v>2.51</v>
       </c>
       <c r="L209" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -10049,7 +10058,7 @@
         <v>4.13</v>
       </c>
       <c r="L210" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10087,7 +10096,7 @@
         <v>6.11</v>
       </c>
       <c r="L211" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10125,7 +10134,7 @@
         <v>7.64</v>
       </c>
       <c r="L212" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10163,7 +10172,7 @@
         <v>6.72</v>
       </c>
       <c r="L213" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10201,7 +10210,7 @@
         <v>7.64</v>
       </c>
       <c r="L214" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10239,7 +10248,7 @@
         <v>6.55</v>
       </c>
       <c r="L215" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10277,7 +10286,7 @@
         <v>6.91</v>
       </c>
       <c r="L216" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10315,7 +10324,7 @@
         <v>7.42</v>
       </c>
       <c r="L217" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10353,7 +10362,7 @@
         <v>7.45</v>
       </c>
       <c r="L218" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10391,7 +10400,7 @@
         <v>8.51</v>
       </c>
       <c r="L219" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10429,7 +10438,7 @@
         <v>7</v>
       </c>
       <c r="L220" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10467,7 +10476,7 @@
         <v>7.92</v>
       </c>
       <c r="L221" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10505,7 +10514,7 @@
         <v>10.73</v>
       </c>
       <c r="L222" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10543,7 +10552,7 @@
         <v>13.47</v>
       </c>
       <c r="L223" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10581,7 +10590,7 @@
         <v>11.31</v>
       </c>
       <c r="L224" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10619,7 +10628,7 @@
         <v>9.83</v>
       </c>
       <c r="L225" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10657,7 +10666,7 @@
         <v>9.82</v>
       </c>
       <c r="L226" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10695,7 +10704,7 @@
         <v>11.69</v>
       </c>
       <c r="L227" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10733,7 +10742,7 @@
         <v>11.42</v>
       </c>
       <c r="L228" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10771,7 +10780,7 @@
         <v>11.05</v>
       </c>
       <c r="L229" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10809,7 +10818,7 @@
         <v>11.59</v>
       </c>
       <c r="L230" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10847,7 +10856,7 @@
         <v>12.05</v>
       </c>
       <c r="L231" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10885,7 +10894,7 @@
         <v>12.22</v>
       </c>
       <c r="L232" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10923,7 +10932,7 @@
         <v>12.06</v>
       </c>
       <c r="L233" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10961,7 +10970,7 @@
         <v>10.25</v>
       </c>
       <c r="L234" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10999,7 +11008,7 @@
         <v>11.98</v>
       </c>
       <c r="L235" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -11037,7 +11046,7 @@
         <v>11.96</v>
       </c>
       <c r="L236" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11075,7 +11084,7 @@
         <v>13.3</v>
       </c>
       <c r="L237" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11113,7 +11122,7 @@
         <v>12.88</v>
       </c>
       <c r="L238" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11151,7 +11160,7 @@
         <v>14.57</v>
       </c>
       <c r="L239" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11189,7 +11198,7 @@
         <v>14.62</v>
       </c>
       <c r="L240" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11227,7 +11236,7 @@
         <v>12.7</v>
       </c>
       <c r="L241" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11265,7 +11274,7 @@
         <v>12.77</v>
       </c>
       <c r="L242" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11303,7 +11312,7 @@
         <v>11.53</v>
       </c>
       <c r="L243" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11341,7 +11350,7 @@
         <v>11.24</v>
       </c>
       <c r="L244" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11379,7 +11388,7 @@
         <v>9.32</v>
       </c>
       <c r="L245" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11417,7 +11426,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L246" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11455,7 +11464,7 @@
         <v>8.75</v>
       </c>
       <c r="L247" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11493,7 +11502,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L248" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11531,7 +11540,7 @@
         <v>8.99</v>
       </c>
       <c r="L249" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11569,7 +11578,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L250" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11607,7 +11616,7 @@
         <v>7.9</v>
       </c>
       <c r="L251" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11645,7 +11654,7 @@
         <v>6.84</v>
       </c>
       <c r="L252" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11683,7 +11692,7 @@
         <v>7.8</v>
       </c>
       <c r="L253" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11721,7 +11730,7 @@
         <v>7.48</v>
       </c>
       <c r="L254" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11759,7 +11768,7 @@
         <v>6.14</v>
       </c>
       <c r="L255" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11797,7 +11806,7 @@
         <v>5.55</v>
       </c>
       <c r="L256" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11835,7 +11844,7 @@
         <v>5.93</v>
       </c>
       <c r="L257" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11873,7 +11882,7 @@
         <v>6.03</v>
       </c>
       <c r="L258" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11911,7 +11920,7 @@
         <v>5.59</v>
       </c>
       <c r="L259" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11949,7 +11958,7 @@
         <v>7.07</v>
       </c>
       <c r="L260" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11987,7 +11996,7 @@
         <v>6.74</v>
       </c>
       <c r="L261" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -12025,7 +12034,7 @@
         <v>6.9</v>
       </c>
       <c r="L262" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12063,7 +12072,7 @@
         <v>6.69</v>
       </c>
       <c r="L263" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12101,7 +12110,7 @@
         <v>5.72</v>
       </c>
       <c r="L264" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12139,7 +12148,7 @@
         <v>5.25</v>
       </c>
       <c r="L265" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12177,7 +12186,7 @@
         <v>3.95</v>
       </c>
       <c r="L266" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12215,7 +12224,7 @@
         <v>5.36</v>
       </c>
       <c r="L267" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12253,7 +12262,7 @@
         <v>3.67</v>
       </c>
       <c r="L268" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12291,7 +12300,7 @@
         <v>3.89</v>
       </c>
       <c r="L269" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12329,7 +12338,7 @@
         <v>3.25</v>
       </c>
       <c r="L270" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12367,7 +12376,7 @@
         <v>3.77</v>
       </c>
       <c r="L271" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12405,7 +12414,7 @@
         <v>4.07</v>
       </c>
       <c r="L272" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12443,7 +12452,7 @@
         <v>3.35</v>
       </c>
       <c r="L273" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12481,7 +12490,7 @@
         <v>3.86</v>
       </c>
       <c r="L274" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12519,7 +12528,7 @@
         <v>3.06</v>
       </c>
       <c r="L275" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12557,7 +12566,7 @@
         <v>4.31</v>
       </c>
       <c r="L276" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12595,7 +12604,7 @@
         <v>2.97</v>
       </c>
       <c r="L277" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12633,7 +12642,7 @@
         <v>1.98</v>
       </c>
       <c r="L278" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12671,7 +12680,7 @@
         <v>1.51</v>
       </c>
       <c r="L279" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12709,7 +12718,7 @@
         <v>1.01</v>
       </c>
       <c r="L280" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12747,7 +12756,7 @@
         <v>1.04</v>
       </c>
       <c r="L281" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12785,7 +12794,7 @@
         <v>1.36</v>
       </c>
       <c r="L282" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12823,7 +12832,7 @@
         <v>1.95</v>
       </c>
       <c r="L283" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12861,7 +12870,7 @@
         <v>2.48</v>
       </c>
       <c r="L284" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12899,7 +12908,7 @@
         <v>1.14</v>
       </c>
       <c r="L285" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12937,7 +12946,7 @@
         <v>1.89</v>
       </c>
       <c r="L286" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12975,7 +12984,7 @@
         <v>3.84</v>
       </c>
       <c r="L287" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -13013,7 +13022,7 @@
         <v>5.48</v>
       </c>
       <c r="L288" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -13051,7 +13060,7 @@
         <v>5.18</v>
       </c>
       <c r="L289" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13089,7 +13098,7 @@
         <v>6.03</v>
       </c>
       <c r="L290" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13127,7 +13136,7 @@
         <v>7.22</v>
       </c>
       <c r="L291" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13165,7 +13174,7 @@
         <v>5.57</v>
       </c>
       <c r="L292" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13203,7 +13212,7 @@
         <v>4.98</v>
       </c>
       <c r="L293" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13241,7 +13250,7 @@
         <v>3.61</v>
       </c>
       <c r="L294" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13279,7 +13288,7 @@
         <v>3.55</v>
       </c>
       <c r="L295" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13317,7 +13326,7 @@
         <v>1.81</v>
       </c>
       <c r="L296" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13355,7 +13364,7 @@
         <v>1.42</v>
       </c>
       <c r="L297" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13393,7 +13402,7 @@
         <v>1.41</v>
       </c>
       <c r="L298" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13431,7 +13440,7 @@
         <v>3.59</v>
       </c>
       <c r="L299" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13469,7 +13478,7 @@
         <v>1.55</v>
       </c>
       <c r="L300" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13507,7 +13516,7 @@
         <v>1.53</v>
       </c>
       <c r="L301" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13545,7 +13554,7 @@
         <v>1.96</v>
       </c>
       <c r="L302" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13583,7 +13592,7 @@
         <v>1.15</v>
       </c>
       <c r="L303" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13621,7 +13630,7 @@
         <v>0.89</v>
       </c>
       <c r="L304" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13659,7 +13668,7 @@
         <v>1.53</v>
       </c>
       <c r="L305" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13697,7 +13706,7 @@
         <v>2.09</v>
       </c>
       <c r="L306" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13735,7 +13744,7 @@
         <v>2.62</v>
       </c>
       <c r="L307" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13773,7 +13782,7 @@
         <v>1.77</v>
       </c>
       <c r="L308" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13811,7 +13820,7 @@
         <v>0.66</v>
       </c>
       <c r="L309" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13849,7 +13858,7 @@
         <v>1.16</v>
       </c>
       <c r="L310" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13887,7 +13896,7 @@
         <v>1.28</v>
       </c>
       <c r="L311" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13925,7 +13934,7 @@
         <v>1.79</v>
       </c>
       <c r="L312" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13963,7 +13972,7 @@
         <v>1.17</v>
       </c>
       <c r="L313" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -14001,7 +14010,7 @@
         <v>2.74</v>
       </c>
       <c r="L314" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -14039,7 +14048,7 @@
         <v>5.49</v>
       </c>
       <c r="L315" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14077,7 +14086,7 @@
         <v>3.07</v>
       </c>
       <c r="L316" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14115,7 +14124,7 @@
         <v>1.87</v>
       </c>
       <c r="L317" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14153,7 +14162,7 @@
         <v>1.09</v>
       </c>
       <c r="L318" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14191,7 +14200,7 @@
         <v>2.32</v>
       </c>
       <c r="L319" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14229,7 +14238,7 @@
         <v>2.2</v>
       </c>
       <c r="L320" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14267,7 +14276,7 @@
         <v>0.74</v>
       </c>
       <c r="L321" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14305,7 +14314,7 @@
         <v>2.15</v>
       </c>
       <c r="L322" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14343,7 +14352,7 @@
         <v>2.29</v>
       </c>
       <c r="L323" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14381,7 +14390,7 @@
         <v>1.56</v>
       </c>
       <c r="L324" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14419,7 +14428,7 @@
         <v>1.12</v>
       </c>
       <c r="L325" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14457,7 +14466,7 @@
         <v>1.49</v>
       </c>
       <c r="L326" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14495,7 +14504,7 @@
         <v>1.98</v>
       </c>
       <c r="L327" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14533,7 +14542,7 @@
         <v>1.1</v>
       </c>
       <c r="L328" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14571,7 +14580,7 @@
         <v>2.3</v>
       </c>
       <c r="L329" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14609,7 +14618,7 @@
         <v>3.5</v>
       </c>
       <c r="L330" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14647,7 +14656,7 @@
         <v>5.35</v>
       </c>
       <c r="L331" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14685,7 +14694,7 @@
         <v>2.33</v>
       </c>
       <c r="L332" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14723,7 +14732,7 @@
         <v>1.21</v>
       </c>
       <c r="L333" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14761,7 +14770,7 @@
         <v>1.2</v>
       </c>
       <c r="L334" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14799,7 +14808,7 @@
         <v>1.94</v>
       </c>
       <c r="L335" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14837,7 +14846,7 @@
         <v>2.78</v>
       </c>
       <c r="L336" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14875,7 +14884,7 @@
         <v>3.68</v>
       </c>
       <c r="L337" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14913,7 +14922,7 @@
         <v>4.84</v>
       </c>
       <c r="L338" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14951,7 +14960,7 @@
         <v>5.32</v>
       </c>
       <c r="L339" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14989,7 +14998,7 @@
         <v>3.73</v>
       </c>
       <c r="L340" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -15027,7 +15036,7 @@
         <v>5.13</v>
       </c>
       <c r="L341" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15065,7 +15074,7 @@
         <v>7.22</v>
       </c>
       <c r="L342" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15103,7 +15112,7 @@
         <v>10.11</v>
       </c>
       <c r="L343" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15141,7 +15150,7 @@
         <v>8.24</v>
       </c>
       <c r="L344" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15179,7 +15188,7 @@
         <v>7.53</v>
       </c>
       <c r="L345" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15217,7 +15226,7 @@
         <v>7.3</v>
       </c>
       <c r="L346" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15255,7 +15264,7 @@
         <v>8.01</v>
       </c>
       <c r="L347" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15293,7 +15302,7 @@
         <v>11.42</v>
       </c>
       <c r="L348" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15331,7 +15340,7 @@
         <v>10.97</v>
       </c>
       <c r="L349" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15369,7 +15378,7 @@
         <v>10.4</v>
       </c>
       <c r="L350" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15407,7 +15416,7 @@
         <v>11.86</v>
       </c>
       <c r="L351" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15445,7 +15454,7 @@
         <v>12.95</v>
       </c>
       <c r="L352" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15483,7 +15492,7 @@
         <v>12.13</v>
       </c>
       <c r="L353" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15521,7 +15530,7 @@
         <v>12</v>
       </c>
       <c r="L354" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15559,7 +15568,7 @@
         <v>12.16</v>
       </c>
       <c r="L355" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15597,7 +15606,7 @@
         <v>11.01</v>
       </c>
       <c r="L356" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15635,7 +15644,7 @@
         <v>13.12</v>
       </c>
       <c r="L357" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15673,7 +15682,7 @@
         <v>13.87</v>
       </c>
       <c r="L358" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15711,7 +15720,7 @@
         <v>13.65</v>
       </c>
       <c r="L359" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15749,7 +15758,7 @@
         <v>13.81</v>
       </c>
       <c r="L360" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15787,7 +15796,7 @@
         <v>9.49</v>
       </c>
       <c r="L361" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15825,7 +15834,7 @@
         <v>10.26</v>
       </c>
       <c r="L362" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15863,7 +15872,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L363" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15901,7 +15910,7 @@
         <v>13.27</v>
       </c>
       <c r="L364" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15939,7 +15948,7 @@
         <v>12.58</v>
       </c>
       <c r="L365" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15977,7 +15986,7 @@
         <v>9.43</v>
       </c>
       <c r="L366" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -16015,7 +16024,7 @@
         <v>4.87</v>
       </c>
       <c r="L367" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16053,7 +16062,7 @@
         <v>4.54</v>
       </c>
       <c r="L368" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16091,7 +16100,7 @@
         <v>7.34</v>
       </c>
       <c r="L369" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16129,7 +16138,7 @@
         <v>10.66</v>
       </c>
       <c r="L370" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16167,7 +16176,7 @@
         <v>11.4</v>
       </c>
       <c r="L371" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16205,7 +16214,7 @@
         <v>12.31</v>
       </c>
       <c r="L372" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16243,7 +16252,7 @@
         <v>13.32</v>
       </c>
       <c r="L373" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16281,7 +16290,7 @@
         <v>11.98</v>
       </c>
       <c r="L374" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16319,7 +16328,7 @@
         <v>11.69</v>
       </c>
       <c r="L375" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16357,7 +16366,7 @@
         <v>13.37</v>
       </c>
       <c r="L376" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16395,7 +16404,7 @@
         <v>12.91</v>
       </c>
       <c r="L377" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16433,7 +16442,7 @@
         <v>11.71</v>
       </c>
       <c r="L378" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16471,7 +16480,7 @@
         <v>12.56</v>
       </c>
       <c r="L379" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16509,7 +16518,7 @@
         <v>12.07</v>
       </c>
       <c r="L380" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16547,7 +16556,7 @@
         <v>10.48</v>
       </c>
       <c r="L381" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16585,7 +16594,7 @@
         <v>11.36</v>
       </c>
       <c r="L382" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16623,7 +16632,7 @@
         <v>9.43</v>
       </c>
       <c r="L383" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16661,7 +16670,7 @@
         <v>11.63</v>
       </c>
       <c r="L384" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16699,7 +16708,7 @@
         <v>10.38</v>
       </c>
       <c r="L385" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16737,7 +16746,7 @@
         <v>10.01</v>
       </c>
       <c r="L386" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16775,7 +16784,7 @@
         <v>10.42</v>
       </c>
       <c r="L387" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16813,7 +16822,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L388" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16851,7 +16860,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L389" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16889,7 +16898,7 @@
         <v>8.07</v>
       </c>
       <c r="L390" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16927,7 +16936,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L391" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16965,7 +16974,7 @@
         <v>7.17</v>
       </c>
       <c r="L392" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -17003,7 +17012,7 @@
         <v>6.25</v>
       </c>
       <c r="L393" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -17041,7 +17050,7 @@
         <v>5.09</v>
       </c>
       <c r="L394" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17079,7 +17088,7 @@
         <v>5.04</v>
       </c>
       <c r="L395" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17117,7 +17126,7 @@
         <v>4.48</v>
       </c>
       <c r="L396" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17155,7 +17164,7 @@
         <v>6.18</v>
       </c>
       <c r="L397" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17193,7 +17202,7 @@
         <v>5.49</v>
       </c>
       <c r="L398" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17231,7 +17240,7 @@
         <v>4.32</v>
       </c>
       <c r="L399" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17269,7 +17278,7 @@
         <v>2.75</v>
       </c>
       <c r="L400" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17307,7 +17316,7 @@
         <v>2.43</v>
       </c>
       <c r="L401" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17345,7 +17354,7 @@
         <v>1.84</v>
       </c>
       <c r="L402" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17383,7 +17392,7 @@
         <v>2.01</v>
       </c>
       <c r="L403" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17421,7 +17430,7 @@
         <v>1.87</v>
       </c>
       <c r="L404" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17459,7 +17468,7 @@
         <v>1.14</v>
       </c>
       <c r="L405" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17497,7 +17506,7 @@
         <v>1.9</v>
       </c>
       <c r="L406" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17535,7 +17544,7 @@
         <v>1.8</v>
       </c>
       <c r="L407" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17573,7 +17582,7 @@
         <v>1.68</v>
       </c>
       <c r="L408" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17611,7 +17620,7 @@
         <v>2.11</v>
       </c>
       <c r="L409" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17649,7 +17658,7 @@
         <v>2.99</v>
       </c>
       <c r="L410" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17687,7 +17696,7 @@
         <v>6.18</v>
       </c>
       <c r="L411" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17725,7 +17734,7 @@
         <v>6.87</v>
       </c>
       <c r="L412" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17763,7 +17772,7 @@
         <v>6.02</v>
       </c>
       <c r="L413" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17801,7 +17810,7 @@
         <v>5.12</v>
       </c>
       <c r="L414" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17839,7 +17848,7 @@
         <v>7.52</v>
       </c>
       <c r="L415" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17877,7 +17886,7 @@
         <v>6</v>
       </c>
       <c r="L416" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17915,7 +17924,7 @@
         <v>8.5</v>
       </c>
       <c r="L417" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17953,7 +17962,7 @@
         <v>3.74</v>
       </c>
       <c r="L418" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17991,7 +18000,7 @@
         <v>6.42</v>
       </c>
       <c r="L419" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -18029,7 +18038,7 @@
         <v>5.31</v>
       </c>
       <c r="L420" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18067,7 +18076,7 @@
         <v>5.4</v>
       </c>
       <c r="L421" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18105,7 +18114,7 @@
         <v>4.99</v>
       </c>
       <c r="L422" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18143,7 +18152,7 @@
         <v>4.52</v>
       </c>
       <c r="L423" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18181,7 +18190,7 @@
         <v>5.17</v>
       </c>
       <c r="L424" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18219,7 +18228,7 @@
         <v>7.43</v>
       </c>
       <c r="L425" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18257,7 +18266,7 @@
         <v>7.6</v>
       </c>
       <c r="L426" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18295,7 +18304,7 @@
         <v>6.74</v>
       </c>
       <c r="L427" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18333,7 +18342,7 @@
         <v>7.64</v>
       </c>
       <c r="L428" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18371,7 +18380,7 @@
         <v>7.4</v>
       </c>
       <c r="L429" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18409,7 +18418,7 @@
         <v>6.83</v>
       </c>
       <c r="L430" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18447,7 +18456,7 @@
         <v>4.66</v>
       </c>
       <c r="L431" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18485,7 +18494,7 @@
         <v>4.31</v>
       </c>
       <c r="L432" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18523,7 +18532,7 @@
         <v>3.83</v>
       </c>
       <c r="L433" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18561,7 +18570,7 @@
         <v>7.85</v>
       </c>
       <c r="L434" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18599,7 +18608,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L435" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18637,7 +18646,7 @@
         <v>6.45</v>
       </c>
       <c r="L436" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18675,7 +18684,7 @@
         <v>3.97</v>
       </c>
       <c r="L437" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18713,7 +18722,7 @@
         <v>3.99</v>
       </c>
       <c r="L438" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18751,7 +18760,7 @@
         <v>3.31</v>
       </c>
       <c r="L439" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18789,7 +18798,7 @@
         <v>1.95</v>
       </c>
       <c r="L440" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18827,7 +18836,7 @@
         <v>3.91</v>
       </c>
       <c r="L441" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18865,7 +18874,7 @@
         <v>4.22</v>
       </c>
       <c r="L442" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18903,7 +18912,7 @@
         <v>3.49</v>
       </c>
       <c r="L443" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18941,7 +18950,7 @@
         <v>1.36</v>
       </c>
       <c r="L444" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18979,7 +18988,7 @@
         <v>0.93</v>
       </c>
       <c r="L445" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -19017,7 +19026,7 @@
         <v>1.35</v>
       </c>
       <c r="L446" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19055,7 +19064,7 @@
         <v>0.73</v>
       </c>
       <c r="L447" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19093,7 +19102,7 @@
         <v>2.47</v>
       </c>
       <c r="L448" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19131,7 +19140,7 @@
         <v>2.43</v>
       </c>
       <c r="L449" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19169,7 +19178,7 @@
         <v>1.83</v>
       </c>
       <c r="L450" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19207,7 +19216,7 @@
         <v>1.62</v>
       </c>
       <c r="L451" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19245,7 +19254,7 @@
         <v>2</v>
       </c>
       <c r="L452" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19283,7 +19292,7 @@
         <v>3.06</v>
       </c>
       <c r="L453" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19321,7 +19330,7 @@
         <v>2.07</v>
       </c>
       <c r="L454" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19359,7 +19368,7 @@
         <v>2.54</v>
       </c>
       <c r="L455" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19397,7 +19406,7 @@
         <v>2.45</v>
       </c>
       <c r="L456" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19435,7 +19444,7 @@
         <v>2.66</v>
       </c>
       <c r="L457" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19473,7 +19482,7 @@
         <v>2.38</v>
       </c>
       <c r="L458" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19511,7 +19520,7 @@
         <v>3.59</v>
       </c>
       <c r="L459" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19549,7 +19558,7 @@
         <v>1.91</v>
       </c>
       <c r="L460" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19587,7 +19596,7 @@
         <v>1.89</v>
       </c>
       <c r="L461" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19625,7 +19634,7 @@
         <v>2.11</v>
       </c>
       <c r="L462" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19663,7 +19672,7 @@
         <v>1.48</v>
       </c>
       <c r="L463" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19701,7 +19710,7 @@
         <v>1.32</v>
       </c>
       <c r="L464" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19739,7 +19748,7 @@
         <v>1.02</v>
       </c>
       <c r="L465" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19777,7 +19786,7 @@
         <v>2.31</v>
       </c>
       <c r="L466" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19815,7 +19824,7 @@
         <v>2.24</v>
       </c>
       <c r="L467" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19853,7 +19862,7 @@
         <v>0.91</v>
       </c>
       <c r="L468" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19891,7 +19900,7 @@
         <v>1.66</v>
       </c>
       <c r="L469" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19929,7 +19938,7 @@
         <v>2.22</v>
       </c>
       <c r="L470" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19967,7 +19976,7 @@
         <v>1.91</v>
       </c>
       <c r="L471" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -20005,7 +20014,7 @@
         <v>1.43</v>
       </c>
       <c r="L472" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -20043,7 +20052,7 @@
         <v>1.17</v>
       </c>
       <c r="L473" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20081,7 +20090,7 @@
         <v>2.53</v>
       </c>
       <c r="L474" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20119,7 +20128,7 @@
         <v>3</v>
       </c>
       <c r="L475" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20157,7 +20166,7 @@
         <v>2.5</v>
       </c>
       <c r="L476" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20195,7 +20204,7 @@
         <v>2.76</v>
       </c>
       <c r="L477" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20233,7 +20242,7 @@
         <v>0.99</v>
       </c>
       <c r="L478" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20271,7 +20280,7 @@
         <v>0.89</v>
       </c>
       <c r="L479" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20309,7 +20318,7 @@
         <v>1.91</v>
       </c>
       <c r="L480" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20347,7 +20356,7 @@
         <v>2.38</v>
       </c>
       <c r="L481" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20385,7 +20394,7 @@
         <v>2.3</v>
       </c>
       <c r="L482" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20423,7 +20432,7 @@
         <v>2.81</v>
       </c>
       <c r="L483" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20461,7 +20470,7 @@
         <v>2.14</v>
       </c>
       <c r="L484" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20499,7 +20508,7 @@
         <v>2.69</v>
       </c>
       <c r="L485" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20537,7 +20546,7 @@
         <v>4.45</v>
       </c>
       <c r="L486" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20575,7 +20584,7 @@
         <v>5.82</v>
       </c>
       <c r="L487" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20613,7 +20622,7 @@
         <v>6.63</v>
       </c>
       <c r="L488" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20651,7 +20660,7 @@
         <v>5.32</v>
       </c>
       <c r="L489" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20689,7 +20698,7 @@
         <v>5.62</v>
       </c>
       <c r="L490" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20727,7 +20736,7 @@
         <v>6.86</v>
       </c>
       <c r="L491" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20765,7 +20774,7 @@
         <v>8.66</v>
       </c>
       <c r="L492" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20803,7 +20812,7 @@
         <v>13.22</v>
       </c>
       <c r="L493" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20841,7 +20850,7 @@
         <v>12.47</v>
       </c>
       <c r="L494" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20879,7 +20888,7 @@
         <v>13.35</v>
       </c>
       <c r="L495" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20917,7 +20926,7 @@
         <v>13.87</v>
       </c>
       <c r="L496" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20955,7 +20964,7 @@
         <v>13.39</v>
       </c>
       <c r="L497" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20993,7 +21002,7 @@
         <v>13.29</v>
       </c>
       <c r="L498" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -21031,7 +21040,7 @@
         <v>16.31</v>
       </c>
       <c r="L499" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21069,7 +21078,7 @@
         <v>16.01</v>
       </c>
       <c r="L500" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21107,7 +21116,7 @@
         <v>16.01</v>
       </c>
       <c r="L501" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21145,7 +21154,7 @@
         <v>16.05</v>
       </c>
       <c r="L502" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21183,7 +21192,7 @@
         <v>16.67</v>
       </c>
       <c r="L503" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21221,7 +21230,7 @@
         <v>15.83</v>
       </c>
       <c r="L504" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21259,7 +21268,7 @@
         <v>16.72</v>
       </c>
       <c r="L505" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21297,7 +21306,7 @@
         <v>15.64</v>
       </c>
       <c r="L506" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21335,7 +21344,7 @@
         <v>16.4</v>
       </c>
       <c r="L507" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21373,7 +21382,7 @@
         <v>15.47</v>
       </c>
       <c r="L508" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21411,7 +21420,7 @@
         <v>14.45</v>
       </c>
       <c r="L509" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21449,7 +21458,7 @@
         <v>15.15</v>
       </c>
       <c r="L510" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21487,7 +21496,7 @@
         <v>15.42</v>
       </c>
       <c r="L511" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21525,7 +21534,7 @@
         <v>14.56</v>
       </c>
       <c r="L512" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21563,7 +21572,7 @@
         <v>14.65</v>
       </c>
       <c r="L513" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21601,7 +21610,7 @@
         <v>13.45</v>
       </c>
       <c r="L514" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21639,7 +21648,7 @@
         <v>14.46</v>
       </c>
       <c r="L515" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21677,7 +21686,7 @@
         <v>13.41</v>
       </c>
       <c r="L516" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21715,7 +21724,7 @@
         <v>14.59</v>
       </c>
       <c r="L517" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21753,7 +21762,7 @@
         <v>14.85</v>
       </c>
       <c r="L518" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21791,7 +21800,7 @@
         <v>13.81</v>
       </c>
       <c r="L519" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21829,7 +21838,7 @@
         <v>13.15</v>
       </c>
       <c r="L520" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21867,7 +21876,7 @@
         <v>14.86</v>
       </c>
       <c r="L521" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21905,7 +21914,7 @@
         <v>13.01</v>
       </c>
       <c r="L522" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21943,7 +21952,7 @@
         <v>12.54</v>
       </c>
       <c r="L523" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21981,7 +21990,7 @@
         <v>12</v>
       </c>
       <c r="L524" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -22019,7 +22028,7 @@
         <v>10.2</v>
       </c>
       <c r="L525" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22057,7 +22066,7 @@
         <v>10.25</v>
       </c>
       <c r="L526" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22095,7 +22104,7 @@
         <v>11.85</v>
       </c>
       <c r="L527" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22133,7 +22142,7 @@
         <v>11.18</v>
       </c>
       <c r="L528" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22171,7 +22180,7 @@
         <v>12.35</v>
       </c>
       <c r="L529" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22209,7 +22218,7 @@
         <v>11.59</v>
       </c>
       <c r="L530" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22247,7 +22256,7 @@
         <v>11.48</v>
       </c>
       <c r="L531" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22285,7 +22294,7 @@
         <v>12.59</v>
       </c>
       <c r="L532" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22323,7 +22332,7 @@
         <v>10.76</v>
       </c>
       <c r="L533" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22361,7 +22370,7 @@
         <v>14.14</v>
       </c>
       <c r="L534" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22399,7 +22408,7 @@
         <v>10.21</v>
       </c>
       <c r="L535" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22437,7 +22446,7 @@
         <v>11.13</v>
       </c>
       <c r="L536" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22475,7 +22484,7 @@
         <v>11.37</v>
       </c>
       <c r="L537" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22513,7 +22522,7 @@
         <v>11.84</v>
       </c>
       <c r="L538" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22551,7 +22560,7 @@
         <v>10.48</v>
       </c>
       <c r="L539" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -22589,7 +22598,7 @@
         <v>9.59</v>
       </c>
       <c r="L540" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -22627,7 +22636,7 @@
         <v>10.49</v>
       </c>
       <c r="L541" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -22665,7 +22674,7 @@
         <v>8.1</v>
       </c>
       <c r="L542" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -22703,7 +22712,7 @@
         <v>9.43</v>
       </c>
       <c r="L543" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -22741,7 +22750,7 @@
         <v>9.24</v>
       </c>
       <c r="L544" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="545" spans="1:12">
@@ -22779,7 +22788,7 @@
         <v>9.31</v>
       </c>
       <c r="L545" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="546" spans="1:12">
@@ -22817,7 +22826,7 @@
         <v>5.95</v>
       </c>
       <c r="L546" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -22855,7 +22864,7 @@
         <v>6.08</v>
       </c>
       <c r="L547" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -22893,7 +22902,7 @@
         <v>5.96</v>
       </c>
       <c r="L548" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -22931,7 +22940,7 @@
         <v>7.27</v>
       </c>
       <c r="L549" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="550" spans="1:12">
@@ -22969,7 +22978,7 @@
         <v>4.78</v>
       </c>
       <c r="L550" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="551" spans="1:12">
@@ -23007,7 +23016,7 @@
         <v>4.99</v>
       </c>
       <c r="L551" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -23045,7 +23054,7 @@
         <v>6.07</v>
       </c>
       <c r="L552" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="553" spans="1:12">
@@ -23083,7 +23092,7 @@
         <v>6.56</v>
       </c>
       <c r="L553" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="554" spans="1:12">
@@ -23121,7 +23130,7 @@
         <v>6.25</v>
       </c>
       <c r="L554" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -23131,6 +23140,9 @@
       <c r="B555" t="s">
         <v>564</v>
       </c>
+      <c r="C555">
+        <v>13</v>
+      </c>
       <c r="D555">
         <v>100</v>
       </c>
@@ -23156,7 +23168,121 @@
         <v>4.49</v>
       </c>
       <c r="L555" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
         <v>565</v>
+      </c>
+      <c r="C556">
+        <v>12.99</v>
+      </c>
+      <c r="D556">
+        <v>100</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+      <c r="F556">
+        <v>-7.27</v>
+      </c>
+      <c r="G556">
+        <v>214.86</v>
+      </c>
+      <c r="H556">
+        <v>-7.27</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>25.88</v>
+      </c>
+      <c r="K556">
+        <v>3.99</v>
+      </c>
+      <c r="L556" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>566</v>
+      </c>
+      <c r="C557">
+        <v>13</v>
+      </c>
+      <c r="D557">
+        <v>100</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>-7.4</v>
+      </c>
+      <c r="G557">
+        <v>212.82</v>
+      </c>
+      <c r="H557">
+        <v>-7.4</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>12.89</v>
+      </c>
+      <c r="K557">
+        <v>5.65</v>
+      </c>
+      <c r="L557" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>567</v>
+      </c>
+      <c r="C558">
+        <v>12.98</v>
+      </c>
+      <c r="D558">
+        <v>100</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558">
+        <v>-7.2</v>
+      </c>
+      <c r="G558">
+        <v>213.17</v>
+      </c>
+      <c r="H558">
+        <v>-7.2</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>6.87</v>
+      </c>
+      <c r="K558">
+        <v>5.38</v>
+      </c>
+      <c r="L558" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
   <si>
     <t>Fecha</t>
   </si>
@@ -1313,6 +1313,33 @@
   </si>
   <si>
     <t>11/8/2020 10:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:40:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1673,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L423"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,7 +1776,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1787,7 +1814,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1825,7 +1852,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1863,7 +1890,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1901,7 +1928,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1939,7 +1966,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1977,7 +2004,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2015,7 +2042,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2053,7 +2080,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2091,7 +2118,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2129,7 +2156,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2167,7 +2194,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2205,7 +2232,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2243,7 +2270,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2281,7 +2308,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2319,7 +2346,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2357,7 +2384,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2395,7 +2422,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2433,7 +2460,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2471,7 +2498,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2509,7 +2536,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2547,7 +2574,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2585,7 +2612,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2623,7 +2650,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2661,7 +2688,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2699,7 +2726,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2737,7 +2764,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2775,7 +2802,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2813,7 +2840,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2851,7 +2878,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2889,7 +2916,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2927,7 +2954,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2965,7 +2992,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3003,7 +3030,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3041,7 +3068,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3079,7 +3106,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3117,7 +3144,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3155,7 +3182,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3193,7 +3220,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3231,7 +3258,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3269,7 +3296,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3307,7 +3334,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3345,7 +3372,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3383,7 +3410,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3421,7 +3448,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3459,7 +3486,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3497,7 +3524,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3535,7 +3562,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3573,7 +3600,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3611,7 +3638,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3649,7 +3676,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3687,7 +3714,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3725,7 +3752,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3763,7 +3790,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3801,7 +3828,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3839,7 +3866,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3877,7 +3904,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3915,7 +3942,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3953,7 +3980,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3991,7 +4018,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4029,7 +4056,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4067,7 +4094,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4105,7 +4132,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4143,7 +4170,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4181,7 +4208,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4219,7 +4246,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4257,7 +4284,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4295,7 +4322,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4333,7 +4360,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4371,7 +4398,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4409,7 +4436,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4447,7 +4474,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4485,7 +4512,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4523,7 +4550,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4561,7 +4588,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4599,7 +4626,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4637,7 +4664,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4675,7 +4702,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4713,7 +4740,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4751,7 +4778,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4789,7 +4816,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4827,7 +4854,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4865,7 +4892,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4903,7 +4930,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4941,7 +4968,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4979,7 +5006,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5017,7 +5044,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5055,7 +5082,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5093,7 +5120,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5131,7 +5158,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5169,7 +5196,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5207,7 +5234,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5245,7 +5272,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5283,7 +5310,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5321,7 +5348,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5359,7 +5386,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5397,7 +5424,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5435,7 +5462,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5473,7 +5500,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5511,7 +5538,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5549,7 +5576,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5587,7 +5614,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5625,7 +5652,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5663,7 +5690,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5701,7 +5728,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5739,7 +5766,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5777,7 +5804,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5815,7 +5842,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5853,7 +5880,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5891,7 +5918,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5929,7 +5956,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5967,7 +5994,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6005,7 +6032,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6043,7 +6070,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6081,7 +6108,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6119,7 +6146,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6157,7 +6184,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6195,7 +6222,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6233,7 +6260,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6271,7 +6298,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6309,7 +6336,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6347,7 +6374,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6385,7 +6412,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6423,7 +6450,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6461,7 +6488,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6499,7 +6526,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6537,7 +6564,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6575,7 +6602,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6613,7 +6640,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6651,7 +6678,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6689,7 +6716,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6727,7 +6754,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6765,7 +6792,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6803,7 +6830,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6841,7 +6868,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6879,7 +6906,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6917,7 +6944,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6955,7 +6982,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6993,7 +7020,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7031,7 +7058,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7069,7 +7096,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7107,7 +7134,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7145,7 +7172,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7183,7 +7210,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7221,7 +7248,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7259,7 +7286,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7297,7 +7324,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7335,7 +7362,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7373,7 +7400,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7411,7 +7438,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7449,7 +7476,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7487,7 +7514,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7525,7 +7552,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7563,7 +7590,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7601,7 +7628,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7639,7 +7666,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7677,7 +7704,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7715,7 +7742,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7753,7 +7780,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7791,7 +7818,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7829,7 +7856,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7867,7 +7894,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7905,7 +7932,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7943,7 +7970,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -7981,7 +8008,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8019,7 +8046,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8057,7 +8084,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8095,7 +8122,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8133,7 +8160,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8171,7 +8198,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8209,7 +8236,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8247,7 +8274,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8285,7 +8312,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8323,7 +8350,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8361,7 +8388,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8399,7 +8426,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8437,7 +8464,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8475,7 +8502,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8513,7 +8540,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8551,7 +8578,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8589,7 +8616,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8627,7 +8654,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8665,7 +8692,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8703,7 +8730,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8741,7 +8768,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8779,7 +8806,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8817,7 +8844,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8855,7 +8882,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8893,7 +8920,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8931,7 +8958,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8969,7 +8996,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9007,7 +9034,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9045,7 +9072,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9083,7 +9110,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9121,7 +9148,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9159,7 +9186,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9197,7 +9224,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9235,7 +9262,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9273,7 +9300,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9311,7 +9338,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9349,7 +9376,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9387,7 +9414,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9425,7 +9452,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9463,7 +9490,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9501,7 +9528,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9539,7 +9566,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9577,7 +9604,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9615,7 +9642,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9653,7 +9680,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9691,7 +9718,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9729,7 +9756,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9767,7 +9794,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9805,7 +9832,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9843,7 +9870,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9881,7 +9908,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9919,7 +9946,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9957,7 +9984,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9995,7 +10022,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10033,7 +10060,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10071,7 +10098,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10109,7 +10136,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10147,7 +10174,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10185,7 +10212,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10223,7 +10250,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10261,7 +10288,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10299,7 +10326,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10337,7 +10364,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10375,7 +10402,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10413,7 +10440,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10451,7 +10478,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10489,7 +10516,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10527,7 +10554,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10565,7 +10592,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10603,7 +10630,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10641,7 +10668,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10679,7 +10706,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10717,7 +10744,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10755,7 +10782,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10793,7 +10820,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10831,7 +10858,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10869,7 +10896,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10907,7 +10934,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10945,7 +10972,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -10983,7 +11010,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11021,7 +11048,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11059,7 +11086,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11097,7 +11124,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11135,7 +11162,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11173,7 +11200,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11211,7 +11238,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11249,7 +11276,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11287,7 +11314,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11325,7 +11352,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11363,7 +11390,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11401,7 +11428,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11439,7 +11466,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11477,7 +11504,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11515,7 +11542,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11553,7 +11580,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11591,7 +11618,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11629,7 +11656,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11667,7 +11694,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11705,7 +11732,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11743,7 +11770,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11781,7 +11808,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11819,7 +11846,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11857,7 +11884,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11895,7 +11922,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11933,7 +11960,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11971,7 +11998,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12009,7 +12036,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12047,7 +12074,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12085,7 +12112,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12123,7 +12150,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12161,7 +12188,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12199,7 +12226,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12237,7 +12264,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12275,7 +12302,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12313,7 +12340,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12351,7 +12378,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12389,7 +12416,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12427,7 +12454,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12465,7 +12492,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12503,7 +12530,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12541,7 +12568,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12579,7 +12606,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12617,7 +12644,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12655,7 +12682,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12693,7 +12720,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12731,7 +12758,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12769,7 +12796,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12807,7 +12834,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12845,7 +12872,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12883,7 +12910,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12921,7 +12948,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12959,7 +12986,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -12997,7 +13024,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13035,7 +13062,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13073,7 +13100,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13111,7 +13138,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13149,7 +13176,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13187,7 +13214,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13225,7 +13252,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13263,7 +13290,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13301,7 +13328,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13339,7 +13366,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13377,7 +13404,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13415,7 +13442,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13453,7 +13480,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13491,7 +13518,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13529,7 +13556,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13567,7 +13594,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13605,7 +13632,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13643,7 +13670,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13681,7 +13708,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13719,7 +13746,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13757,7 +13784,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13795,7 +13822,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13833,7 +13860,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13871,7 +13898,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13909,7 +13936,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13947,7 +13974,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -13985,7 +14012,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14023,7 +14050,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14061,7 +14088,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14099,7 +14126,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14137,7 +14164,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14175,7 +14202,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14213,7 +14240,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14251,7 +14278,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14289,7 +14316,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14327,7 +14354,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14365,7 +14392,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14403,7 +14430,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14441,7 +14468,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14479,7 +14506,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14517,7 +14544,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14555,7 +14582,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14593,7 +14620,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14631,7 +14658,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14669,7 +14696,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14707,7 +14734,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14745,7 +14772,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14783,7 +14810,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14821,7 +14848,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14859,7 +14886,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14897,7 +14924,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14935,7 +14962,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -14973,7 +15000,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15011,7 +15038,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15049,7 +15076,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15087,7 +15114,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15125,7 +15152,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15163,7 +15190,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15201,7 +15228,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15239,7 +15266,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15277,7 +15304,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15315,7 +15342,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15353,7 +15380,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15391,7 +15418,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15429,7 +15456,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15467,7 +15494,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15505,7 +15532,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15543,7 +15570,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15581,7 +15608,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15619,7 +15646,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15657,7 +15684,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15695,7 +15722,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15733,7 +15760,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15771,7 +15798,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15809,7 +15836,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15847,7 +15874,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15885,7 +15912,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15923,7 +15950,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15961,7 +15988,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -15999,7 +16026,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16037,7 +16064,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16075,7 +16102,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16113,7 +16140,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16151,7 +16178,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16189,7 +16216,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16227,7 +16254,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16265,7 +16292,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16303,7 +16330,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16341,7 +16368,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16379,7 +16406,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16417,7 +16444,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16455,7 +16482,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16493,7 +16520,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16531,7 +16558,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16569,7 +16596,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16607,7 +16634,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16645,7 +16672,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16683,7 +16710,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16721,7 +16748,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16759,7 +16786,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16797,7 +16824,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16835,7 +16862,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16873,7 +16900,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16911,7 +16938,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16949,7 +16976,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -16987,7 +17014,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17025,7 +17052,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17063,7 +17090,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17101,7 +17128,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17139,7 +17166,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17177,7 +17204,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17215,7 +17242,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17253,7 +17280,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17291,7 +17318,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17329,7 +17356,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17367,7 +17394,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17405,7 +17432,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17443,7 +17470,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17481,7 +17508,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17519,7 +17546,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17557,7 +17584,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17595,7 +17622,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17633,7 +17660,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17671,7 +17698,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17709,7 +17736,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17719,6 +17746,9 @@
       <c r="B423" t="s">
         <v>432</v>
       </c>
+      <c r="C423">
+        <v>12.97</v>
+      </c>
       <c r="D423">
         <v>1.66</v>
       </c>
@@ -17744,7 +17774,349 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
         <v>433</v>
+      </c>
+      <c r="C424">
+        <v>12.97</v>
+      </c>
+      <c r="D424">
+        <v>7.49</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>-5.64</v>
+      </c>
+      <c r="G424">
+        <v>192.12</v>
+      </c>
+      <c r="H424">
+        <v>-37.71</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>1.89</v>
+      </c>
+      <c r="K424">
+        <v>3.51</v>
+      </c>
+      <c r="L424" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>434</v>
+      </c>
+      <c r="C425">
+        <v>12.97</v>
+      </c>
+      <c r="D425">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>-5.58</v>
+      </c>
+      <c r="G425">
+        <v>228.25</v>
+      </c>
+      <c r="H425">
+        <v>-35.82</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>2.2</v>
+      </c>
+      <c r="K425">
+        <v>3.71</v>
+      </c>
+      <c r="L425" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>435</v>
+      </c>
+      <c r="C426">
+        <v>12.97</v>
+      </c>
+      <c r="D426">
+        <v>0.73</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>-5.67</v>
+      </c>
+      <c r="G426">
+        <v>211.74</v>
+      </c>
+      <c r="H426">
+        <v>-56.49</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0.18</v>
+      </c>
+      <c r="K426">
+        <v>4.5</v>
+      </c>
+      <c r="L426" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>436</v>
+      </c>
+      <c r="C427">
+        <v>12.96</v>
+      </c>
+      <c r="D427">
+        <v>0.47</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>-5.59</v>
+      </c>
+      <c r="G427">
+        <v>214.83</v>
+      </c>
+      <c r="H427">
+        <v>-57.85</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>4.53</v>
+      </c>
+      <c r="L427" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>437</v>
+      </c>
+      <c r="C428">
+        <v>12.96</v>
+      </c>
+      <c r="D428">
+        <v>0.47</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>-5.5</v>
+      </c>
+      <c r="G428">
+        <v>206.73</v>
+      </c>
+      <c r="H428">
+        <v>-57.84</v>
+      </c>
+      <c r="I428">
+        <v>-0.01</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>4.88</v>
+      </c>
+      <c r="L428" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>438</v>
+      </c>
+      <c r="C429">
+        <v>12.96</v>
+      </c>
+      <c r="D429">
+        <v>0.47</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>-5.24</v>
+      </c>
+      <c r="G429">
+        <v>211.63</v>
+      </c>
+      <c r="H429">
+        <v>-57.66</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>6.12</v>
+      </c>
+      <c r="L429" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>439</v>
+      </c>
+      <c r="C430">
+        <v>12.96</v>
+      </c>
+      <c r="D430">
+        <v>0.47</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>-5.17</v>
+      </c>
+      <c r="G430">
+        <v>208.76</v>
+      </c>
+      <c r="H430">
+        <v>-57.66</v>
+      </c>
+      <c r="I430">
+        <v>-0.01</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>6.2</v>
+      </c>
+      <c r="L430" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>440</v>
+      </c>
+      <c r="C431">
+        <v>12.95</v>
+      </c>
+      <c r="D431">
+        <v>0.47</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>-4.96</v>
+      </c>
+      <c r="G431">
+        <v>217.18</v>
+      </c>
+      <c r="H431">
+        <v>-57.53</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>6</v>
+      </c>
+      <c r="L431" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>441</v>
+      </c>
+      <c r="C432">
+        <v>12.95</v>
+      </c>
+      <c r="D432">
+        <v>0.47</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>-4.83</v>
+      </c>
+      <c r="G432">
+        <v>211.27</v>
+      </c>
+      <c r="H432">
+        <v>-57.47</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>5.05</v>
+      </c>
+      <c r="L432" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="452">
   <si>
     <t>Fecha</t>
   </si>
@@ -1340,6 +1340,33 @@
   </si>
   <si>
     <t>11/8/2020 11:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:10:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1700,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1803,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1814,7 +1841,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1852,7 +1879,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1890,7 +1917,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1928,7 +1955,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1966,7 +1993,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2004,7 +2031,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2042,7 +2069,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2080,7 +2107,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2118,7 +2145,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2156,7 +2183,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2194,7 +2221,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2232,7 +2259,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2270,7 +2297,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2308,7 +2335,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2346,7 +2373,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2384,7 +2411,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2422,7 +2449,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2460,7 +2487,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2498,7 +2525,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2536,7 +2563,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2574,7 +2601,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2612,7 +2639,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2650,7 +2677,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2688,7 +2715,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2726,7 +2753,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2764,7 +2791,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2802,7 +2829,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2840,7 +2867,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2878,7 +2905,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2916,7 +2943,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2954,7 +2981,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2992,7 +3019,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3030,7 +3057,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3068,7 +3095,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3106,7 +3133,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3144,7 +3171,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3182,7 +3209,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3220,7 +3247,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3258,7 +3285,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3296,7 +3323,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3334,7 +3361,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3372,7 +3399,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3410,7 +3437,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3448,7 +3475,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3486,7 +3513,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3524,7 +3551,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3562,7 +3589,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3600,7 +3627,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3638,7 +3665,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3676,7 +3703,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3714,7 +3741,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3752,7 +3779,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3790,7 +3817,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3828,7 +3855,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3866,7 +3893,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3904,7 +3931,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3942,7 +3969,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3980,7 +4007,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4018,7 +4045,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4056,7 +4083,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4094,7 +4121,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4132,7 +4159,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4170,7 +4197,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4208,7 +4235,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4246,7 +4273,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4284,7 +4311,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4322,7 +4349,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4360,7 +4387,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4398,7 +4425,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4436,7 +4463,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4474,7 +4501,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4512,7 +4539,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4550,7 +4577,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4588,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4626,7 +4653,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4664,7 +4691,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4702,7 +4729,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4740,7 +4767,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4778,7 +4805,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4816,7 +4843,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4854,7 +4881,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4892,7 +4919,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4930,7 +4957,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4968,7 +4995,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5006,7 +5033,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5044,7 +5071,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5082,7 +5109,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5120,7 +5147,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5158,7 +5185,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5196,7 +5223,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5234,7 +5261,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5272,7 +5299,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5310,7 +5337,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5348,7 +5375,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5386,7 +5413,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5424,7 +5451,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5462,7 +5489,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5500,7 +5527,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5538,7 +5565,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5576,7 +5603,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5614,7 +5641,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5652,7 +5679,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5690,7 +5717,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5728,7 +5755,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5766,7 +5793,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5804,7 +5831,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5842,7 +5869,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5880,7 +5907,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5918,7 +5945,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5956,7 +5983,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5994,7 +6021,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6032,7 +6059,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6070,7 +6097,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6108,7 +6135,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6146,7 +6173,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6184,7 +6211,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6222,7 +6249,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6260,7 +6287,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6298,7 +6325,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6336,7 +6363,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6374,7 +6401,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6412,7 +6439,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6450,7 +6477,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6488,7 +6515,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6526,7 +6553,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6564,7 +6591,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6602,7 +6629,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6640,7 +6667,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6678,7 +6705,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6716,7 +6743,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6754,7 +6781,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6792,7 +6819,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6830,7 +6857,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6868,7 +6895,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6906,7 +6933,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6944,7 +6971,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6982,7 +7009,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7020,7 +7047,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7058,7 +7085,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7096,7 +7123,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7134,7 +7161,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7172,7 +7199,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7210,7 +7237,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7248,7 +7275,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7286,7 +7313,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7324,7 +7351,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7362,7 +7389,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7400,7 +7427,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7438,7 +7465,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7476,7 +7503,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7514,7 +7541,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7552,7 +7579,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7590,7 +7617,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7628,7 +7655,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7666,7 +7693,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7704,7 +7731,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7742,7 +7769,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7780,7 +7807,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7818,7 +7845,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7856,7 +7883,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7894,7 +7921,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7932,7 +7959,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7970,7 +7997,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8008,7 +8035,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8046,7 +8073,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8084,7 +8111,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8122,7 +8149,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8160,7 +8187,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8198,7 +8225,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8236,7 +8263,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8274,7 +8301,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8312,7 +8339,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8350,7 +8377,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8388,7 +8415,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8426,7 +8453,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8464,7 +8491,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8502,7 +8529,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8540,7 +8567,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8578,7 +8605,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8616,7 +8643,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8654,7 +8681,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8692,7 +8719,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8730,7 +8757,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8768,7 +8795,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8806,7 +8833,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8844,7 +8871,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8882,7 +8909,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8920,7 +8947,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8958,7 +8985,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8996,7 +9023,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9034,7 +9061,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9072,7 +9099,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9110,7 +9137,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9148,7 +9175,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9186,7 +9213,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9224,7 +9251,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9262,7 +9289,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9300,7 +9327,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9338,7 +9365,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9376,7 +9403,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9414,7 +9441,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9452,7 +9479,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9490,7 +9517,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9528,7 +9555,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9566,7 +9593,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9604,7 +9631,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9642,7 +9669,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9680,7 +9707,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9718,7 +9745,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9756,7 +9783,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9794,7 +9821,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9832,7 +9859,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9870,7 +9897,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9908,7 +9935,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9946,7 +9973,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9984,7 +10011,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10022,7 +10049,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10060,7 +10087,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10098,7 +10125,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10136,7 +10163,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10174,7 +10201,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10212,7 +10239,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10250,7 +10277,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10288,7 +10315,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10326,7 +10353,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10364,7 +10391,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10402,7 +10429,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10440,7 +10467,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10478,7 +10505,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10516,7 +10543,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10554,7 +10581,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10592,7 +10619,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10630,7 +10657,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10668,7 +10695,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10706,7 +10733,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10744,7 +10771,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10782,7 +10809,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10820,7 +10847,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10858,7 +10885,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10896,7 +10923,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10934,7 +10961,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10972,7 +10999,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11010,7 +11037,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11048,7 +11075,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11086,7 +11113,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11124,7 +11151,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11162,7 +11189,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11200,7 +11227,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11238,7 +11265,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11276,7 +11303,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11314,7 +11341,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11352,7 +11379,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11390,7 +11417,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11428,7 +11455,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11466,7 +11493,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11504,7 +11531,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11542,7 +11569,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11580,7 +11607,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11618,7 +11645,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11656,7 +11683,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11694,7 +11721,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11732,7 +11759,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11770,7 +11797,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11808,7 +11835,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11846,7 +11873,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11884,7 +11911,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11922,7 +11949,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11960,7 +11987,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -11998,7 +12025,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12036,7 +12063,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12074,7 +12101,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12112,7 +12139,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12150,7 +12177,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12188,7 +12215,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12226,7 +12253,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12264,7 +12291,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12302,7 +12329,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12340,7 +12367,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12378,7 +12405,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12416,7 +12443,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12454,7 +12481,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12492,7 +12519,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12530,7 +12557,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12568,7 +12595,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12606,7 +12633,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12644,7 +12671,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12682,7 +12709,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12720,7 +12747,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12758,7 +12785,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12796,7 +12823,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12834,7 +12861,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12872,7 +12899,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12910,7 +12937,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12948,7 +12975,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12986,7 +13013,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13024,7 +13051,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13062,7 +13089,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13100,7 +13127,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13138,7 +13165,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13176,7 +13203,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13214,7 +13241,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13252,7 +13279,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13290,7 +13317,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13328,7 +13355,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13366,7 +13393,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13404,7 +13431,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13442,7 +13469,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13480,7 +13507,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13518,7 +13545,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13556,7 +13583,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13594,7 +13621,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13632,7 +13659,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13670,7 +13697,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13708,7 +13735,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13746,7 +13773,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13784,7 +13811,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13822,7 +13849,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13860,7 +13887,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13898,7 +13925,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13936,7 +13963,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13974,7 +14001,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14012,7 +14039,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14050,7 +14077,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14088,7 +14115,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14126,7 +14153,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14164,7 +14191,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14202,7 +14229,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14240,7 +14267,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14278,7 +14305,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14316,7 +14343,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14354,7 +14381,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14392,7 +14419,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14430,7 +14457,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14468,7 +14495,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14506,7 +14533,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14544,7 +14571,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14582,7 +14609,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14620,7 +14647,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14658,7 +14685,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14696,7 +14723,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14734,7 +14761,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14772,7 +14799,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14810,7 +14837,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14848,7 +14875,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14886,7 +14913,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14924,7 +14951,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14962,7 +14989,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15000,7 +15027,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15038,7 +15065,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15076,7 +15103,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15114,7 +15141,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15152,7 +15179,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15190,7 +15217,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15228,7 +15255,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15266,7 +15293,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15304,7 +15331,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15342,7 +15369,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15380,7 +15407,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15418,7 +15445,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15456,7 +15483,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15494,7 +15521,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15532,7 +15559,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15570,7 +15597,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15608,7 +15635,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15646,7 +15673,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15684,7 +15711,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15722,7 +15749,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15760,7 +15787,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15798,7 +15825,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15836,7 +15863,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15874,7 +15901,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15912,7 +15939,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15950,7 +15977,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15988,7 +16015,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16026,7 +16053,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16064,7 +16091,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16102,7 +16129,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16140,7 +16167,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16178,7 +16205,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16216,7 +16243,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16254,7 +16281,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16292,7 +16319,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16330,7 +16357,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16368,7 +16395,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16406,7 +16433,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16444,7 +16471,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16482,7 +16509,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16520,7 +16547,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16558,7 +16585,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16596,7 +16623,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16634,7 +16661,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16672,7 +16699,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16710,7 +16737,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16748,7 +16775,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16786,7 +16813,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16824,7 +16851,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16862,7 +16889,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16900,7 +16927,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16938,7 +16965,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16976,7 +17003,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17014,7 +17041,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17052,7 +17079,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17090,7 +17117,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17128,7 +17155,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17166,7 +17193,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17204,7 +17231,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17242,7 +17269,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17280,7 +17307,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17318,7 +17345,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17356,7 +17383,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17394,7 +17421,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17432,7 +17459,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17470,7 +17497,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17508,7 +17535,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17546,7 +17573,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17584,7 +17611,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17622,7 +17649,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17660,7 +17687,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17698,7 +17725,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17736,7 +17763,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17774,7 +17801,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17812,7 +17839,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17850,7 +17877,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17888,7 +17915,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17926,7 +17953,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17964,7 +17991,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18002,7 +18029,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18040,7 +18067,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18078,7 +18105,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18116,7 +18143,349 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
         <v>442</v>
+      </c>
+      <c r="C433">
+        <v>12.95</v>
+      </c>
+      <c r="D433">
+        <v>0.47</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>-4.73</v>
+      </c>
+      <c r="G433">
+        <v>213.41</v>
+      </c>
+      <c r="H433">
+        <v>-57.41</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>5.29</v>
+      </c>
+      <c r="L433" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>443</v>
+      </c>
+      <c r="C434">
+        <v>12.99</v>
+      </c>
+      <c r="D434">
+        <v>0.47</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>-4.65</v>
+      </c>
+      <c r="G434">
+        <v>211.78</v>
+      </c>
+      <c r="H434">
+        <v>-57.38</v>
+      </c>
+      <c r="I434">
+        <v>0.01</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>4.83</v>
+      </c>
+      <c r="L434" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>444</v>
+      </c>
+      <c r="C435">
+        <v>12.97</v>
+      </c>
+      <c r="D435">
+        <v>0.47</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>-4.53</v>
+      </c>
+      <c r="G435">
+        <v>205.98</v>
+      </c>
+      <c r="H435">
+        <v>-57.28</v>
+      </c>
+      <c r="I435">
+        <v>-0.01</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>5.57</v>
+      </c>
+      <c r="L435" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.94</v>
+      </c>
+      <c r="D436">
+        <v>0.47</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>-4.44</v>
+      </c>
+      <c r="G436">
+        <v>213.7</v>
+      </c>
+      <c r="H436">
+        <v>-57.28</v>
+      </c>
+      <c r="I436">
+        <v>-0.01</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>4.88</v>
+      </c>
+      <c r="L436" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>12.95</v>
+      </c>
+      <c r="D437">
+        <v>0.47</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>-4.5</v>
+      </c>
+      <c r="G437">
+        <v>210.06</v>
+      </c>
+      <c r="H437">
+        <v>-57.3</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>3.64</v>
+      </c>
+      <c r="L437" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>12.92</v>
+      </c>
+      <c r="D438">
+        <v>0.47</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>-4.3</v>
+      </c>
+      <c r="G438">
+        <v>185.28</v>
+      </c>
+      <c r="H438">
+        <v>-57.17</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>3.96</v>
+      </c>
+      <c r="L438" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.94</v>
+      </c>
+      <c r="D439">
+        <v>0.47</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>-4.1</v>
+      </c>
+      <c r="G439">
+        <v>200.2</v>
+      </c>
+      <c r="H439">
+        <v>-57.08</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>3.07</v>
+      </c>
+      <c r="L439" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.94</v>
+      </c>
+      <c r="D440">
+        <v>0.47</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>-4.12</v>
+      </c>
+      <c r="G440">
+        <v>184.77</v>
+      </c>
+      <c r="H440">
+        <v>-57.1</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>2.52</v>
+      </c>
+      <c r="L440" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.93</v>
+      </c>
+      <c r="D441">
+        <v>0.47</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>-4.11</v>
+      </c>
+      <c r="G441">
+        <v>217.05</v>
+      </c>
+      <c r="H441">
+        <v>-57.07</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>3.49</v>
+      </c>
+      <c r="L441" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="461">
   <si>
     <t>Fecha</t>
   </si>
@@ -1367,6 +1367,33 @@
   </si>
   <si>
     <t>11/9/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:40:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1727,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L441"/>
+  <dimension ref="A1:L450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1830,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1841,7 +1868,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1879,7 +1906,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1917,7 +1944,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1955,7 +1982,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1993,7 +2020,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2031,7 +2058,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2069,7 +2096,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2107,7 +2134,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2145,7 +2172,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2183,7 +2210,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2221,7 +2248,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2259,7 +2286,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2297,7 +2324,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2335,7 +2362,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2373,7 +2400,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2411,7 +2438,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2449,7 +2476,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2487,7 +2514,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2525,7 +2552,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2563,7 +2590,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2601,7 +2628,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2639,7 +2666,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2677,7 +2704,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2715,7 +2742,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2753,7 +2780,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2791,7 +2818,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2829,7 +2856,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2867,7 +2894,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2905,7 +2932,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2943,7 +2970,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2981,7 +3008,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3019,7 +3046,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3057,7 +3084,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3095,7 +3122,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3133,7 +3160,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3171,7 +3198,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3209,7 +3236,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3247,7 +3274,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3285,7 +3312,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3323,7 +3350,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3361,7 +3388,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3399,7 +3426,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3437,7 +3464,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3475,7 +3502,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3513,7 +3540,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3551,7 +3578,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3589,7 +3616,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3627,7 +3654,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3665,7 +3692,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3703,7 +3730,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3741,7 +3768,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3779,7 +3806,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3817,7 +3844,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3855,7 +3882,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3893,7 +3920,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3931,7 +3958,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3969,7 +3996,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4007,7 +4034,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4045,7 +4072,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4083,7 +4110,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4121,7 +4148,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4159,7 +4186,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4197,7 +4224,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4235,7 +4262,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4273,7 +4300,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4311,7 +4338,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4349,7 +4376,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4387,7 +4414,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4425,7 +4452,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4463,7 +4490,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4501,7 +4528,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4539,7 +4566,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4577,7 +4604,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4615,7 +4642,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4653,7 +4680,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4691,7 +4718,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4729,7 +4756,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4767,7 +4794,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4805,7 +4832,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4843,7 +4870,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4881,7 +4908,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4919,7 +4946,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4957,7 +4984,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4995,7 +5022,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5033,7 +5060,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5071,7 +5098,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5109,7 +5136,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5147,7 +5174,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5185,7 +5212,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5223,7 +5250,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5261,7 +5288,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5299,7 +5326,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5337,7 +5364,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5375,7 +5402,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5413,7 +5440,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5451,7 +5478,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5489,7 +5516,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5527,7 +5554,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5565,7 +5592,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5603,7 +5630,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5641,7 +5668,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5679,7 +5706,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5717,7 +5744,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5755,7 +5782,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5793,7 +5820,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5831,7 +5858,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5869,7 +5896,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5907,7 +5934,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5945,7 +5972,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5983,7 +6010,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6021,7 +6048,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6059,7 +6086,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6097,7 +6124,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6135,7 +6162,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6173,7 +6200,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6211,7 +6238,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6249,7 +6276,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6287,7 +6314,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6325,7 +6352,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6363,7 +6390,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6401,7 +6428,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6439,7 +6466,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6477,7 +6504,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6515,7 +6542,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6553,7 +6580,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6591,7 +6618,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6629,7 +6656,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6667,7 +6694,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6705,7 +6732,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6743,7 +6770,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6781,7 +6808,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6819,7 +6846,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6857,7 +6884,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6895,7 +6922,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6933,7 +6960,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6971,7 +6998,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7009,7 +7036,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7047,7 +7074,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7085,7 +7112,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7123,7 +7150,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7161,7 +7188,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7199,7 +7226,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7237,7 +7264,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7275,7 +7302,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7313,7 +7340,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7351,7 +7378,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7389,7 +7416,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7427,7 +7454,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7465,7 +7492,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7503,7 +7530,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7541,7 +7568,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7579,7 +7606,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7617,7 +7644,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7655,7 +7682,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7693,7 +7720,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7731,7 +7758,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7769,7 +7796,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7807,7 +7834,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7845,7 +7872,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7883,7 +7910,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7921,7 +7948,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7959,7 +7986,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7997,7 +8024,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8035,7 +8062,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8073,7 +8100,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8111,7 +8138,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8149,7 +8176,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8187,7 +8214,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8225,7 +8252,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8263,7 +8290,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8301,7 +8328,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8339,7 +8366,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8377,7 +8404,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8415,7 +8442,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8453,7 +8480,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8491,7 +8518,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8529,7 +8556,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8567,7 +8594,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8605,7 +8632,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8643,7 +8670,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8681,7 +8708,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8719,7 +8746,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8757,7 +8784,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8795,7 +8822,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8833,7 +8860,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8871,7 +8898,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8909,7 +8936,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8947,7 +8974,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8985,7 +9012,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9023,7 +9050,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9061,7 +9088,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9099,7 +9126,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9137,7 +9164,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9175,7 +9202,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9213,7 +9240,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9251,7 +9278,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9289,7 +9316,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9327,7 +9354,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9365,7 +9392,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9403,7 +9430,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9441,7 +9468,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9479,7 +9506,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9517,7 +9544,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9555,7 +9582,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9593,7 +9620,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9631,7 +9658,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9669,7 +9696,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9707,7 +9734,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9745,7 +9772,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9783,7 +9810,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9821,7 +9848,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9859,7 +9886,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9897,7 +9924,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9935,7 +9962,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9973,7 +10000,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10011,7 +10038,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10049,7 +10076,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10087,7 +10114,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10125,7 +10152,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10163,7 +10190,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10201,7 +10228,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10239,7 +10266,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10277,7 +10304,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10315,7 +10342,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10353,7 +10380,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10391,7 +10418,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10429,7 +10456,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10467,7 +10494,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10505,7 +10532,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10543,7 +10570,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10581,7 +10608,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10619,7 +10646,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10657,7 +10684,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10695,7 +10722,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10733,7 +10760,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10771,7 +10798,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10809,7 +10836,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10847,7 +10874,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10885,7 +10912,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10923,7 +10950,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10961,7 +10988,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10999,7 +11026,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11037,7 +11064,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11075,7 +11102,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11113,7 +11140,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11151,7 +11178,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11189,7 +11216,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11227,7 +11254,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11265,7 +11292,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11303,7 +11330,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11341,7 +11368,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11379,7 +11406,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11417,7 +11444,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11455,7 +11482,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11493,7 +11520,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11531,7 +11558,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11569,7 +11596,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11607,7 +11634,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11645,7 +11672,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11683,7 +11710,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11721,7 +11748,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11759,7 +11786,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11797,7 +11824,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11835,7 +11862,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11873,7 +11900,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11911,7 +11938,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11949,7 +11976,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11987,7 +12014,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12025,7 +12052,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12063,7 +12090,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12101,7 +12128,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12139,7 +12166,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12177,7 +12204,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12215,7 +12242,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12253,7 +12280,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12291,7 +12318,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12329,7 +12356,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12367,7 +12394,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12405,7 +12432,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12443,7 +12470,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12481,7 +12508,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12519,7 +12546,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12557,7 +12584,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12595,7 +12622,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12633,7 +12660,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12671,7 +12698,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12709,7 +12736,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12747,7 +12774,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12785,7 +12812,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12823,7 +12850,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12861,7 +12888,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12899,7 +12926,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12937,7 +12964,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12975,7 +13002,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13013,7 +13040,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13051,7 +13078,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13089,7 +13116,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13127,7 +13154,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13165,7 +13192,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13203,7 +13230,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13241,7 +13268,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13279,7 +13306,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13317,7 +13344,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13355,7 +13382,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13393,7 +13420,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13431,7 +13458,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13469,7 +13496,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13507,7 +13534,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13545,7 +13572,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13583,7 +13610,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13621,7 +13648,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13659,7 +13686,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13697,7 +13724,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13735,7 +13762,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13773,7 +13800,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13811,7 +13838,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13849,7 +13876,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13887,7 +13914,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13925,7 +13952,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13963,7 +13990,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14001,7 +14028,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14039,7 +14066,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14077,7 +14104,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14115,7 +14142,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14153,7 +14180,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14191,7 +14218,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14229,7 +14256,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14267,7 +14294,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14305,7 +14332,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14343,7 +14370,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14381,7 +14408,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14419,7 +14446,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14457,7 +14484,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14495,7 +14522,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14533,7 +14560,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14571,7 +14598,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14609,7 +14636,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14647,7 +14674,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14685,7 +14712,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14723,7 +14750,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14761,7 +14788,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14799,7 +14826,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14837,7 +14864,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14875,7 +14902,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14913,7 +14940,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14951,7 +14978,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14989,7 +15016,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15027,7 +15054,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15065,7 +15092,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15103,7 +15130,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15141,7 +15168,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15179,7 +15206,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15217,7 +15244,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15255,7 +15282,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15293,7 +15320,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15331,7 +15358,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15369,7 +15396,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15407,7 +15434,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15445,7 +15472,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15483,7 +15510,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15521,7 +15548,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15559,7 +15586,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15597,7 +15624,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15635,7 +15662,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15673,7 +15700,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15711,7 +15738,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15749,7 +15776,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15787,7 +15814,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15825,7 +15852,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15863,7 +15890,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15901,7 +15928,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15939,7 +15966,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15977,7 +16004,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16015,7 +16042,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16053,7 +16080,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16091,7 +16118,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16129,7 +16156,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16167,7 +16194,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16205,7 +16232,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16243,7 +16270,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16281,7 +16308,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16319,7 +16346,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16357,7 +16384,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16395,7 +16422,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16433,7 +16460,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16471,7 +16498,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16509,7 +16536,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16547,7 +16574,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16585,7 +16612,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16623,7 +16650,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16661,7 +16688,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16699,7 +16726,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16737,7 +16764,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16775,7 +16802,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16813,7 +16840,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16851,7 +16878,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16889,7 +16916,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16927,7 +16954,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16965,7 +16992,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17003,7 +17030,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17041,7 +17068,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17079,7 +17106,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17117,7 +17144,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17155,7 +17182,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17193,7 +17220,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17231,7 +17258,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17269,7 +17296,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17307,7 +17334,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17345,7 +17372,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17383,7 +17410,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17421,7 +17448,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17459,7 +17486,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17497,7 +17524,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17535,7 +17562,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17573,7 +17600,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17611,7 +17638,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17649,7 +17676,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17687,7 +17714,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17725,7 +17752,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17763,7 +17790,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17801,7 +17828,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17839,7 +17866,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17877,7 +17904,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17915,7 +17942,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17953,7 +17980,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17991,7 +18018,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18029,7 +18056,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18067,7 +18094,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18105,7 +18132,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18143,7 +18170,7 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18181,7 +18208,7 @@
         <v>5.29</v>
       </c>
       <c r="L433" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18219,7 +18246,7 @@
         <v>4.83</v>
       </c>
       <c r="L434" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18257,7 +18284,7 @@
         <v>5.57</v>
       </c>
       <c r="L435" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18295,7 +18322,7 @@
         <v>4.88</v>
       </c>
       <c r="L436" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18333,7 +18360,7 @@
         <v>3.64</v>
       </c>
       <c r="L437" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18371,7 +18398,7 @@
         <v>3.96</v>
       </c>
       <c r="L438" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18409,7 +18436,7 @@
         <v>3.07</v>
       </c>
       <c r="L439" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18447,7 +18474,7 @@
         <v>2.52</v>
       </c>
       <c r="L440" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18485,7 +18512,349 @@
         <v>3.49</v>
       </c>
       <c r="L441" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
         <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.93</v>
+      </c>
+      <c r="D442">
+        <v>0.47</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>-4.57</v>
+      </c>
+      <c r="G442">
+        <v>169.89</v>
+      </c>
+      <c r="H442">
+        <v>-57.36</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>3.23</v>
+      </c>
+      <c r="L442" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.93</v>
+      </c>
+      <c r="D443">
+        <v>0.47</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>-4.57</v>
+      </c>
+      <c r="G443">
+        <v>208.42</v>
+      </c>
+      <c r="H443">
+        <v>-57.36</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>3.82</v>
+      </c>
+      <c r="L443" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.92</v>
+      </c>
+      <c r="D444">
+        <v>0.47</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>-4.28</v>
+      </c>
+      <c r="G444">
+        <v>217.63</v>
+      </c>
+      <c r="H444">
+        <v>-57.2</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>3.73</v>
+      </c>
+      <c r="L444" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.92</v>
+      </c>
+      <c r="D445">
+        <v>0.47</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>-4.33</v>
+      </c>
+      <c r="G445">
+        <v>180</v>
+      </c>
+      <c r="H445">
+        <v>-57.21</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>1.88</v>
+      </c>
+      <c r="L445" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.92</v>
+      </c>
+      <c r="D446">
+        <v>0.47</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>-4.41</v>
+      </c>
+      <c r="G446">
+        <v>279.98</v>
+      </c>
+      <c r="H446">
+        <v>-57.29</v>
+      </c>
+      <c r="I446">
+        <v>0.01</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>1.61</v>
+      </c>
+      <c r="L446" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.92</v>
+      </c>
+      <c r="D447">
+        <v>0.47</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>-4.71</v>
+      </c>
+      <c r="G447">
+        <v>15.46</v>
+      </c>
+      <c r="H447">
+        <v>-57.45</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0.83</v>
+      </c>
+      <c r="L447" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.91</v>
+      </c>
+      <c r="D448">
+        <v>0.47</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>-4.76</v>
+      </c>
+      <c r="G448">
+        <v>238.45</v>
+      </c>
+      <c r="H448">
+        <v>-57.47</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0.89</v>
+      </c>
+      <c r="L448" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.91</v>
+      </c>
+      <c r="D449">
+        <v>0.47</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>-4.55</v>
+      </c>
+      <c r="G449">
+        <v>198.21</v>
+      </c>
+      <c r="H449">
+        <v>-57.37</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>1.38</v>
+      </c>
+      <c r="L449" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.89</v>
+      </c>
+      <c r="D450">
+        <v>0.47</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>-4.62</v>
+      </c>
+      <c r="G450">
+        <v>163.93</v>
+      </c>
+      <c r="H450">
+        <v>-57.41</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>1.66</v>
+      </c>
+      <c r="L450" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="470">
   <si>
     <t>Fecha</t>
   </si>
@@ -1394,6 +1394,33 @@
   </si>
   <si>
     <t>11/9/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:10:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1754,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L450"/>
+  <dimension ref="A1:L459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1830,7 +1857,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1868,7 +1895,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1906,7 +1933,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1944,7 +1971,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1982,7 +2009,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2020,7 +2047,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2058,7 +2085,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2096,7 +2123,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2134,7 +2161,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2172,7 +2199,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2210,7 +2237,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2248,7 +2275,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2286,7 +2313,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2324,7 +2351,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2362,7 +2389,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2400,7 +2427,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2438,7 +2465,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2476,7 +2503,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2514,7 +2541,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2552,7 +2579,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2590,7 +2617,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2628,7 +2655,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2666,7 +2693,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2704,7 +2731,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2742,7 +2769,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2780,7 +2807,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2818,7 +2845,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2856,7 +2883,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2894,7 +2921,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2932,7 +2959,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2970,7 +2997,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3008,7 +3035,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3046,7 +3073,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3084,7 +3111,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3122,7 +3149,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3160,7 +3187,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3198,7 +3225,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3236,7 +3263,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3274,7 +3301,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3312,7 +3339,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3350,7 +3377,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3388,7 +3415,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3426,7 +3453,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3464,7 +3491,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3502,7 +3529,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3540,7 +3567,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3578,7 +3605,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3616,7 +3643,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3654,7 +3681,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3692,7 +3719,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3730,7 +3757,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3768,7 +3795,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3806,7 +3833,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3844,7 +3871,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3882,7 +3909,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3920,7 +3947,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3958,7 +3985,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3996,7 +4023,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4034,7 +4061,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4072,7 +4099,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4110,7 +4137,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4148,7 +4175,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4186,7 +4213,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4224,7 +4251,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4262,7 +4289,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4300,7 +4327,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4338,7 +4365,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4376,7 +4403,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4414,7 +4441,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4452,7 +4479,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4490,7 +4517,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4528,7 +4555,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4566,7 +4593,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4604,7 +4631,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4642,7 +4669,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4680,7 +4707,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4718,7 +4745,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4756,7 +4783,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4794,7 +4821,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4832,7 +4859,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4870,7 +4897,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4908,7 +4935,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4946,7 +4973,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4984,7 +5011,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5022,7 +5049,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5060,7 +5087,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5098,7 +5125,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5136,7 +5163,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5174,7 +5201,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5212,7 +5239,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5250,7 +5277,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5288,7 +5315,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5326,7 +5353,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5364,7 +5391,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5402,7 +5429,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5440,7 +5467,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5478,7 +5505,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5516,7 +5543,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5554,7 +5581,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5592,7 +5619,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5630,7 +5657,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5668,7 +5695,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5706,7 +5733,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5744,7 +5771,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5782,7 +5809,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5820,7 +5847,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5858,7 +5885,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5896,7 +5923,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5934,7 +5961,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5972,7 +5999,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6010,7 +6037,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6048,7 +6075,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6086,7 +6113,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6124,7 +6151,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6162,7 +6189,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6200,7 +6227,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6238,7 +6265,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6276,7 +6303,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6314,7 +6341,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6352,7 +6379,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6390,7 +6417,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6428,7 +6455,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6466,7 +6493,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6504,7 +6531,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6542,7 +6569,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6580,7 +6607,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6618,7 +6645,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6656,7 +6683,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6694,7 +6721,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6732,7 +6759,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6770,7 +6797,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6808,7 +6835,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6846,7 +6873,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6884,7 +6911,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6922,7 +6949,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6960,7 +6987,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6998,7 +7025,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7036,7 +7063,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7074,7 +7101,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7112,7 +7139,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7150,7 +7177,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7188,7 +7215,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7226,7 +7253,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7264,7 +7291,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7302,7 +7329,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7340,7 +7367,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7378,7 +7405,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7416,7 +7443,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7454,7 +7481,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7492,7 +7519,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7530,7 +7557,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7568,7 +7595,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7606,7 +7633,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7644,7 +7671,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7682,7 +7709,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7720,7 +7747,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7758,7 +7785,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7796,7 +7823,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7834,7 +7861,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7872,7 +7899,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7910,7 +7937,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7948,7 +7975,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7986,7 +8013,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8024,7 +8051,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8062,7 +8089,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8100,7 +8127,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8138,7 +8165,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8176,7 +8203,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8214,7 +8241,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8252,7 +8279,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8290,7 +8317,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8328,7 +8355,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8366,7 +8393,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8404,7 +8431,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8442,7 +8469,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8480,7 +8507,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8518,7 +8545,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8556,7 +8583,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8594,7 +8621,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8632,7 +8659,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8670,7 +8697,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8708,7 +8735,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8746,7 +8773,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8784,7 +8811,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8822,7 +8849,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8860,7 +8887,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8898,7 +8925,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8936,7 +8963,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8974,7 +9001,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9012,7 +9039,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9050,7 +9077,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9088,7 +9115,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9126,7 +9153,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9164,7 +9191,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9202,7 +9229,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9240,7 +9267,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9278,7 +9305,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9316,7 +9343,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9354,7 +9381,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9392,7 +9419,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9430,7 +9457,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9468,7 +9495,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9506,7 +9533,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9544,7 +9571,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9582,7 +9609,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9620,7 +9647,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9658,7 +9685,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9696,7 +9723,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9734,7 +9761,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9772,7 +9799,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9810,7 +9837,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9848,7 +9875,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9886,7 +9913,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9924,7 +9951,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9962,7 +9989,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10000,7 +10027,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10038,7 +10065,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10076,7 +10103,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10114,7 +10141,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10152,7 +10179,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10190,7 +10217,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10228,7 +10255,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10266,7 +10293,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10304,7 +10331,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10342,7 +10369,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10380,7 +10407,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10418,7 +10445,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10456,7 +10483,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10494,7 +10521,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10532,7 +10559,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10570,7 +10597,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10608,7 +10635,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10646,7 +10673,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10684,7 +10711,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10722,7 +10749,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10760,7 +10787,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10798,7 +10825,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10836,7 +10863,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10874,7 +10901,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10912,7 +10939,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10950,7 +10977,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10988,7 +11015,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11026,7 +11053,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11064,7 +11091,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11102,7 +11129,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11140,7 +11167,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11178,7 +11205,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11216,7 +11243,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11254,7 +11281,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11292,7 +11319,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11330,7 +11357,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11368,7 +11395,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11406,7 +11433,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11444,7 +11471,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11482,7 +11509,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11520,7 +11547,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11558,7 +11585,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11596,7 +11623,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11634,7 +11661,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11672,7 +11699,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11710,7 +11737,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11748,7 +11775,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11786,7 +11813,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11824,7 +11851,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11862,7 +11889,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11900,7 +11927,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11938,7 +11965,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11976,7 +12003,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12014,7 +12041,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12052,7 +12079,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12090,7 +12117,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12128,7 +12155,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12166,7 +12193,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12204,7 +12231,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12242,7 +12269,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12280,7 +12307,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12318,7 +12345,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12356,7 +12383,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12394,7 +12421,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12432,7 +12459,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12470,7 +12497,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12508,7 +12535,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12546,7 +12573,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12584,7 +12611,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12622,7 +12649,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12660,7 +12687,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12698,7 +12725,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12736,7 +12763,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12774,7 +12801,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12812,7 +12839,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12850,7 +12877,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12888,7 +12915,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12926,7 +12953,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12964,7 +12991,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13002,7 +13029,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13040,7 +13067,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13078,7 +13105,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13116,7 +13143,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13154,7 +13181,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13192,7 +13219,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13230,7 +13257,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13268,7 +13295,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13306,7 +13333,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13344,7 +13371,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13382,7 +13409,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13420,7 +13447,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13458,7 +13485,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13496,7 +13523,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13534,7 +13561,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13572,7 +13599,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13610,7 +13637,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13648,7 +13675,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13686,7 +13713,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13724,7 +13751,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13762,7 +13789,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13800,7 +13827,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13838,7 +13865,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13876,7 +13903,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13914,7 +13941,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13952,7 +13979,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13990,7 +14017,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14028,7 +14055,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14066,7 +14093,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14104,7 +14131,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14142,7 +14169,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14180,7 +14207,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14218,7 +14245,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14256,7 +14283,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14294,7 +14321,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14332,7 +14359,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14370,7 +14397,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14408,7 +14435,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14446,7 +14473,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14484,7 +14511,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14522,7 +14549,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14560,7 +14587,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14598,7 +14625,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14636,7 +14663,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14674,7 +14701,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14712,7 +14739,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14750,7 +14777,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14788,7 +14815,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14826,7 +14853,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14864,7 +14891,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14902,7 +14929,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14940,7 +14967,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14978,7 +15005,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15016,7 +15043,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15054,7 +15081,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15092,7 +15119,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15130,7 +15157,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15168,7 +15195,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15206,7 +15233,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15244,7 +15271,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15282,7 +15309,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15320,7 +15347,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15358,7 +15385,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15396,7 +15423,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15434,7 +15461,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15472,7 +15499,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15510,7 +15537,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15548,7 +15575,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15586,7 +15613,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15624,7 +15651,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15662,7 +15689,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15700,7 +15727,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15738,7 +15765,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15776,7 +15803,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15814,7 +15841,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15852,7 +15879,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15890,7 +15917,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15928,7 +15955,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15966,7 +15993,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16004,7 +16031,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16042,7 +16069,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16080,7 +16107,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16118,7 +16145,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16156,7 +16183,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16194,7 +16221,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16232,7 +16259,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16270,7 +16297,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16308,7 +16335,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16346,7 +16373,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16384,7 +16411,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16422,7 +16449,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16460,7 +16487,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16498,7 +16525,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16536,7 +16563,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16574,7 +16601,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16612,7 +16639,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16650,7 +16677,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16688,7 +16715,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16726,7 +16753,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16764,7 +16791,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16802,7 +16829,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16840,7 +16867,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16878,7 +16905,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16916,7 +16943,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16954,7 +16981,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16992,7 +17019,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17030,7 +17057,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17068,7 +17095,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17106,7 +17133,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17144,7 +17171,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17182,7 +17209,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17220,7 +17247,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17258,7 +17285,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17296,7 +17323,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17334,7 +17361,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17372,7 +17399,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17410,7 +17437,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17448,7 +17475,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17486,7 +17513,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17524,7 +17551,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17562,7 +17589,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17600,7 +17627,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17638,7 +17665,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17676,7 +17703,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17714,7 +17741,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17752,7 +17779,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17790,7 +17817,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17828,7 +17855,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17866,7 +17893,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17904,7 +17931,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17942,7 +17969,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17980,7 +18007,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18018,7 +18045,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18056,7 +18083,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18094,7 +18121,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18132,7 +18159,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18170,7 +18197,7 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18208,7 +18235,7 @@
         <v>5.29</v>
       </c>
       <c r="L433" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18246,7 +18273,7 @@
         <v>4.83</v>
       </c>
       <c r="L434" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18284,7 +18311,7 @@
         <v>5.57</v>
       </c>
       <c r="L435" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18322,7 +18349,7 @@
         <v>4.88</v>
       </c>
       <c r="L436" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18360,7 +18387,7 @@
         <v>3.64</v>
       </c>
       <c r="L437" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18398,7 +18425,7 @@
         <v>3.96</v>
       </c>
       <c r="L438" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18436,7 +18463,7 @@
         <v>3.07</v>
       </c>
       <c r="L439" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18474,7 +18501,7 @@
         <v>2.52</v>
       </c>
       <c r="L440" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18512,7 +18539,7 @@
         <v>3.49</v>
       </c>
       <c r="L441" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18550,7 +18577,7 @@
         <v>3.23</v>
       </c>
       <c r="L442" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18588,7 +18615,7 @@
         <v>3.82</v>
       </c>
       <c r="L443" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18626,7 +18653,7 @@
         <v>3.73</v>
       </c>
       <c r="L444" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18664,7 +18691,7 @@
         <v>1.88</v>
       </c>
       <c r="L445" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18702,7 +18729,7 @@
         <v>1.61</v>
       </c>
       <c r="L446" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18740,7 +18767,7 @@
         <v>0.83</v>
       </c>
       <c r="L447" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18778,7 +18805,7 @@
         <v>0.89</v>
       </c>
       <c r="L448" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18816,7 +18843,7 @@
         <v>1.38</v>
       </c>
       <c r="L449" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18854,7 +18881,349 @@
         <v>1.66</v>
       </c>
       <c r="L450" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
         <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.9</v>
+      </c>
+      <c r="D451">
+        <v>0.46</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>-4.43</v>
+      </c>
+      <c r="G451">
+        <v>153.31</v>
+      </c>
+      <c r="H451">
+        <v>-57.32</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>1.72</v>
+      </c>
+      <c r="L451" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.9</v>
+      </c>
+      <c r="D452">
+        <v>0.46</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>-4.21</v>
+      </c>
+      <c r="G452">
+        <v>87.5</v>
+      </c>
+      <c r="H452">
+        <v>-57.2</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>1.28</v>
+      </c>
+      <c r="L452" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.88</v>
+      </c>
+      <c r="D453">
+        <v>0.47</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>-4.2</v>
+      </c>
+      <c r="G453">
+        <v>157.27</v>
+      </c>
+      <c r="H453">
+        <v>-57.17</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0.87</v>
+      </c>
+      <c r="L453" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.89</v>
+      </c>
+      <c r="D454">
+        <v>0.46</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>-4.19</v>
+      </c>
+      <c r="G454">
+        <v>202.92</v>
+      </c>
+      <c r="H454">
+        <v>-57.17</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>2.11</v>
+      </c>
+      <c r="L454" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.89</v>
+      </c>
+      <c r="D455">
+        <v>0.46</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>-4.17</v>
+      </c>
+      <c r="G455">
+        <v>164.46</v>
+      </c>
+      <c r="H455">
+        <v>-57.18</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>2.37</v>
+      </c>
+      <c r="L455" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.89</v>
+      </c>
+      <c r="D456">
+        <v>0.47</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>-4.02</v>
+      </c>
+      <c r="G456">
+        <v>223.36</v>
+      </c>
+      <c r="H456">
+        <v>-57.07</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>2.18</v>
+      </c>
+      <c r="L456" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.88</v>
+      </c>
+      <c r="D457">
+        <v>0.46</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>-4.1</v>
+      </c>
+      <c r="G457">
+        <v>179.94</v>
+      </c>
+      <c r="H457">
+        <v>-57.14</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>1.54</v>
+      </c>
+      <c r="L457" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.88</v>
+      </c>
+      <c r="D458">
+        <v>0.46</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>-4.03</v>
+      </c>
+      <c r="G458">
+        <v>149.91</v>
+      </c>
+      <c r="H458">
+        <v>-57.09</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>1.99</v>
+      </c>
+      <c r="L458" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.88</v>
+      </c>
+      <c r="D459">
+        <v>0.46</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>-4.12</v>
+      </c>
+      <c r="G459">
+        <v>140.78</v>
+      </c>
+      <c r="H459">
+        <v>-57.18</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>1.69</v>
+      </c>
+      <c r="L459" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="481">
   <si>
     <t>Fecha</t>
   </si>
@@ -1421,6 +1421,39 @@
   </si>
   <si>
     <t>11/9/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1781,7 +1814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L459"/>
+  <dimension ref="A1:L470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,7 +1890,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1895,7 +1928,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1933,7 +1966,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1971,7 +2004,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2009,7 +2042,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2047,7 +2080,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2085,7 +2118,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2123,7 +2156,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2161,7 +2194,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2199,7 +2232,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2237,7 +2270,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2275,7 +2308,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2313,7 +2346,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2351,7 +2384,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2389,7 +2422,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2427,7 +2460,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2465,7 +2498,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2503,7 +2536,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2541,7 +2574,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2579,7 +2612,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2617,7 +2650,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2655,7 +2688,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2693,7 +2726,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2731,7 +2764,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2769,7 +2802,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2807,7 +2840,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2845,7 +2878,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2883,7 +2916,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2921,7 +2954,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2959,7 +2992,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2997,7 +3030,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3035,7 +3068,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3073,7 +3106,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3111,7 +3144,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3149,7 +3182,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3187,7 +3220,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3225,7 +3258,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3263,7 +3296,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3301,7 +3334,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3339,7 +3372,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3377,7 +3410,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3415,7 +3448,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3453,7 +3486,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3491,7 +3524,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3529,7 +3562,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3567,7 +3600,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3605,7 +3638,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3643,7 +3676,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3681,7 +3714,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3719,7 +3752,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3757,7 +3790,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3795,7 +3828,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3833,7 +3866,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3871,7 +3904,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3909,7 +3942,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3947,7 +3980,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3985,7 +4018,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4023,7 +4056,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4061,7 +4094,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4099,7 +4132,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4137,7 +4170,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4175,7 +4208,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4213,7 +4246,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4251,7 +4284,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4289,7 +4322,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4327,7 +4360,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4365,7 +4398,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4403,7 +4436,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4441,7 +4474,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4479,7 +4512,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4517,7 +4550,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4555,7 +4588,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4593,7 +4626,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4631,7 +4664,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4669,7 +4702,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4707,7 +4740,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4745,7 +4778,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4783,7 +4816,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4821,7 +4854,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4859,7 +4892,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4897,7 +4930,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4935,7 +4968,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4973,7 +5006,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5011,7 +5044,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5049,7 +5082,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5087,7 +5120,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5125,7 +5158,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5163,7 +5196,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5201,7 +5234,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5239,7 +5272,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5277,7 +5310,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5315,7 +5348,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5353,7 +5386,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5391,7 +5424,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5429,7 +5462,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5467,7 +5500,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5505,7 +5538,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5543,7 +5576,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5581,7 +5614,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5619,7 +5652,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5657,7 +5690,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5695,7 +5728,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5733,7 +5766,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5771,7 +5804,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5809,7 +5842,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5847,7 +5880,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5885,7 +5918,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5923,7 +5956,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5961,7 +5994,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5999,7 +6032,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6037,7 +6070,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6075,7 +6108,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6113,7 +6146,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6151,7 +6184,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6189,7 +6222,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6227,7 +6260,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6265,7 +6298,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6303,7 +6336,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6341,7 +6374,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6379,7 +6412,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6417,7 +6450,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6455,7 +6488,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6493,7 +6526,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6531,7 +6564,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6569,7 +6602,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6607,7 +6640,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6645,7 +6678,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6683,7 +6716,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6721,7 +6754,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6759,7 +6792,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6797,7 +6830,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6835,7 +6868,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6873,7 +6906,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6911,7 +6944,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6949,7 +6982,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6987,7 +7020,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7025,7 +7058,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7063,7 +7096,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7101,7 +7134,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7139,7 +7172,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7177,7 +7210,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7215,7 +7248,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7253,7 +7286,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7291,7 +7324,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7329,7 +7362,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7367,7 +7400,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7405,7 +7438,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7443,7 +7476,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7481,7 +7514,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7519,7 +7552,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7557,7 +7590,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7595,7 +7628,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7633,7 +7666,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7671,7 +7704,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7709,7 +7742,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7747,7 +7780,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7785,7 +7818,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7823,7 +7856,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7861,7 +7894,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7899,7 +7932,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7937,7 +7970,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7975,7 +8008,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8013,7 +8046,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8051,7 +8084,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8089,7 +8122,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8127,7 +8160,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8165,7 +8198,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8203,7 +8236,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8241,7 +8274,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8279,7 +8312,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8317,7 +8350,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8355,7 +8388,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8393,7 +8426,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8431,7 +8464,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8469,7 +8502,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8507,7 +8540,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8545,7 +8578,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8583,7 +8616,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8621,7 +8654,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8659,7 +8692,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8697,7 +8730,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8735,7 +8768,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8773,7 +8806,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8811,7 +8844,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8849,7 +8882,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8887,7 +8920,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8925,7 +8958,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8963,7 +8996,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9001,7 +9034,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9039,7 +9072,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9077,7 +9110,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9115,7 +9148,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9153,7 +9186,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9191,7 +9224,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9229,7 +9262,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9267,7 +9300,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9305,7 +9338,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9343,7 +9376,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9381,7 +9414,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9419,7 +9452,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9457,7 +9490,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9495,7 +9528,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9533,7 +9566,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9571,7 +9604,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9609,7 +9642,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9647,7 +9680,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9685,7 +9718,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9723,7 +9756,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9761,7 +9794,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9799,7 +9832,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9837,7 +9870,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9875,7 +9908,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9913,7 +9946,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9951,7 +9984,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9989,7 +10022,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10027,7 +10060,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10065,7 +10098,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10103,7 +10136,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10141,7 +10174,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10179,7 +10212,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10217,7 +10250,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10255,7 +10288,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10293,7 +10326,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10331,7 +10364,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10369,7 +10402,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10407,7 +10440,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10445,7 +10478,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10483,7 +10516,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10521,7 +10554,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10559,7 +10592,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10597,7 +10630,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10635,7 +10668,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10673,7 +10706,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10711,7 +10744,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10749,7 +10782,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10787,7 +10820,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10825,7 +10858,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10863,7 +10896,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10901,7 +10934,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10939,7 +10972,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10977,7 +11010,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11015,7 +11048,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11053,7 +11086,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11091,7 +11124,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11129,7 +11162,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11167,7 +11200,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11205,7 +11238,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11243,7 +11276,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11281,7 +11314,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11319,7 +11352,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11357,7 +11390,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11395,7 +11428,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11433,7 +11466,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11471,7 +11504,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11509,7 +11542,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11547,7 +11580,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11585,7 +11618,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11623,7 +11656,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11661,7 +11694,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11699,7 +11732,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11737,7 +11770,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11775,7 +11808,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11813,7 +11846,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11851,7 +11884,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11889,7 +11922,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11927,7 +11960,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11965,7 +11998,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12003,7 +12036,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12041,7 +12074,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12079,7 +12112,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12117,7 +12150,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12155,7 +12188,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12193,7 +12226,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12231,7 +12264,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12269,7 +12302,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12307,7 +12340,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12345,7 +12378,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12383,7 +12416,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12421,7 +12454,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12459,7 +12492,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12497,7 +12530,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12535,7 +12568,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12573,7 +12606,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12611,7 +12644,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12649,7 +12682,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12687,7 +12720,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12725,7 +12758,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12763,7 +12796,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12801,7 +12834,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12839,7 +12872,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12877,7 +12910,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12915,7 +12948,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12953,7 +12986,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12991,7 +13024,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13029,7 +13062,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13067,7 +13100,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13105,7 +13138,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13143,7 +13176,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13181,7 +13214,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13219,7 +13252,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13257,7 +13290,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13295,7 +13328,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13333,7 +13366,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13371,7 +13404,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13409,7 +13442,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13447,7 +13480,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13485,7 +13518,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13523,7 +13556,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13561,7 +13594,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13599,7 +13632,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13637,7 +13670,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13675,7 +13708,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13713,7 +13746,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13751,7 +13784,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13789,7 +13822,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13827,7 +13860,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13865,7 +13898,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13903,7 +13936,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13941,7 +13974,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13979,7 +14012,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14017,7 +14050,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14055,7 +14088,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14093,7 +14126,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14131,7 +14164,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14169,7 +14202,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14207,7 +14240,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14245,7 +14278,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14283,7 +14316,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14321,7 +14354,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14359,7 +14392,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14397,7 +14430,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14435,7 +14468,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14473,7 +14506,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14511,7 +14544,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14549,7 +14582,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14587,7 +14620,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14625,7 +14658,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14663,7 +14696,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14701,7 +14734,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14739,7 +14772,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14777,7 +14810,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14815,7 +14848,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14853,7 +14886,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14891,7 +14924,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14929,7 +14962,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14967,7 +15000,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15005,7 +15038,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15043,7 +15076,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15081,7 +15114,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15119,7 +15152,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15157,7 +15190,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15195,7 +15228,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15233,7 +15266,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15271,7 +15304,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15309,7 +15342,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15347,7 +15380,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15385,7 +15418,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15423,7 +15456,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15461,7 +15494,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15499,7 +15532,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15537,7 +15570,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15575,7 +15608,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15613,7 +15646,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15651,7 +15684,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15689,7 +15722,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15727,7 +15760,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15765,7 +15798,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15803,7 +15836,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15841,7 +15874,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15879,7 +15912,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15917,7 +15950,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15955,7 +15988,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15993,7 +16026,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16031,7 +16064,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16069,7 +16102,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16107,7 +16140,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16145,7 +16178,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16183,7 +16216,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16221,7 +16254,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16259,7 +16292,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16297,7 +16330,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16335,7 +16368,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16373,7 +16406,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16411,7 +16444,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16449,7 +16482,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16487,7 +16520,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16525,7 +16558,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16563,7 +16596,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16601,7 +16634,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16639,7 +16672,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16677,7 +16710,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16715,7 +16748,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16753,7 +16786,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16791,7 +16824,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16829,7 +16862,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16867,7 +16900,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16905,7 +16938,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16943,7 +16976,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16981,7 +17014,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17019,7 +17052,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17057,7 +17090,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17095,7 +17128,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17133,7 +17166,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17171,7 +17204,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17209,7 +17242,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17247,7 +17280,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17285,7 +17318,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17323,7 +17356,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17361,7 +17394,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17399,7 +17432,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17437,7 +17470,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17475,7 +17508,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17513,7 +17546,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17551,7 +17584,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17589,7 +17622,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17627,7 +17660,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17665,7 +17698,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17703,7 +17736,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17741,7 +17774,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17779,7 +17812,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17817,7 +17850,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17855,7 +17888,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17893,7 +17926,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17931,7 +17964,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17969,7 +18002,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18007,7 +18040,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18045,7 +18078,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18083,7 +18116,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18121,7 +18154,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18159,7 +18192,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18197,7 +18230,7 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18235,7 +18268,7 @@
         <v>5.29</v>
       </c>
       <c r="L433" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18273,7 +18306,7 @@
         <v>4.83</v>
       </c>
       <c r="L434" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18311,7 +18344,7 @@
         <v>5.57</v>
       </c>
       <c r="L435" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18349,7 +18382,7 @@
         <v>4.88</v>
       </c>
       <c r="L436" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18387,7 +18420,7 @@
         <v>3.64</v>
       </c>
       <c r="L437" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18425,7 +18458,7 @@
         <v>3.96</v>
       </c>
       <c r="L438" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18463,7 +18496,7 @@
         <v>3.07</v>
       </c>
       <c r="L439" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18501,7 +18534,7 @@
         <v>2.52</v>
       </c>
       <c r="L440" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18539,7 +18572,7 @@
         <v>3.49</v>
       </c>
       <c r="L441" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18577,7 +18610,7 @@
         <v>3.23</v>
       </c>
       <c r="L442" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18615,7 +18648,7 @@
         <v>3.82</v>
       </c>
       <c r="L443" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18653,7 +18686,7 @@
         <v>3.73</v>
       </c>
       <c r="L444" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18691,7 +18724,7 @@
         <v>1.88</v>
       </c>
       <c r="L445" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18729,7 +18762,7 @@
         <v>1.61</v>
       </c>
       <c r="L446" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18767,7 +18800,7 @@
         <v>0.83</v>
       </c>
       <c r="L447" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18805,7 +18838,7 @@
         <v>0.89</v>
       </c>
       <c r="L448" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18843,7 +18876,7 @@
         <v>1.38</v>
       </c>
       <c r="L449" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18881,7 +18914,7 @@
         <v>1.66</v>
       </c>
       <c r="L450" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18919,7 +18952,7 @@
         <v>1.72</v>
       </c>
       <c r="L451" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18957,7 +18990,7 @@
         <v>1.28</v>
       </c>
       <c r="L452" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18995,7 +19028,7 @@
         <v>0.87</v>
       </c>
       <c r="L453" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19033,7 +19066,7 @@
         <v>2.11</v>
       </c>
       <c r="L454" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19071,7 +19104,7 @@
         <v>2.37</v>
       </c>
       <c r="L455" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19109,7 +19142,7 @@
         <v>2.18</v>
       </c>
       <c r="L456" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19147,7 +19180,7 @@
         <v>1.54</v>
       </c>
       <c r="L457" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19185,7 +19218,7 @@
         <v>1.99</v>
       </c>
       <c r="L458" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19223,7 +19256,425 @@
         <v>1.69</v>
       </c>
       <c r="L459" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
         <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.87</v>
+      </c>
+      <c r="D460">
+        <v>0.46</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>-4.33</v>
+      </c>
+      <c r="G460">
+        <v>215.85</v>
+      </c>
+      <c r="H460">
+        <v>-57.28</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>2.1</v>
+      </c>
+      <c r="L460" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.87</v>
+      </c>
+      <c r="D461">
+        <v>0.46</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>-4.25</v>
+      </c>
+      <c r="G461">
+        <v>168</v>
+      </c>
+      <c r="H461">
+        <v>-57.24</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>1.75</v>
+      </c>
+      <c r="L461" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.85</v>
+      </c>
+      <c r="D462">
+        <v>0.46</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>-4.2</v>
+      </c>
+      <c r="G462">
+        <v>208.9</v>
+      </c>
+      <c r="H462">
+        <v>-57.23</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0.71</v>
+      </c>
+      <c r="L462" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.86</v>
+      </c>
+      <c r="D463">
+        <v>0.46</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>-4.35</v>
+      </c>
+      <c r="G463">
+        <v>319.99</v>
+      </c>
+      <c r="H463">
+        <v>-57.3</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>1.02</v>
+      </c>
+      <c r="L463" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.85</v>
+      </c>
+      <c r="D464">
+        <v>0.46</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>-4.28</v>
+      </c>
+      <c r="G464">
+        <v>1.95</v>
+      </c>
+      <c r="H464">
+        <v>-57.24</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>2.65</v>
+      </c>
+      <c r="L464" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.82</v>
+      </c>
+      <c r="D465">
+        <v>0.46</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>-4.49</v>
+      </c>
+      <c r="G465">
+        <v>50.48</v>
+      </c>
+      <c r="H465">
+        <v>-57.37</v>
+      </c>
+      <c r="I465">
+        <v>-0.01</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>2.14</v>
+      </c>
+      <c r="L465" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.79</v>
+      </c>
+      <c r="D466">
+        <v>0.46</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>-4.43</v>
+      </c>
+      <c r="G466">
+        <v>156.25</v>
+      </c>
+      <c r="H466">
+        <v>-57.33</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>1.47</v>
+      </c>
+      <c r="L466" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.82</v>
+      </c>
+      <c r="D467">
+        <v>0.46</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>-4.08</v>
+      </c>
+      <c r="G467">
+        <v>114.2</v>
+      </c>
+      <c r="H467">
+        <v>-57.13</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0.93</v>
+      </c>
+      <c r="L467" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.84</v>
+      </c>
+      <c r="D468">
+        <v>0.46</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>-3.63</v>
+      </c>
+      <c r="G468">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="H468">
+        <v>-56.91</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L468" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.84</v>
+      </c>
+      <c r="D469">
+        <v>0.46</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>-3.71</v>
+      </c>
+      <c r="G469">
+        <v>170.74</v>
+      </c>
+      <c r="H469">
+        <v>-56.94</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>1.93</v>
+      </c>
+      <c r="L469" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.84</v>
+      </c>
+      <c r="D470">
+        <v>0.46</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>-3.45</v>
+      </c>
+      <c r="G470">
+        <v>222.16</v>
+      </c>
+      <c r="H470">
+        <v>-56.79</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>3.75</v>
+      </c>
+      <c r="L470" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="491">
   <si>
     <t>Fecha</t>
   </si>
@@ -1454,6 +1454,36 @@
   </si>
   <si>
     <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:40:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1814,7 +1844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L470"/>
+  <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1920,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1928,7 +1958,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1966,7 +1996,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2004,7 +2034,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2042,7 +2072,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2080,7 +2110,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2118,7 +2148,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2156,7 +2186,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2194,7 +2224,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2232,7 +2262,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2270,7 +2300,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2308,7 +2338,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2346,7 +2376,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2384,7 +2414,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2422,7 +2452,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2460,7 +2490,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2498,7 +2528,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2536,7 +2566,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2574,7 +2604,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2612,7 +2642,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2650,7 +2680,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2688,7 +2718,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2726,7 +2756,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2764,7 +2794,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2802,7 +2832,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2840,7 +2870,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2878,7 +2908,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2916,7 +2946,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2954,7 +2984,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2992,7 +3022,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3030,7 +3060,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3068,7 +3098,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3106,7 +3136,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3144,7 +3174,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3182,7 +3212,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3220,7 +3250,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3258,7 +3288,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3296,7 +3326,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3334,7 +3364,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3372,7 +3402,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3410,7 +3440,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3448,7 +3478,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3486,7 +3516,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3524,7 +3554,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3562,7 +3592,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3600,7 +3630,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3638,7 +3668,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3676,7 +3706,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3714,7 +3744,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3752,7 +3782,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3790,7 +3820,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3828,7 +3858,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3866,7 +3896,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3904,7 +3934,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3942,7 +3972,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3980,7 +4010,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4018,7 +4048,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4056,7 +4086,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4094,7 +4124,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4132,7 +4162,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4170,7 +4200,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4208,7 +4238,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4246,7 +4276,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4284,7 +4314,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4322,7 +4352,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4360,7 +4390,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4398,7 +4428,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4436,7 +4466,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4474,7 +4504,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4512,7 +4542,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4550,7 +4580,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4588,7 +4618,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4626,7 +4656,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4664,7 +4694,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4702,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4740,7 +4770,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4778,7 +4808,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4816,7 +4846,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4854,7 +4884,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4892,7 +4922,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4930,7 +4960,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4968,7 +4998,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5006,7 +5036,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5044,7 +5074,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5082,7 +5112,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5120,7 +5150,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5158,7 +5188,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5196,7 +5226,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5234,7 +5264,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5272,7 +5302,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5310,7 +5340,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5348,7 +5378,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5386,7 +5416,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5424,7 +5454,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5462,7 +5492,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5500,7 +5530,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5538,7 +5568,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5576,7 +5606,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5614,7 +5644,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5652,7 +5682,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5690,7 +5720,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5728,7 +5758,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5766,7 +5796,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5804,7 +5834,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5842,7 +5872,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5880,7 +5910,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5918,7 +5948,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5956,7 +5986,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5994,7 +6024,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6032,7 +6062,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6070,7 +6100,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6108,7 +6138,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6146,7 +6176,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6184,7 +6214,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6222,7 +6252,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6260,7 +6290,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6298,7 +6328,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6336,7 +6366,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6374,7 +6404,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6412,7 +6442,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6450,7 +6480,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6488,7 +6518,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6526,7 +6556,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6564,7 +6594,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6602,7 +6632,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6640,7 +6670,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6678,7 +6708,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6716,7 +6746,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6754,7 +6784,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6792,7 +6822,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6830,7 +6860,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6868,7 +6898,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6906,7 +6936,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6944,7 +6974,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6982,7 +7012,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7020,7 +7050,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7058,7 +7088,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7096,7 +7126,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7134,7 +7164,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7172,7 +7202,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7210,7 +7240,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7248,7 +7278,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7286,7 +7316,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7324,7 +7354,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7362,7 +7392,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7400,7 +7430,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7438,7 +7468,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7476,7 +7506,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7514,7 +7544,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7552,7 +7582,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7590,7 +7620,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7628,7 +7658,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7666,7 +7696,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7704,7 +7734,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7742,7 +7772,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7780,7 +7810,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7818,7 +7848,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7856,7 +7886,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7894,7 +7924,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7932,7 +7962,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7970,7 +8000,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8008,7 +8038,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8046,7 +8076,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8084,7 +8114,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8122,7 +8152,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8160,7 +8190,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8198,7 +8228,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8236,7 +8266,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8274,7 +8304,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8312,7 +8342,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8350,7 +8380,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8388,7 +8418,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8426,7 +8456,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8464,7 +8494,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8502,7 +8532,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8540,7 +8570,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8578,7 +8608,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8616,7 +8646,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8654,7 +8684,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8692,7 +8722,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8730,7 +8760,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8768,7 +8798,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8806,7 +8836,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8844,7 +8874,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8882,7 +8912,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8920,7 +8950,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8958,7 +8988,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8996,7 +9026,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9034,7 +9064,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9072,7 +9102,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9110,7 +9140,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9148,7 +9178,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9186,7 +9216,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9224,7 +9254,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9262,7 +9292,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9300,7 +9330,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9338,7 +9368,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9376,7 +9406,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9414,7 +9444,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9452,7 +9482,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9490,7 +9520,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9528,7 +9558,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9566,7 +9596,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9604,7 +9634,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9642,7 +9672,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9680,7 +9710,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9718,7 +9748,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9756,7 +9786,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9794,7 +9824,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9832,7 +9862,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9870,7 +9900,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9908,7 +9938,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9946,7 +9976,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9984,7 +10014,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10022,7 +10052,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10060,7 +10090,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10098,7 +10128,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10136,7 +10166,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10174,7 +10204,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10212,7 +10242,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10250,7 +10280,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10288,7 +10318,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10326,7 +10356,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10364,7 +10394,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10402,7 +10432,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10440,7 +10470,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10478,7 +10508,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10516,7 +10546,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10554,7 +10584,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10592,7 +10622,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10630,7 +10660,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10668,7 +10698,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10706,7 +10736,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10744,7 +10774,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10782,7 +10812,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10820,7 +10850,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10858,7 +10888,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10896,7 +10926,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10934,7 +10964,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10972,7 +11002,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11010,7 +11040,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11048,7 +11078,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11086,7 +11116,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11124,7 +11154,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11162,7 +11192,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11200,7 +11230,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11238,7 +11268,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11276,7 +11306,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11314,7 +11344,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11352,7 +11382,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11390,7 +11420,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11428,7 +11458,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11466,7 +11496,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11504,7 +11534,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11542,7 +11572,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11580,7 +11610,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11618,7 +11648,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11656,7 +11686,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11694,7 +11724,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11732,7 +11762,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11770,7 +11800,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11808,7 +11838,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11846,7 +11876,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11884,7 +11914,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11922,7 +11952,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11960,7 +11990,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11998,7 +12028,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12036,7 +12066,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12074,7 +12104,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12112,7 +12142,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12150,7 +12180,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12188,7 +12218,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12226,7 +12256,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12264,7 +12294,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12302,7 +12332,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12340,7 +12370,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12378,7 +12408,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12416,7 +12446,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12454,7 +12484,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12492,7 +12522,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12530,7 +12560,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12568,7 +12598,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12606,7 +12636,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12644,7 +12674,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12682,7 +12712,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12720,7 +12750,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12758,7 +12788,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12796,7 +12826,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12834,7 +12864,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12872,7 +12902,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12910,7 +12940,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12948,7 +12978,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12986,7 +13016,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13024,7 +13054,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13062,7 +13092,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13100,7 +13130,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13138,7 +13168,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13176,7 +13206,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13214,7 +13244,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13252,7 +13282,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13290,7 +13320,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13328,7 +13358,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13366,7 +13396,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13404,7 +13434,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13442,7 +13472,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13480,7 +13510,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13518,7 +13548,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13556,7 +13586,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13594,7 +13624,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13632,7 +13662,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13670,7 +13700,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13708,7 +13738,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13746,7 +13776,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13784,7 +13814,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13822,7 +13852,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13860,7 +13890,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13898,7 +13928,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13936,7 +13966,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13974,7 +14004,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14012,7 +14042,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14050,7 +14080,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14088,7 +14118,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14126,7 +14156,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14164,7 +14194,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14202,7 +14232,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14240,7 +14270,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14278,7 +14308,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14316,7 +14346,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14354,7 +14384,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14392,7 +14422,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14430,7 +14460,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14468,7 +14498,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14506,7 +14536,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14544,7 +14574,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14582,7 +14612,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14620,7 +14650,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14658,7 +14688,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14696,7 +14726,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14734,7 +14764,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14772,7 +14802,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14810,7 +14840,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14848,7 +14878,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14886,7 +14916,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14924,7 +14954,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14962,7 +14992,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15000,7 +15030,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15038,7 +15068,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15076,7 +15106,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15114,7 +15144,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15152,7 +15182,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15190,7 +15220,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15228,7 +15258,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15266,7 +15296,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15304,7 +15334,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15342,7 +15372,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15380,7 +15410,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15418,7 +15448,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15456,7 +15486,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15494,7 +15524,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15532,7 +15562,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15570,7 +15600,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15608,7 +15638,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15646,7 +15676,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15684,7 +15714,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15722,7 +15752,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15760,7 +15790,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15798,7 +15828,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15836,7 +15866,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15874,7 +15904,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15912,7 +15942,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15950,7 +15980,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15988,7 +16018,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16026,7 +16056,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16064,7 +16094,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16102,7 +16132,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16140,7 +16170,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16178,7 +16208,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16216,7 +16246,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16254,7 +16284,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16292,7 +16322,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16330,7 +16360,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16368,7 +16398,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16406,7 +16436,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16444,7 +16474,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16482,7 +16512,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16520,7 +16550,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16558,7 +16588,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16596,7 +16626,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16634,7 +16664,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16672,7 +16702,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16710,7 +16740,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16748,7 +16778,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16786,7 +16816,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16824,7 +16854,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16862,7 +16892,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16900,7 +16930,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16938,7 +16968,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16976,7 +17006,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17014,7 +17044,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17052,7 +17082,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17090,7 +17120,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17128,7 +17158,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17166,7 +17196,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17204,7 +17234,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17242,7 +17272,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17280,7 +17310,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17318,7 +17348,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17356,7 +17386,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17394,7 +17424,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17432,7 +17462,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17470,7 +17500,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17508,7 +17538,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17546,7 +17576,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17584,7 +17614,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17622,7 +17652,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17660,7 +17690,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17698,7 +17728,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17736,7 +17766,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17774,7 +17804,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17812,7 +17842,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17850,7 +17880,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17888,7 +17918,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17926,7 +17956,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17964,7 +17994,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18002,7 +18032,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18040,7 +18070,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18078,7 +18108,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18116,7 +18146,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18154,7 +18184,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18192,7 +18222,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18230,7 +18260,7 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18268,7 +18298,7 @@
         <v>5.29</v>
       </c>
       <c r="L433" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18306,7 +18336,7 @@
         <v>4.83</v>
       </c>
       <c r="L434" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18344,7 +18374,7 @@
         <v>5.57</v>
       </c>
       <c r="L435" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18382,7 +18412,7 @@
         <v>4.88</v>
       </c>
       <c r="L436" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18420,7 +18450,7 @@
         <v>3.64</v>
       </c>
       <c r="L437" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18458,7 +18488,7 @@
         <v>3.96</v>
       </c>
       <c r="L438" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18496,7 +18526,7 @@
         <v>3.07</v>
       </c>
       <c r="L439" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18534,7 +18564,7 @@
         <v>2.52</v>
       </c>
       <c r="L440" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18572,7 +18602,7 @@
         <v>3.49</v>
       </c>
       <c r="L441" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18610,7 +18640,7 @@
         <v>3.23</v>
       </c>
       <c r="L442" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18648,7 +18678,7 @@
         <v>3.82</v>
       </c>
       <c r="L443" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18686,7 +18716,7 @@
         <v>3.73</v>
       </c>
       <c r="L444" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18724,7 +18754,7 @@
         <v>1.88</v>
       </c>
       <c r="L445" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18762,7 +18792,7 @@
         <v>1.61</v>
       </c>
       <c r="L446" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18800,7 +18830,7 @@
         <v>0.83</v>
       </c>
       <c r="L447" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18838,7 +18868,7 @@
         <v>0.89</v>
       </c>
       <c r="L448" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18876,7 +18906,7 @@
         <v>1.38</v>
       </c>
       <c r="L449" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18914,7 +18944,7 @@
         <v>1.66</v>
       </c>
       <c r="L450" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18952,7 +18982,7 @@
         <v>1.72</v>
       </c>
       <c r="L451" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18990,7 +19020,7 @@
         <v>1.28</v>
       </c>
       <c r="L452" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19028,7 +19058,7 @@
         <v>0.87</v>
       </c>
       <c r="L453" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19066,7 +19096,7 @@
         <v>2.11</v>
       </c>
       <c r="L454" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19104,7 +19134,7 @@
         <v>2.37</v>
       </c>
       <c r="L455" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19142,7 +19172,7 @@
         <v>2.18</v>
       </c>
       <c r="L456" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19180,7 +19210,7 @@
         <v>1.54</v>
       </c>
       <c r="L457" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19218,7 +19248,7 @@
         <v>1.99</v>
       </c>
       <c r="L458" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19256,7 +19286,7 @@
         <v>1.69</v>
       </c>
       <c r="L459" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19294,7 +19324,7 @@
         <v>2.1</v>
       </c>
       <c r="L460" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19332,7 +19362,7 @@
         <v>1.75</v>
       </c>
       <c r="L461" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19370,7 +19400,7 @@
         <v>0.71</v>
       </c>
       <c r="L462" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19408,7 +19438,7 @@
         <v>1.02</v>
       </c>
       <c r="L463" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19446,7 +19476,7 @@
         <v>2.65</v>
       </c>
       <c r="L464" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19484,7 +19514,7 @@
         <v>2.14</v>
       </c>
       <c r="L465" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19522,7 +19552,7 @@
         <v>1.47</v>
       </c>
       <c r="L466" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19560,7 +19590,7 @@
         <v>0.93</v>
       </c>
       <c r="L467" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19598,7 +19628,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L468" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19636,7 +19666,7 @@
         <v>1.93</v>
       </c>
       <c r="L469" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19674,7 +19704,387 @@
         <v>3.75</v>
       </c>
       <c r="L470" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
         <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.83</v>
+      </c>
+      <c r="D471">
+        <v>0.46</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>-3.39</v>
+      </c>
+      <c r="G471">
+        <v>210.24</v>
+      </c>
+      <c r="H471">
+        <v>-56.72</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>3.48</v>
+      </c>
+      <c r="L471" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.83</v>
+      </c>
+      <c r="D472">
+        <v>0.46</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>-3.25</v>
+      </c>
+      <c r="G472">
+        <v>205.31</v>
+      </c>
+      <c r="H472">
+        <v>-56.69</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>3.16</v>
+      </c>
+      <c r="L472" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.86</v>
+      </c>
+      <c r="D473">
+        <v>0.46</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>-2.84</v>
+      </c>
+      <c r="G473">
+        <v>207.65</v>
+      </c>
+      <c r="H473">
+        <v>-56.44</v>
+      </c>
+      <c r="I473">
+        <v>-0.01</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>3.47</v>
+      </c>
+      <c r="L473" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.01</v>
+      </c>
+      <c r="D474">
+        <v>0.54</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>-2.88</v>
+      </c>
+      <c r="G474">
+        <v>218.11</v>
+      </c>
+      <c r="H474">
+        <v>-55.84</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>2.85</v>
+      </c>
+      <c r="L474" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.14</v>
+      </c>
+      <c r="D475">
+        <v>29.02</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>-3.15</v>
+      </c>
+      <c r="G475">
+        <v>225.92</v>
+      </c>
+      <c r="H475">
+        <v>-21.07</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0.04</v>
+      </c>
+      <c r="K475">
+        <v>2.55</v>
+      </c>
+      <c r="L475" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.09</v>
+      </c>
+      <c r="D476">
+        <v>91.47</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>-3.12</v>
+      </c>
+      <c r="G476">
+        <v>216.17</v>
+      </c>
+      <c r="H476">
+        <v>-4.46</v>
+      </c>
+      <c r="I476">
+        <v>-0.02</v>
+      </c>
+      <c r="J476">
+        <v>0.27</v>
+      </c>
+      <c r="K476">
+        <v>3.69</v>
+      </c>
+      <c r="L476" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.02</v>
+      </c>
+      <c r="D477">
+        <v>100</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>-2.87</v>
+      </c>
+      <c r="G477">
+        <v>190.8</v>
+      </c>
+      <c r="H477">
+        <v>-2.87</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0.76</v>
+      </c>
+      <c r="K477">
+        <v>3.71</v>
+      </c>
+      <c r="L477" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.04</v>
+      </c>
+      <c r="D478">
+        <v>100</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>-2.81</v>
+      </c>
+      <c r="G478">
+        <v>168.61</v>
+      </c>
+      <c r="H478">
+        <v>-2.81</v>
+      </c>
+      <c r="I478">
+        <v>0.01</v>
+      </c>
+      <c r="J478">
+        <v>0.59</v>
+      </c>
+      <c r="K478">
+        <v>3</v>
+      </c>
+      <c r="L478" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.32</v>
+      </c>
+      <c r="D479">
+        <v>100</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>-3.14</v>
+      </c>
+      <c r="G479">
+        <v>165.71</v>
+      </c>
+      <c r="H479">
+        <v>-3.14</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>5.2</v>
+      </c>
+      <c r="K479">
+        <v>1.58</v>
+      </c>
+      <c r="L479" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.54</v>
+      </c>
+      <c r="D480">
+        <v>100</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>-3.01</v>
+      </c>
+      <c r="G480">
+        <v>173.89</v>
+      </c>
+      <c r="H480">
+        <v>-3.01</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0.51</v>
+      </c>
+      <c r="K480">
+        <v>1.04</v>
+      </c>
+      <c r="L480" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="500">
   <si>
     <t>Fecha</t>
   </si>
@@ -1484,6 +1484,33 @@
   </si>
   <si>
     <t>11/9/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:10:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1844,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L480"/>
+  <dimension ref="A1:L489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,7 +1947,7 @@
         <v>0.92</v>
       </c>
       <c r="L2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1958,7 +1985,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1996,7 +2023,7 @@
         <v>1.68</v>
       </c>
       <c r="L4" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2034,7 +2061,7 @@
         <v>1.12</v>
       </c>
       <c r="L5" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2072,7 +2099,7 @@
         <v>2.15</v>
       </c>
       <c r="L6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2110,7 +2137,7 @@
         <v>1.95</v>
       </c>
       <c r="L7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2148,7 +2175,7 @@
         <v>1.14</v>
       </c>
       <c r="L8" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2186,7 +2213,7 @@
         <v>1.23</v>
       </c>
       <c r="L9" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2224,7 +2251,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2262,7 +2289,7 @@
         <v>2.76</v>
       </c>
       <c r="L11" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2300,7 +2327,7 @@
         <v>1.61</v>
       </c>
       <c r="L12" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2338,7 +2365,7 @@
         <v>1.26</v>
       </c>
       <c r="L13" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2376,7 +2403,7 @@
         <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2414,7 +2441,7 @@
         <v>1.36</v>
       </c>
       <c r="L15" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2452,7 +2479,7 @@
         <v>1.65</v>
       </c>
       <c r="L16" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2490,7 +2517,7 @@
         <v>1.28</v>
       </c>
       <c r="L17" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2528,7 +2555,7 @@
         <v>1.15</v>
       </c>
       <c r="L18" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2566,7 +2593,7 @@
         <v>1.69</v>
       </c>
       <c r="L19" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2604,7 +2631,7 @@
         <v>2.07</v>
       </c>
       <c r="L20" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2642,7 +2669,7 @@
         <v>1.36</v>
       </c>
       <c r="L21" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2680,7 +2707,7 @@
         <v>1.04</v>
       </c>
       <c r="L22" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2718,7 +2745,7 @@
         <v>1.32</v>
       </c>
       <c r="L23" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2756,7 +2783,7 @@
         <v>1.76</v>
       </c>
       <c r="L24" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2794,7 +2821,7 @@
         <v>1.51</v>
       </c>
       <c r="L25" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2832,7 +2859,7 @@
         <v>1.3</v>
       </c>
       <c r="L26" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2870,7 +2897,7 @@
         <v>1.54</v>
       </c>
       <c r="L27" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2908,7 +2935,7 @@
         <v>1.48</v>
       </c>
       <c r="L28" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2946,7 +2973,7 @@
         <v>0.58</v>
       </c>
       <c r="L29" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2984,7 +3011,7 @@
         <v>1.81</v>
       </c>
       <c r="L30" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3022,7 +3049,7 @@
         <v>1.42</v>
       </c>
       <c r="L31" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3060,7 +3087,7 @@
         <v>0.39</v>
       </c>
       <c r="L32" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3098,7 +3125,7 @@
         <v>1.1</v>
       </c>
       <c r="L33" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3136,7 +3163,7 @@
         <v>2.12</v>
       </c>
       <c r="L34" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3174,7 +3201,7 @@
         <v>0.88</v>
       </c>
       <c r="L35" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3212,7 +3239,7 @@
         <v>1.93</v>
       </c>
       <c r="L36" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3250,7 +3277,7 @@
         <v>1.21</v>
       </c>
       <c r="L37" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3288,7 +3315,7 @@
         <v>0.73</v>
       </c>
       <c r="L38" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3326,7 +3353,7 @@
         <v>2.91</v>
       </c>
       <c r="L39" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3364,7 +3391,7 @@
         <v>1.2</v>
       </c>
       <c r="L40" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3402,7 +3429,7 @@
         <v>1.63</v>
       </c>
       <c r="L41" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3440,7 +3467,7 @@
         <v>2.05</v>
       </c>
       <c r="L42" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3478,7 +3505,7 @@
         <v>1.44</v>
       </c>
       <c r="L43" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3516,7 +3543,7 @@
         <v>2.29</v>
       </c>
       <c r="L44" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3554,7 +3581,7 @@
         <v>1.4</v>
       </c>
       <c r="L45" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3592,7 +3619,7 @@
         <v>1.37</v>
       </c>
       <c r="L46" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3630,7 +3657,7 @@
         <v>2.43</v>
       </c>
       <c r="L47" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3668,7 +3695,7 @@
         <v>1.62</v>
       </c>
       <c r="L48" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3706,7 +3733,7 @@
         <v>2.39</v>
       </c>
       <c r="L49" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3744,7 +3771,7 @@
         <v>1.81</v>
       </c>
       <c r="L50" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3782,7 +3809,7 @@
         <v>2.49</v>
       </c>
       <c r="L51" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3820,7 +3847,7 @@
         <v>2.89</v>
       </c>
       <c r="L52" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3858,7 +3885,7 @@
         <v>2.79</v>
       </c>
       <c r="L53" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3896,7 +3923,7 @@
         <v>3.54</v>
       </c>
       <c r="L54" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3934,7 +3961,7 @@
         <v>2.99</v>
       </c>
       <c r="L55" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3972,7 +3999,7 @@
         <v>4.57</v>
       </c>
       <c r="L56" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4010,7 +4037,7 @@
         <v>3.54</v>
       </c>
       <c r="L57" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4048,7 +4075,7 @@
         <v>3.07</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4086,7 +4113,7 @@
         <v>3.03</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4124,7 +4151,7 @@
         <v>2.94</v>
       </c>
       <c r="L60" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4162,7 +4189,7 @@
         <v>4.6</v>
       </c>
       <c r="L61" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4200,7 +4227,7 @@
         <v>6.58</v>
       </c>
       <c r="L62" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4238,7 +4265,7 @@
         <v>5.58</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4276,7 +4303,7 @@
         <v>3.01</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4314,7 +4341,7 @@
         <v>2.51</v>
       </c>
       <c r="L65" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4352,7 +4379,7 @@
         <v>4.13</v>
       </c>
       <c r="L66" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4390,7 +4417,7 @@
         <v>6.11</v>
       </c>
       <c r="L67" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4428,7 +4455,7 @@
         <v>7.64</v>
       </c>
       <c r="L68" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4466,7 +4493,7 @@
         <v>6.72</v>
       </c>
       <c r="L69" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4504,7 +4531,7 @@
         <v>7.64</v>
       </c>
       <c r="L70" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4542,7 +4569,7 @@
         <v>6.55</v>
       </c>
       <c r="L71" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4580,7 +4607,7 @@
         <v>6.91</v>
       </c>
       <c r="L72" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4618,7 +4645,7 @@
         <v>7.42</v>
       </c>
       <c r="L73" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4656,7 +4683,7 @@
         <v>7.45</v>
       </c>
       <c r="L74" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4694,7 +4721,7 @@
         <v>8.51</v>
       </c>
       <c r="L75" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4732,7 +4759,7 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4770,7 +4797,7 @@
         <v>7.92</v>
       </c>
       <c r="L77" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4808,7 +4835,7 @@
         <v>10.73</v>
       </c>
       <c r="L78" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4846,7 +4873,7 @@
         <v>13.47</v>
       </c>
       <c r="L79" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4884,7 +4911,7 @@
         <v>11.31</v>
       </c>
       <c r="L80" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4922,7 +4949,7 @@
         <v>9.83</v>
       </c>
       <c r="L81" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4960,7 +4987,7 @@
         <v>9.82</v>
       </c>
       <c r="L82" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4998,7 +5025,7 @@
         <v>11.69</v>
       </c>
       <c r="L83" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5036,7 +5063,7 @@
         <v>11.42</v>
       </c>
       <c r="L84" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5074,7 +5101,7 @@
         <v>11.05</v>
       </c>
       <c r="L85" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5112,7 +5139,7 @@
         <v>11.59</v>
       </c>
       <c r="L86" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5150,7 +5177,7 @@
         <v>12.05</v>
       </c>
       <c r="L87" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5188,7 +5215,7 @@
         <v>12.22</v>
       </c>
       <c r="L88" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5226,7 +5253,7 @@
         <v>12.06</v>
       </c>
       <c r="L89" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5264,7 +5291,7 @@
         <v>10.25</v>
       </c>
       <c r="L90" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5302,7 +5329,7 @@
         <v>11.98</v>
       </c>
       <c r="L91" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5340,7 +5367,7 @@
         <v>11.96</v>
       </c>
       <c r="L92" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5378,7 +5405,7 @@
         <v>13.3</v>
       </c>
       <c r="L93" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5416,7 +5443,7 @@
         <v>12.88</v>
       </c>
       <c r="L94" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5454,7 +5481,7 @@
         <v>14.57</v>
       </c>
       <c r="L95" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5492,7 +5519,7 @@
         <v>14.62</v>
       </c>
       <c r="L96" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5530,7 +5557,7 @@
         <v>12.7</v>
       </c>
       <c r="L97" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5568,7 +5595,7 @@
         <v>12.77</v>
       </c>
       <c r="L98" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5606,7 +5633,7 @@
         <v>11.53</v>
       </c>
       <c r="L99" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5644,7 +5671,7 @@
         <v>11.24</v>
       </c>
       <c r="L100" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5682,7 +5709,7 @@
         <v>9.32</v>
       </c>
       <c r="L101" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5720,7 +5747,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="L102" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5758,7 +5785,7 @@
         <v>8.75</v>
       </c>
       <c r="L103" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5796,7 +5823,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L104" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5834,7 +5861,7 @@
         <v>8.99</v>
       </c>
       <c r="L105" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5872,7 +5899,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="L106" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5910,7 +5937,7 @@
         <v>7.9</v>
       </c>
       <c r="L107" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5948,7 +5975,7 @@
         <v>6.84</v>
       </c>
       <c r="L108" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5986,7 +6013,7 @@
         <v>7.8</v>
       </c>
       <c r="L109" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6024,7 +6051,7 @@
         <v>7.48</v>
       </c>
       <c r="L110" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6062,7 +6089,7 @@
         <v>6.14</v>
       </c>
       <c r="L111" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6100,7 +6127,7 @@
         <v>5.55</v>
       </c>
       <c r="L112" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6138,7 +6165,7 @@
         <v>5.93</v>
       </c>
       <c r="L113" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6176,7 +6203,7 @@
         <v>6.03</v>
       </c>
       <c r="L114" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6214,7 +6241,7 @@
         <v>5.59</v>
       </c>
       <c r="L115" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6252,7 +6279,7 @@
         <v>7.07</v>
       </c>
       <c r="L116" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6290,7 +6317,7 @@
         <v>6.74</v>
       </c>
       <c r="L117" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6328,7 +6355,7 @@
         <v>6.9</v>
       </c>
       <c r="L118" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6366,7 +6393,7 @@
         <v>6.69</v>
       </c>
       <c r="L119" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6404,7 +6431,7 @@
         <v>5.72</v>
       </c>
       <c r="L120" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6442,7 +6469,7 @@
         <v>5.25</v>
       </c>
       <c r="L121" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6480,7 +6507,7 @@
         <v>3.95</v>
       </c>
       <c r="L122" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6518,7 +6545,7 @@
         <v>5.36</v>
       </c>
       <c r="L123" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6556,7 +6583,7 @@
         <v>3.67</v>
       </c>
       <c r="L124" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6594,7 +6621,7 @@
         <v>3.89</v>
       </c>
       <c r="L125" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6632,7 +6659,7 @@
         <v>3.25</v>
       </c>
       <c r="L126" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6670,7 +6697,7 @@
         <v>3.77</v>
       </c>
       <c r="L127" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6708,7 +6735,7 @@
         <v>4.07</v>
       </c>
       <c r="L128" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6746,7 +6773,7 @@
         <v>3.35</v>
       </c>
       <c r="L129" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6784,7 +6811,7 @@
         <v>3.86</v>
       </c>
       <c r="L130" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6822,7 +6849,7 @@
         <v>3.06</v>
       </c>
       <c r="L131" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6860,7 +6887,7 @@
         <v>4.31</v>
       </c>
       <c r="L132" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6898,7 +6925,7 @@
         <v>2.97</v>
       </c>
       <c r="L133" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6936,7 +6963,7 @@
         <v>1.98</v>
       </c>
       <c r="L134" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6974,7 +7001,7 @@
         <v>1.51</v>
       </c>
       <c r="L135" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7012,7 +7039,7 @@
         <v>1.01</v>
       </c>
       <c r="L136" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7050,7 +7077,7 @@
         <v>1.04</v>
       </c>
       <c r="L137" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7088,7 +7115,7 @@
         <v>1.36</v>
       </c>
       <c r="L138" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7126,7 +7153,7 @@
         <v>1.95</v>
       </c>
       <c r="L139" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7164,7 +7191,7 @@
         <v>2.48</v>
       </c>
       <c r="L140" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7202,7 +7229,7 @@
         <v>1.14</v>
       </c>
       <c r="L141" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7240,7 +7267,7 @@
         <v>1.89</v>
       </c>
       <c r="L142" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7278,7 +7305,7 @@
         <v>3.84</v>
       </c>
       <c r="L143" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7316,7 +7343,7 @@
         <v>5.48</v>
       </c>
       <c r="L144" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7354,7 +7381,7 @@
         <v>5.18</v>
       </c>
       <c r="L145" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7392,7 +7419,7 @@
         <v>6.03</v>
       </c>
       <c r="L146" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7430,7 +7457,7 @@
         <v>7.22</v>
       </c>
       <c r="L147" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7468,7 +7495,7 @@
         <v>5.57</v>
       </c>
       <c r="L148" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7506,7 +7533,7 @@
         <v>4.98</v>
       </c>
       <c r="L149" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7544,7 +7571,7 @@
         <v>3.61</v>
       </c>
       <c r="L150" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7582,7 +7609,7 @@
         <v>3.55</v>
       </c>
       <c r="L151" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7620,7 +7647,7 @@
         <v>1.81</v>
       </c>
       <c r="L152" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7658,7 +7685,7 @@
         <v>1.42</v>
       </c>
       <c r="L153" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7696,7 +7723,7 @@
         <v>1.41</v>
       </c>
       <c r="L154" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7734,7 +7761,7 @@
         <v>3.59</v>
       </c>
       <c r="L155" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7772,7 +7799,7 @@
         <v>1.55</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7810,7 +7837,7 @@
         <v>1.53</v>
       </c>
       <c r="L157" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7848,7 +7875,7 @@
         <v>1.96</v>
       </c>
       <c r="L158" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7886,7 +7913,7 @@
         <v>1.15</v>
       </c>
       <c r="L159" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7924,7 +7951,7 @@
         <v>0.89</v>
       </c>
       <c r="L160" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7962,7 +7989,7 @@
         <v>1.53</v>
       </c>
       <c r="L161" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8000,7 +8027,7 @@
         <v>2.09</v>
       </c>
       <c r="L162" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8038,7 +8065,7 @@
         <v>2.62</v>
       </c>
       <c r="L163" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8076,7 +8103,7 @@
         <v>1.77</v>
       </c>
       <c r="L164" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8114,7 +8141,7 @@
         <v>0.66</v>
       </c>
       <c r="L165" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8152,7 +8179,7 @@
         <v>1.16</v>
       </c>
       <c r="L166" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8190,7 +8217,7 @@
         <v>1.28</v>
       </c>
       <c r="L167" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8228,7 +8255,7 @@
         <v>1.79</v>
       </c>
       <c r="L168" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8266,7 +8293,7 @@
         <v>1.17</v>
       </c>
       <c r="L169" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8304,7 +8331,7 @@
         <v>2.74</v>
       </c>
       <c r="L170" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8342,7 +8369,7 @@
         <v>5.49</v>
       </c>
       <c r="L171" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8380,7 +8407,7 @@
         <v>3.07</v>
       </c>
       <c r="L172" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8418,7 +8445,7 @@
         <v>1.87</v>
       </c>
       <c r="L173" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8456,7 +8483,7 @@
         <v>1.09</v>
       </c>
       <c r="L174" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8494,7 +8521,7 @@
         <v>2.32</v>
       </c>
       <c r="L175" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8532,7 +8559,7 @@
         <v>2.2</v>
       </c>
       <c r="L176" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8570,7 +8597,7 @@
         <v>0.74</v>
       </c>
       <c r="L177" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8608,7 +8635,7 @@
         <v>2.15</v>
       </c>
       <c r="L178" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8646,7 +8673,7 @@
         <v>2.29</v>
       </c>
       <c r="L179" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8684,7 +8711,7 @@
         <v>1.56</v>
       </c>
       <c r="L180" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8722,7 +8749,7 @@
         <v>1.12</v>
       </c>
       <c r="L181" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8760,7 +8787,7 @@
         <v>1.49</v>
       </c>
       <c r="L182" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8798,7 +8825,7 @@
         <v>1.98</v>
       </c>
       <c r="L183" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8836,7 +8863,7 @@
         <v>1.1</v>
       </c>
       <c r="L184" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8874,7 +8901,7 @@
         <v>2.3</v>
       </c>
       <c r="L185" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8912,7 +8939,7 @@
         <v>3.5</v>
       </c>
       <c r="L186" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8950,7 +8977,7 @@
         <v>5.35</v>
       </c>
       <c r="L187" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8988,7 +9015,7 @@
         <v>2.33</v>
       </c>
       <c r="L188" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9026,7 +9053,7 @@
         <v>1.21</v>
       </c>
       <c r="L189" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9064,7 +9091,7 @@
         <v>1.2</v>
       </c>
       <c r="L190" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9102,7 +9129,7 @@
         <v>1.94</v>
       </c>
       <c r="L191" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9140,7 +9167,7 @@
         <v>2.78</v>
       </c>
       <c r="L192" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9178,7 +9205,7 @@
         <v>3.68</v>
       </c>
       <c r="L193" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9216,7 +9243,7 @@
         <v>4.84</v>
       </c>
       <c r="L194" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9254,7 +9281,7 @@
         <v>5.32</v>
       </c>
       <c r="L195" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9292,7 +9319,7 @@
         <v>3.73</v>
       </c>
       <c r="L196" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9330,7 +9357,7 @@
         <v>5.13</v>
       </c>
       <c r="L197" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9368,7 +9395,7 @@
         <v>7.22</v>
       </c>
       <c r="L198" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9406,7 +9433,7 @@
         <v>10.11</v>
       </c>
       <c r="L199" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9444,7 +9471,7 @@
         <v>8.24</v>
       </c>
       <c r="L200" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9482,7 +9509,7 @@
         <v>7.53</v>
       </c>
       <c r="L201" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9520,7 +9547,7 @@
         <v>7.3</v>
       </c>
       <c r="L202" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9558,7 +9585,7 @@
         <v>8.01</v>
       </c>
       <c r="L203" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9596,7 +9623,7 @@
         <v>11.42</v>
       </c>
       <c r="L204" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9634,7 +9661,7 @@
         <v>10.97</v>
       </c>
       <c r="L205" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9672,7 +9699,7 @@
         <v>10.4</v>
       </c>
       <c r="L206" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9710,7 +9737,7 @@
         <v>11.86</v>
       </c>
       <c r="L207" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9748,7 +9775,7 @@
         <v>12.95</v>
       </c>
       <c r="L208" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9786,7 +9813,7 @@
         <v>12.13</v>
       </c>
       <c r="L209" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9824,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="L210" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9862,7 +9889,7 @@
         <v>12.16</v>
       </c>
       <c r="L211" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9900,7 +9927,7 @@
         <v>11.01</v>
       </c>
       <c r="L212" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9938,7 +9965,7 @@
         <v>13.12</v>
       </c>
       <c r="L213" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9976,7 +10003,7 @@
         <v>13.87</v>
       </c>
       <c r="L214" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10014,7 +10041,7 @@
         <v>13.65</v>
       </c>
       <c r="L215" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10052,7 +10079,7 @@
         <v>13.81</v>
       </c>
       <c r="L216" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10090,7 +10117,7 @@
         <v>9.49</v>
       </c>
       <c r="L217" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10128,7 +10155,7 @@
         <v>10.26</v>
       </c>
       <c r="L218" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10166,7 +10193,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L219" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10204,7 +10231,7 @@
         <v>13.27</v>
       </c>
       <c r="L220" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10242,7 +10269,7 @@
         <v>12.58</v>
       </c>
       <c r="L221" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10280,7 +10307,7 @@
         <v>9.43</v>
       </c>
       <c r="L222" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10318,7 +10345,7 @@
         <v>4.87</v>
       </c>
       <c r="L223" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10356,7 +10383,7 @@
         <v>4.54</v>
       </c>
       <c r="L224" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10394,7 +10421,7 @@
         <v>7.34</v>
       </c>
       <c r="L225" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10432,7 +10459,7 @@
         <v>10.66</v>
       </c>
       <c r="L226" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10470,7 +10497,7 @@
         <v>11.4</v>
       </c>
       <c r="L227" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10508,7 +10535,7 @@
         <v>12.31</v>
       </c>
       <c r="L228" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10546,7 +10573,7 @@
         <v>13.32</v>
       </c>
       <c r="L229" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10584,7 +10611,7 @@
         <v>11.98</v>
       </c>
       <c r="L230" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10622,7 +10649,7 @@
         <v>11.69</v>
       </c>
       <c r="L231" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10660,7 +10687,7 @@
         <v>13.37</v>
       </c>
       <c r="L232" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10698,7 +10725,7 @@
         <v>12.91</v>
       </c>
       <c r="L233" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10736,7 +10763,7 @@
         <v>11.71</v>
       </c>
       <c r="L234" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10774,7 +10801,7 @@
         <v>12.56</v>
       </c>
       <c r="L235" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10812,7 +10839,7 @@
         <v>12.07</v>
       </c>
       <c r="L236" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10850,7 +10877,7 @@
         <v>10.48</v>
       </c>
       <c r="L237" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10888,7 +10915,7 @@
         <v>11.36</v>
       </c>
       <c r="L238" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10926,7 +10953,7 @@
         <v>9.43</v>
       </c>
       <c r="L239" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10964,7 +10991,7 @@
         <v>11.63</v>
       </c>
       <c r="L240" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11002,7 +11029,7 @@
         <v>10.38</v>
       </c>
       <c r="L241" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11040,7 +11067,7 @@
         <v>10.01</v>
       </c>
       <c r="L242" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11078,7 +11105,7 @@
         <v>10.42</v>
       </c>
       <c r="L243" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11116,7 +11143,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="L244" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11154,7 +11181,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="L245" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11192,7 +11219,7 @@
         <v>8.07</v>
       </c>
       <c r="L246" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11230,7 +11257,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11268,7 +11295,7 @@
         <v>7.17</v>
       </c>
       <c r="L248" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11306,7 +11333,7 @@
         <v>6.25</v>
       </c>
       <c r="L249" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11344,7 +11371,7 @@
         <v>5.09</v>
       </c>
       <c r="L250" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11382,7 +11409,7 @@
         <v>5.04</v>
       </c>
       <c r="L251" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11420,7 +11447,7 @@
         <v>4.48</v>
       </c>
       <c r="L252" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11458,7 +11485,7 @@
         <v>6.18</v>
       </c>
       <c r="L253" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11496,7 +11523,7 @@
         <v>5.49</v>
       </c>
       <c r="L254" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11534,7 +11561,7 @@
         <v>4.32</v>
       </c>
       <c r="L255" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11572,7 +11599,7 @@
         <v>2.75</v>
       </c>
       <c r="L256" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11610,7 +11637,7 @@
         <v>2.43</v>
       </c>
       <c r="L257" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11648,7 +11675,7 @@
         <v>1.84</v>
       </c>
       <c r="L258" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11686,7 +11713,7 @@
         <v>2.01</v>
       </c>
       <c r="L259" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11724,7 +11751,7 @@
         <v>1.87</v>
       </c>
       <c r="L260" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11762,7 +11789,7 @@
         <v>1.14</v>
       </c>
       <c r="L261" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11800,7 +11827,7 @@
         <v>1.9</v>
       </c>
       <c r="L262" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11838,7 +11865,7 @@
         <v>1.8</v>
       </c>
       <c r="L263" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11876,7 +11903,7 @@
         <v>1.68</v>
       </c>
       <c r="L264" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11914,7 +11941,7 @@
         <v>2.11</v>
       </c>
       <c r="L265" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11952,7 +11979,7 @@
         <v>2.99</v>
       </c>
       <c r="L266" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11990,7 +12017,7 @@
         <v>6.18</v>
       </c>
       <c r="L267" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12028,7 +12055,7 @@
         <v>6.87</v>
       </c>
       <c r="L268" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12066,7 +12093,7 @@
         <v>6.02</v>
       </c>
       <c r="L269" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12104,7 +12131,7 @@
         <v>5.12</v>
       </c>
       <c r="L270" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12142,7 +12169,7 @@
         <v>7.52</v>
       </c>
       <c r="L271" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12180,7 +12207,7 @@
         <v>6</v>
       </c>
       <c r="L272" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12218,7 +12245,7 @@
         <v>8.5</v>
       </c>
       <c r="L273" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12256,7 +12283,7 @@
         <v>3.74</v>
       </c>
       <c r="L274" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12294,7 +12321,7 @@
         <v>6.42</v>
       </c>
       <c r="L275" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12332,7 +12359,7 @@
         <v>5.31</v>
       </c>
       <c r="L276" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12370,7 +12397,7 @@
         <v>5.4</v>
       </c>
       <c r="L277" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12408,7 +12435,7 @@
         <v>4.99</v>
       </c>
       <c r="L278" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12446,7 +12473,7 @@
         <v>4.52</v>
       </c>
       <c r="L279" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12484,7 +12511,7 @@
         <v>5.17</v>
       </c>
       <c r="L280" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12522,7 +12549,7 @@
         <v>7.43</v>
       </c>
       <c r="L281" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12560,7 +12587,7 @@
         <v>7.6</v>
       </c>
       <c r="L282" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12598,7 +12625,7 @@
         <v>6.74</v>
       </c>
       <c r="L283" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12636,7 +12663,7 @@
         <v>7.64</v>
       </c>
       <c r="L284" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12674,7 +12701,7 @@
         <v>7.4</v>
       </c>
       <c r="L285" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12712,7 +12739,7 @@
         <v>6.83</v>
       </c>
       <c r="L286" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12750,7 +12777,7 @@
         <v>4.66</v>
       </c>
       <c r="L287" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12788,7 +12815,7 @@
         <v>4.31</v>
       </c>
       <c r="L288" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12826,7 +12853,7 @@
         <v>3.83</v>
       </c>
       <c r="L289" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12864,7 +12891,7 @@
         <v>7.85</v>
       </c>
       <c r="L290" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12902,7 +12929,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L291" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12940,7 +12967,7 @@
         <v>6.45</v>
       </c>
       <c r="L292" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12978,7 +13005,7 @@
         <v>3.97</v>
       </c>
       <c r="L293" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13016,7 +13043,7 @@
         <v>3.99</v>
       </c>
       <c r="L294" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13054,7 +13081,7 @@
         <v>3.31</v>
       </c>
       <c r="L295" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13092,7 +13119,7 @@
         <v>1.95</v>
       </c>
       <c r="L296" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13130,7 +13157,7 @@
         <v>3.91</v>
       </c>
       <c r="L297" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13168,7 +13195,7 @@
         <v>4.22</v>
       </c>
       <c r="L298" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13206,7 +13233,7 @@
         <v>3.49</v>
       </c>
       <c r="L299" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13244,7 +13271,7 @@
         <v>1.36</v>
       </c>
       <c r="L300" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13282,7 +13309,7 @@
         <v>0.93</v>
       </c>
       <c r="L301" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13320,7 +13347,7 @@
         <v>1.35</v>
       </c>
       <c r="L302" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13358,7 +13385,7 @@
         <v>0.73</v>
       </c>
       <c r="L303" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13396,7 +13423,7 @@
         <v>2.47</v>
       </c>
       <c r="L304" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13434,7 +13461,7 @@
         <v>2.43</v>
       </c>
       <c r="L305" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13472,7 +13499,7 @@
         <v>1.83</v>
       </c>
       <c r="L306" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13510,7 +13537,7 @@
         <v>1.62</v>
       </c>
       <c r="L307" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13548,7 +13575,7 @@
         <v>2</v>
       </c>
       <c r="L308" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13586,7 +13613,7 @@
         <v>3.06</v>
       </c>
       <c r="L309" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13624,7 +13651,7 @@
         <v>2.07</v>
       </c>
       <c r="L310" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13662,7 +13689,7 @@
         <v>2.54</v>
       </c>
       <c r="L311" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13700,7 +13727,7 @@
         <v>2.45</v>
       </c>
       <c r="L312" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13738,7 +13765,7 @@
         <v>2.66</v>
       </c>
       <c r="L313" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13776,7 +13803,7 @@
         <v>2.38</v>
       </c>
       <c r="L314" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13814,7 +13841,7 @@
         <v>3.59</v>
       </c>
       <c r="L315" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13852,7 +13879,7 @@
         <v>1.91</v>
       </c>
       <c r="L316" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13890,7 +13917,7 @@
         <v>1.89</v>
       </c>
       <c r="L317" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13928,7 +13955,7 @@
         <v>2.11</v>
       </c>
       <c r="L318" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13966,7 +13993,7 @@
         <v>1.48</v>
       </c>
       <c r="L319" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14004,7 +14031,7 @@
         <v>1.32</v>
       </c>
       <c r="L320" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14042,7 +14069,7 @@
         <v>1.02</v>
       </c>
       <c r="L321" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14080,7 +14107,7 @@
         <v>2.31</v>
       </c>
       <c r="L322" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14118,7 +14145,7 @@
         <v>2.24</v>
       </c>
       <c r="L323" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14156,7 +14183,7 @@
         <v>0.91</v>
       </c>
       <c r="L324" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14194,7 +14221,7 @@
         <v>1.66</v>
       </c>
       <c r="L325" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14232,7 +14259,7 @@
         <v>2.22</v>
       </c>
       <c r="L326" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14270,7 +14297,7 @@
         <v>1.91</v>
       </c>
       <c r="L327" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14308,7 +14335,7 @@
         <v>1.43</v>
       </c>
       <c r="L328" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14346,7 +14373,7 @@
         <v>1.17</v>
       </c>
       <c r="L329" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14384,7 +14411,7 @@
         <v>2.53</v>
       </c>
       <c r="L330" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14422,7 +14449,7 @@
         <v>3</v>
       </c>
       <c r="L331" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14460,7 +14487,7 @@
         <v>2.5</v>
       </c>
       <c r="L332" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14498,7 +14525,7 @@
         <v>2.76</v>
       </c>
       <c r="L333" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14536,7 +14563,7 @@
         <v>0.99</v>
       </c>
       <c r="L334" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14574,7 +14601,7 @@
         <v>0.89</v>
       </c>
       <c r="L335" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14612,7 +14639,7 @@
         <v>1.91</v>
       </c>
       <c r="L336" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14650,7 +14677,7 @@
         <v>2.38</v>
       </c>
       <c r="L337" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14688,7 +14715,7 @@
         <v>2.3</v>
       </c>
       <c r="L338" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14726,7 +14753,7 @@
         <v>2.81</v>
       </c>
       <c r="L339" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14764,7 +14791,7 @@
         <v>2.14</v>
       </c>
       <c r="L340" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14802,7 +14829,7 @@
         <v>2.69</v>
       </c>
       <c r="L341" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14840,7 +14867,7 @@
         <v>4.45</v>
       </c>
       <c r="L342" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14878,7 +14905,7 @@
         <v>5.82</v>
       </c>
       <c r="L343" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14916,7 +14943,7 @@
         <v>6.63</v>
       </c>
       <c r="L344" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14954,7 +14981,7 @@
         <v>5.32</v>
       </c>
       <c r="L345" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14992,7 +15019,7 @@
         <v>5.62</v>
       </c>
       <c r="L346" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15030,7 +15057,7 @@
         <v>6.86</v>
       </c>
       <c r="L347" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15068,7 +15095,7 @@
         <v>8.66</v>
       </c>
       <c r="L348" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15106,7 +15133,7 @@
         <v>13.22</v>
       </c>
       <c r="L349" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15144,7 +15171,7 @@
         <v>12.47</v>
       </c>
       <c r="L350" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15182,7 +15209,7 @@
         <v>13.35</v>
       </c>
       <c r="L351" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15220,7 +15247,7 @@
         <v>13.87</v>
       </c>
       <c r="L352" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15258,7 +15285,7 @@
         <v>13.39</v>
       </c>
       <c r="L353" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15296,7 +15323,7 @@
         <v>13.29</v>
       </c>
       <c r="L354" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15334,7 +15361,7 @@
         <v>16.31</v>
       </c>
       <c r="L355" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15372,7 +15399,7 @@
         <v>16.01</v>
       </c>
       <c r="L356" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15410,7 +15437,7 @@
         <v>16.01</v>
       </c>
       <c r="L357" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15448,7 +15475,7 @@
         <v>16.05</v>
       </c>
       <c r="L358" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15486,7 +15513,7 @@
         <v>16.67</v>
       </c>
       <c r="L359" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15524,7 +15551,7 @@
         <v>15.83</v>
       </c>
       <c r="L360" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15562,7 +15589,7 @@
         <v>16.72</v>
       </c>
       <c r="L361" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15600,7 +15627,7 @@
         <v>15.64</v>
       </c>
       <c r="L362" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15638,7 +15665,7 @@
         <v>16.4</v>
       </c>
       <c r="L363" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15676,7 +15703,7 @@
         <v>15.47</v>
       </c>
       <c r="L364" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15714,7 +15741,7 @@
         <v>14.45</v>
       </c>
       <c r="L365" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15752,7 +15779,7 @@
         <v>15.15</v>
       </c>
       <c r="L366" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15790,7 +15817,7 @@
         <v>15.42</v>
       </c>
       <c r="L367" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15828,7 +15855,7 @@
         <v>14.56</v>
       </c>
       <c r="L368" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15866,7 +15893,7 @@
         <v>14.65</v>
       </c>
       <c r="L369" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15904,7 +15931,7 @@
         <v>13.45</v>
       </c>
       <c r="L370" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15942,7 +15969,7 @@
         <v>14.46</v>
       </c>
       <c r="L371" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15980,7 +16007,7 @@
         <v>13.41</v>
       </c>
       <c r="L372" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16018,7 +16045,7 @@
         <v>14.59</v>
       </c>
       <c r="L373" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16056,7 +16083,7 @@
         <v>14.85</v>
       </c>
       <c r="L374" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16094,7 +16121,7 @@
         <v>13.81</v>
       </c>
       <c r="L375" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16132,7 +16159,7 @@
         <v>13.15</v>
       </c>
       <c r="L376" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16170,7 +16197,7 @@
         <v>14.86</v>
       </c>
       <c r="L377" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16208,7 +16235,7 @@
         <v>13.01</v>
       </c>
       <c r="L378" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16246,7 +16273,7 @@
         <v>12.54</v>
       </c>
       <c r="L379" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16284,7 +16311,7 @@
         <v>12</v>
       </c>
       <c r="L380" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16322,7 +16349,7 @@
         <v>10.2</v>
       </c>
       <c r="L381" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16360,7 +16387,7 @@
         <v>10.25</v>
       </c>
       <c r="L382" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16398,7 +16425,7 @@
         <v>11.85</v>
       </c>
       <c r="L383" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16436,7 +16463,7 @@
         <v>11.18</v>
       </c>
       <c r="L384" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16474,7 +16501,7 @@
         <v>12.35</v>
       </c>
       <c r="L385" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16512,7 +16539,7 @@
         <v>11.59</v>
       </c>
       <c r="L386" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16550,7 +16577,7 @@
         <v>11.48</v>
       </c>
       <c r="L387" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16588,7 +16615,7 @@
         <v>12.59</v>
       </c>
       <c r="L388" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16626,7 +16653,7 @@
         <v>10.76</v>
       </c>
       <c r="L389" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16664,7 +16691,7 @@
         <v>14.14</v>
       </c>
       <c r="L390" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16702,7 +16729,7 @@
         <v>10.21</v>
       </c>
       <c r="L391" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16740,7 +16767,7 @@
         <v>11.13</v>
       </c>
       <c r="L392" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16778,7 +16805,7 @@
         <v>11.37</v>
       </c>
       <c r="L393" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16816,7 +16843,7 @@
         <v>11.84</v>
       </c>
       <c r="L394" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16854,7 +16881,7 @@
         <v>10.48</v>
       </c>
       <c r="L395" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16892,7 +16919,7 @@
         <v>9.59</v>
       </c>
       <c r="L396" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16930,7 +16957,7 @@
         <v>10.49</v>
       </c>
       <c r="L397" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16968,7 +16995,7 @@
         <v>8.1</v>
       </c>
       <c r="L398" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17006,7 +17033,7 @@
         <v>9.43</v>
       </c>
       <c r="L399" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17044,7 +17071,7 @@
         <v>9.24</v>
       </c>
       <c r="L400" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17082,7 +17109,7 @@
         <v>9.31</v>
       </c>
       <c r="L401" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17120,7 +17147,7 @@
         <v>5.95</v>
       </c>
       <c r="L402" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17158,7 +17185,7 @@
         <v>6.08</v>
       </c>
       <c r="L403" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17196,7 +17223,7 @@
         <v>5.96</v>
       </c>
       <c r="L404" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17234,7 +17261,7 @@
         <v>7.27</v>
       </c>
       <c r="L405" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17272,7 +17299,7 @@
         <v>4.78</v>
       </c>
       <c r="L406" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17310,7 +17337,7 @@
         <v>4.99</v>
       </c>
       <c r="L407" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17348,7 +17375,7 @@
         <v>6.07</v>
       </c>
       <c r="L408" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17386,7 +17413,7 @@
         <v>6.56</v>
       </c>
       <c r="L409" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17424,7 +17451,7 @@
         <v>6.25</v>
       </c>
       <c r="L410" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17462,7 +17489,7 @@
         <v>4.49</v>
       </c>
       <c r="L411" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17500,7 +17527,7 @@
         <v>3.99</v>
       </c>
       <c r="L412" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17538,7 +17565,7 @@
         <v>5.65</v>
       </c>
       <c r="L413" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17576,7 +17603,7 @@
         <v>5.38</v>
       </c>
       <c r="L414" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17614,7 +17641,7 @@
         <v>5.8</v>
       </c>
       <c r="L415" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17652,7 +17679,7 @@
         <v>5.4</v>
       </c>
       <c r="L416" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17690,7 +17717,7 @@
         <v>4.19</v>
       </c>
       <c r="L417" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17728,7 +17755,7 @@
         <v>5.28</v>
       </c>
       <c r="L418" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17766,7 +17793,7 @@
         <v>6.33</v>
       </c>
       <c r="L419" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17804,7 +17831,7 @@
         <v>6.16</v>
       </c>
       <c r="L420" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17842,7 +17869,7 @@
         <v>5.79</v>
       </c>
       <c r="L421" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17880,7 +17907,7 @@
         <v>3.9</v>
       </c>
       <c r="L422" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17918,7 +17945,7 @@
         <v>3.92</v>
       </c>
       <c r="L423" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17956,7 +17983,7 @@
         <v>3.51</v>
       </c>
       <c r="L424" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17994,7 +18021,7 @@
         <v>3.71</v>
       </c>
       <c r="L425" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18032,7 +18059,7 @@
         <v>4.5</v>
       </c>
       <c r="L426" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18070,7 +18097,7 @@
         <v>4.53</v>
       </c>
       <c r="L427" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18108,7 +18135,7 @@
         <v>4.88</v>
       </c>
       <c r="L428" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18146,7 +18173,7 @@
         <v>6.12</v>
       </c>
       <c r="L429" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18184,7 +18211,7 @@
         <v>6.2</v>
       </c>
       <c r="L430" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18222,7 +18249,7 @@
         <v>6</v>
       </c>
       <c r="L431" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18260,7 +18287,7 @@
         <v>5.05</v>
       </c>
       <c r="L432" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18298,7 +18325,7 @@
         <v>5.29</v>
       </c>
       <c r="L433" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18336,7 +18363,7 @@
         <v>4.83</v>
       </c>
       <c r="L434" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18374,7 +18401,7 @@
         <v>5.57</v>
       </c>
       <c r="L435" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18412,7 +18439,7 @@
         <v>4.88</v>
       </c>
       <c r="L436" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18450,7 +18477,7 @@
         <v>3.64</v>
       </c>
       <c r="L437" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18488,7 +18515,7 @@
         <v>3.96</v>
       </c>
       <c r="L438" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18526,7 +18553,7 @@
         <v>3.07</v>
       </c>
       <c r="L439" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18564,7 +18591,7 @@
         <v>2.52</v>
       </c>
       <c r="L440" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18602,7 +18629,7 @@
         <v>3.49</v>
       </c>
       <c r="L441" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18640,7 +18667,7 @@
         <v>3.23</v>
       </c>
       <c r="L442" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18678,7 +18705,7 @@
         <v>3.82</v>
       </c>
       <c r="L443" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18716,7 +18743,7 @@
         <v>3.73</v>
       </c>
       <c r="L444" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18754,7 +18781,7 @@
         <v>1.88</v>
       </c>
       <c r="L445" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18792,7 +18819,7 @@
         <v>1.61</v>
       </c>
       <c r="L446" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18830,7 +18857,7 @@
         <v>0.83</v>
       </c>
       <c r="L447" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18868,7 +18895,7 @@
         <v>0.89</v>
       </c>
       <c r="L448" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18906,7 +18933,7 @@
         <v>1.38</v>
       </c>
       <c r="L449" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18944,7 +18971,7 @@
         <v>1.66</v>
       </c>
       <c r="L450" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18982,7 +19009,7 @@
         <v>1.72</v>
       </c>
       <c r="L451" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19020,7 +19047,7 @@
         <v>1.28</v>
       </c>
       <c r="L452" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19058,7 +19085,7 @@
         <v>0.87</v>
       </c>
       <c r="L453" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19096,7 +19123,7 @@
         <v>2.11</v>
       </c>
       <c r="L454" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19134,7 +19161,7 @@
         <v>2.37</v>
       </c>
       <c r="L455" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19172,7 +19199,7 @@
         <v>2.18</v>
       </c>
       <c r="L456" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19210,7 +19237,7 @@
         <v>1.54</v>
       </c>
       <c r="L457" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19248,7 +19275,7 @@
         <v>1.99</v>
       </c>
       <c r="L458" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19286,7 +19313,7 @@
         <v>1.69</v>
       </c>
       <c r="L459" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19324,7 +19351,7 @@
         <v>2.1</v>
       </c>
       <c r="L460" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19362,7 +19389,7 @@
         <v>1.75</v>
       </c>
       <c r="L461" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19400,7 +19427,7 @@
         <v>0.71</v>
       </c>
       <c r="L462" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19438,7 +19465,7 @@
         <v>1.02</v>
       </c>
       <c r="L463" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19476,7 +19503,7 @@
         <v>2.65</v>
       </c>
       <c r="L464" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19514,7 +19541,7 @@
         <v>2.14</v>
       </c>
       <c r="L465" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19552,7 +19579,7 @@
         <v>1.47</v>
       </c>
       <c r="L466" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19590,7 +19617,7 @@
         <v>0.93</v>
       </c>
       <c r="L467" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19628,7 +19655,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="L468" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19666,7 +19693,7 @@
         <v>1.93</v>
       </c>
       <c r="L469" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19704,7 +19731,7 @@
         <v>3.75</v>
       </c>
       <c r="L470" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19742,7 +19769,7 @@
         <v>3.48</v>
       </c>
       <c r="L471" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19780,7 +19807,7 @@
         <v>3.16</v>
       </c>
       <c r="L472" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19818,7 +19845,7 @@
         <v>3.47</v>
       </c>
       <c r="L473" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19856,7 +19883,7 @@
         <v>2.85</v>
       </c>
       <c r="L474" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19894,7 +19921,7 @@
         <v>2.55</v>
       </c>
       <c r="L475" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19932,7 +19959,7 @@
         <v>3.69</v>
       </c>
       <c r="L476" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19970,7 +19997,7 @@
         <v>3.71</v>
       </c>
       <c r="L477" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20008,7 +20035,7 @@
         <v>3</v>
       </c>
       <c r="L478" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20046,7 +20073,7 @@
         <v>1.58</v>
       </c>
       <c r="L479" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20084,7 +20111,349 @@
         <v>1.04</v>
       </c>
       <c r="L480" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
         <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.57</v>
+      </c>
+      <c r="D481">
+        <v>100</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>-2</v>
+      </c>
+      <c r="G481">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="H481">
+        <v>-2</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0.1</v>
+      </c>
+      <c r="K481">
+        <v>1.64</v>
+      </c>
+      <c r="L481" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.57</v>
+      </c>
+      <c r="D482">
+        <v>100</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>-1.96</v>
+      </c>
+      <c r="G482">
+        <v>339.82</v>
+      </c>
+      <c r="H482">
+        <v>-1.96</v>
+      </c>
+      <c r="I482">
+        <v>-0.02</v>
+      </c>
+      <c r="J482">
+        <v>1.77</v>
+      </c>
+      <c r="K482">
+        <v>1.62</v>
+      </c>
+      <c r="L482" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.56</v>
+      </c>
+      <c r="D483">
+        <v>98.45</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>4.61</v>
+      </c>
+      <c r="G483">
+        <v>314.49</v>
+      </c>
+      <c r="H483">
+        <v>4.38</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>1.37</v>
+      </c>
+      <c r="L483" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.58</v>
+      </c>
+      <c r="D484">
+        <v>87.62</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>4.31</v>
+      </c>
+      <c r="G484">
+        <v>24.04</v>
+      </c>
+      <c r="H484">
+        <v>2.41</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>2.31</v>
+      </c>
+      <c r="L484" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.58</v>
+      </c>
+      <c r="D485">
+        <v>83.68000000000001</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>-4.51</v>
+      </c>
+      <c r="G485">
+        <v>138.45</v>
+      </c>
+      <c r="H485">
+        <v>-6.89</v>
+      </c>
+      <c r="I485">
+        <v>0.03</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>3.07</v>
+      </c>
+      <c r="L485" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.58</v>
+      </c>
+      <c r="D486">
+        <v>81.28</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>-4.29</v>
+      </c>
+      <c r="G486">
+        <v>219.58</v>
+      </c>
+      <c r="H486">
+        <v>-7.06</v>
+      </c>
+      <c r="I486">
+        <v>0.01</v>
+      </c>
+      <c r="J486">
+        <v>1.2</v>
+      </c>
+      <c r="K486">
+        <v>1.75</v>
+      </c>
+      <c r="L486" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.58</v>
+      </c>
+      <c r="D487">
+        <v>76.67</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>-1.62</v>
+      </c>
+      <c r="G487">
+        <v>197.29</v>
+      </c>
+      <c r="H487">
+        <v>-5.24</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0.03</v>
+      </c>
+      <c r="K487">
+        <v>1.7</v>
+      </c>
+      <c r="L487" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.59</v>
+      </c>
+      <c r="D488">
+        <v>72.65000000000001</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>-2.92</v>
+      </c>
+      <c r="G488">
+        <v>151.61</v>
+      </c>
+      <c r="H488">
+        <v>-7.21</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K488">
+        <v>2.93</v>
+      </c>
+      <c r="L488" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.59</v>
+      </c>
+      <c r="D489">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>-0.64</v>
+      </c>
+      <c r="G489">
+        <v>55.28</v>
+      </c>
+      <c r="H489">
+        <v>-5.58</v>
+      </c>
+      <c r="I489">
+        <v>-0.02</v>
+      </c>
+      <c r="J489">
+        <v>0.05</v>
+      </c>
+      <c r="K489">
+        <v>2.28</v>
+      </c>
+      <c r="L489" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="551">
   <si>
     <t>Fecha</t>
   </si>
@@ -1652,6 +1652,18 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:10:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:20:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:30:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:40:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -2012,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L536"/>
+  <dimension ref="A1:L540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2088,7 +2100,7 @@
         <v>7.75</v>
       </c>
       <c r="L2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2126,7 +2138,7 @@
         <v>7.73</v>
       </c>
       <c r="L3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2164,7 +2176,7 @@
         <v>8.27</v>
       </c>
       <c r="L4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2202,7 +2214,7 @@
         <v>7.06</v>
       </c>
       <c r="L5" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2240,7 +2252,7 @@
         <v>7.61</v>
       </c>
       <c r="L6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2278,7 +2290,7 @@
         <v>6.91</v>
       </c>
       <c r="L7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2316,7 +2328,7 @@
         <v>6.99</v>
       </c>
       <c r="L8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2354,7 +2366,7 @@
         <v>5.77</v>
       </c>
       <c r="L9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2392,7 +2404,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2430,7 +2442,7 @@
         <v>6.14</v>
       </c>
       <c r="L11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2468,7 +2480,7 @@
         <v>7.81</v>
       </c>
       <c r="L12" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2506,7 +2518,7 @@
         <v>8.6</v>
       </c>
       <c r="L13" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2544,7 +2556,7 @@
         <v>7.83</v>
       </c>
       <c r="L14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2582,7 +2594,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="L15" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2620,7 +2632,7 @@
         <v>9.01</v>
       </c>
       <c r="L16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2658,7 +2670,7 @@
         <v>11.13</v>
       </c>
       <c r="L17" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2696,7 +2708,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2734,7 +2746,7 @@
         <v>7.2</v>
       </c>
       <c r="L19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2772,7 +2784,7 @@
         <v>6.13</v>
       </c>
       <c r="L20" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2810,7 +2822,7 @@
         <v>7.76</v>
       </c>
       <c r="L21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2848,7 +2860,7 @@
         <v>8.43</v>
       </c>
       <c r="L22" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2886,7 +2898,7 @@
         <v>8.51</v>
       </c>
       <c r="L23" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2924,7 +2936,7 @@
         <v>10.21</v>
       </c>
       <c r="L24" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2962,7 +2974,7 @@
         <v>8.27</v>
       </c>
       <c r="L25" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3000,7 +3012,7 @@
         <v>7.69</v>
       </c>
       <c r="L26" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3038,7 +3050,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3076,7 +3088,7 @@
         <v>8.34</v>
       </c>
       <c r="L28" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3114,7 +3126,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3152,7 +3164,7 @@
         <v>10.09</v>
       </c>
       <c r="L30" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3190,7 +3202,7 @@
         <v>9.09</v>
       </c>
       <c r="L31" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3228,7 +3240,7 @@
         <v>11.03</v>
       </c>
       <c r="L32" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3266,7 +3278,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3304,7 +3316,7 @@
         <v>8.76</v>
       </c>
       <c r="L34" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3342,7 +3354,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3380,7 +3392,7 @@
         <v>8.66</v>
       </c>
       <c r="L36" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3418,7 +3430,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3456,7 +3468,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L38" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3494,7 +3506,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L39" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3532,7 +3544,7 @@
         <v>7.78</v>
       </c>
       <c r="L40" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3570,7 +3582,7 @@
         <v>4.75</v>
       </c>
       <c r="L41" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3608,7 +3620,7 @@
         <v>4.13</v>
       </c>
       <c r="L42" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3646,7 +3658,7 @@
         <v>5.89</v>
       </c>
       <c r="L43" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3684,7 +3696,7 @@
         <v>4.69</v>
       </c>
       <c r="L44" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3722,7 +3734,7 @@
         <v>5.3</v>
       </c>
       <c r="L45" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3760,7 +3772,7 @@
         <v>2.41</v>
       </c>
       <c r="L46" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3798,7 +3810,7 @@
         <v>5.98</v>
       </c>
       <c r="L47" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3836,7 +3848,7 @@
         <v>8.23</v>
       </c>
       <c r="L48" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3874,7 +3886,7 @@
         <v>9.34</v>
       </c>
       <c r="L49" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3912,7 +3924,7 @@
         <v>10.13</v>
       </c>
       <c r="L50" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3950,7 +3962,7 @@
         <v>10.32</v>
       </c>
       <c r="L51" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3988,7 +4000,7 @@
         <v>10.08</v>
       </c>
       <c r="L52" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4026,7 +4038,7 @@
         <v>10.19</v>
       </c>
       <c r="L53" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4064,7 +4076,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L54" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4102,7 +4114,7 @@
         <v>10.45</v>
       </c>
       <c r="L55" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4140,7 +4152,7 @@
         <v>10.87</v>
       </c>
       <c r="L56" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4178,7 +4190,7 @@
         <v>10.69</v>
       </c>
       <c r="L57" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4216,7 +4228,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L58" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4254,7 +4266,7 @@
         <v>10.6</v>
       </c>
       <c r="L59" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4292,7 +4304,7 @@
         <v>11.28</v>
       </c>
       <c r="L60" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4330,7 +4342,7 @@
         <v>11.49</v>
       </c>
       <c r="L61" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4368,7 +4380,7 @@
         <v>13.22</v>
       </c>
       <c r="L62" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4406,7 +4418,7 @@
         <v>12.02</v>
       </c>
       <c r="L63" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4444,7 +4456,7 @@
         <v>12.86</v>
       </c>
       <c r="L64" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4482,7 +4494,7 @@
         <v>12.75</v>
       </c>
       <c r="L65" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4520,7 +4532,7 @@
         <v>13.78</v>
       </c>
       <c r="L66" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4558,7 +4570,7 @@
         <v>13.55</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4596,7 +4608,7 @@
         <v>14.5</v>
       </c>
       <c r="L68" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4634,7 +4646,7 @@
         <v>15.49</v>
       </c>
       <c r="L69" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4672,7 +4684,7 @@
         <v>15.62</v>
       </c>
       <c r="L70" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4710,7 +4722,7 @@
         <v>14.23</v>
       </c>
       <c r="L71" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4748,7 +4760,7 @@
         <v>16.35</v>
       </c>
       <c r="L72" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4786,7 +4798,7 @@
         <v>17.35</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4824,7 +4836,7 @@
         <v>13.86</v>
       </c>
       <c r="L74" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4862,7 +4874,7 @@
         <v>15.63</v>
       </c>
       <c r="L75" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4900,7 +4912,7 @@
         <v>17.51</v>
       </c>
       <c r="L76" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4938,7 +4950,7 @@
         <v>17.59</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4976,7 +4988,7 @@
         <v>16.59</v>
       </c>
       <c r="L78" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5014,7 +5026,7 @@
         <v>14.15</v>
       </c>
       <c r="L79" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5052,7 +5064,7 @@
         <v>16.85</v>
       </c>
       <c r="L80" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5090,7 +5102,7 @@
         <v>15.51</v>
       </c>
       <c r="L81" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5128,7 +5140,7 @@
         <v>18.96</v>
       </c>
       <c r="L82" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5166,7 +5178,7 @@
         <v>15.2</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5204,7 +5216,7 @@
         <v>11.24</v>
       </c>
       <c r="L84" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5242,7 +5254,7 @@
         <v>13.43</v>
       </c>
       <c r="L85" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5280,7 +5292,7 @@
         <v>12.61</v>
       </c>
       <c r="L86" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5318,7 +5330,7 @@
         <v>12.77</v>
       </c>
       <c r="L87" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5356,7 +5368,7 @@
         <v>12.21</v>
       </c>
       <c r="L88" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5394,7 +5406,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L89" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5432,7 +5444,7 @@
         <v>10.26</v>
       </c>
       <c r="L90" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5470,7 +5482,7 @@
         <v>10.47</v>
       </c>
       <c r="L91" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5508,7 +5520,7 @@
         <v>11.13</v>
       </c>
       <c r="L92" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5546,7 +5558,7 @@
         <v>9.76</v>
       </c>
       <c r="L93" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5584,7 +5596,7 @@
         <v>12.28</v>
       </c>
       <c r="L94" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5622,7 +5634,7 @@
         <v>12.37</v>
       </c>
       <c r="L95" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5660,7 +5672,7 @@
         <v>11.43</v>
       </c>
       <c r="L96" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5698,7 +5710,7 @@
         <v>12.38</v>
       </c>
       <c r="L97" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5736,7 +5748,7 @@
         <v>13.75</v>
       </c>
       <c r="L98" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5774,7 +5786,7 @@
         <v>12.42</v>
       </c>
       <c r="L99" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5812,7 +5824,7 @@
         <v>11.21</v>
       </c>
       <c r="L100" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5850,7 +5862,7 @@
         <v>10.38</v>
       </c>
       <c r="L101" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5888,7 +5900,7 @@
         <v>10.17</v>
       </c>
       <c r="L102" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5926,7 +5938,7 @@
         <v>14.88</v>
       </c>
       <c r="L103" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5964,7 +5976,7 @@
         <v>14.4</v>
       </c>
       <c r="L104" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6002,7 +6014,7 @@
         <v>12.08</v>
       </c>
       <c r="L105" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6040,7 +6052,7 @@
         <v>12.76</v>
       </c>
       <c r="L106" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6078,7 +6090,7 @@
         <v>11.54</v>
       </c>
       <c r="L107" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6116,7 +6128,7 @@
         <v>9.69</v>
       </c>
       <c r="L108" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6154,7 +6166,7 @@
         <v>8.73</v>
       </c>
       <c r="L109" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6192,7 +6204,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L110" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6230,7 +6242,7 @@
         <v>9.06</v>
       </c>
       <c r="L111" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6268,7 +6280,7 @@
         <v>8.43</v>
       </c>
       <c r="L112" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6306,7 +6318,7 @@
         <v>8.84</v>
       </c>
       <c r="L113" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6344,7 +6356,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="L114" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6382,7 +6394,7 @@
         <v>9.56</v>
       </c>
       <c r="L115" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6420,7 +6432,7 @@
         <v>7.99</v>
       </c>
       <c r="L116" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6458,7 +6470,7 @@
         <v>8.81</v>
       </c>
       <c r="L117" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6496,7 +6508,7 @@
         <v>6.57</v>
       </c>
       <c r="L118" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6534,7 +6546,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L119" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6572,7 +6584,7 @@
         <v>6.09</v>
       </c>
       <c r="L120" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6610,7 +6622,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L121" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6648,7 +6660,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="L122" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6686,7 +6698,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L123" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6724,7 +6736,7 @@
         <v>7.63</v>
       </c>
       <c r="L124" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6762,7 +6774,7 @@
         <v>7.19</v>
       </c>
       <c r="L125" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6800,7 +6812,7 @@
         <v>7.51</v>
       </c>
       <c r="L126" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6838,7 +6850,7 @@
         <v>8.31</v>
       </c>
       <c r="L127" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6876,7 +6888,7 @@
         <v>7.01</v>
       </c>
       <c r="L128" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6914,7 +6926,7 @@
         <v>5.94</v>
       </c>
       <c r="L129" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6952,7 +6964,7 @@
         <v>7.85</v>
       </c>
       <c r="L130" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6990,7 +7002,7 @@
         <v>9.93</v>
       </c>
       <c r="L131" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7028,7 +7040,7 @@
         <v>9.48</v>
       </c>
       <c r="L132" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7066,7 +7078,7 @@
         <v>10.17</v>
       </c>
       <c r="L133" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7104,7 +7116,7 @@
         <v>8.26</v>
       </c>
       <c r="L134" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7142,7 +7154,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="L135" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7180,7 +7192,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L136" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7218,7 +7230,7 @@
         <v>6.69</v>
       </c>
       <c r="L137" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7256,7 +7268,7 @@
         <v>7.6</v>
       </c>
       <c r="L138" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7294,7 +7306,7 @@
         <v>8.81</v>
       </c>
       <c r="L139" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7332,7 +7344,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L140" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7370,7 +7382,7 @@
         <v>12.08</v>
       </c>
       <c r="L141" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7408,7 +7420,7 @@
         <v>9.42</v>
       </c>
       <c r="L142" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7446,7 +7458,7 @@
         <v>9.4</v>
       </c>
       <c r="L143" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7484,7 +7496,7 @@
         <v>12.44</v>
       </c>
       <c r="L144" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7522,7 +7534,7 @@
         <v>11.94</v>
       </c>
       <c r="L145" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7560,7 +7572,7 @@
         <v>9.98</v>
       </c>
       <c r="L146" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7598,7 +7610,7 @@
         <v>9.59</v>
       </c>
       <c r="L147" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7636,7 +7648,7 @@
         <v>7.4</v>
       </c>
       <c r="L148" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7674,7 +7686,7 @@
         <v>7</v>
       </c>
       <c r="L149" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7712,7 +7724,7 @@
         <v>5.64</v>
       </c>
       <c r="L150" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7750,7 +7762,7 @@
         <v>5.43</v>
       </c>
       <c r="L151" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7788,7 +7800,7 @@
         <v>5.68</v>
       </c>
       <c r="L152" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7826,7 +7838,7 @@
         <v>7.34</v>
       </c>
       <c r="L153" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7864,7 +7876,7 @@
         <v>11.89</v>
       </c>
       <c r="L154" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7902,7 +7914,7 @@
         <v>10.73</v>
       </c>
       <c r="L155" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7940,7 +7952,7 @@
         <v>8.44</v>
       </c>
       <c r="L156" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7978,7 +7990,7 @@
         <v>7.16</v>
       </c>
       <c r="L157" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8016,7 +8028,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L158" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8054,7 +8066,7 @@
         <v>6.09</v>
       </c>
       <c r="L159" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8092,7 +8104,7 @@
         <v>5.96</v>
       </c>
       <c r="L160" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8130,7 +8142,7 @@
         <v>6.13</v>
       </c>
       <c r="L161" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8168,7 +8180,7 @@
         <v>5.79</v>
       </c>
       <c r="L162" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8206,7 +8218,7 @@
         <v>5.84</v>
       </c>
       <c r="L163" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8244,7 +8256,7 @@
         <v>9.81</v>
       </c>
       <c r="L164" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8282,7 +8294,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="L165" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8320,7 +8332,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L166" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8358,7 +8370,7 @@
         <v>10.5</v>
       </c>
       <c r="L167" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8396,7 +8408,7 @@
         <v>10.69</v>
       </c>
       <c r="L168" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8434,7 +8446,7 @@
         <v>9.6</v>
       </c>
       <c r="L169" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8472,7 +8484,7 @@
         <v>10.85</v>
       </c>
       <c r="L170" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8510,7 +8522,7 @@
         <v>8.1</v>
       </c>
       <c r="L171" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8548,7 +8560,7 @@
         <v>8.69</v>
       </c>
       <c r="L172" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8586,7 +8598,7 @@
         <v>8.76</v>
       </c>
       <c r="L173" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8624,7 +8636,7 @@
         <v>8.48</v>
       </c>
       <c r="L174" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8662,7 +8674,7 @@
         <v>8.99</v>
       </c>
       <c r="L175" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8700,7 +8712,7 @@
         <v>7.48</v>
       </c>
       <c r="L176" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8738,7 +8750,7 @@
         <v>7.1</v>
       </c>
       <c r="L177" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8776,7 +8788,7 @@
         <v>7.22</v>
       </c>
       <c r="L178" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8814,7 +8826,7 @@
         <v>6.99</v>
       </c>
       <c r="L179" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8852,7 +8864,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L180" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8890,7 +8902,7 @@
         <v>3.92</v>
       </c>
       <c r="L181" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8928,7 +8940,7 @@
         <v>4.62</v>
       </c>
       <c r="L182" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8966,7 +8978,7 @@
         <v>3.6</v>
       </c>
       <c r="L183" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9004,7 +9016,7 @@
         <v>2.26</v>
       </c>
       <c r="L184" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9042,7 +9054,7 @@
         <v>1.71</v>
       </c>
       <c r="L185" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9080,7 +9092,7 @@
         <v>2.67</v>
       </c>
       <c r="L186" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9118,7 +9130,7 @@
         <v>1.68</v>
       </c>
       <c r="L187" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9156,7 +9168,7 @@
         <v>3</v>
       </c>
       <c r="L188" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9194,7 +9206,7 @@
         <v>2.81</v>
       </c>
       <c r="L189" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9232,7 +9244,7 @@
         <v>2.91</v>
       </c>
       <c r="L190" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9270,7 +9282,7 @@
         <v>3.3</v>
       </c>
       <c r="L191" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9308,7 +9320,7 @@
         <v>4.3</v>
       </c>
       <c r="L192" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9346,7 +9358,7 @@
         <v>3.93</v>
       </c>
       <c r="L193" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9384,7 +9396,7 @@
         <v>4.87</v>
       </c>
       <c r="L194" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9422,7 +9434,7 @@
         <v>4.45</v>
       </c>
       <c r="L195" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9460,7 +9472,7 @@
         <v>4.86</v>
       </c>
       <c r="L196" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9498,7 +9510,7 @@
         <v>4.26</v>
       </c>
       <c r="L197" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9536,7 +9548,7 @@
         <v>3.95</v>
       </c>
       <c r="L198" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9574,7 +9586,7 @@
         <v>3.79</v>
       </c>
       <c r="L199" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9612,7 +9624,7 @@
         <v>4.75</v>
       </c>
       <c r="L200" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9650,7 +9662,7 @@
         <v>5.01</v>
       </c>
       <c r="L201" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9688,7 +9700,7 @@
         <v>5.35</v>
       </c>
       <c r="L202" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9726,7 +9738,7 @@
         <v>4.31</v>
       </c>
       <c r="L203" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9764,7 +9776,7 @@
         <v>4.19</v>
       </c>
       <c r="L204" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9802,7 +9814,7 @@
         <v>3.75</v>
       </c>
       <c r="L205" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9840,7 +9852,7 @@
         <v>4.14</v>
       </c>
       <c r="L206" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9878,7 +9890,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="L207" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9916,7 +9928,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L208" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9954,7 +9966,7 @@
         <v>11.28</v>
       </c>
       <c r="L209" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9992,7 +10004,7 @@
         <v>14.25</v>
       </c>
       <c r="L210" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10030,7 +10042,7 @@
         <v>13.37</v>
       </c>
       <c r="L211" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10068,7 +10080,7 @@
         <v>12.16</v>
       </c>
       <c r="L212" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10106,7 +10118,7 @@
         <v>10.71</v>
       </c>
       <c r="L213" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10144,7 +10156,7 @@
         <v>10.99</v>
       </c>
       <c r="L214" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10182,7 +10194,7 @@
         <v>12.4</v>
       </c>
       <c r="L215" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10220,7 +10232,7 @@
         <v>13.23</v>
       </c>
       <c r="L216" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10258,7 +10270,7 @@
         <v>13.85</v>
       </c>
       <c r="L217" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10296,7 +10308,7 @@
         <v>11.92</v>
       </c>
       <c r="L218" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10334,7 +10346,7 @@
         <v>13.62</v>
       </c>
       <c r="L219" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10372,7 +10384,7 @@
         <v>11.75</v>
       </c>
       <c r="L220" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10410,7 +10422,7 @@
         <v>12.24</v>
       </c>
       <c r="L221" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10448,7 +10460,7 @@
         <v>12.41</v>
       </c>
       <c r="L222" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10486,7 +10498,7 @@
         <v>12.08</v>
       </c>
       <c r="L223" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10524,7 +10536,7 @@
         <v>13.63</v>
       </c>
       <c r="L224" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10562,7 +10574,7 @@
         <v>11.83</v>
       </c>
       <c r="L225" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10600,7 +10612,7 @@
         <v>12.75</v>
       </c>
       <c r="L226" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10638,7 +10650,7 @@
         <v>14.76</v>
       </c>
       <c r="L227" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10676,7 +10688,7 @@
         <v>12.67</v>
       </c>
       <c r="L228" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10714,7 +10726,7 @@
         <v>14.35</v>
       </c>
       <c r="L229" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10752,7 +10764,7 @@
         <v>13.53</v>
       </c>
       <c r="L230" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10790,7 +10802,7 @@
         <v>12.18</v>
       </c>
       <c r="L231" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10828,7 +10840,7 @@
         <v>12.88</v>
       </c>
       <c r="L232" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10866,7 +10878,7 @@
         <v>12.64</v>
       </c>
       <c r="L233" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10904,7 +10916,7 @@
         <v>12</v>
       </c>
       <c r="L234" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10942,7 +10954,7 @@
         <v>10.89</v>
       </c>
       <c r="L235" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10980,7 +10992,7 @@
         <v>13.39</v>
       </c>
       <c r="L236" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11018,7 +11030,7 @@
         <v>10.88</v>
       </c>
       <c r="L237" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11056,7 +11068,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11094,7 +11106,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L239" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11132,7 +11144,7 @@
         <v>9.9</v>
       </c>
       <c r="L240" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11170,7 +11182,7 @@
         <v>10.88</v>
       </c>
       <c r="L241" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11208,7 +11220,7 @@
         <v>10.46</v>
       </c>
       <c r="L242" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11246,7 +11258,7 @@
         <v>11.54</v>
       </c>
       <c r="L243" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11284,7 +11296,7 @@
         <v>11.81</v>
       </c>
       <c r="L244" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11322,7 +11334,7 @@
         <v>10.43</v>
       </c>
       <c r="L245" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11360,7 +11372,7 @@
         <v>9.75</v>
       </c>
       <c r="L246" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11398,7 +11410,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11436,7 +11448,7 @@
         <v>9.75</v>
       </c>
       <c r="L248" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11474,7 +11486,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="L249" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11512,7 +11524,7 @@
         <v>6.49</v>
       </c>
       <c r="L250" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11550,7 +11562,7 @@
         <v>4.61</v>
       </c>
       <c r="L251" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11588,7 +11600,7 @@
         <v>6.32</v>
       </c>
       <c r="L252" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11626,7 +11638,7 @@
         <v>6.73</v>
       </c>
       <c r="L253" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11664,7 +11676,7 @@
         <v>6.72</v>
       </c>
       <c r="L254" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11702,7 +11714,7 @@
         <v>6.33</v>
       </c>
       <c r="L255" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11740,7 +11752,7 @@
         <v>4.6</v>
       </c>
       <c r="L256" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11778,7 +11790,7 @@
         <v>5.49</v>
       </c>
       <c r="L257" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11816,7 +11828,7 @@
         <v>4.28</v>
       </c>
       <c r="L258" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11854,7 +11866,7 @@
         <v>2.83</v>
       </c>
       <c r="L259" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11892,7 +11904,7 @@
         <v>1.92</v>
       </c>
       <c r="L260" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11930,7 +11942,7 @@
         <v>3.72</v>
       </c>
       <c r="L261" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11968,7 +11980,7 @@
         <v>4.16</v>
       </c>
       <c r="L262" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12006,7 +12018,7 @@
         <v>3.22</v>
       </c>
       <c r="L263" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12044,7 +12056,7 @@
         <v>4.01</v>
       </c>
       <c r="L264" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12082,7 +12094,7 @@
         <v>3.61</v>
       </c>
       <c r="L265" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12120,7 +12132,7 @@
         <v>2.39</v>
       </c>
       <c r="L266" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12158,7 +12170,7 @@
         <v>1.97</v>
       </c>
       <c r="L267" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12196,7 +12208,7 @@
         <v>1.72</v>
       </c>
       <c r="L268" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12234,7 +12246,7 @@
         <v>3.53</v>
       </c>
       <c r="L269" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12272,7 +12284,7 @@
         <v>2.78</v>
       </c>
       <c r="L270" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12310,7 +12322,7 @@
         <v>2.24</v>
       </c>
       <c r="L271" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12348,7 +12360,7 @@
         <v>1.21</v>
       </c>
       <c r="L272" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12386,7 +12398,7 @@
         <v>2.18</v>
       </c>
       <c r="L273" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12424,7 +12436,7 @@
         <v>1.19</v>
       </c>
       <c r="L274" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12462,7 +12474,7 @@
         <v>0.64</v>
       </c>
       <c r="L275" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12500,7 +12512,7 @@
         <v>1.79</v>
       </c>
       <c r="L276" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12538,7 +12550,7 @@
         <v>2.29</v>
       </c>
       <c r="L277" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12576,7 +12588,7 @@
         <v>1.13</v>
       </c>
       <c r="L278" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12614,7 +12626,7 @@
         <v>2.25</v>
       </c>
       <c r="L279" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12652,7 +12664,7 @@
         <v>1.03</v>
       </c>
       <c r="L280" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12690,7 +12702,7 @@
         <v>1.74</v>
       </c>
       <c r="L281" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12728,7 +12740,7 @@
         <v>1.25</v>
       </c>
       <c r="L282" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12766,7 +12778,7 @@
         <v>1.03</v>
       </c>
       <c r="L283" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12804,7 +12816,7 @@
         <v>1.44</v>
       </c>
       <c r="L284" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12842,7 +12854,7 @@
         <v>0.58</v>
       </c>
       <c r="L285" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12880,7 +12892,7 @@
         <v>2.15</v>
       </c>
       <c r="L286" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12918,7 +12930,7 @@
         <v>1.36</v>
       </c>
       <c r="L287" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12956,7 +12968,7 @@
         <v>1.06</v>
       </c>
       <c r="L288" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12994,7 +13006,7 @@
         <v>1.44</v>
       </c>
       <c r="L289" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13032,7 +13044,7 @@
         <v>1.66</v>
       </c>
       <c r="L290" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13070,7 +13082,7 @@
         <v>1.97</v>
       </c>
       <c r="L291" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13108,7 +13120,7 @@
         <v>2.09</v>
       </c>
       <c r="L292" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13146,7 +13158,7 @@
         <v>2.62</v>
       </c>
       <c r="L293" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13184,7 +13196,7 @@
         <v>2.71</v>
       </c>
       <c r="L294" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13222,7 +13234,7 @@
         <v>5.07</v>
       </c>
       <c r="L295" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13260,7 +13272,7 @@
         <v>4.81</v>
       </c>
       <c r="L296" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13298,7 +13310,7 @@
         <v>4.04</v>
       </c>
       <c r="L297" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13336,7 +13348,7 @@
         <v>4.45</v>
       </c>
       <c r="L298" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13374,7 +13386,7 @@
         <v>4.84</v>
       </c>
       <c r="L299" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13412,7 +13424,7 @@
         <v>4.31</v>
       </c>
       <c r="L300" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13450,7 +13462,7 @@
         <v>5.81</v>
       </c>
       <c r="L301" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13488,7 +13500,7 @@
         <v>4.97</v>
       </c>
       <c r="L302" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13526,7 +13538,7 @@
         <v>3.87</v>
       </c>
       <c r="L303" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13564,7 +13576,7 @@
         <v>2.52</v>
       </c>
       <c r="L304" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13602,7 +13614,7 @@
         <v>3.54</v>
       </c>
       <c r="L305" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13640,7 +13652,7 @@
         <v>3.8</v>
       </c>
       <c r="L306" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13678,7 +13690,7 @@
         <v>3.37</v>
       </c>
       <c r="L307" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13716,7 +13728,7 @@
         <v>2.96</v>
       </c>
       <c r="L308" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13754,7 +13766,7 @@
         <v>3.62</v>
       </c>
       <c r="L309" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13792,7 +13804,7 @@
         <v>7.09</v>
       </c>
       <c r="L310" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13830,7 +13842,7 @@
         <v>6.65</v>
       </c>
       <c r="L311" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13868,7 +13880,7 @@
         <v>5.97</v>
       </c>
       <c r="L312" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13906,7 +13918,7 @@
         <v>4.57</v>
       </c>
       <c r="L313" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13944,7 +13956,7 @@
         <v>3.16</v>
       </c>
       <c r="L314" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13982,7 +13994,7 @@
         <v>4.07</v>
       </c>
       <c r="L315" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14020,7 +14032,7 @@
         <v>4.76</v>
       </c>
       <c r="L316" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14058,7 +14070,7 @@
         <v>2.79</v>
       </c>
       <c r="L317" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14096,7 +14108,7 @@
         <v>1.33</v>
       </c>
       <c r="L318" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14134,7 +14146,7 @@
         <v>3.05</v>
       </c>
       <c r="L319" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14172,7 +14184,7 @@
         <v>3.39</v>
       </c>
       <c r="L320" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14210,7 +14222,7 @@
         <v>2.4</v>
       </c>
       <c r="L321" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14248,7 +14260,7 @@
         <v>3.4</v>
       </c>
       <c r="L322" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14286,7 +14298,7 @@
         <v>3.21</v>
       </c>
       <c r="L323" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14324,7 +14336,7 @@
         <v>1.86</v>
       </c>
       <c r="L324" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14362,7 +14374,7 @@
         <v>1.49</v>
       </c>
       <c r="L325" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14400,7 +14412,7 @@
         <v>1.6</v>
       </c>
       <c r="L326" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14438,7 +14450,7 @@
         <v>2.53</v>
       </c>
       <c r="L327" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14476,7 +14488,7 @@
         <v>1.89</v>
       </c>
       <c r="L328" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14514,7 +14526,7 @@
         <v>3.32</v>
       </c>
       <c r="L329" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14552,7 +14564,7 @@
         <v>3.46</v>
       </c>
       <c r="L330" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14590,7 +14602,7 @@
         <v>3.35</v>
       </c>
       <c r="L331" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14628,7 +14640,7 @@
         <v>2.06</v>
       </c>
       <c r="L332" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14666,7 +14678,7 @@
         <v>1.52</v>
       </c>
       <c r="L333" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14704,7 +14716,7 @@
         <v>1.32</v>
       </c>
       <c r="L334" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14742,7 +14754,7 @@
         <v>1.65</v>
       </c>
       <c r="L335" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14780,7 +14792,7 @@
         <v>1.09</v>
       </c>
       <c r="L336" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14818,7 +14830,7 @@
         <v>2.58</v>
       </c>
       <c r="L337" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14856,7 +14868,7 @@
         <v>4.98</v>
       </c>
       <c r="L338" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14894,7 +14906,7 @@
         <v>4.04</v>
       </c>
       <c r="L339" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14932,7 +14944,7 @@
         <v>5.29</v>
       </c>
       <c r="L340" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14970,7 +14982,7 @@
         <v>5.35</v>
       </c>
       <c r="L341" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15008,7 +15020,7 @@
         <v>5.29</v>
       </c>
       <c r="L342" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15046,7 +15058,7 @@
         <v>6.51</v>
       </c>
       <c r="L343" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15084,7 +15096,7 @@
         <v>5.76</v>
       </c>
       <c r="L344" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15122,7 +15134,7 @@
         <v>7.44</v>
       </c>
       <c r="L345" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15160,7 +15172,7 @@
         <v>8.07</v>
       </c>
       <c r="L346" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15198,7 +15210,7 @@
         <v>8.68</v>
       </c>
       <c r="L347" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15236,7 +15248,7 @@
         <v>7.98</v>
       </c>
       <c r="L348" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15274,7 +15286,7 @@
         <v>7.27</v>
       </c>
       <c r="L349" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15312,7 +15324,7 @@
         <v>7.66</v>
       </c>
       <c r="L350" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15350,7 +15362,7 @@
         <v>7.61</v>
       </c>
       <c r="L351" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15388,7 +15400,7 @@
         <v>7.9</v>
       </c>
       <c r="L352" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15426,7 +15438,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="L353" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15464,7 +15476,7 @@
         <v>7.24</v>
       </c>
       <c r="L354" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15502,7 +15514,7 @@
         <v>8.07</v>
       </c>
       <c r="L355" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15540,7 +15552,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L356" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15578,7 +15590,7 @@
         <v>8.4</v>
       </c>
       <c r="L357" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15616,7 +15628,7 @@
         <v>8.02</v>
       </c>
       <c r="L358" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15654,7 +15666,7 @@
         <v>9.17</v>
       </c>
       <c r="L359" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15692,7 +15704,7 @@
         <v>10.34</v>
       </c>
       <c r="L360" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15730,7 +15742,7 @@
         <v>8.52</v>
       </c>
       <c r="L361" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15768,7 +15780,7 @@
         <v>9.82</v>
       </c>
       <c r="L362" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15806,7 +15818,7 @@
         <v>13.12</v>
       </c>
       <c r="L363" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15844,7 +15856,7 @@
         <v>10.28</v>
       </c>
       <c r="L364" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15882,7 +15894,7 @@
         <v>10.15</v>
       </c>
       <c r="L365" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15920,7 +15932,7 @@
         <v>9.34</v>
       </c>
       <c r="L366" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15958,7 +15970,7 @@
         <v>10.94</v>
       </c>
       <c r="L367" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15996,7 +16008,7 @@
         <v>10.36</v>
       </c>
       <c r="L368" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16034,7 +16046,7 @@
         <v>10.25</v>
       </c>
       <c r="L369" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16072,7 +16084,7 @@
         <v>4.82</v>
       </c>
       <c r="L370" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16110,7 +16122,7 @@
         <v>5.48</v>
       </c>
       <c r="L371" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16148,7 +16160,7 @@
         <v>13.26</v>
       </c>
       <c r="L372" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16186,7 +16198,7 @@
         <v>15.14</v>
       </c>
       <c r="L373" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16224,7 +16236,7 @@
         <v>13.38</v>
       </c>
       <c r="L374" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16262,7 +16274,7 @@
         <v>13.39</v>
       </c>
       <c r="L375" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16300,7 +16312,7 @@
         <v>13.91</v>
       </c>
       <c r="L376" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16338,7 +16350,7 @@
         <v>13.11</v>
       </c>
       <c r="L377" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16376,7 +16388,7 @@
         <v>14.5</v>
       </c>
       <c r="L378" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16414,7 +16426,7 @@
         <v>13.74</v>
       </c>
       <c r="L379" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16452,7 +16464,7 @@
         <v>13.93</v>
       </c>
       <c r="L380" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16490,7 +16502,7 @@
         <v>13.97</v>
       </c>
       <c r="L381" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16528,7 +16540,7 @@
         <v>13.46</v>
       </c>
       <c r="L382" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16566,7 +16578,7 @@
         <v>13.13</v>
       </c>
       <c r="L383" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16604,7 +16616,7 @@
         <v>12.83</v>
       </c>
       <c r="L384" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16642,7 +16654,7 @@
         <v>11.89</v>
       </c>
       <c r="L385" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16680,7 +16692,7 @@
         <v>12.31</v>
       </c>
       <c r="L386" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16718,7 +16730,7 @@
         <v>12.38</v>
       </c>
       <c r="L387" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16756,7 +16768,7 @@
         <v>12.55</v>
       </c>
       <c r="L388" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16794,7 +16806,7 @@
         <v>10.07</v>
       </c>
       <c r="L389" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16832,7 +16844,7 @@
         <v>11.6</v>
       </c>
       <c r="L390" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16870,7 +16882,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="L391" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16908,7 +16920,7 @@
         <v>8.74</v>
       </c>
       <c r="L392" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16946,7 +16958,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="L393" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16984,7 +16996,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L394" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17022,7 +17034,7 @@
         <v>6.47</v>
       </c>
       <c r="L395" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17060,7 +17072,7 @@
         <v>5.98</v>
       </c>
       <c r="L396" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17098,7 +17110,7 @@
         <v>3.26</v>
       </c>
       <c r="L397" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17136,7 +17148,7 @@
         <v>5.22</v>
       </c>
       <c r="L398" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17174,7 +17186,7 @@
         <v>4.7</v>
       </c>
       <c r="L399" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17212,7 +17224,7 @@
         <v>1.87</v>
       </c>
       <c r="L400" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17250,7 +17262,7 @@
         <v>2.11</v>
       </c>
       <c r="L401" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17288,7 +17300,7 @@
         <v>0.85</v>
       </c>
       <c r="L402" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17326,7 +17338,7 @@
         <v>1.67</v>
       </c>
       <c r="L403" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17364,7 +17376,7 @@
         <v>3.11</v>
       </c>
       <c r="L404" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17402,7 +17414,7 @@
         <v>2.44</v>
       </c>
       <c r="L405" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17440,7 +17452,7 @@
         <v>2.49</v>
       </c>
       <c r="L406" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17478,7 +17490,7 @@
         <v>2.4</v>
       </c>
       <c r="L407" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17516,7 +17528,7 @@
         <v>2.04</v>
       </c>
       <c r="L408" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17554,7 +17566,7 @@
         <v>3.89</v>
       </c>
       <c r="L409" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17592,7 +17604,7 @@
         <v>5.32</v>
       </c>
       <c r="L410" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17630,7 +17642,7 @@
         <v>5.53</v>
       </c>
       <c r="L411" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17668,7 +17680,7 @@
         <v>5.41</v>
       </c>
       <c r="L412" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17706,7 +17718,7 @@
         <v>6.33</v>
       </c>
       <c r="L413" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17744,7 +17756,7 @@
         <v>7.07</v>
       </c>
       <c r="L414" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17782,7 +17794,7 @@
         <v>5.14</v>
       </c>
       <c r="L415" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17820,7 +17832,7 @@
         <v>5.29</v>
       </c>
       <c r="L416" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17858,7 +17870,7 @@
         <v>5.57</v>
       </c>
       <c r="L417" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17896,7 +17908,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17934,7 +17946,7 @@
         <v>7.67</v>
       </c>
       <c r="L419" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17972,7 +17984,7 @@
         <v>7.08</v>
       </c>
       <c r="L420" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18010,7 +18022,7 @@
         <v>9.83</v>
       </c>
       <c r="L421" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18048,7 +18060,7 @@
         <v>8.5</v>
       </c>
       <c r="L422" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18086,7 +18098,7 @@
         <v>7.69</v>
       </c>
       <c r="L423" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18124,7 +18136,7 @@
         <v>7.16</v>
       </c>
       <c r="L424" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18162,7 +18174,7 @@
         <v>8.23</v>
       </c>
       <c r="L425" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18200,7 +18212,7 @@
         <v>7.88</v>
       </c>
       <c r="L426" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18238,7 +18250,7 @@
         <v>11.67</v>
       </c>
       <c r="L427" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18276,7 +18288,7 @@
         <v>10.25</v>
       </c>
       <c r="L428" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18314,7 +18326,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L429" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18352,7 +18364,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="L430" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18390,7 +18402,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L431" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18428,7 +18440,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="L432" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18466,7 +18478,7 @@
         <v>6.94</v>
       </c>
       <c r="L433" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18504,7 +18516,7 @@
         <v>6.48</v>
       </c>
       <c r="L434" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18542,7 +18554,7 @@
         <v>5.96</v>
       </c>
       <c r="L435" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18580,7 +18592,7 @@
         <v>6</v>
       </c>
       <c r="L436" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18618,7 +18630,7 @@
         <v>6.57</v>
       </c>
       <c r="L437" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18656,7 +18668,7 @@
         <v>7.14</v>
       </c>
       <c r="L438" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18694,7 +18706,7 @@
         <v>6.26</v>
       </c>
       <c r="L439" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18732,7 +18744,7 @@
         <v>6.52</v>
       </c>
       <c r="L440" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18770,7 +18782,7 @@
         <v>6.59</v>
       </c>
       <c r="L441" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18808,7 +18820,7 @@
         <v>3.76</v>
       </c>
       <c r="L442" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18846,7 +18858,7 @@
         <v>2.15</v>
       </c>
       <c r="L443" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18884,7 +18896,7 @@
         <v>1.51</v>
       </c>
       <c r="L444" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18922,7 +18934,7 @@
         <v>3.94</v>
       </c>
       <c r="L445" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18960,7 +18972,7 @@
         <v>4.91</v>
       </c>
       <c r="L446" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18998,7 +19010,7 @@
         <v>4.9</v>
       </c>
       <c r="L447" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19036,7 +19048,7 @@
         <v>4.28</v>
       </c>
       <c r="L448" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19074,7 +19086,7 @@
         <v>5.43</v>
       </c>
       <c r="L449" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19112,7 +19124,7 @@
         <v>5.87</v>
       </c>
       <c r="L450" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19150,7 +19162,7 @@
         <v>6.78</v>
       </c>
       <c r="L451" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19188,7 +19200,7 @@
         <v>5.27</v>
       </c>
       <c r="L452" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19226,7 +19238,7 @@
         <v>6.63</v>
       </c>
       <c r="L453" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19264,7 +19276,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L454" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19302,7 +19314,7 @@
         <v>6.6</v>
       </c>
       <c r="L455" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19340,7 +19352,7 @@
         <v>6.01</v>
       </c>
       <c r="L456" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19378,7 +19390,7 @@
         <v>5.4</v>
       </c>
       <c r="L457" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19416,7 +19428,7 @@
         <v>5.17</v>
       </c>
       <c r="L458" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19454,7 +19466,7 @@
         <v>2.92</v>
       </c>
       <c r="L459" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19492,7 +19504,7 @@
         <v>5.44</v>
       </c>
       <c r="L460" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19530,7 +19542,7 @@
         <v>5.09</v>
       </c>
       <c r="L461" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19568,7 +19580,7 @@
         <v>4.04</v>
       </c>
       <c r="L462" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19606,7 +19618,7 @@
         <v>4.4</v>
       </c>
       <c r="L463" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19644,7 +19656,7 @@
         <v>3.65</v>
       </c>
       <c r="L464" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19682,7 +19694,7 @@
         <v>5.57</v>
       </c>
       <c r="L465" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19720,7 +19732,7 @@
         <v>3.26</v>
       </c>
       <c r="L466" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19758,7 +19770,7 @@
         <v>3.75</v>
       </c>
       <c r="L467" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19796,7 +19808,7 @@
         <v>1.88</v>
       </c>
       <c r="L468" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19834,7 +19846,7 @@
         <v>2.92</v>
       </c>
       <c r="L469" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19872,7 +19884,7 @@
         <v>5.24</v>
       </c>
       <c r="L470" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19910,7 +19922,7 @@
         <v>3.36</v>
       </c>
       <c r="L471" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19948,7 +19960,7 @@
         <v>3.04</v>
       </c>
       <c r="L472" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19986,7 +19998,7 @@
         <v>2.21</v>
       </c>
       <c r="L473" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20024,7 +20036,7 @@
         <v>2.62</v>
       </c>
       <c r="L474" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20062,7 +20074,7 @@
         <v>5.97</v>
       </c>
       <c r="L475" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20100,7 +20112,7 @@
         <v>2.21</v>
       </c>
       <c r="L476" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20138,7 +20150,7 @@
         <v>3.35</v>
       </c>
       <c r="L477" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20176,7 +20188,7 @@
         <v>2.49</v>
       </c>
       <c r="L478" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20214,7 +20226,7 @@
         <v>2.45</v>
       </c>
       <c r="L479" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20252,7 +20264,7 @@
         <v>2.9</v>
       </c>
       <c r="L480" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20290,7 +20302,7 @@
         <v>3.87</v>
       </c>
       <c r="L481" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20328,7 +20340,7 @@
         <v>3.65</v>
       </c>
       <c r="L482" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20366,7 +20378,7 @@
         <v>5.5</v>
       </c>
       <c r="L483" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20404,7 +20416,7 @@
         <v>4.32</v>
       </c>
       <c r="L484" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20442,7 +20454,7 @@
         <v>2.52</v>
       </c>
       <c r="L485" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20480,7 +20492,7 @@
         <v>4.07</v>
       </c>
       <c r="L486" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20518,7 +20530,7 @@
         <v>3.8</v>
       </c>
       <c r="L487" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20556,7 +20568,7 @@
         <v>4.98</v>
       </c>
       <c r="L488" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20594,7 +20606,7 @@
         <v>4.23</v>
       </c>
       <c r="L489" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20632,7 +20644,7 @@
         <v>5.06</v>
       </c>
       <c r="L490" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20670,7 +20682,7 @@
         <v>6.59</v>
       </c>
       <c r="L491" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20708,7 +20720,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L492" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20746,7 +20758,7 @@
         <v>7.59</v>
       </c>
       <c r="L493" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20784,7 +20796,7 @@
         <v>7.66</v>
       </c>
       <c r="L494" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20822,7 +20834,7 @@
         <v>7.88</v>
       </c>
       <c r="L495" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20860,7 +20872,7 @@
         <v>9.06</v>
       </c>
       <c r="L496" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20898,7 +20910,7 @@
         <v>10.88</v>
       </c>
       <c r="L497" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20936,7 +20948,7 @@
         <v>10.42</v>
       </c>
       <c r="L498" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20974,7 +20986,7 @@
         <v>10.35</v>
       </c>
       <c r="L499" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21012,7 +21024,7 @@
         <v>10.39</v>
       </c>
       <c r="L500" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21050,7 +21062,7 @@
         <v>9.24</v>
       </c>
       <c r="L501" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21088,7 +21100,7 @@
         <v>12</v>
       </c>
       <c r="L502" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21126,7 +21138,7 @@
         <v>8.35</v>
       </c>
       <c r="L503" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21164,7 +21176,7 @@
         <v>11.75</v>
       </c>
       <c r="L504" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21202,7 +21214,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L505" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21240,7 +21252,7 @@
         <v>13.04</v>
       </c>
       <c r="L506" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21278,7 +21290,7 @@
         <v>10.13</v>
       </c>
       <c r="L507" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21316,7 +21328,7 @@
         <v>12.01</v>
       </c>
       <c r="L508" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21354,7 +21366,7 @@
         <v>10.07</v>
       </c>
       <c r="L509" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21392,7 +21404,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L510" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21430,7 +21442,7 @@
         <v>8.23</v>
       </c>
       <c r="L511" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21468,7 +21480,7 @@
         <v>9.32</v>
       </c>
       <c r="L512" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21506,7 +21518,7 @@
         <v>8.81</v>
       </c>
       <c r="L513" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21544,7 +21556,7 @@
         <v>6.06</v>
       </c>
       <c r="L514" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21582,7 +21594,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="L515" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21620,7 +21632,7 @@
         <v>11.76</v>
       </c>
       <c r="L516" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21658,7 +21670,7 @@
         <v>15.62</v>
       </c>
       <c r="L517" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21696,7 +21708,7 @@
         <v>14.21</v>
       </c>
       <c r="L518" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21734,7 +21746,7 @@
         <v>12.91</v>
       </c>
       <c r="L519" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21772,7 +21784,7 @@
         <v>13.53</v>
       </c>
       <c r="L520" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21810,7 +21822,7 @@
         <v>13.38</v>
       </c>
       <c r="L521" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21848,7 +21860,7 @@
         <v>14.25</v>
       </c>
       <c r="L522" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21886,7 +21898,7 @@
         <v>12.78</v>
       </c>
       <c r="L523" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21924,7 +21936,7 @@
         <v>13.5</v>
       </c>
       <c r="L524" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21962,7 +21974,7 @@
         <v>13.12</v>
       </c>
       <c r="L525" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22000,7 +22012,7 @@
         <v>13.34</v>
       </c>
       <c r="L526" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22038,7 +22050,7 @@
         <v>11.16</v>
       </c>
       <c r="L527" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22076,7 +22088,7 @@
         <v>12.53</v>
       </c>
       <c r="L528" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22114,7 +22126,7 @@
         <v>12.25</v>
       </c>
       <c r="L529" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22152,7 +22164,7 @@
         <v>11.66</v>
       </c>
       <c r="L530" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22190,7 +22202,7 @@
         <v>11.81</v>
       </c>
       <c r="L531" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22228,7 +22240,7 @@
         <v>11.1</v>
       </c>
       <c r="L532" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22266,7 +22278,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L533" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22304,7 +22316,7 @@
         <v>9.91</v>
       </c>
       <c r="L534" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22342,7 +22354,7 @@
         <v>8.51</v>
       </c>
       <c r="L535" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22380,7 +22392,159 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L536" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
         <v>546</v>
+      </c>
+      <c r="C537">
+        <v>13.57</v>
+      </c>
+      <c r="D537">
+        <v>86.23</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>-9.779999999999999</v>
+      </c>
+      <c r="G537">
+        <v>216.89</v>
+      </c>
+      <c r="H537">
+        <v>-11.68</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>46.28</v>
+      </c>
+      <c r="K537">
+        <v>9.18</v>
+      </c>
+      <c r="L537" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>547</v>
+      </c>
+      <c r="C538">
+        <v>13.19</v>
+      </c>
+      <c r="D538">
+        <v>89.97</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>-7.54</v>
+      </c>
+      <c r="G538">
+        <v>212.99</v>
+      </c>
+      <c r="H538">
+        <v>-8.93</v>
+      </c>
+      <c r="I538">
+        <v>-0.01</v>
+      </c>
+      <c r="J538">
+        <v>40.72</v>
+      </c>
+      <c r="K538">
+        <v>6.78</v>
+      </c>
+      <c r="L538" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>548</v>
+      </c>
+      <c r="C539">
+        <v>13.09</v>
+      </c>
+      <c r="D539">
+        <v>91.22</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>-7.68</v>
+      </c>
+      <c r="G539">
+        <v>208.66</v>
+      </c>
+      <c r="H539">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>33.17</v>
+      </c>
+      <c r="K539">
+        <v>6.09</v>
+      </c>
+      <c r="L539" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>549</v>
+      </c>
+      <c r="C540">
+        <v>13.06</v>
+      </c>
+      <c r="D540">
+        <v>96.11</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>-7.61</v>
+      </c>
+      <c r="G540">
+        <v>220.27</v>
+      </c>
+      <c r="H540">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>50.7</v>
+      </c>
+      <c r="K540">
+        <v>5.75</v>
+      </c>
+      <c r="L540" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="554">
   <si>
     <t>Fecha</t>
   </si>
@@ -1664,6 +1664,15 @@
   </si>
   <si>
     <t>11/13/2020 5:40:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:50:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:10:00 PM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -2024,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L540"/>
+  <dimension ref="A1:L543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2100,7 +2109,7 @@
         <v>7.75</v>
       </c>
       <c r="L2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2138,7 +2147,7 @@
         <v>7.73</v>
       </c>
       <c r="L3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2176,7 +2185,7 @@
         <v>8.27</v>
       </c>
       <c r="L4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2214,7 +2223,7 @@
         <v>7.06</v>
       </c>
       <c r="L5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2252,7 +2261,7 @@
         <v>7.61</v>
       </c>
       <c r="L6" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2290,7 +2299,7 @@
         <v>6.91</v>
       </c>
       <c r="L7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2328,7 +2337,7 @@
         <v>6.99</v>
       </c>
       <c r="L8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2366,7 +2375,7 @@
         <v>5.77</v>
       </c>
       <c r="L9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2404,7 +2413,7 @@
         <v>4.5</v>
       </c>
       <c r="L10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2442,7 +2451,7 @@
         <v>6.14</v>
       </c>
       <c r="L11" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2480,7 +2489,7 @@
         <v>7.81</v>
       </c>
       <c r="L12" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2518,7 +2527,7 @@
         <v>8.6</v>
       </c>
       <c r="L13" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2556,7 +2565,7 @@
         <v>7.83</v>
       </c>
       <c r="L14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2594,7 +2603,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="L15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2632,7 +2641,7 @@
         <v>9.01</v>
       </c>
       <c r="L16" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2670,7 +2679,7 @@
         <v>11.13</v>
       </c>
       <c r="L17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2708,7 +2717,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2746,7 +2755,7 @@
         <v>7.2</v>
       </c>
       <c r="L19" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2784,7 +2793,7 @@
         <v>6.13</v>
       </c>
       <c r="L20" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2822,7 +2831,7 @@
         <v>7.76</v>
       </c>
       <c r="L21" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2860,7 +2869,7 @@
         <v>8.43</v>
       </c>
       <c r="L22" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2898,7 +2907,7 @@
         <v>8.51</v>
       </c>
       <c r="L23" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2936,7 +2945,7 @@
         <v>10.21</v>
       </c>
       <c r="L24" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2974,7 +2983,7 @@
         <v>8.27</v>
       </c>
       <c r="L25" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3012,7 +3021,7 @@
         <v>7.69</v>
       </c>
       <c r="L26" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3050,7 +3059,7 @@
         <v>9.529999999999999</v>
       </c>
       <c r="L27" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3088,7 +3097,7 @@
         <v>8.34</v>
       </c>
       <c r="L28" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3126,7 +3135,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L29" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3164,7 +3173,7 @@
         <v>10.09</v>
       </c>
       <c r="L30" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3202,7 +3211,7 @@
         <v>9.09</v>
       </c>
       <c r="L31" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3240,7 +3249,7 @@
         <v>11.03</v>
       </c>
       <c r="L32" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3278,7 +3287,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="L33" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3316,7 +3325,7 @@
         <v>8.76</v>
       </c>
       <c r="L34" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3354,7 +3363,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L35" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3392,7 +3401,7 @@
         <v>8.66</v>
       </c>
       <c r="L36" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3430,7 +3439,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3468,7 +3477,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L38" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3506,7 +3515,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L39" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3544,7 +3553,7 @@
         <v>7.78</v>
       </c>
       <c r="L40" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3582,7 +3591,7 @@
         <v>4.75</v>
       </c>
       <c r="L41" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3620,7 +3629,7 @@
         <v>4.13</v>
       </c>
       <c r="L42" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3658,7 +3667,7 @@
         <v>5.89</v>
       </c>
       <c r="L43" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3696,7 +3705,7 @@
         <v>4.69</v>
       </c>
       <c r="L44" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3734,7 +3743,7 @@
         <v>5.3</v>
       </c>
       <c r="L45" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3772,7 +3781,7 @@
         <v>2.41</v>
       </c>
       <c r="L46" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3810,7 +3819,7 @@
         <v>5.98</v>
       </c>
       <c r="L47" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3848,7 +3857,7 @@
         <v>8.23</v>
       </c>
       <c r="L48" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3886,7 +3895,7 @@
         <v>9.34</v>
       </c>
       <c r="L49" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3924,7 +3933,7 @@
         <v>10.13</v>
       </c>
       <c r="L50" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3962,7 +3971,7 @@
         <v>10.32</v>
       </c>
       <c r="L51" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4000,7 +4009,7 @@
         <v>10.08</v>
       </c>
       <c r="L52" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4038,7 +4047,7 @@
         <v>10.19</v>
       </c>
       <c r="L53" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4076,7 +4085,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L54" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4114,7 +4123,7 @@
         <v>10.45</v>
       </c>
       <c r="L55" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4152,7 +4161,7 @@
         <v>10.87</v>
       </c>
       <c r="L56" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4190,7 +4199,7 @@
         <v>10.69</v>
       </c>
       <c r="L57" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4228,7 +4237,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L58" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4266,7 +4275,7 @@
         <v>10.6</v>
       </c>
       <c r="L59" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4304,7 +4313,7 @@
         <v>11.28</v>
       </c>
       <c r="L60" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4342,7 +4351,7 @@
         <v>11.49</v>
       </c>
       <c r="L61" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4380,7 +4389,7 @@
         <v>13.22</v>
       </c>
       <c r="L62" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4418,7 +4427,7 @@
         <v>12.02</v>
       </c>
       <c r="L63" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4456,7 +4465,7 @@
         <v>12.86</v>
       </c>
       <c r="L64" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4494,7 +4503,7 @@
         <v>12.75</v>
       </c>
       <c r="L65" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4532,7 +4541,7 @@
         <v>13.78</v>
       </c>
       <c r="L66" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4570,7 +4579,7 @@
         <v>13.55</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4608,7 +4617,7 @@
         <v>14.5</v>
       </c>
       <c r="L68" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4646,7 +4655,7 @@
         <v>15.49</v>
       </c>
       <c r="L69" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4684,7 +4693,7 @@
         <v>15.62</v>
       </c>
       <c r="L70" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4722,7 +4731,7 @@
         <v>14.23</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4760,7 +4769,7 @@
         <v>16.35</v>
       </c>
       <c r="L72" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4798,7 +4807,7 @@
         <v>17.35</v>
       </c>
       <c r="L73" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4836,7 +4845,7 @@
         <v>13.86</v>
       </c>
       <c r="L74" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4874,7 +4883,7 @@
         <v>15.63</v>
       </c>
       <c r="L75" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4912,7 +4921,7 @@
         <v>17.51</v>
       </c>
       <c r="L76" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4950,7 +4959,7 @@
         <v>17.59</v>
       </c>
       <c r="L77" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4988,7 +4997,7 @@
         <v>16.59</v>
       </c>
       <c r="L78" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5026,7 +5035,7 @@
         <v>14.15</v>
       </c>
       <c r="L79" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5064,7 +5073,7 @@
         <v>16.85</v>
       </c>
       <c r="L80" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5102,7 +5111,7 @@
         <v>15.51</v>
       </c>
       <c r="L81" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5140,7 +5149,7 @@
         <v>18.96</v>
       </c>
       <c r="L82" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5178,7 +5187,7 @@
         <v>15.2</v>
       </c>
       <c r="L83" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5216,7 +5225,7 @@
         <v>11.24</v>
       </c>
       <c r="L84" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5254,7 +5263,7 @@
         <v>13.43</v>
       </c>
       <c r="L85" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5292,7 +5301,7 @@
         <v>12.61</v>
       </c>
       <c r="L86" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5330,7 +5339,7 @@
         <v>12.77</v>
       </c>
       <c r="L87" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5368,7 +5377,7 @@
         <v>12.21</v>
       </c>
       <c r="L88" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5406,7 +5415,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L89" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5444,7 +5453,7 @@
         <v>10.26</v>
       </c>
       <c r="L90" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5482,7 +5491,7 @@
         <v>10.47</v>
       </c>
       <c r="L91" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5520,7 +5529,7 @@
         <v>11.13</v>
       </c>
       <c r="L92" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5558,7 +5567,7 @@
         <v>9.76</v>
       </c>
       <c r="L93" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5596,7 +5605,7 @@
         <v>12.28</v>
       </c>
       <c r="L94" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5634,7 +5643,7 @@
         <v>12.37</v>
       </c>
       <c r="L95" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5672,7 +5681,7 @@
         <v>11.43</v>
       </c>
       <c r="L96" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5710,7 +5719,7 @@
         <v>12.38</v>
       </c>
       <c r="L97" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5748,7 +5757,7 @@
         <v>13.75</v>
       </c>
       <c r="L98" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5786,7 +5795,7 @@
         <v>12.42</v>
       </c>
       <c r="L99" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5824,7 +5833,7 @@
         <v>11.21</v>
       </c>
       <c r="L100" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5862,7 +5871,7 @@
         <v>10.38</v>
       </c>
       <c r="L101" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5900,7 +5909,7 @@
         <v>10.17</v>
       </c>
       <c r="L102" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5938,7 +5947,7 @@
         <v>14.88</v>
       </c>
       <c r="L103" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5976,7 +5985,7 @@
         <v>14.4</v>
       </c>
       <c r="L104" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6014,7 +6023,7 @@
         <v>12.08</v>
       </c>
       <c r="L105" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6052,7 +6061,7 @@
         <v>12.76</v>
       </c>
       <c r="L106" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6090,7 +6099,7 @@
         <v>11.54</v>
       </c>
       <c r="L107" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6128,7 +6137,7 @@
         <v>9.69</v>
       </c>
       <c r="L108" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6166,7 +6175,7 @@
         <v>8.73</v>
       </c>
       <c r="L109" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6204,7 +6213,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L110" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6242,7 +6251,7 @@
         <v>9.06</v>
       </c>
       <c r="L111" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6280,7 +6289,7 @@
         <v>8.43</v>
       </c>
       <c r="L112" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6318,7 +6327,7 @@
         <v>8.84</v>
       </c>
       <c r="L113" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6356,7 +6365,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="L114" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6394,7 +6403,7 @@
         <v>9.56</v>
       </c>
       <c r="L115" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6432,7 +6441,7 @@
         <v>7.99</v>
       </c>
       <c r="L116" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6470,7 +6479,7 @@
         <v>8.81</v>
       </c>
       <c r="L117" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6508,7 +6517,7 @@
         <v>6.57</v>
       </c>
       <c r="L118" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6546,7 +6555,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L119" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6584,7 +6593,7 @@
         <v>6.09</v>
       </c>
       <c r="L120" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6622,7 +6631,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="L121" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6660,7 +6669,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="L122" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6698,7 +6707,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L123" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6736,7 +6745,7 @@
         <v>7.63</v>
       </c>
       <c r="L124" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6774,7 +6783,7 @@
         <v>7.19</v>
       </c>
       <c r="L125" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6812,7 +6821,7 @@
         <v>7.51</v>
       </c>
       <c r="L126" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6850,7 +6859,7 @@
         <v>8.31</v>
       </c>
       <c r="L127" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6888,7 +6897,7 @@
         <v>7.01</v>
       </c>
       <c r="L128" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6926,7 +6935,7 @@
         <v>5.94</v>
       </c>
       <c r="L129" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6964,7 +6973,7 @@
         <v>7.85</v>
       </c>
       <c r="L130" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -7002,7 +7011,7 @@
         <v>9.93</v>
       </c>
       <c r="L131" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -7040,7 +7049,7 @@
         <v>9.48</v>
       </c>
       <c r="L132" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -7078,7 +7087,7 @@
         <v>10.17</v>
       </c>
       <c r="L133" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -7116,7 +7125,7 @@
         <v>8.26</v>
       </c>
       <c r="L134" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -7154,7 +7163,7 @@
         <v>8.619999999999999</v>
       </c>
       <c r="L135" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7192,7 +7201,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L136" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7230,7 +7239,7 @@
         <v>6.69</v>
       </c>
       <c r="L137" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7268,7 +7277,7 @@
         <v>7.6</v>
       </c>
       <c r="L138" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7306,7 +7315,7 @@
         <v>8.81</v>
       </c>
       <c r="L139" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7344,7 +7353,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="L140" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7382,7 +7391,7 @@
         <v>12.08</v>
       </c>
       <c r="L141" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7420,7 +7429,7 @@
         <v>9.42</v>
       </c>
       <c r="L142" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7458,7 +7467,7 @@
         <v>9.4</v>
       </c>
       <c r="L143" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7496,7 +7505,7 @@
         <v>12.44</v>
       </c>
       <c r="L144" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7534,7 +7543,7 @@
         <v>11.94</v>
       </c>
       <c r="L145" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7572,7 +7581,7 @@
         <v>9.98</v>
       </c>
       <c r="L146" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7610,7 +7619,7 @@
         <v>9.59</v>
       </c>
       <c r="L147" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7648,7 +7657,7 @@
         <v>7.4</v>
       </c>
       <c r="L148" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7686,7 +7695,7 @@
         <v>7</v>
       </c>
       <c r="L149" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7724,7 +7733,7 @@
         <v>5.64</v>
       </c>
       <c r="L150" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7762,7 +7771,7 @@
         <v>5.43</v>
       </c>
       <c r="L151" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7800,7 +7809,7 @@
         <v>5.68</v>
       </c>
       <c r="L152" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7838,7 +7847,7 @@
         <v>7.34</v>
       </c>
       <c r="L153" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7876,7 +7885,7 @@
         <v>11.89</v>
       </c>
       <c r="L154" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7914,7 +7923,7 @@
         <v>10.73</v>
       </c>
       <c r="L155" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7952,7 +7961,7 @@
         <v>8.44</v>
       </c>
       <c r="L156" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7990,7 +7999,7 @@
         <v>7.16</v>
       </c>
       <c r="L157" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -8028,7 +8037,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L158" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -8066,7 +8075,7 @@
         <v>6.09</v>
       </c>
       <c r="L159" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -8104,7 +8113,7 @@
         <v>5.96</v>
       </c>
       <c r="L160" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -8142,7 +8151,7 @@
         <v>6.13</v>
       </c>
       <c r="L161" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8180,7 +8189,7 @@
         <v>5.79</v>
       </c>
       <c r="L162" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8218,7 +8227,7 @@
         <v>5.84</v>
       </c>
       <c r="L163" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8256,7 +8265,7 @@
         <v>9.81</v>
       </c>
       <c r="L164" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8294,7 +8303,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="L165" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8332,7 +8341,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L166" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8370,7 +8379,7 @@
         <v>10.5</v>
       </c>
       <c r="L167" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8408,7 +8417,7 @@
         <v>10.69</v>
       </c>
       <c r="L168" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8446,7 +8455,7 @@
         <v>9.6</v>
       </c>
       <c r="L169" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8484,7 +8493,7 @@
         <v>10.85</v>
       </c>
       <c r="L170" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8522,7 +8531,7 @@
         <v>8.1</v>
       </c>
       <c r="L171" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8560,7 +8569,7 @@
         <v>8.69</v>
       </c>
       <c r="L172" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8598,7 +8607,7 @@
         <v>8.76</v>
       </c>
       <c r="L173" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8636,7 +8645,7 @@
         <v>8.48</v>
       </c>
       <c r="L174" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8674,7 +8683,7 @@
         <v>8.99</v>
       </c>
       <c r="L175" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8712,7 +8721,7 @@
         <v>7.48</v>
       </c>
       <c r="L176" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8750,7 +8759,7 @@
         <v>7.1</v>
       </c>
       <c r="L177" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8788,7 +8797,7 @@
         <v>7.22</v>
       </c>
       <c r="L178" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8826,7 +8835,7 @@
         <v>6.99</v>
       </c>
       <c r="L179" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8864,7 +8873,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="L180" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8902,7 +8911,7 @@
         <v>3.92</v>
       </c>
       <c r="L181" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8940,7 +8949,7 @@
         <v>4.62</v>
       </c>
       <c r="L182" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8978,7 +8987,7 @@
         <v>3.6</v>
       </c>
       <c r="L183" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -9016,7 +9025,7 @@
         <v>2.26</v>
       </c>
       <c r="L184" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -9054,7 +9063,7 @@
         <v>1.71</v>
       </c>
       <c r="L185" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -9092,7 +9101,7 @@
         <v>2.67</v>
       </c>
       <c r="L186" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -9130,7 +9139,7 @@
         <v>1.68</v>
       </c>
       <c r="L187" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -9168,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="L188" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9206,7 +9215,7 @@
         <v>2.81</v>
       </c>
       <c r="L189" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9244,7 +9253,7 @@
         <v>2.91</v>
       </c>
       <c r="L190" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9282,7 +9291,7 @@
         <v>3.3</v>
       </c>
       <c r="L191" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9320,7 +9329,7 @@
         <v>4.3</v>
       </c>
       <c r="L192" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9358,7 +9367,7 @@
         <v>3.93</v>
       </c>
       <c r="L193" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9396,7 +9405,7 @@
         <v>4.87</v>
       </c>
       <c r="L194" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9434,7 +9443,7 @@
         <v>4.45</v>
       </c>
       <c r="L195" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9472,7 +9481,7 @@
         <v>4.86</v>
       </c>
       <c r="L196" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9510,7 +9519,7 @@
         <v>4.26</v>
       </c>
       <c r="L197" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9548,7 +9557,7 @@
         <v>3.95</v>
       </c>
       <c r="L198" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9586,7 +9595,7 @@
         <v>3.79</v>
       </c>
       <c r="L199" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9624,7 +9633,7 @@
         <v>4.75</v>
       </c>
       <c r="L200" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9662,7 +9671,7 @@
         <v>5.01</v>
       </c>
       <c r="L201" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9700,7 +9709,7 @@
         <v>5.35</v>
       </c>
       <c r="L202" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9738,7 +9747,7 @@
         <v>4.31</v>
       </c>
       <c r="L203" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9776,7 +9785,7 @@
         <v>4.19</v>
       </c>
       <c r="L204" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9814,7 +9823,7 @@
         <v>3.75</v>
       </c>
       <c r="L205" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9852,7 +9861,7 @@
         <v>4.14</v>
       </c>
       <c r="L206" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9890,7 +9899,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="L207" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9928,7 +9937,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="L208" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9966,7 +9975,7 @@
         <v>11.28</v>
       </c>
       <c r="L209" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -10004,7 +10013,7 @@
         <v>14.25</v>
       </c>
       <c r="L210" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -10042,7 +10051,7 @@
         <v>13.37</v>
       </c>
       <c r="L211" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -10080,7 +10089,7 @@
         <v>12.16</v>
       </c>
       <c r="L212" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -10118,7 +10127,7 @@
         <v>10.71</v>
       </c>
       <c r="L213" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -10156,7 +10165,7 @@
         <v>10.99</v>
       </c>
       <c r="L214" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10194,7 +10203,7 @@
         <v>12.4</v>
       </c>
       <c r="L215" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10232,7 +10241,7 @@
         <v>13.23</v>
       </c>
       <c r="L216" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10270,7 +10279,7 @@
         <v>13.85</v>
       </c>
       <c r="L217" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10308,7 +10317,7 @@
         <v>11.92</v>
       </c>
       <c r="L218" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10346,7 +10355,7 @@
         <v>13.62</v>
       </c>
       <c r="L219" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10384,7 +10393,7 @@
         <v>11.75</v>
       </c>
       <c r="L220" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10422,7 +10431,7 @@
         <v>12.24</v>
       </c>
       <c r="L221" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10460,7 +10469,7 @@
         <v>12.41</v>
       </c>
       <c r="L222" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10498,7 +10507,7 @@
         <v>12.08</v>
       </c>
       <c r="L223" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10536,7 +10545,7 @@
         <v>13.63</v>
       </c>
       <c r="L224" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10574,7 +10583,7 @@
         <v>11.83</v>
       </c>
       <c r="L225" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10612,7 +10621,7 @@
         <v>12.75</v>
       </c>
       <c r="L226" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10650,7 +10659,7 @@
         <v>14.76</v>
       </c>
       <c r="L227" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10688,7 +10697,7 @@
         <v>12.67</v>
       </c>
       <c r="L228" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10726,7 +10735,7 @@
         <v>14.35</v>
       </c>
       <c r="L229" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10764,7 +10773,7 @@
         <v>13.53</v>
       </c>
       <c r="L230" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10802,7 +10811,7 @@
         <v>12.18</v>
       </c>
       <c r="L231" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10840,7 +10849,7 @@
         <v>12.88</v>
       </c>
       <c r="L232" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10878,7 +10887,7 @@
         <v>12.64</v>
       </c>
       <c r="L233" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10916,7 +10925,7 @@
         <v>12</v>
       </c>
       <c r="L234" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10954,7 +10963,7 @@
         <v>10.89</v>
       </c>
       <c r="L235" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10992,7 +11001,7 @@
         <v>13.39</v>
       </c>
       <c r="L236" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -11030,7 +11039,7 @@
         <v>10.88</v>
       </c>
       <c r="L237" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -11068,7 +11077,7 @@
         <v>9.949999999999999</v>
       </c>
       <c r="L238" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -11106,7 +11115,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="L239" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -11144,7 +11153,7 @@
         <v>9.9</v>
       </c>
       <c r="L240" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11182,7 +11191,7 @@
         <v>10.88</v>
       </c>
       <c r="L241" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11220,7 +11229,7 @@
         <v>10.46</v>
       </c>
       <c r="L242" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11258,7 +11267,7 @@
         <v>11.54</v>
       </c>
       <c r="L243" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11296,7 +11305,7 @@
         <v>11.81</v>
       </c>
       <c r="L244" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11334,7 +11343,7 @@
         <v>10.43</v>
       </c>
       <c r="L245" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11372,7 +11381,7 @@
         <v>9.75</v>
       </c>
       <c r="L246" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11410,7 +11419,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="L247" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11448,7 +11457,7 @@
         <v>9.75</v>
       </c>
       <c r="L248" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11486,7 +11495,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="L249" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11524,7 +11533,7 @@
         <v>6.49</v>
       </c>
       <c r="L250" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11562,7 +11571,7 @@
         <v>4.61</v>
       </c>
       <c r="L251" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11600,7 +11609,7 @@
         <v>6.32</v>
       </c>
       <c r="L252" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11638,7 +11647,7 @@
         <v>6.73</v>
       </c>
       <c r="L253" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11676,7 +11685,7 @@
         <v>6.72</v>
       </c>
       <c r="L254" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11714,7 +11723,7 @@
         <v>6.33</v>
       </c>
       <c r="L255" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11752,7 +11761,7 @@
         <v>4.6</v>
       </c>
       <c r="L256" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11790,7 +11799,7 @@
         <v>5.49</v>
       </c>
       <c r="L257" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11828,7 +11837,7 @@
         <v>4.28</v>
       </c>
       <c r="L258" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11866,7 +11875,7 @@
         <v>2.83</v>
       </c>
       <c r="L259" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11904,7 +11913,7 @@
         <v>1.92</v>
       </c>
       <c r="L260" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11942,7 +11951,7 @@
         <v>3.72</v>
       </c>
       <c r="L261" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11980,7 +11989,7 @@
         <v>4.16</v>
       </c>
       <c r="L262" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -12018,7 +12027,7 @@
         <v>3.22</v>
       </c>
       <c r="L263" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -12056,7 +12065,7 @@
         <v>4.01</v>
       </c>
       <c r="L264" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -12094,7 +12103,7 @@
         <v>3.61</v>
       </c>
       <c r="L265" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -12132,7 +12141,7 @@
         <v>2.39</v>
       </c>
       <c r="L266" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12170,7 +12179,7 @@
         <v>1.97</v>
       </c>
       <c r="L267" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12208,7 +12217,7 @@
         <v>1.72</v>
       </c>
       <c r="L268" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12246,7 +12255,7 @@
         <v>3.53</v>
       </c>
       <c r="L269" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12284,7 +12293,7 @@
         <v>2.78</v>
       </c>
       <c r="L270" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12322,7 +12331,7 @@
         <v>2.24</v>
       </c>
       <c r="L271" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12360,7 +12369,7 @@
         <v>1.21</v>
       </c>
       <c r="L272" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12398,7 +12407,7 @@
         <v>2.18</v>
       </c>
       <c r="L273" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12436,7 +12445,7 @@
         <v>1.19</v>
       </c>
       <c r="L274" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12474,7 +12483,7 @@
         <v>0.64</v>
       </c>
       <c r="L275" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12512,7 +12521,7 @@
         <v>1.79</v>
       </c>
       <c r="L276" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12550,7 +12559,7 @@
         <v>2.29</v>
       </c>
       <c r="L277" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12588,7 +12597,7 @@
         <v>1.13</v>
       </c>
       <c r="L278" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12626,7 +12635,7 @@
         <v>2.25</v>
       </c>
       <c r="L279" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12664,7 +12673,7 @@
         <v>1.03</v>
       </c>
       <c r="L280" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12702,7 +12711,7 @@
         <v>1.74</v>
       </c>
       <c r="L281" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12740,7 +12749,7 @@
         <v>1.25</v>
       </c>
       <c r="L282" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12778,7 +12787,7 @@
         <v>1.03</v>
       </c>
       <c r="L283" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12816,7 +12825,7 @@
         <v>1.44</v>
       </c>
       <c r="L284" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12854,7 +12863,7 @@
         <v>0.58</v>
       </c>
       <c r="L285" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12892,7 +12901,7 @@
         <v>2.15</v>
       </c>
       <c r="L286" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12930,7 +12939,7 @@
         <v>1.36</v>
       </c>
       <c r="L287" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12968,7 +12977,7 @@
         <v>1.06</v>
       </c>
       <c r="L288" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -13006,7 +13015,7 @@
         <v>1.44</v>
       </c>
       <c r="L289" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -13044,7 +13053,7 @@
         <v>1.66</v>
       </c>
       <c r="L290" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13082,7 +13091,7 @@
         <v>1.97</v>
       </c>
       <c r="L291" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -13120,7 +13129,7 @@
         <v>2.09</v>
       </c>
       <c r="L292" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13158,7 +13167,7 @@
         <v>2.62</v>
       </c>
       <c r="L293" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13196,7 +13205,7 @@
         <v>2.71</v>
       </c>
       <c r="L294" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13234,7 +13243,7 @@
         <v>5.07</v>
       </c>
       <c r="L295" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13272,7 +13281,7 @@
         <v>4.81</v>
       </c>
       <c r="L296" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13310,7 +13319,7 @@
         <v>4.04</v>
       </c>
       <c r="L297" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13348,7 +13357,7 @@
         <v>4.45</v>
       </c>
       <c r="L298" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13386,7 +13395,7 @@
         <v>4.84</v>
       </c>
       <c r="L299" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13424,7 +13433,7 @@
         <v>4.31</v>
       </c>
       <c r="L300" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13462,7 +13471,7 @@
         <v>5.81</v>
       </c>
       <c r="L301" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13500,7 +13509,7 @@
         <v>4.97</v>
       </c>
       <c r="L302" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13538,7 +13547,7 @@
         <v>3.87</v>
       </c>
       <c r="L303" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13576,7 +13585,7 @@
         <v>2.52</v>
       </c>
       <c r="L304" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13614,7 +13623,7 @@
         <v>3.54</v>
       </c>
       <c r="L305" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13652,7 +13661,7 @@
         <v>3.8</v>
       </c>
       <c r="L306" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13690,7 +13699,7 @@
         <v>3.37</v>
       </c>
       <c r="L307" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13728,7 +13737,7 @@
         <v>2.96</v>
       </c>
       <c r="L308" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13766,7 +13775,7 @@
         <v>3.62</v>
       </c>
       <c r="L309" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13804,7 +13813,7 @@
         <v>7.09</v>
       </c>
       <c r="L310" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13842,7 +13851,7 @@
         <v>6.65</v>
       </c>
       <c r="L311" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13880,7 +13889,7 @@
         <v>5.97</v>
       </c>
       <c r="L312" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13918,7 +13927,7 @@
         <v>4.57</v>
       </c>
       <c r="L313" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13956,7 +13965,7 @@
         <v>3.16</v>
       </c>
       <c r="L314" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13994,7 +14003,7 @@
         <v>4.07</v>
       </c>
       <c r="L315" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -14032,7 +14041,7 @@
         <v>4.76</v>
       </c>
       <c r="L316" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14070,7 +14079,7 @@
         <v>2.79</v>
       </c>
       <c r="L317" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14108,7 +14117,7 @@
         <v>1.33</v>
       </c>
       <c r="L318" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14146,7 +14155,7 @@
         <v>3.05</v>
       </c>
       <c r="L319" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14184,7 +14193,7 @@
         <v>3.39</v>
       </c>
       <c r="L320" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14222,7 +14231,7 @@
         <v>2.4</v>
       </c>
       <c r="L321" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14260,7 +14269,7 @@
         <v>3.4</v>
       </c>
       <c r="L322" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14298,7 +14307,7 @@
         <v>3.21</v>
       </c>
       <c r="L323" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14336,7 +14345,7 @@
         <v>1.86</v>
       </c>
       <c r="L324" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14374,7 +14383,7 @@
         <v>1.49</v>
       </c>
       <c r="L325" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14412,7 +14421,7 @@
         <v>1.6</v>
       </c>
       <c r="L326" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14450,7 +14459,7 @@
         <v>2.53</v>
       </c>
       <c r="L327" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14488,7 +14497,7 @@
         <v>1.89</v>
       </c>
       <c r="L328" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14526,7 +14535,7 @@
         <v>3.32</v>
       </c>
       <c r="L329" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14564,7 +14573,7 @@
         <v>3.46</v>
       </c>
       <c r="L330" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14602,7 +14611,7 @@
         <v>3.35</v>
       </c>
       <c r="L331" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14640,7 +14649,7 @@
         <v>2.06</v>
       </c>
       <c r="L332" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14678,7 +14687,7 @@
         <v>1.52</v>
       </c>
       <c r="L333" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14716,7 +14725,7 @@
         <v>1.32</v>
       </c>
       <c r="L334" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14754,7 +14763,7 @@
         <v>1.65</v>
       </c>
       <c r="L335" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14792,7 +14801,7 @@
         <v>1.09</v>
       </c>
       <c r="L336" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14830,7 +14839,7 @@
         <v>2.58</v>
       </c>
       <c r="L337" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14868,7 +14877,7 @@
         <v>4.98</v>
       </c>
       <c r="L338" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14906,7 +14915,7 @@
         <v>4.04</v>
       </c>
       <c r="L339" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14944,7 +14953,7 @@
         <v>5.29</v>
       </c>
       <c r="L340" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14982,7 +14991,7 @@
         <v>5.35</v>
       </c>
       <c r="L341" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15020,7 +15029,7 @@
         <v>5.29</v>
       </c>
       <c r="L342" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15058,7 +15067,7 @@
         <v>6.51</v>
       </c>
       <c r="L343" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -15096,7 +15105,7 @@
         <v>5.76</v>
       </c>
       <c r="L344" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15134,7 +15143,7 @@
         <v>7.44</v>
       </c>
       <c r="L345" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15172,7 +15181,7 @@
         <v>8.07</v>
       </c>
       <c r="L346" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15210,7 +15219,7 @@
         <v>8.68</v>
       </c>
       <c r="L347" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15248,7 +15257,7 @@
         <v>7.98</v>
       </c>
       <c r="L348" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15286,7 +15295,7 @@
         <v>7.27</v>
       </c>
       <c r="L349" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15324,7 +15333,7 @@
         <v>7.66</v>
       </c>
       <c r="L350" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15362,7 +15371,7 @@
         <v>7.61</v>
       </c>
       <c r="L351" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15400,7 +15409,7 @@
         <v>7.9</v>
       </c>
       <c r="L352" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15438,7 +15447,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="L353" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15476,7 +15485,7 @@
         <v>7.24</v>
       </c>
       <c r="L354" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15514,7 +15523,7 @@
         <v>8.07</v>
       </c>
       <c r="L355" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15552,7 +15561,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="L356" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15590,7 +15599,7 @@
         <v>8.4</v>
       </c>
       <c r="L357" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15628,7 +15637,7 @@
         <v>8.02</v>
       </c>
       <c r="L358" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15666,7 +15675,7 @@
         <v>9.17</v>
       </c>
       <c r="L359" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15704,7 +15713,7 @@
         <v>10.34</v>
       </c>
       <c r="L360" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15742,7 +15751,7 @@
         <v>8.52</v>
       </c>
       <c r="L361" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15780,7 +15789,7 @@
         <v>9.82</v>
       </c>
       <c r="L362" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15818,7 +15827,7 @@
         <v>13.12</v>
       </c>
       <c r="L363" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15856,7 +15865,7 @@
         <v>10.28</v>
       </c>
       <c r="L364" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15894,7 +15903,7 @@
         <v>10.15</v>
       </c>
       <c r="L365" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15932,7 +15941,7 @@
         <v>9.34</v>
       </c>
       <c r="L366" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15970,7 +15979,7 @@
         <v>10.94</v>
       </c>
       <c r="L367" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16008,7 +16017,7 @@
         <v>10.36</v>
       </c>
       <c r="L368" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16046,7 +16055,7 @@
         <v>10.25</v>
       </c>
       <c r="L369" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16084,7 +16093,7 @@
         <v>4.82</v>
       </c>
       <c r="L370" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16122,7 +16131,7 @@
         <v>5.48</v>
       </c>
       <c r="L371" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -16160,7 +16169,7 @@
         <v>13.26</v>
       </c>
       <c r="L372" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16198,7 +16207,7 @@
         <v>15.14</v>
       </c>
       <c r="L373" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16236,7 +16245,7 @@
         <v>13.38</v>
       </c>
       <c r="L374" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16274,7 +16283,7 @@
         <v>13.39</v>
       </c>
       <c r="L375" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16312,7 +16321,7 @@
         <v>13.91</v>
       </c>
       <c r="L376" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16350,7 +16359,7 @@
         <v>13.11</v>
       </c>
       <c r="L377" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16388,7 +16397,7 @@
         <v>14.5</v>
       </c>
       <c r="L378" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16426,7 +16435,7 @@
         <v>13.74</v>
       </c>
       <c r="L379" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16464,7 +16473,7 @@
         <v>13.93</v>
       </c>
       <c r="L380" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16502,7 +16511,7 @@
         <v>13.97</v>
       </c>
       <c r="L381" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16540,7 +16549,7 @@
         <v>13.46</v>
       </c>
       <c r="L382" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16578,7 +16587,7 @@
         <v>13.13</v>
       </c>
       <c r="L383" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16616,7 +16625,7 @@
         <v>12.83</v>
       </c>
       <c r="L384" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16654,7 +16663,7 @@
         <v>11.89</v>
       </c>
       <c r="L385" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16692,7 +16701,7 @@
         <v>12.31</v>
       </c>
       <c r="L386" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16730,7 +16739,7 @@
         <v>12.38</v>
       </c>
       <c r="L387" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16768,7 +16777,7 @@
         <v>12.55</v>
       </c>
       <c r="L388" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16806,7 +16815,7 @@
         <v>10.07</v>
       </c>
       <c r="L389" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16844,7 +16853,7 @@
         <v>11.6</v>
       </c>
       <c r="L390" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16882,7 +16891,7 @@
         <v>8.779999999999999</v>
       </c>
       <c r="L391" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16920,7 +16929,7 @@
         <v>8.74</v>
       </c>
       <c r="L392" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16958,7 +16967,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="L393" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16996,7 +17005,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L394" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17034,7 +17043,7 @@
         <v>6.47</v>
       </c>
       <c r="L395" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17072,7 +17081,7 @@
         <v>5.98</v>
       </c>
       <c r="L396" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17110,7 +17119,7 @@
         <v>3.26</v>
       </c>
       <c r="L397" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -17148,7 +17157,7 @@
         <v>5.22</v>
       </c>
       <c r="L398" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17186,7 +17195,7 @@
         <v>4.7</v>
       </c>
       <c r="L399" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17224,7 +17233,7 @@
         <v>1.87</v>
       </c>
       <c r="L400" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17262,7 +17271,7 @@
         <v>2.11</v>
       </c>
       <c r="L401" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17300,7 +17309,7 @@
         <v>0.85</v>
       </c>
       <c r="L402" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17338,7 +17347,7 @@
         <v>1.67</v>
       </c>
       <c r="L403" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17376,7 +17385,7 @@
         <v>3.11</v>
       </c>
       <c r="L404" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17414,7 +17423,7 @@
         <v>2.44</v>
       </c>
       <c r="L405" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17452,7 +17461,7 @@
         <v>2.49</v>
       </c>
       <c r="L406" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17490,7 +17499,7 @@
         <v>2.4</v>
       </c>
       <c r="L407" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17528,7 +17537,7 @@
         <v>2.04</v>
       </c>
       <c r="L408" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17566,7 +17575,7 @@
         <v>3.89</v>
       </c>
       <c r="L409" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17604,7 +17613,7 @@
         <v>5.32</v>
       </c>
       <c r="L410" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17642,7 +17651,7 @@
         <v>5.53</v>
       </c>
       <c r="L411" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17680,7 +17689,7 @@
         <v>5.41</v>
       </c>
       <c r="L412" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17718,7 +17727,7 @@
         <v>6.33</v>
       </c>
       <c r="L413" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17756,7 +17765,7 @@
         <v>7.07</v>
       </c>
       <c r="L414" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17794,7 +17803,7 @@
         <v>5.14</v>
       </c>
       <c r="L415" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17832,7 +17841,7 @@
         <v>5.29</v>
       </c>
       <c r="L416" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17870,7 +17879,7 @@
         <v>5.57</v>
       </c>
       <c r="L417" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17908,7 +17917,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17946,7 +17955,7 @@
         <v>7.67</v>
       </c>
       <c r="L419" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17984,7 +17993,7 @@
         <v>7.08</v>
       </c>
       <c r="L420" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -18022,7 +18031,7 @@
         <v>9.83</v>
       </c>
       <c r="L421" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18060,7 +18069,7 @@
         <v>8.5</v>
       </c>
       <c r="L422" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18098,7 +18107,7 @@
         <v>7.69</v>
       </c>
       <c r="L423" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18136,7 +18145,7 @@
         <v>7.16</v>
       </c>
       <c r="L424" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18174,7 +18183,7 @@
         <v>8.23</v>
       </c>
       <c r="L425" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18212,7 +18221,7 @@
         <v>7.88</v>
       </c>
       <c r="L426" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18250,7 +18259,7 @@
         <v>11.67</v>
       </c>
       <c r="L427" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18288,7 +18297,7 @@
         <v>10.25</v>
       </c>
       <c r="L428" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18326,7 +18335,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="L429" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18364,7 +18373,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="L430" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18402,7 +18411,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="L431" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18440,7 +18449,7 @@
         <v>9.460000000000001</v>
       </c>
       <c r="L432" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18478,7 +18487,7 @@
         <v>6.94</v>
       </c>
       <c r="L433" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18516,7 +18525,7 @@
         <v>6.48</v>
       </c>
       <c r="L434" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18554,7 +18563,7 @@
         <v>5.96</v>
       </c>
       <c r="L435" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18592,7 +18601,7 @@
         <v>6</v>
       </c>
       <c r="L436" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18630,7 +18639,7 @@
         <v>6.57</v>
       </c>
       <c r="L437" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18668,7 +18677,7 @@
         <v>7.14</v>
       </c>
       <c r="L438" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18706,7 +18715,7 @@
         <v>6.26</v>
       </c>
       <c r="L439" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18744,7 +18753,7 @@
         <v>6.52</v>
       </c>
       <c r="L440" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18782,7 +18791,7 @@
         <v>6.59</v>
       </c>
       <c r="L441" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18820,7 +18829,7 @@
         <v>3.76</v>
       </c>
       <c r="L442" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18858,7 +18867,7 @@
         <v>2.15</v>
       </c>
       <c r="L443" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18896,7 +18905,7 @@
         <v>1.51</v>
       </c>
       <c r="L444" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18934,7 +18943,7 @@
         <v>3.94</v>
       </c>
       <c r="L445" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18972,7 +18981,7 @@
         <v>4.91</v>
       </c>
       <c r="L446" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19010,7 +19019,7 @@
         <v>4.9</v>
       </c>
       <c r="L447" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19048,7 +19057,7 @@
         <v>4.28</v>
       </c>
       <c r="L448" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19086,7 +19095,7 @@
         <v>5.43</v>
       </c>
       <c r="L449" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19124,7 +19133,7 @@
         <v>5.87</v>
       </c>
       <c r="L450" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -19162,7 +19171,7 @@
         <v>6.78</v>
       </c>
       <c r="L451" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19200,7 +19209,7 @@
         <v>5.27</v>
       </c>
       <c r="L452" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19238,7 +19247,7 @@
         <v>6.63</v>
       </c>
       <c r="L453" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19276,7 +19285,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="L454" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19314,7 +19323,7 @@
         <v>6.6</v>
       </c>
       <c r="L455" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19352,7 +19361,7 @@
         <v>6.01</v>
       </c>
       <c r="L456" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19390,7 +19399,7 @@
         <v>5.4</v>
       </c>
       <c r="L457" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19428,7 +19437,7 @@
         <v>5.17</v>
       </c>
       <c r="L458" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19466,7 +19475,7 @@
         <v>2.92</v>
       </c>
       <c r="L459" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19504,7 +19513,7 @@
         <v>5.44</v>
       </c>
       <c r="L460" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19542,7 +19551,7 @@
         <v>5.09</v>
       </c>
       <c r="L461" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19580,7 +19589,7 @@
         <v>4.04</v>
       </c>
       <c r="L462" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19618,7 +19627,7 @@
         <v>4.4</v>
       </c>
       <c r="L463" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19656,7 +19665,7 @@
         <v>3.65</v>
       </c>
       <c r="L464" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19694,7 +19703,7 @@
         <v>5.57</v>
       </c>
       <c r="L465" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19732,7 +19741,7 @@
         <v>3.26</v>
       </c>
       <c r="L466" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19770,7 +19779,7 @@
         <v>3.75</v>
       </c>
       <c r="L467" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19808,7 +19817,7 @@
         <v>1.88</v>
       </c>
       <c r="L468" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19846,7 +19855,7 @@
         <v>2.92</v>
       </c>
       <c r="L469" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19884,7 +19893,7 @@
         <v>5.24</v>
       </c>
       <c r="L470" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19922,7 +19931,7 @@
         <v>3.36</v>
       </c>
       <c r="L471" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19960,7 +19969,7 @@
         <v>3.04</v>
       </c>
       <c r="L472" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19998,7 +20007,7 @@
         <v>2.21</v>
       </c>
       <c r="L473" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20036,7 +20045,7 @@
         <v>2.62</v>
       </c>
       <c r="L474" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20074,7 +20083,7 @@
         <v>5.97</v>
       </c>
       <c r="L475" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20112,7 +20121,7 @@
         <v>2.21</v>
       </c>
       <c r="L476" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20150,7 +20159,7 @@
         <v>3.35</v>
       </c>
       <c r="L477" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20188,7 +20197,7 @@
         <v>2.49</v>
       </c>
       <c r="L478" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20226,7 +20235,7 @@
         <v>2.45</v>
       </c>
       <c r="L479" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20264,7 +20273,7 @@
         <v>2.9</v>
       </c>
       <c r="L480" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20302,7 +20311,7 @@
         <v>3.87</v>
       </c>
       <c r="L481" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20340,7 +20349,7 @@
         <v>3.65</v>
       </c>
       <c r="L482" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20378,7 +20387,7 @@
         <v>5.5</v>
       </c>
       <c r="L483" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -20416,7 +20425,7 @@
         <v>4.32</v>
       </c>
       <c r="L484" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20454,7 +20463,7 @@
         <v>2.52</v>
       </c>
       <c r="L485" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20492,7 +20501,7 @@
         <v>4.07</v>
       </c>
       <c r="L486" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20530,7 +20539,7 @@
         <v>3.8</v>
       </c>
       <c r="L487" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20568,7 +20577,7 @@
         <v>4.98</v>
       </c>
       <c r="L488" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20606,7 +20615,7 @@
         <v>4.23</v>
       </c>
       <c r="L489" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20644,7 +20653,7 @@
         <v>5.06</v>
       </c>
       <c r="L490" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20682,7 +20691,7 @@
         <v>6.59</v>
       </c>
       <c r="L491" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -20720,7 +20729,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="L492" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -20758,7 +20767,7 @@
         <v>7.59</v>
       </c>
       <c r="L493" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -20796,7 +20805,7 @@
         <v>7.66</v>
       </c>
       <c r="L494" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -20834,7 +20843,7 @@
         <v>7.88</v>
       </c>
       <c r="L495" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -20872,7 +20881,7 @@
         <v>9.06</v>
       </c>
       <c r="L496" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -20910,7 +20919,7 @@
         <v>10.88</v>
       </c>
       <c r="L497" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -20948,7 +20957,7 @@
         <v>10.42</v>
       </c>
       <c r="L498" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -20986,7 +20995,7 @@
         <v>10.35</v>
       </c>
       <c r="L499" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21024,7 +21033,7 @@
         <v>10.39</v>
       </c>
       <c r="L500" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21062,7 +21071,7 @@
         <v>9.24</v>
       </c>
       <c r="L501" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21100,7 +21109,7 @@
         <v>12</v>
       </c>
       <c r="L502" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21138,7 +21147,7 @@
         <v>8.35</v>
       </c>
       <c r="L503" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21176,7 +21185,7 @@
         <v>11.75</v>
       </c>
       <c r="L504" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21214,7 +21223,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L505" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21252,7 +21261,7 @@
         <v>13.04</v>
       </c>
       <c r="L506" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21290,7 +21299,7 @@
         <v>10.13</v>
       </c>
       <c r="L507" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21328,7 +21337,7 @@
         <v>12.01</v>
       </c>
       <c r="L508" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -21366,7 +21375,7 @@
         <v>10.07</v>
       </c>
       <c r="L509" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21404,7 +21413,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="L510" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -21442,7 +21451,7 @@
         <v>8.23</v>
       </c>
       <c r="L511" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21480,7 +21489,7 @@
         <v>9.32</v>
       </c>
       <c r="L512" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21518,7 +21527,7 @@
         <v>8.81</v>
       </c>
       <c r="L513" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21556,7 +21565,7 @@
         <v>6.06</v>
       </c>
       <c r="L514" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21594,7 +21603,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="L515" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -21632,7 +21641,7 @@
         <v>11.76</v>
       </c>
       <c r="L516" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21670,7 +21679,7 @@
         <v>15.62</v>
       </c>
       <c r="L517" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -21708,7 +21717,7 @@
         <v>14.21</v>
       </c>
       <c r="L518" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21746,7 +21755,7 @@
         <v>12.91</v>
       </c>
       <c r="L519" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -21784,7 +21793,7 @@
         <v>13.53</v>
       </c>
       <c r="L520" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -21822,7 +21831,7 @@
         <v>13.38</v>
       </c>
       <c r="L521" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -21860,7 +21869,7 @@
         <v>14.25</v>
       </c>
       <c r="L522" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -21898,7 +21907,7 @@
         <v>12.78</v>
       </c>
       <c r="L523" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21936,7 +21945,7 @@
         <v>13.5</v>
       </c>
       <c r="L524" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -21974,7 +21983,7 @@
         <v>13.12</v>
       </c>
       <c r="L525" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22012,7 +22021,7 @@
         <v>13.34</v>
       </c>
       <c r="L526" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22050,7 +22059,7 @@
         <v>11.16</v>
       </c>
       <c r="L527" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22088,7 +22097,7 @@
         <v>12.53</v>
       </c>
       <c r="L528" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22126,7 +22135,7 @@
         <v>12.25</v>
       </c>
       <c r="L529" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22164,7 +22173,7 @@
         <v>11.66</v>
       </c>
       <c r="L530" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22202,7 +22211,7 @@
         <v>11.81</v>
       </c>
       <c r="L531" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22240,7 +22249,7 @@
         <v>11.1</v>
       </c>
       <c r="L532" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22278,7 +22287,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="L533" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22316,7 +22325,7 @@
         <v>9.91</v>
       </c>
       <c r="L534" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22354,7 +22363,7 @@
         <v>8.51</v>
       </c>
       <c r="L535" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22392,7 +22401,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L536" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22430,7 +22439,7 @@
         <v>9.18</v>
       </c>
       <c r="L537" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22468,7 +22477,7 @@
         <v>6.78</v>
       </c>
       <c r="L538" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22506,7 +22515,7 @@
         <v>6.09</v>
       </c>
       <c r="L539" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -22544,7 +22553,121 @@
         <v>5.75</v>
       </c>
       <c r="L540" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
         <v>550</v>
+      </c>
+      <c r="C541">
+        <v>13.04</v>
+      </c>
+      <c r="D541">
+        <v>81.45999999999999</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>-8.82</v>
+      </c>
+      <c r="G541">
+        <v>255.8</v>
+      </c>
+      <c r="H541">
+        <v>-11.48</v>
+      </c>
+      <c r="I541">
+        <v>0.01</v>
+      </c>
+      <c r="J541">
+        <v>42.98</v>
+      </c>
+      <c r="K541">
+        <v>3.22</v>
+      </c>
+      <c r="L541" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>551</v>
+      </c>
+      <c r="C542">
+        <v>13.04</v>
+      </c>
+      <c r="D542">
+        <v>85.56</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>-7.48</v>
+      </c>
+      <c r="G542">
+        <v>238.12</v>
+      </c>
+      <c r="H542">
+        <v>-9.52</v>
+      </c>
+      <c r="I542">
+        <v>-0.01</v>
+      </c>
+      <c r="J542">
+        <v>40.45</v>
+      </c>
+      <c r="K542">
+        <v>3.76</v>
+      </c>
+      <c r="L542" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>552</v>
+      </c>
+      <c r="C543">
+        <v>13.04</v>
+      </c>
+      <c r="D543">
+        <v>75.59</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>6.98</v>
+      </c>
+      <c r="G543">
+        <v>286.44</v>
+      </c>
+      <c r="H543">
+        <v>2.79</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>43.86</v>
+      </c>
+      <c r="K543">
+        <v>3.33</v>
+      </c>
+      <c r="L543" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="457">
   <si>
     <t>Fecha</t>
   </si>
@@ -1349,6 +1349,39 @@
   </si>
   <si>
     <t>11/17/2020 12:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1709,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L435"/>
+  <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1785,7 +1818,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1823,7 +1856,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1861,7 +1894,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1899,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1937,7 +1970,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1975,7 +2008,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2013,7 +2046,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2051,7 +2084,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2089,7 +2122,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2127,7 +2160,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2165,7 +2198,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2203,7 +2236,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2241,7 +2274,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2279,7 +2312,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2317,7 +2350,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2355,7 +2388,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2393,7 +2426,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2431,7 +2464,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2469,7 +2502,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2507,7 +2540,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2545,7 +2578,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2583,7 +2616,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2621,7 +2654,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2659,7 +2692,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2697,7 +2730,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2735,7 +2768,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2773,7 +2806,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2811,7 +2844,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2849,7 +2882,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2887,7 +2920,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2925,7 +2958,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2963,7 +2996,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3001,7 +3034,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3039,7 +3072,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3077,7 +3110,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3115,7 +3148,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3153,7 +3186,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3191,7 +3224,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3229,7 +3262,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3267,7 +3300,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3305,7 +3338,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3343,7 +3376,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3381,7 +3414,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3419,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3457,7 +3490,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3495,7 +3528,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3533,7 +3566,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3571,7 +3604,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3609,7 +3642,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3647,7 +3680,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3685,7 +3718,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3723,7 +3756,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3761,7 +3794,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3799,7 +3832,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3837,7 +3870,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3875,7 +3908,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3913,7 +3946,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3951,7 +3984,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3989,7 +4022,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4027,7 +4060,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4065,7 +4098,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4103,7 +4136,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4141,7 +4174,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4179,7 +4212,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4217,7 +4250,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4255,7 +4288,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4293,7 +4326,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4331,7 +4364,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4369,7 +4402,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4407,7 +4440,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4445,7 +4478,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4483,7 +4516,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4521,7 +4554,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4559,7 +4592,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4597,7 +4630,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4635,7 +4668,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4673,7 +4706,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4711,7 +4744,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4749,7 +4782,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4787,7 +4820,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4825,7 +4858,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4863,7 +4896,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4901,7 +4934,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4939,7 +4972,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4977,7 +5010,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5015,7 +5048,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5053,7 +5086,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5091,7 +5124,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5129,7 +5162,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5167,7 +5200,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5205,7 +5238,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5243,7 +5276,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5281,7 +5314,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5319,7 +5352,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5357,7 +5390,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5395,7 +5428,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5433,7 +5466,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5471,7 +5504,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5509,7 +5542,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5547,7 +5580,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5585,7 +5618,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5623,7 +5656,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5661,7 +5694,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5699,7 +5732,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5737,7 +5770,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5775,7 +5808,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5813,7 +5846,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5851,7 +5884,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5889,7 +5922,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5927,7 +5960,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5965,7 +5998,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6003,7 +6036,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6041,7 +6074,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6079,7 +6112,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6117,7 +6150,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6155,7 +6188,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6193,7 +6226,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6231,7 +6264,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6269,7 +6302,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6307,7 +6340,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6345,7 +6378,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6383,7 +6416,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6421,7 +6454,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6459,7 +6492,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6497,7 +6530,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6535,7 +6568,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6573,7 +6606,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6611,7 +6644,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6649,7 +6682,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6687,7 +6720,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6725,7 +6758,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6763,7 +6796,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6801,7 +6834,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6839,7 +6872,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6877,7 +6910,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6915,7 +6948,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6953,7 +6986,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6991,7 +7024,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7029,7 +7062,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7067,7 +7100,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7105,7 +7138,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7143,7 +7176,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7181,7 +7214,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7219,7 +7252,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7257,7 +7290,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7295,7 +7328,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7333,7 +7366,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7371,7 +7404,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7409,7 +7442,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7447,7 +7480,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7485,7 +7518,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7523,7 +7556,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7561,7 +7594,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7599,7 +7632,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7637,7 +7670,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7675,7 +7708,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7713,7 +7746,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7751,7 +7784,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7789,7 +7822,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7827,7 +7860,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7865,7 +7898,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7903,7 +7936,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7941,7 +7974,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -7979,7 +8012,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8017,7 +8050,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8055,7 +8088,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8093,7 +8126,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8131,7 +8164,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8169,7 +8202,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8207,7 +8240,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8245,7 +8278,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8283,7 +8316,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8321,7 +8354,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8359,7 +8392,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8397,7 +8430,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8435,7 +8468,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8473,7 +8506,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8511,7 +8544,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8549,7 +8582,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8587,7 +8620,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8625,7 +8658,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8663,7 +8696,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8701,7 +8734,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8739,7 +8772,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8777,7 +8810,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8815,7 +8848,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8853,7 +8886,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8891,7 +8924,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8929,7 +8962,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8967,7 +9000,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9005,7 +9038,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9043,7 +9076,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9081,7 +9114,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9119,7 +9152,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9157,7 +9190,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9195,7 +9228,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9233,7 +9266,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9271,7 +9304,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9309,7 +9342,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9347,7 +9380,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9385,7 +9418,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9423,7 +9456,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9461,7 +9494,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9499,7 +9532,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9537,7 +9570,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9575,7 +9608,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9613,7 +9646,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9651,7 +9684,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9689,7 +9722,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9727,7 +9760,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9765,7 +9798,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9803,7 +9836,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9841,7 +9874,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9879,7 +9912,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9917,7 +9950,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9955,7 +9988,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -9993,7 +10026,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10031,7 +10064,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10069,7 +10102,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10107,7 +10140,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10145,7 +10178,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10183,7 +10216,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10221,7 +10254,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10259,7 +10292,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10297,7 +10330,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10335,7 +10368,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10373,7 +10406,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10411,7 +10444,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10449,7 +10482,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10487,7 +10520,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10525,7 +10558,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10563,7 +10596,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10601,7 +10634,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10639,7 +10672,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10677,7 +10710,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10715,7 +10748,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10753,7 +10786,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10791,7 +10824,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10829,7 +10862,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10867,7 +10900,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10905,7 +10938,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10943,7 +10976,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -10981,7 +11014,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11019,7 +11052,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11057,7 +11090,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11095,7 +11128,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11133,7 +11166,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11171,7 +11204,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11209,7 +11242,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11247,7 +11280,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11285,7 +11318,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11323,7 +11356,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11361,7 +11394,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11399,7 +11432,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11437,7 +11470,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11475,7 +11508,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11513,7 +11546,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11551,7 +11584,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11589,7 +11622,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11627,7 +11660,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11665,7 +11698,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11703,7 +11736,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11741,7 +11774,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11779,7 +11812,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11817,7 +11850,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11855,7 +11888,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11893,7 +11926,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11931,7 +11964,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -11969,7 +12002,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12007,7 +12040,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12045,7 +12078,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12083,7 +12116,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12121,7 +12154,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12159,7 +12192,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12197,7 +12230,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12235,7 +12268,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12273,7 +12306,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12311,7 +12344,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12349,7 +12382,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12387,7 +12420,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12425,7 +12458,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12463,7 +12496,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12501,7 +12534,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12539,7 +12572,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12577,7 +12610,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12615,7 +12648,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12653,7 +12686,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12691,7 +12724,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12729,7 +12762,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12767,7 +12800,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12805,7 +12838,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12843,7 +12876,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12881,7 +12914,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12919,7 +12952,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12957,7 +12990,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -12995,7 +13028,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13033,7 +13066,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13071,7 +13104,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13109,7 +13142,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13147,7 +13180,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13185,7 +13218,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13223,7 +13256,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13261,7 +13294,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13299,7 +13332,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13337,7 +13370,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13375,7 +13408,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13413,7 +13446,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13451,7 +13484,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13489,7 +13522,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13527,7 +13560,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13565,7 +13598,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13603,7 +13636,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13641,7 +13674,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13679,7 +13712,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13717,7 +13750,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13755,7 +13788,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13793,7 +13826,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13831,7 +13864,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13869,7 +13902,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13907,7 +13940,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13945,7 +13978,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -13983,7 +14016,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14021,7 +14054,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14059,7 +14092,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14097,7 +14130,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14135,7 +14168,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14173,7 +14206,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14211,7 +14244,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14249,7 +14282,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14287,7 +14320,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14325,7 +14358,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14363,7 +14396,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14401,7 +14434,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14439,7 +14472,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14477,7 +14510,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14515,7 +14548,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14553,7 +14586,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14591,7 +14624,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14629,7 +14662,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14667,7 +14700,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14705,7 +14738,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14743,7 +14776,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14781,7 +14814,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14819,7 +14852,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14857,7 +14890,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14895,7 +14928,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14933,7 +14966,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -14971,7 +15004,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15009,7 +15042,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15047,7 +15080,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15085,7 +15118,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15123,7 +15156,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15161,7 +15194,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15199,7 +15232,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15237,7 +15270,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15275,7 +15308,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15313,7 +15346,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15351,7 +15384,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15389,7 +15422,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15427,7 +15460,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15465,7 +15498,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15503,7 +15536,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15541,7 +15574,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15579,7 +15612,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15617,7 +15650,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15655,7 +15688,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15693,7 +15726,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15731,7 +15764,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15769,7 +15802,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15807,7 +15840,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15845,7 +15878,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15883,7 +15916,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15921,7 +15954,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15959,7 +15992,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -15997,7 +16030,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16035,7 +16068,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16073,7 +16106,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16111,7 +16144,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16149,7 +16182,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16187,7 +16220,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16225,7 +16258,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16263,7 +16296,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16301,7 +16334,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16339,7 +16372,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16377,7 +16410,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16415,7 +16448,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16453,7 +16486,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16491,7 +16524,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16529,7 +16562,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16567,7 +16600,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16605,7 +16638,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16643,7 +16676,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16681,7 +16714,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16719,7 +16752,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16757,7 +16790,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16795,7 +16828,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16833,7 +16866,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16871,7 +16904,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16909,7 +16942,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16947,7 +16980,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -16985,7 +17018,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17023,7 +17056,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17061,7 +17094,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17099,7 +17132,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17137,7 +17170,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17175,7 +17208,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17213,7 +17246,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17251,7 +17284,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17289,7 +17322,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17327,7 +17360,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17365,7 +17398,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17403,7 +17436,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17441,7 +17474,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17479,7 +17512,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17517,7 +17550,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17555,7 +17588,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17593,7 +17626,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17631,7 +17664,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17669,7 +17702,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17707,7 +17740,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17745,7 +17778,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17783,7 +17816,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17821,7 +17854,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17859,7 +17892,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17897,7 +17930,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17935,7 +17968,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -17973,7 +18006,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18011,7 +18044,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18049,7 +18082,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18087,7 +18120,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18125,7 +18158,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18163,7 +18196,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18201,7 +18234,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18239,7 +18272,425 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
         <v>445</v>
+      </c>
+      <c r="C436">
+        <v>12.94</v>
+      </c>
+      <c r="D436">
+        <v>55.57</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>18.43</v>
+      </c>
+      <c r="G436">
+        <v>46.27</v>
+      </c>
+      <c r="H436">
+        <v>9.32</v>
+      </c>
+      <c r="I436">
+        <v>-0.01</v>
+      </c>
+      <c r="J436">
+        <v>50.02</v>
+      </c>
+      <c r="K436">
+        <v>13.2</v>
+      </c>
+      <c r="L436" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>446</v>
+      </c>
+      <c r="C437">
+        <v>12.94</v>
+      </c>
+      <c r="D437">
+        <v>56.76</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>17.14</v>
+      </c>
+      <c r="G437">
+        <v>54.73</v>
+      </c>
+      <c r="H437">
+        <v>8.42</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>49.45</v>
+      </c>
+      <c r="K437">
+        <v>10.86</v>
+      </c>
+      <c r="L437" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>447</v>
+      </c>
+      <c r="C438">
+        <v>12.93</v>
+      </c>
+      <c r="D438">
+        <v>57.45</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+      <c r="F438">
+        <v>17.82</v>
+      </c>
+      <c r="G438">
+        <v>61.79</v>
+      </c>
+      <c r="H438">
+        <v>9.24</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>49.85</v>
+      </c>
+      <c r="K438">
+        <v>11.4</v>
+      </c>
+      <c r="L438" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>448</v>
+      </c>
+      <c r="C439">
+        <v>12.94</v>
+      </c>
+      <c r="D439">
+        <v>56.99</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>19.92</v>
+      </c>
+      <c r="G439">
+        <v>59.68</v>
+      </c>
+      <c r="H439">
+        <v>11.09</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>47.45</v>
+      </c>
+      <c r="K439">
+        <v>12.23</v>
+      </c>
+      <c r="L439" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>449</v>
+      </c>
+      <c r="C440">
+        <v>12.93</v>
+      </c>
+      <c r="D440">
+        <v>56.71</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>18.26</v>
+      </c>
+      <c r="G440">
+        <v>55.77</v>
+      </c>
+      <c r="H440">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>47.45</v>
+      </c>
+      <c r="K440">
+        <v>11.29</v>
+      </c>
+      <c r="L440" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>450</v>
+      </c>
+      <c r="C441">
+        <v>12.92</v>
+      </c>
+      <c r="D441">
+        <v>55.85</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>18.73</v>
+      </c>
+      <c r="G441">
+        <v>47.21</v>
+      </c>
+      <c r="H441">
+        <v>9.67</v>
+      </c>
+      <c r="I441">
+        <v>-0.01</v>
+      </c>
+      <c r="J441">
+        <v>48.5</v>
+      </c>
+      <c r="K441">
+        <v>12.68</v>
+      </c>
+      <c r="L441" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>451</v>
+      </c>
+      <c r="C442">
+        <v>12.93</v>
+      </c>
+      <c r="D442">
+        <v>56.22</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>17.4</v>
+      </c>
+      <c r="G442">
+        <v>50.08</v>
+      </c>
+      <c r="H442">
+        <v>8.52</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>45.95</v>
+      </c>
+      <c r="K442">
+        <v>9.08</v>
+      </c>
+      <c r="L442" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>12.93</v>
+      </c>
+      <c r="D443">
+        <v>55.82</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>19.9</v>
+      </c>
+      <c r="G443">
+        <v>58.08</v>
+      </c>
+      <c r="H443">
+        <v>10.76</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>52.75</v>
+      </c>
+      <c r="K443">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="L443" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>453</v>
+      </c>
+      <c r="C444">
+        <v>12.91</v>
+      </c>
+      <c r="D444">
+        <v>56.45</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>19.75</v>
+      </c>
+      <c r="G444">
+        <v>67.94</v>
+      </c>
+      <c r="H444">
+        <v>10.79</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>47.72</v>
+      </c>
+      <c r="K444">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L444" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>454</v>
+      </c>
+      <c r="C445">
+        <v>12.92</v>
+      </c>
+      <c r="D445">
+        <v>55.77</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>19.12</v>
+      </c>
+      <c r="G445">
+        <v>63.15</v>
+      </c>
+      <c r="H445">
+        <v>10.01</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>54.59</v>
+      </c>
+      <c r="K445">
+        <v>13.33</v>
+      </c>
+      <c r="L445" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>455</v>
+      </c>
+      <c r="C446">
+        <v>12.92</v>
+      </c>
+      <c r="D446">
+        <v>55.93</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>13.09</v>
+      </c>
+      <c r="G446">
+        <v>55.27</v>
+      </c>
+      <c r="H446">
+        <v>4.42</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>53.37</v>
+      </c>
+      <c r="K446">
+        <v>15.62</v>
+      </c>
+      <c r="L446" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="467">
   <si>
     <t>Fecha</t>
   </si>
@@ -1382,6 +1382,36 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:40:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1742,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L446"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1818,7 +1848,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1856,7 +1886,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1894,7 +1924,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1932,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1970,7 +2000,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2008,7 +2038,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2046,7 +2076,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2084,7 +2114,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2122,7 +2152,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2160,7 +2190,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2198,7 +2228,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2236,7 +2266,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2274,7 +2304,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2312,7 +2342,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2350,7 +2380,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2388,7 +2418,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2426,7 +2456,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2464,7 +2494,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2502,7 +2532,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2540,7 +2570,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2578,7 +2608,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2616,7 +2646,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2654,7 +2684,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2692,7 +2722,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2730,7 +2760,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2768,7 +2798,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2806,7 +2836,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2844,7 +2874,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2882,7 +2912,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2920,7 +2950,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2958,7 +2988,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2996,7 +3026,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3034,7 +3064,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3072,7 +3102,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3110,7 +3140,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3148,7 +3178,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3186,7 +3216,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3224,7 +3254,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3262,7 +3292,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3300,7 +3330,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3338,7 +3368,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3376,7 +3406,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3414,7 +3444,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3452,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3490,7 +3520,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3528,7 +3558,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3566,7 +3596,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3604,7 +3634,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3642,7 +3672,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3680,7 +3710,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3718,7 +3748,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3756,7 +3786,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3794,7 +3824,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3832,7 +3862,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3870,7 +3900,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3908,7 +3938,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3946,7 +3976,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3984,7 +4014,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4022,7 +4052,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4060,7 +4090,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4098,7 +4128,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4136,7 +4166,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4174,7 +4204,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4212,7 +4242,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4250,7 +4280,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4288,7 +4318,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4326,7 +4356,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4364,7 +4394,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4402,7 +4432,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4440,7 +4470,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4478,7 +4508,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4516,7 +4546,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4554,7 +4584,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4592,7 +4622,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4630,7 +4660,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4668,7 +4698,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4706,7 +4736,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4744,7 +4774,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4782,7 +4812,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4820,7 +4850,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4858,7 +4888,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4896,7 +4926,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4934,7 +4964,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4972,7 +5002,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5010,7 +5040,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5048,7 +5078,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5086,7 +5116,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5124,7 +5154,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5162,7 +5192,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5200,7 +5230,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5238,7 +5268,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5276,7 +5306,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5314,7 +5344,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5352,7 +5382,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5390,7 +5420,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5428,7 +5458,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5466,7 +5496,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5504,7 +5534,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5542,7 +5572,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5580,7 +5610,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5618,7 +5648,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5656,7 +5686,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5694,7 +5724,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5732,7 +5762,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5770,7 +5800,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5808,7 +5838,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5846,7 +5876,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5884,7 +5914,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5922,7 +5952,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5960,7 +5990,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5998,7 +6028,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6036,7 +6066,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6074,7 +6104,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6112,7 +6142,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6150,7 +6180,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6188,7 +6218,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6226,7 +6256,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6264,7 +6294,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6302,7 +6332,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6340,7 +6370,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6378,7 +6408,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6416,7 +6446,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6454,7 +6484,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6492,7 +6522,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6530,7 +6560,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6568,7 +6598,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6606,7 +6636,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6644,7 +6674,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6682,7 +6712,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6720,7 +6750,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6758,7 +6788,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6796,7 +6826,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6834,7 +6864,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6872,7 +6902,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6910,7 +6940,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6948,7 +6978,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6986,7 +7016,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7024,7 +7054,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7062,7 +7092,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7100,7 +7130,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7138,7 +7168,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7176,7 +7206,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7214,7 +7244,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7252,7 +7282,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7290,7 +7320,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7328,7 +7358,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7366,7 +7396,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7404,7 +7434,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7442,7 +7472,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7480,7 +7510,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7518,7 +7548,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7556,7 +7586,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7594,7 +7624,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7632,7 +7662,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7670,7 +7700,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7708,7 +7738,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7746,7 +7776,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7784,7 +7814,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7822,7 +7852,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7860,7 +7890,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7898,7 +7928,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7936,7 +7966,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -7974,7 +8004,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8012,7 +8042,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8050,7 +8080,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8088,7 +8118,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8126,7 +8156,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8164,7 +8194,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8202,7 +8232,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8240,7 +8270,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8278,7 +8308,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8316,7 +8346,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8354,7 +8384,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8392,7 +8422,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8430,7 +8460,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8468,7 +8498,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8506,7 +8536,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8544,7 +8574,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8582,7 +8612,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8620,7 +8650,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8658,7 +8688,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8696,7 +8726,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8734,7 +8764,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8772,7 +8802,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8810,7 +8840,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8848,7 +8878,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8886,7 +8916,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8924,7 +8954,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8962,7 +8992,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9000,7 +9030,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9038,7 +9068,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9076,7 +9106,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9114,7 +9144,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9152,7 +9182,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9190,7 +9220,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9228,7 +9258,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9266,7 +9296,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9304,7 +9334,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9342,7 +9372,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9380,7 +9410,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9418,7 +9448,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9456,7 +9486,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9494,7 +9524,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9532,7 +9562,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9570,7 +9600,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9608,7 +9638,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9646,7 +9676,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9684,7 +9714,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9722,7 +9752,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9760,7 +9790,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9798,7 +9828,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9836,7 +9866,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9874,7 +9904,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9912,7 +9942,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9950,7 +9980,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -9988,7 +10018,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10026,7 +10056,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10064,7 +10094,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10102,7 +10132,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10140,7 +10170,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10178,7 +10208,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10216,7 +10246,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10254,7 +10284,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10292,7 +10322,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10330,7 +10360,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10368,7 +10398,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10406,7 +10436,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10444,7 +10474,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10482,7 +10512,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10520,7 +10550,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10558,7 +10588,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10596,7 +10626,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10634,7 +10664,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10672,7 +10702,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10710,7 +10740,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10748,7 +10778,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10786,7 +10816,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10824,7 +10854,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10862,7 +10892,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10900,7 +10930,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10938,7 +10968,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10976,7 +11006,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11014,7 +11044,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11052,7 +11082,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11090,7 +11120,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11128,7 +11158,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11166,7 +11196,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11204,7 +11234,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11242,7 +11272,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11280,7 +11310,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11318,7 +11348,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11356,7 +11386,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11394,7 +11424,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11432,7 +11462,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11470,7 +11500,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11508,7 +11538,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11546,7 +11576,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11584,7 +11614,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11622,7 +11652,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11660,7 +11690,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11698,7 +11728,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11736,7 +11766,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11774,7 +11804,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11812,7 +11842,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11850,7 +11880,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11888,7 +11918,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11926,7 +11956,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11964,7 +11994,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12002,7 +12032,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12040,7 +12070,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12078,7 +12108,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12116,7 +12146,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12154,7 +12184,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12192,7 +12222,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12230,7 +12260,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12268,7 +12298,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12306,7 +12336,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12344,7 +12374,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12382,7 +12412,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12420,7 +12450,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12458,7 +12488,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12496,7 +12526,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12534,7 +12564,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12572,7 +12602,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12610,7 +12640,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12648,7 +12678,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12686,7 +12716,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12724,7 +12754,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12762,7 +12792,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12800,7 +12830,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12838,7 +12868,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12876,7 +12906,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12914,7 +12944,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12952,7 +12982,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -12990,7 +13020,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13028,7 +13058,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13066,7 +13096,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13104,7 +13134,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13142,7 +13172,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13180,7 +13210,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13218,7 +13248,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13256,7 +13286,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13294,7 +13324,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13332,7 +13362,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13370,7 +13400,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13408,7 +13438,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13446,7 +13476,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13484,7 +13514,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13522,7 +13552,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13560,7 +13590,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13598,7 +13628,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13636,7 +13666,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13674,7 +13704,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13712,7 +13742,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13750,7 +13780,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13788,7 +13818,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13826,7 +13856,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13864,7 +13894,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13902,7 +13932,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13940,7 +13970,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -13978,7 +14008,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14016,7 +14046,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14054,7 +14084,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14092,7 +14122,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14130,7 +14160,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14168,7 +14198,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14206,7 +14236,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14244,7 +14274,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14282,7 +14312,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14320,7 +14350,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14358,7 +14388,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14396,7 +14426,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14434,7 +14464,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14472,7 +14502,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14510,7 +14540,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14548,7 +14578,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14586,7 +14616,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14624,7 +14654,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14662,7 +14692,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14700,7 +14730,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14738,7 +14768,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14776,7 +14806,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14814,7 +14844,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14852,7 +14882,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14890,7 +14920,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14928,7 +14958,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14966,7 +14996,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15004,7 +15034,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15042,7 +15072,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15080,7 +15110,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15118,7 +15148,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15156,7 +15186,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15194,7 +15224,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15232,7 +15262,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15270,7 +15300,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15308,7 +15338,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15346,7 +15376,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15384,7 +15414,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15422,7 +15452,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15460,7 +15490,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15498,7 +15528,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15536,7 +15566,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15574,7 +15604,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15612,7 +15642,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15650,7 +15680,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15688,7 +15718,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15726,7 +15756,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15764,7 +15794,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15802,7 +15832,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15840,7 +15870,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15878,7 +15908,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15916,7 +15946,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15954,7 +15984,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -15992,7 +16022,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16030,7 +16060,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16068,7 +16098,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16106,7 +16136,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16144,7 +16174,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16182,7 +16212,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16220,7 +16250,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16258,7 +16288,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16296,7 +16326,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16334,7 +16364,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16372,7 +16402,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16410,7 +16440,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16448,7 +16478,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16486,7 +16516,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16524,7 +16554,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16562,7 +16592,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16600,7 +16630,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16638,7 +16668,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16676,7 +16706,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16714,7 +16744,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16752,7 +16782,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16790,7 +16820,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16828,7 +16858,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16866,7 +16896,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16904,7 +16934,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16942,7 +16972,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -16980,7 +17010,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17018,7 +17048,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17056,7 +17086,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17094,7 +17124,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17132,7 +17162,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17170,7 +17200,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17208,7 +17238,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17246,7 +17276,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17284,7 +17314,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17322,7 +17352,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17360,7 +17390,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17398,7 +17428,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17436,7 +17466,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17474,7 +17504,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17512,7 +17542,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17550,7 +17580,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17588,7 +17618,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17626,7 +17656,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17664,7 +17694,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17702,7 +17732,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17740,7 +17770,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17778,7 +17808,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17816,7 +17846,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17854,7 +17884,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17892,7 +17922,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17930,7 +17960,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17968,7 +17998,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18006,7 +18036,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18044,7 +18074,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18082,7 +18112,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18120,7 +18150,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18158,7 +18188,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18196,7 +18226,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18234,7 +18264,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18272,7 +18302,7 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18310,7 +18340,7 @@
         <v>13.2</v>
       </c>
       <c r="L436" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18348,7 +18378,7 @@
         <v>10.86</v>
       </c>
       <c r="L437" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18386,7 +18416,7 @@
         <v>11.4</v>
       </c>
       <c r="L438" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18424,7 +18454,7 @@
         <v>12.23</v>
       </c>
       <c r="L439" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18462,7 +18492,7 @@
         <v>11.29</v>
       </c>
       <c r="L440" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18500,7 +18530,7 @@
         <v>12.68</v>
       </c>
       <c r="L441" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18538,7 +18568,7 @@
         <v>9.08</v>
       </c>
       <c r="L442" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18576,7 +18606,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L443" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18614,7 +18644,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="L444" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18652,7 +18682,7 @@
         <v>13.33</v>
       </c>
       <c r="L445" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18690,7 +18720,387 @@
         <v>15.62</v>
       </c>
       <c r="L446" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
         <v>456</v>
+      </c>
+      <c r="C447">
+        <v>12.91</v>
+      </c>
+      <c r="D447">
+        <v>54.74</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>-23.01</v>
+      </c>
+      <c r="G447">
+        <v>59.52</v>
+      </c>
+      <c r="H447">
+        <v>-29.62</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>49.47</v>
+      </c>
+      <c r="K447">
+        <v>15.14</v>
+      </c>
+      <c r="L447" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>457</v>
+      </c>
+      <c r="C448">
+        <v>12.91</v>
+      </c>
+      <c r="D448">
+        <v>53.53</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>-20.88</v>
+      </c>
+      <c r="G448">
+        <v>64.39</v>
+      </c>
+      <c r="H448">
+        <v>-27.89</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>49.02</v>
+      </c>
+      <c r="K448">
+        <v>15.56</v>
+      </c>
+      <c r="L448" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>458</v>
+      </c>
+      <c r="C449">
+        <v>12.91</v>
+      </c>
+      <c r="D449">
+        <v>53.08</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>-26.83</v>
+      </c>
+      <c r="G449">
+        <v>58.75</v>
+      </c>
+      <c r="H449">
+        <v>-33.53</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>48.93</v>
+      </c>
+      <c r="K449">
+        <v>19.01</v>
+      </c>
+      <c r="L449" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>459</v>
+      </c>
+      <c r="C450">
+        <v>12.89</v>
+      </c>
+      <c r="D450">
+        <v>53.86</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>-14.98</v>
+      </c>
+      <c r="G450">
+        <v>65.22</v>
+      </c>
+      <c r="H450">
+        <v>-22.32</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>54.02</v>
+      </c>
+      <c r="K450">
+        <v>14.97</v>
+      </c>
+      <c r="L450" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>460</v>
+      </c>
+      <c r="C451">
+        <v>12.89</v>
+      </c>
+      <c r="D451">
+        <v>54.86</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>-17.68</v>
+      </c>
+      <c r="G451">
+        <v>85.37</v>
+      </c>
+      <c r="H451">
+        <v>-24.63</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>59.88</v>
+      </c>
+      <c r="K451">
+        <v>13.85</v>
+      </c>
+      <c r="L451" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>461</v>
+      </c>
+      <c r="C452">
+        <v>12.9</v>
+      </c>
+      <c r="D452">
+        <v>55.23</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>-16.47</v>
+      </c>
+      <c r="G452">
+        <v>73.98</v>
+      </c>
+      <c r="H452">
+        <v>-23.43</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>52.39</v>
+      </c>
+      <c r="K452">
+        <v>13.11</v>
+      </c>
+      <c r="L452" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>462</v>
+      </c>
+      <c r="C453">
+        <v>12.88</v>
+      </c>
+      <c r="D453">
+        <v>55.68</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>-15.28</v>
+      </c>
+      <c r="G453">
+        <v>63.46</v>
+      </c>
+      <c r="H453">
+        <v>-22.22</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>59.84</v>
+      </c>
+      <c r="K453">
+        <v>15.73</v>
+      </c>
+      <c r="L453" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>463</v>
+      </c>
+      <c r="C454">
+        <v>12.89</v>
+      </c>
+      <c r="D454">
+        <v>56.29</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>-14.91</v>
+      </c>
+      <c r="G454">
+        <v>61.03</v>
+      </c>
+      <c r="H454">
+        <v>-21.75</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>52.03</v>
+      </c>
+      <c r="K454">
+        <v>14.01</v>
+      </c>
+      <c r="L454" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>464</v>
+      </c>
+      <c r="C455">
+        <v>12.88</v>
+      </c>
+      <c r="D455">
+        <v>55.74</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>-15.3</v>
+      </c>
+      <c r="G455">
+        <v>63.33</v>
+      </c>
+      <c r="H455">
+        <v>-22.23</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>51.13</v>
+      </c>
+      <c r="K455">
+        <v>16.01</v>
+      </c>
+      <c r="L455" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>465</v>
+      </c>
+      <c r="C456">
+        <v>12.86</v>
+      </c>
+      <c r="D456">
+        <v>55.08</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>-14.72</v>
+      </c>
+      <c r="G456">
+        <v>70.36</v>
+      </c>
+      <c r="H456">
+        <v>-21.82</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>52.69</v>
+      </c>
+      <c r="K456">
+        <v>14.08</v>
+      </c>
+      <c r="L456" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="476">
   <si>
     <t>Fecha</t>
   </si>
@@ -1412,6 +1412,33 @@
   </si>
   <si>
     <t>11/17/2020 3:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:10:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1772,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L456"/>
+  <dimension ref="A1:L465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1875,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1886,7 +1913,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1924,7 +1951,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1962,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2000,7 +2027,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2038,7 +2065,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2076,7 +2103,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2114,7 +2141,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2152,7 +2179,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2190,7 +2217,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2228,7 +2255,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2266,7 +2293,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2304,7 +2331,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2342,7 +2369,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2380,7 +2407,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2418,7 +2445,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2456,7 +2483,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2494,7 +2521,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2532,7 +2559,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2570,7 +2597,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2608,7 +2635,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2646,7 +2673,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2684,7 +2711,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2722,7 +2749,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2760,7 +2787,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2798,7 +2825,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2836,7 +2863,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2874,7 +2901,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2912,7 +2939,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2950,7 +2977,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2988,7 +3015,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3026,7 +3053,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3064,7 +3091,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3102,7 +3129,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3140,7 +3167,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3178,7 +3205,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3216,7 +3243,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3254,7 +3281,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3292,7 +3319,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3330,7 +3357,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3368,7 +3395,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3406,7 +3433,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3444,7 +3471,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3482,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3520,7 +3547,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3558,7 +3585,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3596,7 +3623,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3634,7 +3661,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3672,7 +3699,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3710,7 +3737,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3748,7 +3775,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3786,7 +3813,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3824,7 +3851,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3862,7 +3889,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3900,7 +3927,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3938,7 +3965,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3976,7 +4003,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4014,7 +4041,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4052,7 +4079,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4090,7 +4117,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4128,7 +4155,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4166,7 +4193,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4204,7 +4231,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4242,7 +4269,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4280,7 +4307,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4318,7 +4345,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4356,7 +4383,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4394,7 +4421,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4432,7 +4459,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4470,7 +4497,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4508,7 +4535,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4546,7 +4573,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4584,7 +4611,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4622,7 +4649,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4660,7 +4687,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4698,7 +4725,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4736,7 +4763,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4774,7 +4801,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4812,7 +4839,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4850,7 +4877,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4888,7 +4915,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4926,7 +4953,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4964,7 +4991,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5002,7 +5029,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5040,7 +5067,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5078,7 +5105,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5116,7 +5143,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5154,7 +5181,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5192,7 +5219,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5230,7 +5257,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5268,7 +5295,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5306,7 +5333,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5344,7 +5371,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5382,7 +5409,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5420,7 +5447,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5458,7 +5485,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5496,7 +5523,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5534,7 +5561,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5572,7 +5599,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5610,7 +5637,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5648,7 +5675,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5686,7 +5713,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5724,7 +5751,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5762,7 +5789,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5800,7 +5827,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5838,7 +5865,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5876,7 +5903,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5914,7 +5941,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5952,7 +5979,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5990,7 +6017,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6028,7 +6055,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6066,7 +6093,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6104,7 +6131,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6142,7 +6169,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6180,7 +6207,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6218,7 +6245,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6256,7 +6283,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6294,7 +6321,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6332,7 +6359,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6370,7 +6397,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6408,7 +6435,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6446,7 +6473,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6484,7 +6511,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6522,7 +6549,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6560,7 +6587,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6598,7 +6625,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6636,7 +6663,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6674,7 +6701,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6712,7 +6739,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6750,7 +6777,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6788,7 +6815,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6826,7 +6853,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6864,7 +6891,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6902,7 +6929,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6940,7 +6967,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6978,7 +7005,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7016,7 +7043,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7054,7 +7081,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7092,7 +7119,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7130,7 +7157,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7168,7 +7195,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7206,7 +7233,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7244,7 +7271,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7282,7 +7309,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7320,7 +7347,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7358,7 +7385,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7396,7 +7423,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7434,7 +7461,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7472,7 +7499,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7510,7 +7537,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7548,7 +7575,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7586,7 +7613,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7624,7 +7651,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7662,7 +7689,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7700,7 +7727,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7738,7 +7765,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7776,7 +7803,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7814,7 +7841,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7852,7 +7879,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7890,7 +7917,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7928,7 +7955,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7966,7 +7993,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8004,7 +8031,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8042,7 +8069,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8080,7 +8107,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8118,7 +8145,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8156,7 +8183,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8194,7 +8221,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8232,7 +8259,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8270,7 +8297,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8308,7 +8335,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8346,7 +8373,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8384,7 +8411,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8422,7 +8449,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8460,7 +8487,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8498,7 +8525,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8536,7 +8563,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8574,7 +8601,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8612,7 +8639,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8650,7 +8677,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8688,7 +8715,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8726,7 +8753,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8764,7 +8791,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8802,7 +8829,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8840,7 +8867,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8878,7 +8905,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8916,7 +8943,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8954,7 +8981,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8992,7 +9019,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9030,7 +9057,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9068,7 +9095,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9106,7 +9133,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9144,7 +9171,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9182,7 +9209,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9220,7 +9247,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9258,7 +9285,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9296,7 +9323,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9334,7 +9361,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9372,7 +9399,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9410,7 +9437,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9448,7 +9475,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9486,7 +9513,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9524,7 +9551,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9562,7 +9589,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9600,7 +9627,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9638,7 +9665,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9676,7 +9703,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9714,7 +9741,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9752,7 +9779,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9790,7 +9817,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9828,7 +9855,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9866,7 +9893,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9904,7 +9931,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9942,7 +9969,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9980,7 +10007,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10018,7 +10045,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10056,7 +10083,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10094,7 +10121,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10132,7 +10159,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10170,7 +10197,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10208,7 +10235,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10246,7 +10273,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10284,7 +10311,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10322,7 +10349,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10360,7 +10387,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10398,7 +10425,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10436,7 +10463,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10474,7 +10501,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10512,7 +10539,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10550,7 +10577,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10588,7 +10615,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10626,7 +10653,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10664,7 +10691,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10702,7 +10729,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10740,7 +10767,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10778,7 +10805,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10816,7 +10843,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10854,7 +10881,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10892,7 +10919,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10930,7 +10957,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10968,7 +10995,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11006,7 +11033,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11044,7 +11071,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11082,7 +11109,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11120,7 +11147,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11158,7 +11185,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11196,7 +11223,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11234,7 +11261,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11272,7 +11299,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11310,7 +11337,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11348,7 +11375,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11386,7 +11413,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11424,7 +11451,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11462,7 +11489,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11500,7 +11527,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11538,7 +11565,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11576,7 +11603,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11614,7 +11641,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11652,7 +11679,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11690,7 +11717,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11728,7 +11755,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11766,7 +11793,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11804,7 +11831,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11842,7 +11869,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11880,7 +11907,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11918,7 +11945,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11956,7 +11983,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11994,7 +12021,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12032,7 +12059,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12070,7 +12097,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12108,7 +12135,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12146,7 +12173,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12184,7 +12211,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12222,7 +12249,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12260,7 +12287,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12298,7 +12325,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12336,7 +12363,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12374,7 +12401,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12412,7 +12439,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12450,7 +12477,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12488,7 +12515,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12526,7 +12553,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12564,7 +12591,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12602,7 +12629,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12640,7 +12667,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12678,7 +12705,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12716,7 +12743,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12754,7 +12781,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12792,7 +12819,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12830,7 +12857,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12868,7 +12895,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12906,7 +12933,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12944,7 +12971,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -12982,7 +13009,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13020,7 +13047,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13058,7 +13085,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13096,7 +13123,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13134,7 +13161,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13172,7 +13199,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13210,7 +13237,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13248,7 +13275,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13286,7 +13313,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13324,7 +13351,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13362,7 +13389,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13400,7 +13427,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13438,7 +13465,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13476,7 +13503,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13514,7 +13541,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13552,7 +13579,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13590,7 +13617,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13628,7 +13655,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13666,7 +13693,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13704,7 +13731,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13742,7 +13769,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13780,7 +13807,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13818,7 +13845,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13856,7 +13883,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13894,7 +13921,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13932,7 +13959,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13970,7 +13997,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14008,7 +14035,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14046,7 +14073,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14084,7 +14111,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14122,7 +14149,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14160,7 +14187,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14198,7 +14225,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14236,7 +14263,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14274,7 +14301,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14312,7 +14339,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14350,7 +14377,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14388,7 +14415,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14426,7 +14453,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14464,7 +14491,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14502,7 +14529,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14540,7 +14567,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14578,7 +14605,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14616,7 +14643,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14654,7 +14681,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14692,7 +14719,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14730,7 +14757,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14768,7 +14795,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14806,7 +14833,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14844,7 +14871,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14882,7 +14909,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14920,7 +14947,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14958,7 +14985,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -14996,7 +15023,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15034,7 +15061,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15072,7 +15099,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15110,7 +15137,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15148,7 +15175,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15186,7 +15213,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15224,7 +15251,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15262,7 +15289,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15300,7 +15327,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15338,7 +15365,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15376,7 +15403,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15414,7 +15441,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15452,7 +15479,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15490,7 +15517,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15528,7 +15555,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15566,7 +15593,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15604,7 +15631,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15642,7 +15669,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15680,7 +15707,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15718,7 +15745,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15756,7 +15783,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15794,7 +15821,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15832,7 +15859,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15870,7 +15897,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15908,7 +15935,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15946,7 +15973,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -15984,7 +16011,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16022,7 +16049,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16060,7 +16087,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16098,7 +16125,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16136,7 +16163,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16174,7 +16201,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16212,7 +16239,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16250,7 +16277,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16288,7 +16315,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16326,7 +16353,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16364,7 +16391,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16402,7 +16429,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16440,7 +16467,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16478,7 +16505,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16516,7 +16543,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16554,7 +16581,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16592,7 +16619,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16630,7 +16657,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16668,7 +16695,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16706,7 +16733,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16744,7 +16771,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16782,7 +16809,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16820,7 +16847,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16858,7 +16885,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16896,7 +16923,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16934,7 +16961,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16972,7 +16999,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17010,7 +17037,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17048,7 +17075,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17086,7 +17113,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17124,7 +17151,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17162,7 +17189,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17200,7 +17227,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17238,7 +17265,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17276,7 +17303,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17314,7 +17341,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17352,7 +17379,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17390,7 +17417,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17428,7 +17455,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17466,7 +17493,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17504,7 +17531,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17542,7 +17569,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17580,7 +17607,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17618,7 +17645,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17656,7 +17683,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17694,7 +17721,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17732,7 +17759,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17770,7 +17797,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17808,7 +17835,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17846,7 +17873,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17884,7 +17911,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17922,7 +17949,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17960,7 +17987,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -17998,7 +18025,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18036,7 +18063,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18074,7 +18101,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18112,7 +18139,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18150,7 +18177,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18188,7 +18215,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18226,7 +18253,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18264,7 +18291,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18302,7 +18329,7 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18340,7 +18367,7 @@
         <v>13.2</v>
       </c>
       <c r="L436" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18378,7 +18405,7 @@
         <v>10.86</v>
       </c>
       <c r="L437" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18416,7 +18443,7 @@
         <v>11.4</v>
       </c>
       <c r="L438" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18454,7 +18481,7 @@
         <v>12.23</v>
       </c>
       <c r="L439" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18492,7 +18519,7 @@
         <v>11.29</v>
       </c>
       <c r="L440" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18530,7 +18557,7 @@
         <v>12.68</v>
       </c>
       <c r="L441" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18568,7 +18595,7 @@
         <v>9.08</v>
       </c>
       <c r="L442" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18606,7 +18633,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L443" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18644,7 +18671,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="L444" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18682,7 +18709,7 @@
         <v>13.33</v>
       </c>
       <c r="L445" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18720,7 +18747,7 @@
         <v>15.62</v>
       </c>
       <c r="L446" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18758,7 +18785,7 @@
         <v>15.14</v>
       </c>
       <c r="L447" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18796,7 +18823,7 @@
         <v>15.56</v>
       </c>
       <c r="L448" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18834,7 +18861,7 @@
         <v>19.01</v>
       </c>
       <c r="L449" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18872,7 +18899,7 @@
         <v>14.97</v>
       </c>
       <c r="L450" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18910,7 +18937,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18948,7 +18975,7 @@
         <v>13.11</v>
       </c>
       <c r="L452" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -18986,7 +19013,7 @@
         <v>15.73</v>
       </c>
       <c r="L453" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19024,7 +19051,7 @@
         <v>14.01</v>
       </c>
       <c r="L454" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19062,7 +19089,7 @@
         <v>16.01</v>
       </c>
       <c r="L455" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19100,7 +19127,349 @@
         <v>14.08</v>
       </c>
       <c r="L456" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
         <v>466</v>
+      </c>
+      <c r="C457">
+        <v>12.88</v>
+      </c>
+      <c r="D457">
+        <v>57.09</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>-15.1</v>
+      </c>
+      <c r="G457">
+        <v>82.92</v>
+      </c>
+      <c r="H457">
+        <v>-21.77</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>51.22</v>
+      </c>
+      <c r="K457">
+        <v>11.87</v>
+      </c>
+      <c r="L457" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>467</v>
+      </c>
+      <c r="C458">
+        <v>12.88</v>
+      </c>
+      <c r="D458">
+        <v>58.12</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>-13.9</v>
+      </c>
+      <c r="G458">
+        <v>94.08</v>
+      </c>
+      <c r="H458">
+        <v>-20.43</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>53.99</v>
+      </c>
+      <c r="K458">
+        <v>10.31</v>
+      </c>
+      <c r="L458" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>468</v>
+      </c>
+      <c r="C459">
+        <v>12.86</v>
+      </c>
+      <c r="D459">
+        <v>58.81</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+      <c r="F459">
+        <v>-14.27</v>
+      </c>
+      <c r="G459">
+        <v>85.29000000000001</v>
+      </c>
+      <c r="H459">
+        <v>-20.64</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>53.62</v>
+      </c>
+      <c r="K459">
+        <v>10.44</v>
+      </c>
+      <c r="L459" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>469</v>
+      </c>
+      <c r="C460">
+        <v>12.87</v>
+      </c>
+      <c r="D460">
+        <v>58.86</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>-14.49</v>
+      </c>
+      <c r="G460">
+        <v>75.34999999999999</v>
+      </c>
+      <c r="H460">
+        <v>-20.85</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>49.38</v>
+      </c>
+      <c r="K460">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="L460" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>470</v>
+      </c>
+      <c r="C461">
+        <v>12.86</v>
+      </c>
+      <c r="D461">
+        <v>57.84</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>-13.93</v>
+      </c>
+      <c r="G461">
+        <v>88.69</v>
+      </c>
+      <c r="H461">
+        <v>-20.52</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>50.24</v>
+      </c>
+      <c r="K461">
+        <v>10.35</v>
+      </c>
+      <c r="L461" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>471</v>
+      </c>
+      <c r="C462">
+        <v>12.84</v>
+      </c>
+      <c r="D462">
+        <v>58.18</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>-13.03</v>
+      </c>
+      <c r="G462">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="H462">
+        <v>-19.61</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>50.5</v>
+      </c>
+      <c r="K462">
+        <v>10.17</v>
+      </c>
+      <c r="L462" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>472</v>
+      </c>
+      <c r="C463">
+        <v>12.85</v>
+      </c>
+      <c r="D463">
+        <v>56.18</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>-14.09</v>
+      </c>
+      <c r="G463">
+        <v>56.35</v>
+      </c>
+      <c r="H463">
+        <v>-21</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>53.8</v>
+      </c>
+      <c r="K463">
+        <v>11.77</v>
+      </c>
+      <c r="L463" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>473</v>
+      </c>
+      <c r="C464">
+        <v>12.85</v>
+      </c>
+      <c r="D464">
+        <v>55.27</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>-13.78</v>
+      </c>
+      <c r="G464">
+        <v>69.47</v>
+      </c>
+      <c r="H464">
+        <v>-20.91</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>51.54</v>
+      </c>
+      <c r="K464">
+        <v>9.67</v>
+      </c>
+      <c r="L464" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>474</v>
+      </c>
+      <c r="C465">
+        <v>12.85</v>
+      </c>
+      <c r="D465">
+        <v>54.94</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>-13.78</v>
+      </c>
+      <c r="G465">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="H465">
+        <v>-20.97</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>54.5</v>
+      </c>
+      <c r="K465">
+        <v>10.92</v>
+      </c>
+      <c r="L465" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="485">
   <si>
     <t>Fecha</t>
   </si>
@@ -1439,6 +1439,33 @@
   </si>
   <si>
     <t>11/17/2020 5:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:40:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1799,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L465"/>
+  <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1875,7 +1902,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1913,7 +1940,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1951,7 +1978,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1989,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2027,7 +2054,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2065,7 +2092,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2103,7 +2130,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2141,7 +2168,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2179,7 +2206,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2217,7 +2244,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2255,7 +2282,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2293,7 +2320,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2331,7 +2358,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2369,7 +2396,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2407,7 +2434,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2445,7 +2472,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2483,7 +2510,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2521,7 +2548,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2559,7 +2586,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2597,7 +2624,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2635,7 +2662,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2673,7 +2700,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2711,7 +2738,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2749,7 +2776,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2787,7 +2814,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2825,7 +2852,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2863,7 +2890,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2901,7 +2928,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2939,7 +2966,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2977,7 +3004,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3015,7 +3042,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3053,7 +3080,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3091,7 +3118,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3129,7 +3156,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3167,7 +3194,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3205,7 +3232,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3243,7 +3270,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3281,7 +3308,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3319,7 +3346,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3357,7 +3384,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3395,7 +3422,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3433,7 +3460,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3471,7 +3498,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3509,7 +3536,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3547,7 +3574,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3585,7 +3612,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3623,7 +3650,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3661,7 +3688,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3699,7 +3726,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3737,7 +3764,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3775,7 +3802,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3813,7 +3840,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3851,7 +3878,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3889,7 +3916,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3927,7 +3954,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3965,7 +3992,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4003,7 +4030,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4041,7 +4068,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4079,7 +4106,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4117,7 +4144,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4155,7 +4182,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4193,7 +4220,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4231,7 +4258,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4269,7 +4296,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4307,7 +4334,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4345,7 +4372,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4383,7 +4410,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4421,7 +4448,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4459,7 +4486,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4497,7 +4524,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4535,7 +4562,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4573,7 +4600,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4611,7 +4638,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4649,7 +4676,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4687,7 +4714,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4725,7 +4752,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4763,7 +4790,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4801,7 +4828,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4839,7 +4866,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4877,7 +4904,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4915,7 +4942,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4953,7 +4980,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4991,7 +5018,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5029,7 +5056,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5067,7 +5094,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5105,7 +5132,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5143,7 +5170,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5181,7 +5208,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5219,7 +5246,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5257,7 +5284,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5295,7 +5322,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5333,7 +5360,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5371,7 +5398,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5409,7 +5436,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5447,7 +5474,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5485,7 +5512,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5523,7 +5550,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5561,7 +5588,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5599,7 +5626,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5637,7 +5664,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5675,7 +5702,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5713,7 +5740,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5751,7 +5778,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5789,7 +5816,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5827,7 +5854,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5865,7 +5892,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5903,7 +5930,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5941,7 +5968,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5979,7 +6006,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6017,7 +6044,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6055,7 +6082,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6093,7 +6120,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6131,7 +6158,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6169,7 +6196,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6207,7 +6234,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6245,7 +6272,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6283,7 +6310,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6321,7 +6348,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6359,7 +6386,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6397,7 +6424,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6435,7 +6462,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6473,7 +6500,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6511,7 +6538,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6549,7 +6576,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6587,7 +6614,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6625,7 +6652,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6663,7 +6690,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6701,7 +6728,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6739,7 +6766,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6777,7 +6804,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6815,7 +6842,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6853,7 +6880,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6891,7 +6918,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6929,7 +6956,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6967,7 +6994,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7005,7 +7032,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7043,7 +7070,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7081,7 +7108,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7119,7 +7146,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7157,7 +7184,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7195,7 +7222,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7233,7 +7260,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7271,7 +7298,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7309,7 +7336,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7347,7 +7374,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7385,7 +7412,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7423,7 +7450,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7461,7 +7488,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7499,7 +7526,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7537,7 +7564,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7575,7 +7602,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7613,7 +7640,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7651,7 +7678,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7689,7 +7716,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7727,7 +7754,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7765,7 +7792,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7803,7 +7830,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7841,7 +7868,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7879,7 +7906,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7917,7 +7944,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7955,7 +7982,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -7993,7 +8020,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8031,7 +8058,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8069,7 +8096,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8107,7 +8134,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8145,7 +8172,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8183,7 +8210,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8221,7 +8248,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8259,7 +8286,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8297,7 +8324,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8335,7 +8362,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8373,7 +8400,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8411,7 +8438,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8449,7 +8476,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8487,7 +8514,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8525,7 +8552,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8563,7 +8590,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8601,7 +8628,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8639,7 +8666,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8677,7 +8704,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8715,7 +8742,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8753,7 +8780,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8791,7 +8818,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8829,7 +8856,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8867,7 +8894,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8905,7 +8932,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8943,7 +8970,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8981,7 +9008,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9019,7 +9046,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9057,7 +9084,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9095,7 +9122,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9133,7 +9160,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9171,7 +9198,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9209,7 +9236,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9247,7 +9274,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9285,7 +9312,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9323,7 +9350,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9361,7 +9388,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9399,7 +9426,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9437,7 +9464,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9475,7 +9502,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9513,7 +9540,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9551,7 +9578,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9589,7 +9616,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9627,7 +9654,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9665,7 +9692,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9703,7 +9730,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9741,7 +9768,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9779,7 +9806,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9817,7 +9844,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9855,7 +9882,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9893,7 +9920,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9931,7 +9958,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9969,7 +9996,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10007,7 +10034,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10045,7 +10072,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10083,7 +10110,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10121,7 +10148,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10159,7 +10186,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10197,7 +10224,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10235,7 +10262,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10273,7 +10300,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10311,7 +10338,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10349,7 +10376,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10387,7 +10414,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10425,7 +10452,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10463,7 +10490,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10501,7 +10528,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10539,7 +10566,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10577,7 +10604,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10615,7 +10642,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10653,7 +10680,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10691,7 +10718,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10729,7 +10756,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10767,7 +10794,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10805,7 +10832,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10843,7 +10870,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10881,7 +10908,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10919,7 +10946,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10957,7 +10984,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -10995,7 +11022,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11033,7 +11060,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11071,7 +11098,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11109,7 +11136,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11147,7 +11174,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11185,7 +11212,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11223,7 +11250,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11261,7 +11288,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11299,7 +11326,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11337,7 +11364,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11375,7 +11402,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11413,7 +11440,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11451,7 +11478,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11489,7 +11516,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11527,7 +11554,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11565,7 +11592,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11603,7 +11630,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11641,7 +11668,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11679,7 +11706,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11717,7 +11744,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11755,7 +11782,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11793,7 +11820,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11831,7 +11858,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11869,7 +11896,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11907,7 +11934,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11945,7 +11972,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11983,7 +12010,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12021,7 +12048,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12059,7 +12086,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12097,7 +12124,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12135,7 +12162,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12173,7 +12200,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12211,7 +12238,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12249,7 +12276,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12287,7 +12314,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12325,7 +12352,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12363,7 +12390,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12401,7 +12428,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12439,7 +12466,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12477,7 +12504,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12515,7 +12542,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12553,7 +12580,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12591,7 +12618,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12629,7 +12656,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12667,7 +12694,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12705,7 +12732,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12743,7 +12770,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12781,7 +12808,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12819,7 +12846,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12857,7 +12884,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12895,7 +12922,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12933,7 +12960,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12971,7 +12998,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13009,7 +13036,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13047,7 +13074,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13085,7 +13112,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13123,7 +13150,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13161,7 +13188,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13199,7 +13226,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13237,7 +13264,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13275,7 +13302,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13313,7 +13340,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13351,7 +13378,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13389,7 +13416,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13427,7 +13454,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13465,7 +13492,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13503,7 +13530,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13541,7 +13568,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13579,7 +13606,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13617,7 +13644,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13655,7 +13682,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13693,7 +13720,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13731,7 +13758,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13769,7 +13796,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13807,7 +13834,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13845,7 +13872,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13883,7 +13910,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13921,7 +13948,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13959,7 +13986,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -13997,7 +14024,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14035,7 +14062,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14073,7 +14100,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14111,7 +14138,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14149,7 +14176,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14187,7 +14214,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14225,7 +14252,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14263,7 +14290,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14301,7 +14328,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14339,7 +14366,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14377,7 +14404,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14415,7 +14442,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14453,7 +14480,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14491,7 +14518,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14529,7 +14556,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14567,7 +14594,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14605,7 +14632,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14643,7 +14670,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14681,7 +14708,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14719,7 +14746,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14757,7 +14784,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14795,7 +14822,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14833,7 +14860,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14871,7 +14898,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14909,7 +14936,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14947,7 +14974,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -14985,7 +15012,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15023,7 +15050,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15061,7 +15088,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15099,7 +15126,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15137,7 +15164,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15175,7 +15202,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15213,7 +15240,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15251,7 +15278,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15289,7 +15316,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15327,7 +15354,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15365,7 +15392,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15403,7 +15430,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15441,7 +15468,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15479,7 +15506,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15517,7 +15544,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15555,7 +15582,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15593,7 +15620,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15631,7 +15658,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15669,7 +15696,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15707,7 +15734,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15745,7 +15772,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15783,7 +15810,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15821,7 +15848,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15859,7 +15886,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15897,7 +15924,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15935,7 +15962,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -15973,7 +16000,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16011,7 +16038,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16049,7 +16076,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16087,7 +16114,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16125,7 +16152,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16163,7 +16190,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16201,7 +16228,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16239,7 +16266,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16277,7 +16304,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16315,7 +16342,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16353,7 +16380,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16391,7 +16418,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16429,7 +16456,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16467,7 +16494,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16505,7 +16532,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16543,7 +16570,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16581,7 +16608,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16619,7 +16646,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16657,7 +16684,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16695,7 +16722,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16733,7 +16760,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16771,7 +16798,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16809,7 +16836,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16847,7 +16874,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16885,7 +16912,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16923,7 +16950,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16961,7 +16988,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -16999,7 +17026,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17037,7 +17064,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17075,7 +17102,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17113,7 +17140,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17151,7 +17178,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17189,7 +17216,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17227,7 +17254,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17265,7 +17292,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17303,7 +17330,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17341,7 +17368,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17379,7 +17406,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17417,7 +17444,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17455,7 +17482,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17493,7 +17520,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17531,7 +17558,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17569,7 +17596,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17607,7 +17634,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17645,7 +17672,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17683,7 +17710,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17721,7 +17748,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17759,7 +17786,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17797,7 +17824,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17835,7 +17862,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17873,7 +17900,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17911,7 +17938,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17949,7 +17976,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -17987,7 +18014,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18025,7 +18052,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18063,7 +18090,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18101,7 +18128,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18139,7 +18166,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18177,7 +18204,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18215,7 +18242,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18253,7 +18280,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18291,7 +18318,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18329,7 +18356,7 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18367,7 +18394,7 @@
         <v>13.2</v>
       </c>
       <c r="L436" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18405,7 +18432,7 @@
         <v>10.86</v>
       </c>
       <c r="L437" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18443,7 +18470,7 @@
         <v>11.4</v>
       </c>
       <c r="L438" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18481,7 +18508,7 @@
         <v>12.23</v>
       </c>
       <c r="L439" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18519,7 +18546,7 @@
         <v>11.29</v>
       </c>
       <c r="L440" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18557,7 +18584,7 @@
         <v>12.68</v>
       </c>
       <c r="L441" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18595,7 +18622,7 @@
         <v>9.08</v>
       </c>
       <c r="L442" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18633,7 +18660,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L443" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18671,7 +18698,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="L444" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18709,7 +18736,7 @@
         <v>13.33</v>
       </c>
       <c r="L445" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18747,7 +18774,7 @@
         <v>15.62</v>
       </c>
       <c r="L446" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18785,7 +18812,7 @@
         <v>15.14</v>
       </c>
       <c r="L447" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18823,7 +18850,7 @@
         <v>15.56</v>
       </c>
       <c r="L448" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18861,7 +18888,7 @@
         <v>19.01</v>
       </c>
       <c r="L449" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18899,7 +18926,7 @@
         <v>14.97</v>
       </c>
       <c r="L450" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18937,7 +18964,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -18975,7 +19002,7 @@
         <v>13.11</v>
       </c>
       <c r="L452" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19013,7 +19040,7 @@
         <v>15.73</v>
       </c>
       <c r="L453" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19051,7 +19078,7 @@
         <v>14.01</v>
       </c>
       <c r="L454" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19089,7 +19116,7 @@
         <v>16.01</v>
       </c>
       <c r="L455" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19127,7 +19154,7 @@
         <v>14.08</v>
       </c>
       <c r="L456" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19165,7 +19192,7 @@
         <v>11.87</v>
       </c>
       <c r="L457" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19203,7 +19230,7 @@
         <v>10.31</v>
       </c>
       <c r="L458" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19241,7 +19268,7 @@
         <v>10.44</v>
       </c>
       <c r="L459" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19279,7 +19306,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L460" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19317,7 +19344,7 @@
         <v>10.35</v>
       </c>
       <c r="L461" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19355,7 +19382,7 @@
         <v>10.17</v>
       </c>
       <c r="L462" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19393,7 +19420,7 @@
         <v>11.77</v>
       </c>
       <c r="L463" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19431,7 +19458,7 @@
         <v>9.67</v>
       </c>
       <c r="L464" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19469,7 +19496,349 @@
         <v>10.92</v>
       </c>
       <c r="L465" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
         <v>475</v>
+      </c>
+      <c r="C466">
+        <v>12.84</v>
+      </c>
+      <c r="D466">
+        <v>55.32</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>-13.84</v>
+      </c>
+      <c r="G466">
+        <v>69</v>
+      </c>
+      <c r="H466">
+        <v>-20.95</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>47.85</v>
+      </c>
+      <c r="K466">
+        <v>10.66</v>
+      </c>
+      <c r="L466" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>476</v>
+      </c>
+      <c r="C467">
+        <v>12.84</v>
+      </c>
+      <c r="D467">
+        <v>55.49</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>-13.44</v>
+      </c>
+      <c r="G467">
+        <v>68.5</v>
+      </c>
+      <c r="H467">
+        <v>-20.53</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>54.22</v>
+      </c>
+      <c r="K467">
+        <v>11.49</v>
+      </c>
+      <c r="L467" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>477</v>
+      </c>
+      <c r="C468">
+        <v>12.82</v>
+      </c>
+      <c r="D468">
+        <v>55.47</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>-15.17</v>
+      </c>
+      <c r="G468">
+        <v>66.3</v>
+      </c>
+      <c r="H468">
+        <v>-22.17</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>52.68</v>
+      </c>
+      <c r="K468">
+        <v>11.95</v>
+      </c>
+      <c r="L468" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>478</v>
+      </c>
+      <c r="C469">
+        <v>12.83</v>
+      </c>
+      <c r="D469">
+        <v>55.54</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>-13.73</v>
+      </c>
+      <c r="G469">
+        <v>63.13</v>
+      </c>
+      <c r="H469">
+        <v>-20.8</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>49.4</v>
+      </c>
+      <c r="K469">
+        <v>11.12</v>
+      </c>
+      <c r="L469" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470">
+        <v>12.83</v>
+      </c>
+      <c r="D470">
+        <v>55.94</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>-14.4</v>
+      </c>
+      <c r="G470">
+        <v>65.12</v>
+      </c>
+      <c r="H470">
+        <v>-21.34</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>47.6</v>
+      </c>
+      <c r="K470">
+        <v>9.81</v>
+      </c>
+      <c r="L470" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>480</v>
+      </c>
+      <c r="C471">
+        <v>12.81</v>
+      </c>
+      <c r="D471">
+        <v>55.81</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>-14.58</v>
+      </c>
+      <c r="G471">
+        <v>68.25</v>
+      </c>
+      <c r="H471">
+        <v>-21.54</v>
+      </c>
+      <c r="I471">
+        <v>-0.01</v>
+      </c>
+      <c r="J471">
+        <v>53.49</v>
+      </c>
+      <c r="K471">
+        <v>10.7</v>
+      </c>
+      <c r="L471" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>481</v>
+      </c>
+      <c r="C472">
+        <v>12.85</v>
+      </c>
+      <c r="D472">
+        <v>55.05</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>-14.59</v>
+      </c>
+      <c r="G472">
+        <v>62.96</v>
+      </c>
+      <c r="H472">
+        <v>-21.71</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>50.98</v>
+      </c>
+      <c r="K472">
+        <v>11.84</v>
+      </c>
+      <c r="L472" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>482</v>
+      </c>
+      <c r="C473">
+        <v>12.97</v>
+      </c>
+      <c r="D473">
+        <v>53.93</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>-13.77</v>
+      </c>
+      <c r="G473">
+        <v>57.23</v>
+      </c>
+      <c r="H473">
+        <v>-21.18</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>54.9</v>
+      </c>
+      <c r="K473">
+        <v>13.45</v>
+      </c>
+      <c r="L473" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474">
+        <v>13.17</v>
+      </c>
+      <c r="D474">
+        <v>53.39</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>-12.68</v>
+      </c>
+      <c r="G474">
+        <v>60.95</v>
+      </c>
+      <c r="H474">
+        <v>-20.28</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>54.28</v>
+      </c>
+      <c r="K474">
+        <v>14.44</v>
+      </c>
+      <c r="L474" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
   <si>
     <t>Fecha</t>
   </si>
@@ -1466,6 +1466,33 @@
   </si>
   <si>
     <t>11/17/2020 6:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:10:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1826,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L474"/>
+  <dimension ref="A1:L483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,7 +1929,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1940,7 +1967,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1978,7 +2005,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2016,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2054,7 +2081,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2092,7 +2119,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2130,7 +2157,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2168,7 +2195,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2206,7 +2233,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2244,7 +2271,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2282,7 +2309,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2320,7 +2347,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2358,7 +2385,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2396,7 +2423,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2434,7 +2461,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2472,7 +2499,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2510,7 +2537,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2548,7 +2575,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2586,7 +2613,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2624,7 +2651,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2662,7 +2689,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2700,7 +2727,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2738,7 +2765,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2776,7 +2803,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2814,7 +2841,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2852,7 +2879,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2890,7 +2917,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2928,7 +2955,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2966,7 +2993,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3004,7 +3031,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3042,7 +3069,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3080,7 +3107,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3118,7 +3145,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3156,7 +3183,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3194,7 +3221,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3232,7 +3259,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3270,7 +3297,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3308,7 +3335,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3346,7 +3373,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3384,7 +3411,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3422,7 +3449,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3460,7 +3487,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3498,7 +3525,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3536,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3574,7 +3601,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3612,7 +3639,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3650,7 +3677,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3688,7 +3715,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3726,7 +3753,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3764,7 +3791,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3802,7 +3829,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3840,7 +3867,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3878,7 +3905,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3916,7 +3943,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3954,7 +3981,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3992,7 +4019,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4030,7 +4057,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4068,7 +4095,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4106,7 +4133,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4144,7 +4171,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4182,7 +4209,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4220,7 +4247,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4258,7 +4285,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4296,7 +4323,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4334,7 +4361,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4372,7 +4399,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4410,7 +4437,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4448,7 +4475,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4486,7 +4513,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4524,7 +4551,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4562,7 +4589,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4600,7 +4627,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4638,7 +4665,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4676,7 +4703,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4714,7 +4741,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4752,7 +4779,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4790,7 +4817,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4828,7 +4855,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4866,7 +4893,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4904,7 +4931,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4942,7 +4969,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4980,7 +5007,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5018,7 +5045,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5056,7 +5083,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5094,7 +5121,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5132,7 +5159,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5170,7 +5197,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5208,7 +5235,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5246,7 +5273,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5284,7 +5311,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5322,7 +5349,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5360,7 +5387,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5398,7 +5425,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5436,7 +5463,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5474,7 +5501,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5512,7 +5539,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5550,7 +5577,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5588,7 +5615,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5626,7 +5653,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5664,7 +5691,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5702,7 +5729,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5740,7 +5767,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5778,7 +5805,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5816,7 +5843,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5854,7 +5881,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5892,7 +5919,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5930,7 +5957,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5968,7 +5995,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6006,7 +6033,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6044,7 +6071,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6082,7 +6109,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6120,7 +6147,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6158,7 +6185,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6196,7 +6223,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6234,7 +6261,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6272,7 +6299,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6310,7 +6337,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6348,7 +6375,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6386,7 +6413,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6424,7 +6451,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6462,7 +6489,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6500,7 +6527,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6538,7 +6565,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6576,7 +6603,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6614,7 +6641,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6652,7 +6679,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6690,7 +6717,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6728,7 +6755,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6766,7 +6793,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6804,7 +6831,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6842,7 +6869,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6880,7 +6907,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6918,7 +6945,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6956,7 +6983,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6994,7 +7021,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7032,7 +7059,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7070,7 +7097,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7108,7 +7135,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7146,7 +7173,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7184,7 +7211,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7222,7 +7249,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7260,7 +7287,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7298,7 +7325,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7336,7 +7363,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7374,7 +7401,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7412,7 +7439,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7450,7 +7477,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7488,7 +7515,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7526,7 +7553,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7564,7 +7591,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7602,7 +7629,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7640,7 +7667,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7678,7 +7705,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7716,7 +7743,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7754,7 +7781,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7792,7 +7819,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7830,7 +7857,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7868,7 +7895,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7906,7 +7933,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7944,7 +7971,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7982,7 +8009,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8020,7 +8047,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8058,7 +8085,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8096,7 +8123,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8134,7 +8161,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8172,7 +8199,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8210,7 +8237,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8248,7 +8275,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8286,7 +8313,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8324,7 +8351,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8362,7 +8389,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8400,7 +8427,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8438,7 +8465,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8476,7 +8503,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8514,7 +8541,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8552,7 +8579,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8590,7 +8617,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8628,7 +8655,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8666,7 +8693,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8704,7 +8731,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8742,7 +8769,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8780,7 +8807,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8818,7 +8845,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8856,7 +8883,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8894,7 +8921,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8932,7 +8959,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8970,7 +8997,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9008,7 +9035,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9046,7 +9073,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9084,7 +9111,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9122,7 +9149,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9160,7 +9187,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9198,7 +9225,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9236,7 +9263,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9274,7 +9301,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9312,7 +9339,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9350,7 +9377,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9388,7 +9415,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9426,7 +9453,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9464,7 +9491,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9502,7 +9529,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9540,7 +9567,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9578,7 +9605,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9616,7 +9643,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9654,7 +9681,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9692,7 +9719,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9730,7 +9757,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9768,7 +9795,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9806,7 +9833,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9844,7 +9871,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9882,7 +9909,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9920,7 +9947,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9958,7 +9985,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9996,7 +10023,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10034,7 +10061,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10072,7 +10099,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10110,7 +10137,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10148,7 +10175,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10186,7 +10213,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10224,7 +10251,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10262,7 +10289,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10300,7 +10327,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10338,7 +10365,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10376,7 +10403,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10414,7 +10441,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10452,7 +10479,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10490,7 +10517,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10528,7 +10555,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10566,7 +10593,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10604,7 +10631,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10642,7 +10669,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10680,7 +10707,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10718,7 +10745,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10756,7 +10783,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10794,7 +10821,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10832,7 +10859,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10870,7 +10897,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10908,7 +10935,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10946,7 +10973,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10984,7 +11011,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11022,7 +11049,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11060,7 +11087,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11098,7 +11125,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11136,7 +11163,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11174,7 +11201,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11212,7 +11239,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11250,7 +11277,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11288,7 +11315,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11326,7 +11353,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11364,7 +11391,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11402,7 +11429,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11440,7 +11467,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11478,7 +11505,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11516,7 +11543,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11554,7 +11581,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11592,7 +11619,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11630,7 +11657,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11668,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11706,7 +11733,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11744,7 +11771,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11782,7 +11809,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11820,7 +11847,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11858,7 +11885,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11896,7 +11923,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11934,7 +11961,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11972,7 +11999,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12010,7 +12037,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12048,7 +12075,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12086,7 +12113,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12124,7 +12151,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12162,7 +12189,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12200,7 +12227,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12238,7 +12265,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12276,7 +12303,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12314,7 +12341,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12352,7 +12379,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12390,7 +12417,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12428,7 +12455,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12466,7 +12493,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12504,7 +12531,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12542,7 +12569,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12580,7 +12607,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12618,7 +12645,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12656,7 +12683,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12694,7 +12721,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12732,7 +12759,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12770,7 +12797,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12808,7 +12835,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12846,7 +12873,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12884,7 +12911,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12922,7 +12949,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12960,7 +12987,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -12998,7 +13025,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13036,7 +13063,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13074,7 +13101,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13112,7 +13139,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13150,7 +13177,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13188,7 +13215,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13226,7 +13253,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13264,7 +13291,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13302,7 +13329,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13340,7 +13367,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13378,7 +13405,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13416,7 +13443,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13454,7 +13481,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13492,7 +13519,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13530,7 +13557,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13568,7 +13595,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13606,7 +13633,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13644,7 +13671,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13682,7 +13709,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13720,7 +13747,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13758,7 +13785,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13796,7 +13823,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13834,7 +13861,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13872,7 +13899,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13910,7 +13937,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13948,7 +13975,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -13986,7 +14013,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14024,7 +14051,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14062,7 +14089,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14100,7 +14127,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14138,7 +14165,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14176,7 +14203,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14214,7 +14241,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14252,7 +14279,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14290,7 +14317,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14328,7 +14355,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14366,7 +14393,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14404,7 +14431,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14442,7 +14469,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14480,7 +14507,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14518,7 +14545,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14556,7 +14583,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14594,7 +14621,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14632,7 +14659,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14670,7 +14697,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14708,7 +14735,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14746,7 +14773,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14784,7 +14811,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14822,7 +14849,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14860,7 +14887,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14898,7 +14925,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14936,7 +14963,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -14974,7 +15001,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15012,7 +15039,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15050,7 +15077,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15088,7 +15115,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15126,7 +15153,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15164,7 +15191,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15202,7 +15229,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15240,7 +15267,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15278,7 +15305,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15316,7 +15343,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15354,7 +15381,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15392,7 +15419,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15430,7 +15457,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15468,7 +15495,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15506,7 +15533,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15544,7 +15571,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15582,7 +15609,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15620,7 +15647,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15658,7 +15685,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15696,7 +15723,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15734,7 +15761,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15772,7 +15799,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15810,7 +15837,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15848,7 +15875,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15886,7 +15913,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15924,7 +15951,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15962,7 +15989,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16000,7 +16027,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16038,7 +16065,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16076,7 +16103,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16114,7 +16141,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16152,7 +16179,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16190,7 +16217,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16228,7 +16255,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16266,7 +16293,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16304,7 +16331,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16342,7 +16369,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16380,7 +16407,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16418,7 +16445,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16456,7 +16483,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16494,7 +16521,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16532,7 +16559,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16570,7 +16597,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16608,7 +16635,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16646,7 +16673,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16684,7 +16711,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16722,7 +16749,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16760,7 +16787,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16798,7 +16825,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16836,7 +16863,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16874,7 +16901,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16912,7 +16939,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16950,7 +16977,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -16988,7 +17015,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17026,7 +17053,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17064,7 +17091,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17102,7 +17129,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17140,7 +17167,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17178,7 +17205,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17216,7 +17243,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17254,7 +17281,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17292,7 +17319,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17330,7 +17357,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17368,7 +17395,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17406,7 +17433,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17444,7 +17471,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17482,7 +17509,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17520,7 +17547,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17558,7 +17585,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17596,7 +17623,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17634,7 +17661,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17672,7 +17699,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17710,7 +17737,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17748,7 +17775,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17786,7 +17813,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17824,7 +17851,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17862,7 +17889,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17900,7 +17927,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17938,7 +17965,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -17976,7 +18003,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18014,7 +18041,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18052,7 +18079,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18090,7 +18117,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18128,7 +18155,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18166,7 +18193,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18204,7 +18231,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18242,7 +18269,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18280,7 +18307,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18318,7 +18345,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18356,7 +18383,7 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18394,7 +18421,7 @@
         <v>13.2</v>
       </c>
       <c r="L436" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18432,7 +18459,7 @@
         <v>10.86</v>
       </c>
       <c r="L437" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18470,7 +18497,7 @@
         <v>11.4</v>
       </c>
       <c r="L438" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18508,7 +18535,7 @@
         <v>12.23</v>
       </c>
       <c r="L439" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18546,7 +18573,7 @@
         <v>11.29</v>
       </c>
       <c r="L440" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18584,7 +18611,7 @@
         <v>12.68</v>
       </c>
       <c r="L441" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18622,7 +18649,7 @@
         <v>9.08</v>
       </c>
       <c r="L442" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18660,7 +18687,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L443" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18698,7 +18725,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="L444" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18736,7 +18763,7 @@
         <v>13.33</v>
       </c>
       <c r="L445" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18774,7 +18801,7 @@
         <v>15.62</v>
       </c>
       <c r="L446" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18812,7 +18839,7 @@
         <v>15.14</v>
       </c>
       <c r="L447" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18850,7 +18877,7 @@
         <v>15.56</v>
       </c>
       <c r="L448" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18888,7 +18915,7 @@
         <v>19.01</v>
       </c>
       <c r="L449" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18926,7 +18953,7 @@
         <v>14.97</v>
       </c>
       <c r="L450" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18964,7 +18991,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19002,7 +19029,7 @@
         <v>13.11</v>
       </c>
       <c r="L452" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19040,7 +19067,7 @@
         <v>15.73</v>
       </c>
       <c r="L453" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19078,7 +19105,7 @@
         <v>14.01</v>
       </c>
       <c r="L454" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19116,7 +19143,7 @@
         <v>16.01</v>
       </c>
       <c r="L455" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19154,7 +19181,7 @@
         <v>14.08</v>
       </c>
       <c r="L456" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19192,7 +19219,7 @@
         <v>11.87</v>
       </c>
       <c r="L457" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19230,7 +19257,7 @@
         <v>10.31</v>
       </c>
       <c r="L458" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19268,7 +19295,7 @@
         <v>10.44</v>
       </c>
       <c r="L459" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19306,7 +19333,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L460" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19344,7 +19371,7 @@
         <v>10.35</v>
       </c>
       <c r="L461" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19382,7 +19409,7 @@
         <v>10.17</v>
       </c>
       <c r="L462" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19420,7 +19447,7 @@
         <v>11.77</v>
       </c>
       <c r="L463" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19458,7 +19485,7 @@
         <v>9.67</v>
       </c>
       <c r="L464" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19496,7 +19523,7 @@
         <v>10.92</v>
       </c>
       <c r="L465" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19534,7 +19561,7 @@
         <v>10.66</v>
       </c>
       <c r="L466" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19572,7 +19599,7 @@
         <v>11.49</v>
       </c>
       <c r="L467" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19610,7 +19637,7 @@
         <v>11.95</v>
       </c>
       <c r="L468" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19648,7 +19675,7 @@
         <v>11.12</v>
       </c>
       <c r="L469" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19686,7 +19713,7 @@
         <v>9.81</v>
       </c>
       <c r="L470" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19724,7 +19751,7 @@
         <v>10.7</v>
       </c>
       <c r="L471" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19762,7 +19789,7 @@
         <v>11.84</v>
       </c>
       <c r="L472" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19800,7 +19827,7 @@
         <v>13.45</v>
       </c>
       <c r="L473" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19838,7 +19865,349 @@
         <v>14.44</v>
       </c>
       <c r="L474" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
         <v>484</v>
+      </c>
+      <c r="C475">
+        <v>13.47</v>
+      </c>
+      <c r="D475">
+        <v>52.93</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>-11.12</v>
+      </c>
+      <c r="G475">
+        <v>64.58</v>
+      </c>
+      <c r="H475">
+        <v>-18.92</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>58.81</v>
+      </c>
+      <c r="K475">
+        <v>12.89</v>
+      </c>
+      <c r="L475" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>485</v>
+      </c>
+      <c r="C476">
+        <v>13.56</v>
+      </c>
+      <c r="D476">
+        <v>53.25</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>-11.8</v>
+      </c>
+      <c r="G476">
+        <v>72.27</v>
+      </c>
+      <c r="H476">
+        <v>-19.49</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>56.55</v>
+      </c>
+      <c r="K476">
+        <v>11.31</v>
+      </c>
+      <c r="L476" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>486</v>
+      </c>
+      <c r="C477">
+        <v>13.56</v>
+      </c>
+      <c r="D477">
+        <v>52.94</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>-12.25</v>
+      </c>
+      <c r="G477">
+        <v>62.06</v>
+      </c>
+      <c r="H477">
+        <v>-19.98</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>62.88</v>
+      </c>
+      <c r="K477">
+        <v>14.78</v>
+      </c>
+      <c r="L477" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>487</v>
+      </c>
+      <c r="C478">
+        <v>13.57</v>
+      </c>
+      <c r="D478">
+        <v>52.67</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>-11.08</v>
+      </c>
+      <c r="G478">
+        <v>53.6</v>
+      </c>
+      <c r="H478">
+        <v>-18.95</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>57.26</v>
+      </c>
+      <c r="K478">
+        <v>10.48</v>
+      </c>
+      <c r="L478" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>488</v>
+      </c>
+      <c r="C479">
+        <v>13.57</v>
+      </c>
+      <c r="D479">
+        <v>52.18</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>-11.67</v>
+      </c>
+      <c r="G479">
+        <v>54.33</v>
+      </c>
+      <c r="H479">
+        <v>-19.6</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>57.33</v>
+      </c>
+      <c r="K479">
+        <v>14.44</v>
+      </c>
+      <c r="L479" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480">
+        <v>13.57</v>
+      </c>
+      <c r="D480">
+        <v>51.78</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="G480">
+        <v>64.37</v>
+      </c>
+      <c r="H480">
+        <v>-18.02</v>
+      </c>
+      <c r="I480">
+        <v>-0.01</v>
+      </c>
+      <c r="J480">
+        <v>56.27</v>
+      </c>
+      <c r="K480">
+        <v>15.63</v>
+      </c>
+      <c r="L480" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>490</v>
+      </c>
+      <c r="C481">
+        <v>13.57</v>
+      </c>
+      <c r="D481">
+        <v>51.21</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>-9.85</v>
+      </c>
+      <c r="G481">
+        <v>49.35</v>
+      </c>
+      <c r="H481">
+        <v>-18.13</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>60.77</v>
+      </c>
+      <c r="K481">
+        <v>12.18</v>
+      </c>
+      <c r="L481" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>491</v>
+      </c>
+      <c r="C482">
+        <v>13.58</v>
+      </c>
+      <c r="D482">
+        <v>51.61</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>-11.32</v>
+      </c>
+      <c r="G482">
+        <v>60.78</v>
+      </c>
+      <c r="H482">
+        <v>-19.41</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>61.61</v>
+      </c>
+      <c r="K482">
+        <v>14.28</v>
+      </c>
+      <c r="L482" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>492</v>
+      </c>
+      <c r="C483">
+        <v>13.57</v>
+      </c>
+      <c r="D483">
+        <v>51.11</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>-10.62</v>
+      </c>
+      <c r="G483">
+        <v>61.72</v>
+      </c>
+      <c r="H483">
+        <v>-18.88</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>58.54</v>
+      </c>
+      <c r="K483">
+        <v>16.04</v>
+      </c>
+      <c r="L483" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/AMATITLAN.xlsx
+++ b/tablas_insivumeh/AMATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="503">
   <si>
     <t>Fecha</t>
   </si>
@@ -1493,6 +1493,33 @@
   </si>
   <si>
     <t>11/17/2020 8:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:40:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:50:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:10:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:20:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:30:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 9:40:00 AM</t>
   </si>
   <si>
     <t>AMATITLAN</t>
@@ -1853,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L483"/>
+  <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1956,7 @@
         <v>3.13</v>
       </c>
       <c r="L2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1967,7 +1994,7 @@
         <v>5.03</v>
       </c>
       <c r="L3" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2005,7 +2032,7 @@
         <v>2.69</v>
       </c>
       <c r="L4" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2043,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2081,7 +2108,7 @@
         <v>4.45</v>
       </c>
       <c r="L6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2119,7 +2146,7 @@
         <v>1.74</v>
       </c>
       <c r="L7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2157,7 +2184,7 @@
         <v>2.17</v>
       </c>
       <c r="L8" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2195,7 +2222,7 @@
         <v>2.13</v>
       </c>
       <c r="L9" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2233,7 +2260,7 @@
         <v>2.51</v>
       </c>
       <c r="L10" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2271,7 +2298,7 @@
         <v>3.2</v>
       </c>
       <c r="L11" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2309,7 +2336,7 @@
         <v>3.52</v>
       </c>
       <c r="L12" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2347,7 +2374,7 @@
         <v>4.06</v>
       </c>
       <c r="L13" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2385,7 +2412,7 @@
         <v>4.53</v>
       </c>
       <c r="L14" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2423,7 +2450,7 @@
         <v>1.75</v>
       </c>
       <c r="L15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2461,7 +2488,7 @@
         <v>3.59</v>
       </c>
       <c r="L16" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2499,7 +2526,7 @@
         <v>3.12</v>
       </c>
       <c r="L17" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2537,7 +2564,7 @@
         <v>2.79</v>
       </c>
       <c r="L18" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2575,7 +2602,7 @@
         <v>2.58</v>
       </c>
       <c r="L19" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2613,7 +2640,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2651,7 +2678,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2689,7 +2716,7 @@
         <v>2.21</v>
       </c>
       <c r="L22" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2727,7 +2754,7 @@
         <v>4.92</v>
       </c>
       <c r="L23" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2765,7 +2792,7 @@
         <v>4.99</v>
       </c>
       <c r="L24" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2803,7 +2830,7 @@
         <v>4.52</v>
       </c>
       <c r="L25" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2841,7 +2868,7 @@
         <v>2.02</v>
       </c>
       <c r="L26" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2879,7 +2906,7 @@
         <v>3.36</v>
       </c>
       <c r="L27" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2917,7 +2944,7 @@
         <v>3.46</v>
       </c>
       <c r="L28" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2955,7 +2982,7 @@
         <v>4.33</v>
       </c>
       <c r="L29" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2993,7 +3020,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3031,7 +3058,7 @@
         <v>4.33</v>
       </c>
       <c r="L31" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3069,7 +3096,7 @@
         <v>4.7</v>
       </c>
       <c r="L32" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3107,7 +3134,7 @@
         <v>3.03</v>
       </c>
       <c r="L33" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3145,7 +3172,7 @@
         <v>5.19</v>
       </c>
       <c r="L34" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3183,7 +3210,7 @@
         <v>4.33</v>
       </c>
       <c r="L35" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3221,7 +3248,7 @@
         <v>4.53</v>
       </c>
       <c r="L36" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3259,7 +3286,7 @@
         <v>4.11</v>
       </c>
       <c r="L37" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3297,7 +3324,7 @@
         <v>5.4</v>
       </c>
       <c r="L38" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3335,7 +3362,7 @@
         <v>4.36</v>
       </c>
       <c r="L39" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3373,7 +3400,7 @@
         <v>3.76</v>
       </c>
       <c r="L40" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3411,7 +3438,7 @@
         <v>4.79</v>
       </c>
       <c r="L41" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3449,7 +3476,7 @@
         <v>2.44</v>
       </c>
       <c r="L42" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3487,7 +3514,7 @@
         <v>3.98</v>
       </c>
       <c r="L43" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3525,7 +3552,7 @@
         <v>4.78</v>
       </c>
       <c r="L44" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3563,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3601,7 +3628,7 @@
         <v>1.5</v>
       </c>
       <c r="L46" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3639,7 +3666,7 @@
         <v>1.15</v>
       </c>
       <c r="L47" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3677,7 +3704,7 @@
         <v>1.18</v>
       </c>
       <c r="L48" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3715,7 +3742,7 @@
         <v>2.35</v>
       </c>
       <c r="L49" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3753,7 +3780,7 @@
         <v>3.86</v>
       </c>
       <c r="L50" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3791,7 +3818,7 @@
         <v>4.17</v>
       </c>
       <c r="L51" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3829,7 +3856,7 @@
         <v>4.48</v>
       </c>
       <c r="L52" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3867,7 +3894,7 @@
         <v>2.5</v>
       </c>
       <c r="L53" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3905,7 +3932,7 @@
         <v>2.85</v>
       </c>
       <c r="L54" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3943,7 +3970,7 @@
         <v>3.74</v>
       </c>
       <c r="L55" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3981,7 +4008,7 @@
         <v>4.04</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4019,7 +4046,7 @@
         <v>4.02</v>
       </c>
       <c r="L57" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4057,7 +4084,7 @@
         <v>3.48</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4095,7 +4122,7 @@
         <v>4.69</v>
       </c>
       <c r="L59" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4133,7 +4160,7 @@
         <v>2.35</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4171,7 +4198,7 @@
         <v>4.39</v>
       </c>
       <c r="L61" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4209,7 +4236,7 @@
         <v>2.83</v>
       </c>
       <c r="L62" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4247,7 +4274,7 @@
         <v>3.26</v>
       </c>
       <c r="L63" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4285,7 +4312,7 @@
         <v>4.7</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4323,7 +4350,7 @@
         <v>5.55</v>
       </c>
       <c r="L65" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4361,7 +4388,7 @@
         <v>6.49</v>
       </c>
       <c r="L66" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4399,7 +4426,7 @@
         <v>4.2</v>
       </c>
       <c r="L67" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4437,7 +4464,7 @@
         <v>5.1</v>
       </c>
       <c r="L68" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4475,7 +4502,7 @@
         <v>5.26</v>
       </c>
       <c r="L69" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4513,7 +4540,7 @@
         <v>5.43</v>
       </c>
       <c r="L70" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4551,7 +4578,7 @@
         <v>4.96</v>
       </c>
       <c r="L71" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4589,7 +4616,7 @@
         <v>5.15</v>
       </c>
       <c r="L72" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4627,7 +4654,7 @@
         <v>7.54</v>
       </c>
       <c r="L73" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4665,7 +4692,7 @@
         <v>13.93</v>
       </c>
       <c r="L74" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4703,7 +4730,7 @@
         <v>13.92</v>
       </c>
       <c r="L75" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4741,7 +4768,7 @@
         <v>13.51</v>
       </c>
       <c r="L76" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4779,7 +4806,7 @@
         <v>13.65</v>
       </c>
       <c r="L77" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4817,7 +4844,7 @@
         <v>14.49</v>
       </c>
       <c r="L78" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4855,7 +4882,7 @@
         <v>14.18</v>
       </c>
       <c r="L79" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4893,7 +4920,7 @@
         <v>15.4</v>
       </c>
       <c r="L80" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4931,7 +4958,7 @@
         <v>14.92</v>
       </c>
       <c r="L81" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4969,7 +4996,7 @@
         <v>15.32</v>
       </c>
       <c r="L82" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5007,7 +5034,7 @@
         <v>14.89</v>
       </c>
       <c r="L83" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5045,7 +5072,7 @@
         <v>14.87</v>
       </c>
       <c r="L84" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5083,7 +5110,7 @@
         <v>14.42</v>
       </c>
       <c r="L85" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5121,7 +5148,7 @@
         <v>15.89</v>
       </c>
       <c r="L86" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5159,7 +5186,7 @@
         <v>15.9</v>
       </c>
       <c r="L87" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5197,7 +5224,7 @@
         <v>13.7</v>
       </c>
       <c r="L88" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5235,7 +5262,7 @@
         <v>13.16</v>
       </c>
       <c r="L89" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5273,7 +5300,7 @@
         <v>12.45</v>
       </c>
       <c r="L90" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5311,7 +5338,7 @@
         <v>11.91</v>
       </c>
       <c r="L91" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5349,7 +5376,7 @@
         <v>10.98</v>
       </c>
       <c r="L92" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5387,7 +5414,7 @@
         <v>11.12</v>
       </c>
       <c r="L93" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5425,7 +5452,7 @@
         <v>12.17</v>
       </c>
       <c r="L94" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5463,7 +5490,7 @@
         <v>11.05</v>
       </c>
       <c r="L95" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5501,7 +5528,7 @@
         <v>11.03</v>
       </c>
       <c r="L96" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5539,7 +5566,7 @@
         <v>10.89</v>
       </c>
       <c r="L97" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5577,7 +5604,7 @@
         <v>10.44</v>
       </c>
       <c r="L98" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5615,7 +5642,7 @@
         <v>9.85</v>
       </c>
       <c r="L99" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5653,7 +5680,7 @@
         <v>8.67</v>
       </c>
       <c r="L100" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5691,7 +5718,7 @@
         <v>6.86</v>
       </c>
       <c r="L101" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5729,7 +5756,7 @@
         <v>6.86</v>
       </c>
       <c r="L102" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5767,7 +5794,7 @@
         <v>5.34</v>
       </c>
       <c r="L103" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5805,7 +5832,7 @@
         <v>4.92</v>
       </c>
       <c r="L104" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5843,7 +5870,7 @@
         <v>4.89</v>
       </c>
       <c r="L105" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5881,7 +5908,7 @@
         <v>5.6</v>
       </c>
       <c r="L106" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5919,7 +5946,7 @@
         <v>6.62</v>
       </c>
       <c r="L107" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5957,7 +5984,7 @@
         <v>6.76</v>
       </c>
       <c r="L108" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5995,7 +6022,7 @@
         <v>6.97</v>
       </c>
       <c r="L109" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6033,7 +6060,7 @@
         <v>5.84</v>
       </c>
       <c r="L110" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6071,7 +6098,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="L111" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6109,7 +6136,7 @@
         <v>5.83</v>
       </c>
       <c r="L112" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6147,7 +6174,7 @@
         <v>5.73</v>
       </c>
       <c r="L113" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6185,7 +6212,7 @@
         <v>7.37</v>
       </c>
       <c r="L114" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6223,7 +6250,7 @@
         <v>6.64</v>
       </c>
       <c r="L115" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6261,7 +6288,7 @@
         <v>7.21</v>
       </c>
       <c r="L116" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6299,7 +6326,7 @@
         <v>4.73</v>
       </c>
       <c r="L117" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6337,7 +6364,7 @@
         <v>4.64</v>
       </c>
       <c r="L118" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6375,7 +6402,7 @@
         <v>5.81</v>
       </c>
       <c r="L119" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6413,7 +6440,7 @@
         <v>6.15</v>
       </c>
       <c r="L120" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6451,7 +6478,7 @@
         <v>4.57</v>
       </c>
       <c r="L121" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6489,7 +6516,7 @@
         <v>3.71</v>
       </c>
       <c r="L122" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6527,7 +6554,7 @@
         <v>3.26</v>
       </c>
       <c r="L123" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6565,7 +6592,7 @@
         <v>2.45</v>
       </c>
       <c r="L124" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6603,7 +6630,7 @@
         <v>1.13</v>
       </c>
       <c r="L125" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6641,7 +6668,7 @@
         <v>1.68</v>
       </c>
       <c r="L126" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6679,7 +6706,7 @@
         <v>1.41</v>
       </c>
       <c r="L127" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6717,7 +6744,7 @@
         <v>1.16</v>
       </c>
       <c r="L128" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6755,7 +6782,7 @@
         <v>3.33</v>
       </c>
       <c r="L129" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6793,7 +6820,7 @@
         <v>2.43</v>
       </c>
       <c r="L130" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6831,7 +6858,7 @@
         <v>1.98</v>
       </c>
       <c r="L131" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6869,7 +6896,7 @@
         <v>3.55</v>
       </c>
       <c r="L132" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6907,7 +6934,7 @@
         <v>2.02</v>
       </c>
       <c r="L133" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6945,7 +6972,7 @@
         <v>2.19</v>
       </c>
       <c r="L134" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6983,7 +7010,7 @@
         <v>2.53</v>
       </c>
       <c r="L135" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7021,7 +7048,7 @@
         <v>2.31</v>
       </c>
       <c r="L136" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7059,7 +7086,7 @@
         <v>1.85</v>
       </c>
       <c r="L137" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7097,7 +7124,7 @@
         <v>2.54</v>
       </c>
       <c r="L138" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7135,7 +7162,7 @@
         <v>1.88</v>
       </c>
       <c r="L139" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7173,7 +7200,7 @@
         <v>1.15</v>
       </c>
       <c r="L140" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7211,7 +7238,7 @@
         <v>2.21</v>
       </c>
       <c r="L141" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7249,7 +7276,7 @@
         <v>2.82</v>
       </c>
       <c r="L142" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7287,7 +7314,7 @@
         <v>1.55</v>
       </c>
       <c r="L143" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -7325,7 +7352,7 @@
         <v>2.17</v>
       </c>
       <c r="L144" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7363,7 +7390,7 @@
         <v>1.06</v>
       </c>
       <c r="L145" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7401,7 +7428,7 @@
         <v>1.11</v>
       </c>
       <c r="L146" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -7439,7 +7466,7 @@
         <v>1.96</v>
       </c>
       <c r="L147" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7477,7 +7504,7 @@
         <v>1.37</v>
       </c>
       <c r="L148" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7515,7 +7542,7 @@
         <v>2.19</v>
       </c>
       <c r="L149" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7553,7 +7580,7 @@
         <v>4.37</v>
       </c>
       <c r="L150" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7591,7 +7618,7 @@
         <v>5.91</v>
       </c>
       <c r="L151" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7629,7 +7656,7 @@
         <v>2.49</v>
       </c>
       <c r="L152" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -7667,7 +7694,7 @@
         <v>1.35</v>
       </c>
       <c r="L153" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7705,7 +7732,7 @@
         <v>2.11</v>
       </c>
       <c r="L154" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7743,7 +7770,7 @@
         <v>1.43</v>
       </c>
       <c r="L155" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7781,7 +7808,7 @@
         <v>2.51</v>
       </c>
       <c r="L156" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7819,7 +7846,7 @@
         <v>1.71</v>
       </c>
       <c r="L157" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7857,7 +7884,7 @@
         <v>2.41</v>
       </c>
       <c r="L158" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7895,7 +7922,7 @@
         <v>2.52</v>
       </c>
       <c r="L159" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7933,7 +7960,7 @@
         <v>1.92</v>
       </c>
       <c r="L160" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7971,7 +7998,7 @@
         <v>3.14</v>
       </c>
       <c r="L161" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -8009,7 +8036,7 @@
         <v>3.94</v>
       </c>
       <c r="L162" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8047,7 +8074,7 @@
         <v>3.36</v>
       </c>
       <c r="L163" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8085,7 +8112,7 @@
         <v>2.33</v>
       </c>
       <c r="L164" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8123,7 +8150,7 @@
         <v>3.26</v>
       </c>
       <c r="L165" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8161,7 +8188,7 @@
         <v>2.81</v>
       </c>
       <c r="L166" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8199,7 +8226,7 @@
         <v>2.33</v>
       </c>
       <c r="L167" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8237,7 +8264,7 @@
         <v>3.02</v>
       </c>
       <c r="L168" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8275,7 +8302,7 @@
         <v>3.95</v>
       </c>
       <c r="L169" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8313,7 +8340,7 @@
         <v>2.52</v>
       </c>
       <c r="L170" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8351,7 +8378,7 @@
         <v>2.22</v>
       </c>
       <c r="L171" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8389,7 +8416,7 @@
         <v>1.93</v>
       </c>
       <c r="L172" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8427,7 +8454,7 @@
         <v>2.02</v>
       </c>
       <c r="L173" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8465,7 +8492,7 @@
         <v>2.34</v>
       </c>
       <c r="L174" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8503,7 +8530,7 @@
         <v>2.17</v>
       </c>
       <c r="L175" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8541,7 +8568,7 @@
         <v>2.62</v>
       </c>
       <c r="L176" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8579,7 +8606,7 @@
         <v>3.45</v>
       </c>
       <c r="L177" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8617,7 +8644,7 @@
         <v>3.36</v>
       </c>
       <c r="L178" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8655,7 +8682,7 @@
         <v>2.28</v>
       </c>
       <c r="L179" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8693,7 +8720,7 @@
         <v>2.08</v>
       </c>
       <c r="L180" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8731,7 +8758,7 @@
         <v>1.17</v>
       </c>
       <c r="L181" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8769,7 +8796,7 @@
         <v>0.48</v>
       </c>
       <c r="L182" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8807,7 +8834,7 @@
         <v>0.66</v>
       </c>
       <c r="L183" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8845,7 +8872,7 @@
         <v>1.18</v>
       </c>
       <c r="L184" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8883,7 +8910,7 @@
         <v>1.43</v>
       </c>
       <c r="L185" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8921,7 +8948,7 @@
         <v>1.79</v>
       </c>
       <c r="L186" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8959,7 +8986,7 @@
         <v>1.06</v>
       </c>
       <c r="L187" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8997,7 +9024,7 @@
         <v>2.51</v>
       </c>
       <c r="L188" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -9035,7 +9062,7 @@
         <v>1.94</v>
       </c>
       <c r="L189" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9073,7 +9100,7 @@
         <v>2.2</v>
       </c>
       <c r="L190" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -9111,7 +9138,7 @@
         <v>2.18</v>
       </c>
       <c r="L191" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9149,7 +9176,7 @@
         <v>1.45</v>
       </c>
       <c r="L192" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -9187,7 +9214,7 @@
         <v>1.75</v>
       </c>
       <c r="L193" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9225,7 +9252,7 @@
         <v>3.11</v>
       </c>
       <c r="L194" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9263,7 +9290,7 @@
         <v>1.67</v>
       </c>
       <c r="L195" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9301,7 +9328,7 @@
         <v>1.42</v>
       </c>
       <c r="L196" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9339,7 +9366,7 @@
         <v>2.75</v>
       </c>
       <c r="L197" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9377,7 +9404,7 @@
         <v>2.93</v>
       </c>
       <c r="L198" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9415,7 +9442,7 @@
         <v>3.54</v>
       </c>
       <c r="L199" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9453,7 +9480,7 @@
         <v>2.31</v>
       </c>
       <c r="L200" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9491,7 +9518,7 @@
         <v>3.05</v>
       </c>
       <c r="L201" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9529,7 +9556,7 @@
         <v>5.79</v>
       </c>
       <c r="L202" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9567,7 +9594,7 @@
         <v>4.46</v>
       </c>
       <c r="L203" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9605,7 +9632,7 @@
         <v>3.74</v>
       </c>
       <c r="L204" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9643,7 +9670,7 @@
         <v>5.46</v>
       </c>
       <c r="L205" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9681,7 +9708,7 @@
         <v>4.27</v>
       </c>
       <c r="L206" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9719,7 +9746,7 @@
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9757,7 +9784,7 @@
         <v>5.71</v>
       </c>
       <c r="L208" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9795,7 +9822,7 @@
         <v>6.61</v>
       </c>
       <c r="L209" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -9833,7 +9860,7 @@
         <v>7.6</v>
       </c>
       <c r="L210" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9871,7 +9898,7 @@
         <v>6.9</v>
       </c>
       <c r="L211" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9909,7 +9936,7 @@
         <v>7.14</v>
       </c>
       <c r="L212" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9947,7 +9974,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L213" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9985,7 +10012,7 @@
         <v>8.35</v>
       </c>
       <c r="L214" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -10023,7 +10050,7 @@
         <v>7.88</v>
       </c>
       <c r="L215" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -10061,7 +10088,7 @@
         <v>6.18</v>
       </c>
       <c r="L216" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10099,7 +10126,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L217" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -10137,7 +10164,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="L218" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10175,7 +10202,7 @@
         <v>7.91</v>
       </c>
       <c r="L219" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10213,7 +10240,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="L220" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10251,7 +10278,7 @@
         <v>8.59</v>
       </c>
       <c r="L221" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10289,7 +10316,7 @@
         <v>10.57</v>
       </c>
       <c r="L222" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10327,7 +10354,7 @@
         <v>8.51</v>
       </c>
       <c r="L223" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10365,7 +10392,7 @@
         <v>9.01</v>
       </c>
       <c r="L224" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -10403,7 +10430,7 @@
         <v>6.64</v>
       </c>
       <c r="L225" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10441,7 +10468,7 @@
         <v>7.06</v>
       </c>
       <c r="L226" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -10479,7 +10506,7 @@
         <v>5.45</v>
       </c>
       <c r="L227" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10517,7 +10544,7 @@
         <v>5.33</v>
       </c>
       <c r="L228" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10555,7 +10582,7 @@
         <v>4.43</v>
       </c>
       <c r="L229" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10593,7 +10620,7 @@
         <v>9.73</v>
       </c>
       <c r="L230" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10631,7 +10658,7 @@
         <v>10.52</v>
       </c>
       <c r="L231" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10669,7 +10696,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L232" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10707,7 +10734,7 @@
         <v>9.94</v>
       </c>
       <c r="L233" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10745,7 +10772,7 @@
         <v>13.85</v>
       </c>
       <c r="L234" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10783,7 +10810,7 @@
         <v>13.25</v>
       </c>
       <c r="L235" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10821,7 +10848,7 @@
         <v>11.26</v>
       </c>
       <c r="L236" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10859,7 +10886,7 @@
         <v>12.64</v>
       </c>
       <c r="L237" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -10897,7 +10924,7 @@
         <v>11.71</v>
       </c>
       <c r="L238" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10935,7 +10962,7 @@
         <v>11.72</v>
       </c>
       <c r="L239" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10973,7 +11000,7 @@
         <v>12.05</v>
       </c>
       <c r="L240" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -11011,7 +11038,7 @@
         <v>12.18</v>
       </c>
       <c r="L241" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11049,7 +11076,7 @@
         <v>11.42</v>
       </c>
       <c r="L242" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11087,7 +11114,7 @@
         <v>10.09</v>
       </c>
       <c r="L243" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11125,7 +11152,7 @@
         <v>10.74</v>
       </c>
       <c r="L244" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11163,7 +11190,7 @@
         <v>12.4</v>
       </c>
       <c r="L245" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11201,7 +11228,7 @@
         <v>10.37</v>
       </c>
       <c r="L246" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11239,7 +11266,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="L247" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11277,7 +11304,7 @@
         <v>9.27</v>
       </c>
       <c r="L248" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11315,7 +11342,7 @@
         <v>9.52</v>
       </c>
       <c r="L249" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11353,7 +11380,7 @@
         <v>10.68</v>
       </c>
       <c r="L250" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11391,7 +11418,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="L251" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11429,7 +11456,7 @@
         <v>6.62</v>
       </c>
       <c r="L252" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11467,7 +11494,7 @@
         <v>7.3</v>
       </c>
       <c r="L253" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11505,7 +11532,7 @@
         <v>4.72</v>
       </c>
       <c r="L254" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11543,7 +11570,7 @@
         <v>3.4</v>
       </c>
       <c r="L255" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11581,7 +11608,7 @@
         <v>4.79</v>
       </c>
       <c r="L256" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11619,7 +11646,7 @@
         <v>5.05</v>
       </c>
       <c r="L257" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11657,7 +11684,7 @@
         <v>5.63</v>
       </c>
       <c r="L258" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11695,7 +11722,7 @@
         <v>5</v>
       </c>
       <c r="L259" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11733,7 +11760,7 @@
         <v>4.14</v>
       </c>
       <c r="L260" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11771,7 +11798,7 @@
         <v>2.54</v>
       </c>
       <c r="L261" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11809,7 +11836,7 @@
         <v>3.71</v>
       </c>
       <c r="L262" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11847,7 +11874,7 @@
         <v>9.5</v>
       </c>
       <c r="L263" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11885,7 +11912,7 @@
         <v>10.51</v>
       </c>
       <c r="L264" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11923,7 +11950,7 @@
         <v>12.11</v>
       </c>
       <c r="L265" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11961,7 +11988,7 @@
         <v>10.6</v>
       </c>
       <c r="L266" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11999,7 +12026,7 @@
         <v>11.77</v>
       </c>
       <c r="L267" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12037,7 +12064,7 @@
         <v>12.36</v>
       </c>
       <c r="L268" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12075,7 +12102,7 @@
         <v>11.49</v>
       </c>
       <c r="L269" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12113,7 +12140,7 @@
         <v>12.34</v>
       </c>
       <c r="L270" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12151,7 +12178,7 @@
         <v>12.57</v>
       </c>
       <c r="L271" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12189,7 +12216,7 @@
         <v>11.64</v>
       </c>
       <c r="L272" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12227,7 +12254,7 @@
         <v>9.85</v>
       </c>
       <c r="L273" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12265,7 +12292,7 @@
         <v>12.32</v>
       </c>
       <c r="L274" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12303,7 +12330,7 @@
         <v>11.35</v>
       </c>
       <c r="L275" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12341,7 +12368,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="L276" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12379,7 +12406,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L277" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12417,7 +12444,7 @@
         <v>11.5</v>
       </c>
       <c r="L278" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12455,7 +12482,7 @@
         <v>10.76</v>
       </c>
       <c r="L279" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12493,7 +12520,7 @@
         <v>9.609999999999999</v>
       </c>
       <c r="L280" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12531,7 +12558,7 @@
         <v>9.52</v>
       </c>
       <c r="L281" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12569,7 +12596,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="L282" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12607,7 +12634,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="L283" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12645,7 +12672,7 @@
         <v>9.34</v>
       </c>
       <c r="L284" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12683,7 +12710,7 @@
         <v>6.9</v>
       </c>
       <c r="L285" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12721,7 +12748,7 @@
         <v>5.01</v>
       </c>
       <c r="L286" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12759,7 +12786,7 @@
         <v>7.37</v>
       </c>
       <c r="L287" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12797,7 +12824,7 @@
         <v>10.19</v>
       </c>
       <c r="L288" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12835,7 +12862,7 @@
         <v>10.73</v>
       </c>
       <c r="L289" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -12873,7 +12900,7 @@
         <v>6.72</v>
       </c>
       <c r="L290" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -12911,7 +12938,7 @@
         <v>5.94</v>
       </c>
       <c r="L291" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -12949,7 +12976,7 @@
         <v>5.96</v>
       </c>
       <c r="L292" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -12987,7 +13014,7 @@
         <v>4.03</v>
       </c>
       <c r="L293" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -13025,7 +13052,7 @@
         <v>4.04</v>
       </c>
       <c r="L294" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -13063,7 +13090,7 @@
         <v>4.04</v>
       </c>
       <c r="L295" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13101,7 +13128,7 @@
         <v>2.94</v>
       </c>
       <c r="L296" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -13139,7 +13166,7 @@
         <v>5.82</v>
       </c>
       <c r="L297" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13177,7 +13204,7 @@
         <v>2.32</v>
       </c>
       <c r="L298" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13215,7 +13242,7 @@
         <v>1.29</v>
       </c>
       <c r="L299" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13253,7 +13280,7 @@
         <v>3.5</v>
       </c>
       <c r="L300" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13291,7 +13318,7 @@
         <v>4.55</v>
       </c>
       <c r="L301" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13329,7 +13356,7 @@
         <v>2.53</v>
       </c>
       <c r="L302" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13367,7 +13394,7 @@
         <v>1.6</v>
       </c>
       <c r="L303" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -13405,7 +13432,7 @@
         <v>2.32</v>
       </c>
       <c r="L304" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -13443,7 +13470,7 @@
         <v>5.45</v>
       </c>
       <c r="L305" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13481,7 +13508,7 @@
         <v>3.94</v>
       </c>
       <c r="L306" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13519,7 +13546,7 @@
         <v>3.01</v>
       </c>
       <c r="L307" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13557,7 +13584,7 @@
         <v>2.55</v>
       </c>
       <c r="L308" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13595,7 +13622,7 @@
         <v>3.32</v>
       </c>
       <c r="L309" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -13633,7 +13660,7 @@
         <v>1.35</v>
       </c>
       <c r="L310" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -13671,7 +13698,7 @@
         <v>2.66</v>
       </c>
       <c r="L311" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13709,7 +13736,7 @@
         <v>4.67</v>
       </c>
       <c r="L312" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13747,7 +13774,7 @@
         <v>6.26</v>
       </c>
       <c r="L313" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13785,7 +13812,7 @@
         <v>6.98</v>
       </c>
       <c r="L314" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13823,7 +13850,7 @@
         <v>6.42</v>
       </c>
       <c r="L315" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13861,7 +13888,7 @@
         <v>5.3</v>
       </c>
       <c r="L316" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -13899,7 +13926,7 @@
         <v>5.92</v>
       </c>
       <c r="L317" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -13937,7 +13964,7 @@
         <v>4.96</v>
       </c>
       <c r="L318" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -13975,7 +14002,7 @@
         <v>4.37</v>
       </c>
       <c r="L319" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:12">
@@ -14013,7 +14040,7 @@
         <v>5.44</v>
       </c>
       <c r="L320" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14051,7 +14078,7 @@
         <v>3.82</v>
       </c>
       <c r="L321" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -14089,7 +14116,7 @@
         <v>3.47</v>
       </c>
       <c r="L322" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14127,7 +14154,7 @@
         <v>5.02</v>
       </c>
       <c r="L323" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14165,7 +14192,7 @@
         <v>6.8</v>
       </c>
       <c r="L324" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14203,7 +14230,7 @@
         <v>7.51</v>
       </c>
       <c r="L325" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14241,7 +14268,7 @@
         <v>6.67</v>
       </c>
       <c r="L326" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14279,7 +14306,7 @@
         <v>6.59</v>
       </c>
       <c r="L327" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14317,7 +14344,7 @@
         <v>7.81</v>
       </c>
       <c r="L328" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14355,7 +14382,7 @@
         <v>6.42</v>
       </c>
       <c r="L329" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14393,7 +14420,7 @@
         <v>6.36</v>
       </c>
       <c r="L330" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14431,7 +14458,7 @@
         <v>9.35</v>
       </c>
       <c r="L331" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -14469,7 +14496,7 @@
         <v>10.56</v>
       </c>
       <c r="L332" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -14507,7 +14534,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="L333" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14545,7 +14572,7 @@
         <v>7.73</v>
       </c>
       <c r="L334" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14583,7 +14610,7 @@
         <v>11.11</v>
       </c>
       <c r="L335" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14621,7 +14648,7 @@
         <v>12.05</v>
       </c>
       <c r="L336" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14659,7 +14686,7 @@
         <v>11.48</v>
       </c>
       <c r="L337" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14697,7 +14724,7 @@
         <v>11.46</v>
       </c>
       <c r="L338" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14735,7 +14762,7 @@
         <v>14.78</v>
       </c>
       <c r="L339" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14773,7 +14800,7 @@
         <v>14.29</v>
       </c>
       <c r="L340" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14811,7 +14838,7 @@
         <v>14.02</v>
       </c>
       <c r="L341" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -14849,7 +14876,7 @@
         <v>15.57</v>
       </c>
       <c r="L342" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -14887,7 +14914,7 @@
         <v>11.74</v>
       </c>
       <c r="L343" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:12">
@@ -14925,7 +14952,7 @@
         <v>11.4</v>
       </c>
       <c r="L344" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -14963,7 +14990,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="L345" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15001,7 +15028,7 @@
         <v>10.16</v>
       </c>
       <c r="L346" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15039,7 +15066,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="L347" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15077,7 +15104,7 @@
         <v>12.26</v>
       </c>
       <c r="L348" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -15115,7 +15142,7 @@
         <v>14.07</v>
       </c>
       <c r="L349" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15153,7 +15180,7 @@
         <v>13.91</v>
       </c>
       <c r="L350" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15191,7 +15218,7 @@
         <v>13.43</v>
       </c>
       <c r="L351" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15229,7 +15256,7 @@
         <v>17.13</v>
       </c>
       <c r="L352" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15267,7 +15294,7 @@
         <v>19.73</v>
       </c>
       <c r="L353" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15305,7 +15332,7 @@
         <v>18.24</v>
       </c>
       <c r="L354" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15343,7 +15370,7 @@
         <v>15.42</v>
       </c>
       <c r="L355" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15381,7 +15408,7 @@
         <v>13.51</v>
       </c>
       <c r="L356" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15419,7 +15446,7 @@
         <v>15.99</v>
       </c>
       <c r="L357" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -15457,7 +15484,7 @@
         <v>16.46</v>
       </c>
       <c r="L358" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15495,7 +15522,7 @@
         <v>18.55</v>
       </c>
       <c r="L359" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15533,7 +15560,7 @@
         <v>15.59</v>
       </c>
       <c r="L360" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15571,7 +15598,7 @@
         <v>16.8</v>
       </c>
       <c r="L361" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15609,7 +15636,7 @@
         <v>17</v>
       </c>
       <c r="L362" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -15647,7 +15674,7 @@
         <v>14.41</v>
       </c>
       <c r="L363" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15685,7 +15712,7 @@
         <v>14.69</v>
       </c>
       <c r="L364" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15723,7 +15750,7 @@
         <v>16</v>
       </c>
       <c r="L365" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15761,7 +15788,7 @@
         <v>16.46</v>
       </c>
       <c r="L366" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -15799,7 +15826,7 @@
         <v>16.49</v>
       </c>
       <c r="L367" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -15837,7 +15864,7 @@
         <v>19.22</v>
       </c>
       <c r="L368" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -15875,7 +15902,7 @@
         <v>14.57</v>
       </c>
       <c r="L369" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -15913,7 +15940,7 @@
         <v>14.41</v>
       </c>
       <c r="L370" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -15951,7 +15978,7 @@
         <v>11.57</v>
       </c>
       <c r="L371" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="372" spans="1:12">
@@ -15989,7 +16016,7 @@
         <v>13.5</v>
       </c>
       <c r="L372" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16027,7 +16054,7 @@
         <v>15.62</v>
       </c>
       <c r="L373" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16065,7 +16092,7 @@
         <v>11.88</v>
       </c>
       <c r="L374" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16103,7 +16130,7 @@
         <v>13.75</v>
       </c>
       <c r="L375" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16141,7 +16168,7 @@
         <v>13.75</v>
       </c>
       <c r="L376" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16179,7 +16206,7 @@
         <v>17.05</v>
       </c>
       <c r="L377" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16217,7 +16244,7 @@
         <v>12.48</v>
       </c>
       <c r="L378" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="379" spans="1:12">
@@ -16255,7 +16282,7 @@
         <v>13.01</v>
       </c>
       <c r="L379" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16293,7 +16320,7 @@
         <v>11.21</v>
       </c>
       <c r="L380" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -16331,7 +16358,7 @@
         <v>11.75</v>
       </c>
       <c r="L381" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -16369,7 +16396,7 @@
         <v>11.85</v>
       </c>
       <c r="L382" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16407,7 +16434,7 @@
         <v>10.11</v>
       </c>
       <c r="L383" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16445,7 +16472,7 @@
         <v>9.970000000000001</v>
       </c>
       <c r="L384" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16483,7 +16510,7 @@
         <v>12.56</v>
       </c>
       <c r="L385" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16521,7 +16548,7 @@
         <v>12.41</v>
       </c>
       <c r="L386" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16559,7 +16586,7 @@
         <v>10.63</v>
       </c>
       <c r="L387" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16597,7 +16624,7 @@
         <v>10.82</v>
       </c>
       <c r="L388" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -16635,7 +16662,7 @@
         <v>11.04</v>
       </c>
       <c r="L389" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16673,7 +16700,7 @@
         <v>10.61</v>
       </c>
       <c r="L390" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16711,7 +16738,7 @@
         <v>12.58</v>
       </c>
       <c r="L391" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -16749,7 +16776,7 @@
         <v>10.93</v>
       </c>
       <c r="L392" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -16787,7 +16814,7 @@
         <v>14.73</v>
       </c>
       <c r="L393" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -16825,7 +16852,7 @@
         <v>11.7</v>
       </c>
       <c r="L394" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -16863,7 +16890,7 @@
         <v>14.11</v>
       </c>
       <c r="L395" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -16901,7 +16928,7 @@
         <v>12.25</v>
       </c>
       <c r="L396" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -16939,7 +16966,7 @@
         <v>12.44</v>
       </c>
       <c r="L397" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -16977,7 +17004,7 @@
         <v>11.54</v>
       </c>
       <c r="L398" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17015,7 +17042,7 @@
         <v>13.86</v>
       </c>
       <c r="L399" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17053,7 +17080,7 @@
         <v>14.82</v>
       </c>
       <c r="L400" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -17091,7 +17118,7 @@
         <v>21.03</v>
       </c>
       <c r="L401" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:12">
@@ -17129,7 +17156,7 @@
         <v>11.78</v>
       </c>
       <c r="L402" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -17167,7 +17194,7 @@
         <v>13.12</v>
       </c>
       <c r="L403" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -17205,7 +17232,7 @@
         <v>17.94</v>
       </c>
       <c r="L404" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="1:12">
@@ -17243,7 +17270,7 @@
         <v>13.62</v>
       </c>
       <c r="L405" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17281,7 +17308,7 @@
         <v>13.75</v>
       </c>
       <c r="L406" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -17319,7 +17346,7 @@
         <v>12.12</v>
       </c>
       <c r="L407" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17357,7 +17384,7 @@
         <v>13.22</v>
       </c>
       <c r="L408" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -17395,7 +17422,7 @@
         <v>14.12</v>
       </c>
       <c r="L409" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -17433,7 +17460,7 @@
         <v>15.28</v>
       </c>
       <c r="L410" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17471,7 +17498,7 @@
         <v>16.37</v>
       </c>
       <c r="L411" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -17509,7 +17536,7 @@
         <v>13.2</v>
       </c>
       <c r="L412" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17547,7 +17574,7 @@
         <v>16.95</v>
       </c>
       <c r="L413" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17585,7 +17612,7 @@
         <v>10.69</v>
       </c>
       <c r="L414" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17623,7 +17650,7 @@
         <v>10.66</v>
       </c>
       <c r="L415" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17661,7 +17688,7 @@
         <v>9.390000000000001</v>
       </c>
       <c r="L416" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -17699,7 +17726,7 @@
         <v>7.27</v>
       </c>
       <c r="L417" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -17737,7 +17764,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L418" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -17775,7 +17802,7 @@
         <v>9.82</v>
       </c>
       <c r="L419" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -17813,7 +17840,7 @@
         <v>10.85</v>
       </c>
       <c r="L420" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="1:12">
@@ -17851,7 +17878,7 @@
         <v>11.36</v>
       </c>
       <c r="L421" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -17889,7 +17916,7 @@
         <v>14.24</v>
       </c>
       <c r="L422" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -17927,7 +17954,7 @@
         <v>11.16</v>
       </c>
       <c r="L423" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -17965,7 +17992,7 @@
         <v>12.18</v>
       </c>
       <c r="L424" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18003,7 +18030,7 @@
         <v>11.08</v>
       </c>
       <c r="L425" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18041,7 +18068,7 @@
         <v>13.08</v>
       </c>
       <c r="L426" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18079,7 +18106,7 @@
         <v>10.49</v>
       </c>
       <c r="L427" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:12">
@@ -18117,7 +18144,7 @@
         <v>11.28</v>
       </c>
       <c r="L428" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="429" spans="1:12">
@@ -18155,7 +18182,7 @@
         <v>10.81</v>
       </c>
       <c r="L429" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18193,7 +18220,7 @@
         <v>12.65</v>
       </c>
       <c r="L430" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18231,7 +18258,7 @@
         <v>12.5</v>
       </c>
       <c r="L431" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18269,7 +18296,7 @@
         <v>9.67</v>
       </c>
       <c r="L432" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18307,7 +18334,7 @@
         <v>11.8</v>
       </c>
       <c r="L433" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:12">
@@ -18345,7 +18372,7 @@
         <v>10.86</v>
       </c>
       <c r="L434" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18383,7 +18410,7 @@
         <v>11.36</v>
       </c>
       <c r="L435" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18421,7 +18448,7 @@
         <v>13.2</v>
       </c>
       <c r="L436" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18459,7 +18486,7 @@
         <v>10.86</v>
       </c>
       <c r="L437" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18497,7 +18524,7 @@
         <v>11.4</v>
       </c>
       <c r="L438" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18535,7 +18562,7 @@
         <v>12.23</v>
       </c>
       <c r="L439" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -18573,7 +18600,7 @@
         <v>11.29</v>
       </c>
       <c r="L440" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -18611,7 +18638,7 @@
         <v>12.68</v>
       </c>
       <c r="L441" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -18649,7 +18676,7 @@
         <v>9.08</v>
       </c>
       <c r="L442" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -18687,7 +18714,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="L443" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -18725,7 +18752,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="L444" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -18763,7 +18790,7 @@
         <v>13.33</v>
       </c>
       <c r="L445" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -18801,7 +18828,7 @@
         <v>15.62</v>
       </c>
       <c r="L446" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -18839,7 +18866,7 @@
         <v>15.14</v>
       </c>
       <c r="L447" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -18877,7 +18904,7 @@
         <v>15.56</v>
       </c>
       <c r="L448" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -18915,7 +18942,7 @@
         <v>19.01</v>
       </c>
       <c r="L449" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -18953,7 +18980,7 @@
         <v>14.97</v>
       </c>
       <c r="L450" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="451" spans="1:12">
@@ -18991,7 +19018,7 @@
         <v>13.85</v>
       </c>
       <c r="L451" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19029,7 +19056,7 @@
         <v>13.11</v>
       </c>
       <c r="L452" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19067,7 +19094,7 @@
         <v>15.73</v>
       </c>
       <c r="L453" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19105,7 +19132,7 @@
         <v>14.01</v>
       </c>
       <c r="L454" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19143,7 +19170,7 @@
         <v>16.01</v>
       </c>
       <c r="L455" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19181,7 +19208,7 @@
         <v>14.08</v>
       </c>
       <c r="L456" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19219,7 +19246,7 @@
         <v>11.87</v>
       </c>
       <c r="L457" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19257,7 +19284,7 @@
         <v>10.31</v>
       </c>
       <c r="L458" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19295,7 +19322,7 @@
         <v>10.44</v>
       </c>
       <c r="L459" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19333,7 +19360,7 @@
         <v>9.220000000000001</v>
       </c>
       <c r="L460" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19371,7 +19398,7 @@
         <v>10.35</v>
       </c>
       <c r="L461" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19409,7 +19436,7 @@
         <v>10.17</v>
       </c>
       <c r="L462" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -19447,7 +19474,7 @@
         <v>11.77</v>
       </c>
       <c r="L463" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -19485,7 +19512,7 @@
         <v>9.67</v>
       </c>
       <c r="L464" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -19523,7 +19550,7 @@
         <v>10.92</v>
       </c>
       <c r="L465" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -19561,7 +19588,7 @@
         <v>10.66</v>
       </c>
       <c r="L466" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -19599,7 +19626,7 @@
         <v>11.49</v>
       </c>
       <c r="L467" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -19637,7 +19664,7 @@
         <v>11.95</v>
       </c>
       <c r="L468" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -19675,7 +19702,7 @@
         <v>11.12</v>
       </c>
       <c r="L469" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -19713,7 +19740,7 @@
         <v>9.81</v>
       </c>
       <c r="L470" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -19751,7 +19778,7 @@
         <v>10.7</v>
       </c>
       <c r="L471" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -19789,7 +19816,7 @@
         <v>11.84</v>
       </c>
       <c r="L472" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -19827,7 +19854,7 @@
         <v>13.45</v>
       </c>
       <c r="L473" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -19865,7 +19892,7 @@
         <v>14.44</v>
       </c>
       <c r="L474" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -19903,7 +19930,7 @@
         <v>12.89</v>
       </c>
       <c r="L475" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -19941,7 +19968,7 @@
         <v>11.31</v>
       </c>
       <c r="L476" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -19979,7 +20006,7 @@
         <v>14.78</v>
       </c>
       <c r="L477" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20017,7 +20044,7 @@
         <v>10.48</v>
       </c>
       <c r="L478" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20055,7 +20082,7 @@
         <v>14.44</v>
       </c>
       <c r="L479" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20093,7 +20120,7 @@
         <v>15.63</v>
       </c>
       <c r="L480" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20131,7 +20158,7 @@
         <v>12.18</v>
       </c>
       <c r="L481" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20169,7 +20196,7 @@
         <v>14.28</v>
       </c>
       <c r="L482" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20207,7 +20234,349 @@
         <v>16.04</v>
       </c>
       <c r="L483" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
         <v>493</v>
+      </c>
+      <c r="C484">
+        <v>13.58</v>
+      </c>
+      <c r="D484">
+        <v>49.65</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>-10.45</v>
+      </c>
+      <c r="G484">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="H484">
+        <v>-19.06</v>
+      </c>
+      <c r="I484">
+        <v>-0.01</v>
+      </c>
+      <c r="J484">
+        <v>61.5</v>
+      </c>
+      <c r="K484">
+        <v>13.91</v>
+      </c>
+      <c r="L484" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>494</v>
+      </c>
+      <c r="C485">
+        <v>13.58</v>
+      </c>
+      <c r="D485">
+        <v>48.02</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>-15.34</v>
+      </c>
+      <c r="G485">
+        <v>53.44</v>
+      </c>
+      <c r="H485">
+        <v>-23.95</v>
+      </c>
+      <c r="I485">
+        <v>-0.01</v>
+      </c>
+      <c r="J485">
+        <v>61.95</v>
+      </c>
+      <c r="K485">
+        <v>18.91</v>
+      </c>
+      <c r="L485" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>495</v>
+      </c>
+      <c r="C486">
+        <v>13.59</v>
+      </c>
+      <c r="D486">
+        <v>48.68</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>-13.14</v>
+      </c>
+      <c r="G486">
+        <v>55.03</v>
+      </c>
+      <c r="H486">
+        <v>-21.77</v>
+      </c>
+      <c r="I486">
+        <v>0.01</v>
+      </c>
+      <c r="J486">
+        <v>63.14</v>
+      </c>
+      <c r="K486">
+        <v>14.78</v>
+      </c>
+      <c r="L486" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>496</v>
+      </c>
+      <c r="C487">
+        <v>13.59</v>
+      </c>
+      <c r="D487">
+        <v>49.09</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>-11.48</v>
+      </c>
+      <c r="G487">
+        <v>50.01</v>
+      </c>
+      <c r="H487">
+        <v>-20.14</v>
+      </c>
+      <c r="I487">
+        <v>0.01</v>
+      </c>
+      <c r="J487">
+        <v>59.21</v>
+      </c>
+      <c r="K487">
+        <v>18.28</v>
+      </c>
+      <c r="L487" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>497</v>
+      </c>
+      <c r="C488">
+        <v>13.59</v>
+      </c>
+      <c r="D488">
+        <v>49.64</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>-11.05</v>
+      </c>
+      <c r="G488">
+        <v>52.23</v>
+      </c>
+      <c r="H488">
+        <v>-19.62</v>
+      </c>
+      <c r="I488">
+        <v>-0.01</v>
+      </c>
+      <c r="J488">
+        <v>60.53</v>
+      </c>
+      <c r="K488">
+        <v>16.43</v>
+      </c>
+      <c r="L488" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>498</v>
+      </c>
+      <c r="C489">
+        <v>13.59</v>
+      </c>
+      <c r="D489">
+        <v>49.78</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>-12.04</v>
+      </c>
+      <c r="G489">
+        <v>40.89</v>
+      </c>
+      <c r="H489">
+        <v>-20.5</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>60.01</v>
+      </c>
+      <c r="K489">
+        <v>18.05</v>
+      </c>
+      <c r="L489" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>499</v>
+      </c>
+      <c r="C490">
+        <v>13.59</v>
+      </c>
+      <c r="D490">
+        <v>48.51</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>-10.84</v>
+      </c>
+      <c r="G490">
+        <v>61.78</v>
+      </c>
+      <c r="H490">
+        <v>-19.69</v>
+      </c>
+      <c r="I490">
+        <v>-0.01</v>
+      </c>
+      <c r="J490">
+        <v>63.95</v>
+      </c>
+      <c r="K490">
+        <v>16.34</v>
+      </c>
+      <c r="L490" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>500</v>
+      </c>
+      <c r="C491">
+        <v>13.59</v>
+      </c>
+      <c r="D491">
+        <v>50.34</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>-11.37</v>
+      </c>
+      <c r="G491">
+        <v>54.82</v>
+      </c>
+      <c r="H491">
+        <v>-19.75</v>
+      </c>
+      <c r="I491">
+        <v>0.02</v>
+      </c>
+      <c r="J491">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="K491">
+        <v>13.25</v>
+      </c>
+      <c r="L491" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>501</v>
+      </c>
+      <c r="C492">
+        <v>13.58</v>
+      </c>
+      <c r="D492">
+        <v>50.31</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+      <c r="F492">
+        <v>-11.76</v>
+      </c>
+      <c r="G492">
+        <v>63.78</v>
+      </c>
+      <c r="H492">
+        <v>-20.11</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>62.18</v>
+      </c>
+      <c r="K492">
+        <v>12.82</v>
+      </c>
+      <c r="L492" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
